--- a/howell7.xlsx
+++ b/howell7.xlsx
@@ -520,7 +520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Sep 04, 2025.</t>
+          <t>For public domain. No rights reserved. Generated on Sep 10, 2025.</t>
         </is>
       </c>
     </row>
@@ -695,12 +695,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PH28</t>
+          <t>PH23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH24</t>
+          <t>PH51</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -714,12 +714,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PH92</t>
+          <t>PH25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PH82</t>
+          <t>PH49</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH27</t>
+          <t>PH59</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PH81</t>
+          <t>PH73</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -752,12 +752,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH57</t>
+          <t>PH24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PH97</t>
+          <t>PH31</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -771,12 +771,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PH13</t>
+          <t>PH89</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PH76</t>
+          <t>PH65</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -790,12 +790,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PH99</t>
+          <t>PH77</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PH95</t>
+          <t>PH35</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -809,12 +809,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PH67</t>
+          <t>PH31</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PH71</t>
+          <t>PH56</t>
         </is>
       </c>
       <c r="D8" s="4">

--- a/howell7.xlsx
+++ b/howell7.xlsx
@@ -11,11 +11,9 @@
     <sheet name="Roster" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="By Board" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="By Round" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="By Table" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="By Pair" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Traveler Template" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="IMP Table" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Scoring Table" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Traveler Template" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="IMP Table" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Scoring Table" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -68,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -79,6 +77,16 @@
     <border>
       <top style="thin">
         <color rgb="00FF0000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="00F80000"/>
       </top>
     </border>
     <border>
@@ -111,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -121,24 +129,32 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -520,7 +536,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Sep 10, 2025.</t>
+          <t>For public domain. No rights reserved. Generated on Jan 14, 2026.</t>
         </is>
       </c>
     </row>
@@ -695,12 +711,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PH23</t>
+          <t>PH78</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH51</t>
+          <t>PH44</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -714,12 +730,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PH25</t>
+          <t>PH60</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PH49</t>
+          <t>PH57</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -733,12 +749,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH59</t>
+          <t>PH93</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PH73</t>
+          <t>PH65</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -752,12 +768,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH24</t>
+          <t>PH99</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PH31</t>
+          <t>PH96</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -771,12 +787,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PH89</t>
+          <t>PH95</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PH65</t>
+          <t>PH33</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -790,12 +806,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PH77</t>
+          <t>PH56</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PH35</t>
+          <t>PH80</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -809,12 +825,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PH31</t>
+          <t>PH95</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PH56</t>
+          <t>PH99</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -984,6 +1000,26 @@
           <t>None</t>
         </is>
       </c>
+      <c r="G3">
+        <f>'By Round'!G2</f>
+        <v/>
+      </c>
+      <c r="H3">
+        <f>'By Round'!H2</f>
+        <v/>
+      </c>
+      <c r="I3">
+        <f>'By Round'!I2</f>
+        <v/>
+      </c>
+      <c r="J3">
+        <f>'By Round'!J2</f>
+        <v/>
+      </c>
+      <c r="K3">
+        <f>'By Round'!K2</f>
+        <v/>
+      </c>
       <c r="L3" s="11">
         <f>IFERROR(AVERAGE(P3:R3),"")</f>
         <v/>
@@ -1027,25 +1063,45 @@
     </row>
     <row r="4">
       <c r="B4">
-        <f>'By Round'!A14</f>
+        <f>'By Round'!A26</f>
         <v/>
       </c>
       <c r="C4">
-        <f>'By Round'!B17</f>
+        <f>'By Round'!B32</f>
         <v/>
       </c>
       <c r="D4">
-        <f>'By Round'!C17</f>
+        <f>'By Round'!C32</f>
         <v/>
       </c>
       <c r="E4">
-        <f>'By Round'!D17</f>
+        <f>'By Round'!D32</f>
         <v/>
       </c>
       <c r="F4" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G4">
+        <f>'By Round'!G32</f>
+        <v/>
+      </c>
+      <c r="H4">
+        <f>'By Round'!H32</f>
+        <v/>
+      </c>
+      <c r="I4">
+        <f>'By Round'!I32</f>
+        <v/>
+      </c>
+      <c r="J4">
+        <f>'By Round'!J32</f>
+        <v/>
+      </c>
+      <c r="K4">
+        <f>'By Round'!K32</f>
+        <v/>
       </c>
       <c r="L4" s="11">
         <f>IFERROR(AVERAGE(P4:R4),"")</f>
@@ -1090,25 +1146,45 @@
     </row>
     <row r="5">
       <c r="B5">
-        <f>'By Round'!A22</f>
+        <f>'By Round'!A42</f>
         <v/>
       </c>
       <c r="C5">
-        <f>'By Round'!B24</f>
+        <f>'By Round'!B46</f>
         <v/>
       </c>
       <c r="D5">
-        <f>'By Round'!C24</f>
+        <f>'By Round'!C46</f>
         <v/>
       </c>
       <c r="E5">
-        <f>'By Round'!D24</f>
+        <f>'By Round'!D46</f>
         <v/>
       </c>
       <c r="F5" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G5">
+        <f>'By Round'!G46</f>
+        <v/>
+      </c>
+      <c r="H5">
+        <f>'By Round'!H46</f>
+        <v/>
+      </c>
+      <c r="I5">
+        <f>'By Round'!I46</f>
+        <v/>
+      </c>
+      <c r="J5">
+        <f>'By Round'!J46</f>
+        <v/>
+      </c>
+      <c r="K5">
+        <f>'By Round'!K46</f>
+        <v/>
       </c>
       <c r="L5" s="11">
         <f>IFERROR(AVERAGE(P5:R5),"")</f>
@@ -1153,25 +1229,45 @@
     </row>
     <row r="6">
       <c r="B6">
-        <f>'By Round'!A26</f>
+        <f>'By Round'!A50</f>
         <v/>
       </c>
       <c r="C6">
-        <f>'By Round'!B27</f>
+        <f>'By Round'!B52</f>
         <v/>
       </c>
       <c r="D6">
-        <f>'By Round'!C27</f>
+        <f>'By Round'!C52</f>
         <v/>
       </c>
       <c r="E6">
-        <f>'By Round'!D27</f>
+        <f>'By Round'!D52</f>
         <v/>
       </c>
       <c r="F6" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G6">
+        <f>'By Round'!G52</f>
+        <v/>
+      </c>
+      <c r="H6">
+        <f>'By Round'!H52</f>
+        <v/>
+      </c>
+      <c r="I6">
+        <f>'By Round'!I52</f>
+        <v/>
+      </c>
+      <c r="J6">
+        <f>'By Round'!J52</f>
+        <v/>
+      </c>
+      <c r="K6">
+        <f>'By Round'!K52</f>
+        <v/>
       </c>
       <c r="L6" s="11">
         <f>IFERROR(AVERAGE(P6:R6),"")</f>
@@ -1239,6 +1335,26 @@
           <t>NS</t>
         </is>
       </c>
+      <c r="G7">
+        <f>'By Round'!G3</f>
+        <v/>
+      </c>
+      <c r="H7">
+        <f>'By Round'!H3</f>
+        <v/>
+      </c>
+      <c r="I7">
+        <f>'By Round'!I3</f>
+        <v/>
+      </c>
+      <c r="J7">
+        <f>'By Round'!J3</f>
+        <v/>
+      </c>
+      <c r="K7">
+        <f>'By Round'!K3</f>
+        <v/>
+      </c>
       <c r="L7" s="11">
         <f>IFERROR(AVERAGE(P7:R7),"")</f>
         <v/>
@@ -1282,25 +1398,45 @@
     </row>
     <row r="8">
       <c r="B8">
-        <f>'By Round'!A14</f>
+        <f>'By Round'!A26</f>
         <v/>
       </c>
       <c r="C8">
-        <f>'By Round'!B17</f>
+        <f>'By Round'!B32</f>
         <v/>
       </c>
       <c r="D8">
-        <f>'By Round'!C17</f>
+        <f>'By Round'!C32</f>
         <v/>
       </c>
       <c r="E8">
-        <f>'By Round'!D17</f>
+        <f>'By Round'!D32</f>
         <v/>
       </c>
       <c r="F8" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G8">
+        <f>'By Round'!G33</f>
+        <v/>
+      </c>
+      <c r="H8">
+        <f>'By Round'!H33</f>
+        <v/>
+      </c>
+      <c r="I8">
+        <f>'By Round'!I33</f>
+        <v/>
+      </c>
+      <c r="J8">
+        <f>'By Round'!J33</f>
+        <v/>
+      </c>
+      <c r="K8">
+        <f>'By Round'!K33</f>
+        <v/>
       </c>
       <c r="L8" s="11">
         <f>IFERROR(AVERAGE(P8:R8),"")</f>
@@ -1345,25 +1481,45 @@
     </row>
     <row r="9">
       <c r="B9">
-        <f>'By Round'!A22</f>
+        <f>'By Round'!A42</f>
         <v/>
       </c>
       <c r="C9">
-        <f>'By Round'!B24</f>
+        <f>'By Round'!B46</f>
         <v/>
       </c>
       <c r="D9">
-        <f>'By Round'!C24</f>
+        <f>'By Round'!C46</f>
         <v/>
       </c>
       <c r="E9">
-        <f>'By Round'!D24</f>
+        <f>'By Round'!D46</f>
         <v/>
       </c>
       <c r="F9" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G9">
+        <f>'By Round'!G47</f>
+        <v/>
+      </c>
+      <c r="H9">
+        <f>'By Round'!H47</f>
+        <v/>
+      </c>
+      <c r="I9">
+        <f>'By Round'!I47</f>
+        <v/>
+      </c>
+      <c r="J9">
+        <f>'By Round'!J47</f>
+        <v/>
+      </c>
+      <c r="K9">
+        <f>'By Round'!K47</f>
+        <v/>
       </c>
       <c r="L9" s="11">
         <f>IFERROR(AVERAGE(P9:R9),"")</f>
@@ -1408,25 +1564,45 @@
     </row>
     <row r="10">
       <c r="B10">
-        <f>'By Round'!A26</f>
+        <f>'By Round'!A50</f>
         <v/>
       </c>
       <c r="C10">
-        <f>'By Round'!B27</f>
+        <f>'By Round'!B52</f>
         <v/>
       </c>
       <c r="D10">
-        <f>'By Round'!C27</f>
+        <f>'By Round'!C52</f>
         <v/>
       </c>
       <c r="E10">
-        <f>'By Round'!D27</f>
+        <f>'By Round'!D52</f>
         <v/>
       </c>
       <c r="F10" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G10">
+        <f>'By Round'!G53</f>
+        <v/>
+      </c>
+      <c r="H10">
+        <f>'By Round'!H53</f>
+        <v/>
+      </c>
+      <c r="I10">
+        <f>'By Round'!I53</f>
+        <v/>
+      </c>
+      <c r="J10">
+        <f>'By Round'!J53</f>
+        <v/>
+      </c>
+      <c r="K10">
+        <f>'By Round'!K53</f>
+        <v/>
       </c>
       <c r="L10" s="11">
         <f>IFERROR(AVERAGE(P10:R10),"")</f>
@@ -1478,21 +1654,41 @@
         <v/>
       </c>
       <c r="C11">
-        <f>'By Round'!B3</f>
+        <f>'By Round'!B4</f>
         <v/>
       </c>
       <c r="D11">
-        <f>'By Round'!C3</f>
+        <f>'By Round'!C4</f>
         <v/>
       </c>
       <c r="E11">
-        <f>'By Round'!D3</f>
+        <f>'By Round'!D4</f>
         <v/>
       </c>
       <c r="F11" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G11">
+        <f>'By Round'!G4</f>
+        <v/>
+      </c>
+      <c r="H11">
+        <f>'By Round'!H4</f>
+        <v/>
+      </c>
+      <c r="I11">
+        <f>'By Round'!I4</f>
+        <v/>
+      </c>
+      <c r="J11">
+        <f>'By Round'!J4</f>
+        <v/>
+      </c>
+      <c r="K11">
+        <f>'By Round'!K4</f>
+        <v/>
       </c>
       <c r="L11" s="11">
         <f>IFERROR(AVERAGE(P11:R11),"")</f>
@@ -1537,25 +1733,45 @@
     </row>
     <row r="12">
       <c r="B12">
-        <f>'By Round'!A6</f>
+        <f>'By Round'!A10</f>
         <v/>
       </c>
       <c r="C12">
-        <f>'By Round'!B6</f>
+        <f>'By Round'!B10</f>
         <v/>
       </c>
       <c r="D12">
-        <f>'By Round'!C6</f>
+        <f>'By Round'!C10</f>
         <v/>
       </c>
       <c r="E12">
-        <f>'By Round'!D6</f>
+        <f>'By Round'!D10</f>
         <v/>
       </c>
       <c r="F12" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G12">
+        <f>'By Round'!G10</f>
+        <v/>
+      </c>
+      <c r="H12">
+        <f>'By Round'!H10</f>
+        <v/>
+      </c>
+      <c r="I12">
+        <f>'By Round'!I10</f>
+        <v/>
+      </c>
+      <c r="J12">
+        <f>'By Round'!J10</f>
+        <v/>
+      </c>
+      <c r="K12">
+        <f>'By Round'!K10</f>
+        <v/>
       </c>
       <c r="L12" s="11">
         <f>IFERROR(AVERAGE(P12:R12),"")</f>
@@ -1600,25 +1816,45 @@
     </row>
     <row r="13">
       <c r="B13">
-        <f>'By Round'!A18</f>
+        <f>'By Round'!A34</f>
         <v/>
       </c>
       <c r="C13">
-        <f>'By Round'!B21</f>
+        <f>'By Round'!B40</f>
         <v/>
       </c>
       <c r="D13">
-        <f>'By Round'!C21</f>
+        <f>'By Round'!C40</f>
         <v/>
       </c>
       <c r="E13">
-        <f>'By Round'!D21</f>
+        <f>'By Round'!D40</f>
         <v/>
       </c>
       <c r="F13" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G13">
+        <f>'By Round'!G40</f>
+        <v/>
+      </c>
+      <c r="H13">
+        <f>'By Round'!H40</f>
+        <v/>
+      </c>
+      <c r="I13">
+        <f>'By Round'!I40</f>
+        <v/>
+      </c>
+      <c r="J13">
+        <f>'By Round'!J40</f>
+        <v/>
+      </c>
+      <c r="K13">
+        <f>'By Round'!K40</f>
+        <v/>
       </c>
       <c r="L13" s="11">
         <f>IFERROR(AVERAGE(P13:R13),"")</f>
@@ -1663,25 +1899,45 @@
     </row>
     <row r="14">
       <c r="B14">
-        <f>'By Round'!A26</f>
+        <f>'By Round'!A50</f>
         <v/>
       </c>
       <c r="C14">
-        <f>'By Round'!B28</f>
+        <f>'By Round'!B54</f>
         <v/>
       </c>
       <c r="D14">
-        <f>'By Round'!C28</f>
+        <f>'By Round'!C54</f>
         <v/>
       </c>
       <c r="E14">
-        <f>'By Round'!D28</f>
+        <f>'By Round'!D54</f>
         <v/>
       </c>
       <c r="F14" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G14">
+        <f>'By Round'!G54</f>
+        <v/>
+      </c>
+      <c r="H14">
+        <f>'By Round'!H54</f>
+        <v/>
+      </c>
+      <c r="I14">
+        <f>'By Round'!I54</f>
+        <v/>
+      </c>
+      <c r="J14">
+        <f>'By Round'!J54</f>
+        <v/>
+      </c>
+      <c r="K14">
+        <f>'By Round'!K54</f>
+        <v/>
       </c>
       <c r="L14" s="11">
         <f>IFERROR(AVERAGE(P14:R14),"")</f>
@@ -1733,21 +1989,41 @@
         <v/>
       </c>
       <c r="C15">
-        <f>'By Round'!B3</f>
+        <f>'By Round'!B4</f>
         <v/>
       </c>
       <c r="D15">
-        <f>'By Round'!C3</f>
+        <f>'By Round'!C4</f>
         <v/>
       </c>
       <c r="E15">
-        <f>'By Round'!D3</f>
+        <f>'By Round'!D4</f>
         <v/>
       </c>
       <c r="F15" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G15">
+        <f>'By Round'!G5</f>
+        <v/>
+      </c>
+      <c r="H15">
+        <f>'By Round'!H5</f>
+        <v/>
+      </c>
+      <c r="I15">
+        <f>'By Round'!I5</f>
+        <v/>
+      </c>
+      <c r="J15">
+        <f>'By Round'!J5</f>
+        <v/>
+      </c>
+      <c r="K15">
+        <f>'By Round'!K5</f>
+        <v/>
       </c>
       <c r="L15" s="11">
         <f>IFERROR(AVERAGE(P15:R15),"")</f>
@@ -1792,25 +2068,45 @@
     </row>
     <row r="16">
       <c r="B16">
-        <f>'By Round'!A6</f>
+        <f>'By Round'!A10</f>
         <v/>
       </c>
       <c r="C16">
-        <f>'By Round'!B6</f>
+        <f>'By Round'!B10</f>
         <v/>
       </c>
       <c r="D16">
-        <f>'By Round'!C6</f>
+        <f>'By Round'!C10</f>
         <v/>
       </c>
       <c r="E16">
-        <f>'By Round'!D6</f>
+        <f>'By Round'!D10</f>
         <v/>
       </c>
       <c r="F16" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G16">
+        <f>'By Round'!G11</f>
+        <v/>
+      </c>
+      <c r="H16">
+        <f>'By Round'!H11</f>
+        <v/>
+      </c>
+      <c r="I16">
+        <f>'By Round'!I11</f>
+        <v/>
+      </c>
+      <c r="J16">
+        <f>'By Round'!J11</f>
+        <v/>
+      </c>
+      <c r="K16">
+        <f>'By Round'!K11</f>
+        <v/>
       </c>
       <c r="L16" s="11">
         <f>IFERROR(AVERAGE(P16:R16),"")</f>
@@ -1855,25 +2151,45 @@
     </row>
     <row r="17">
       <c r="B17">
-        <f>'By Round'!A18</f>
+        <f>'By Round'!A34</f>
         <v/>
       </c>
       <c r="C17">
-        <f>'By Round'!B21</f>
+        <f>'By Round'!B40</f>
         <v/>
       </c>
       <c r="D17">
-        <f>'By Round'!C21</f>
+        <f>'By Round'!C40</f>
         <v/>
       </c>
       <c r="E17">
-        <f>'By Round'!D21</f>
+        <f>'By Round'!D40</f>
         <v/>
       </c>
       <c r="F17" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G17">
+        <f>'By Round'!G41</f>
+        <v/>
+      </c>
+      <c r="H17">
+        <f>'By Round'!H41</f>
+        <v/>
+      </c>
+      <c r="I17">
+        <f>'By Round'!I41</f>
+        <v/>
+      </c>
+      <c r="J17">
+        <f>'By Round'!J41</f>
+        <v/>
+      </c>
+      <c r="K17">
+        <f>'By Round'!K41</f>
+        <v/>
       </c>
       <c r="L17" s="11">
         <f>IFERROR(AVERAGE(P17:R17),"")</f>
@@ -1918,25 +2234,45 @@
     </row>
     <row r="18">
       <c r="B18">
-        <f>'By Round'!A26</f>
+        <f>'By Round'!A50</f>
         <v/>
       </c>
       <c r="C18">
-        <f>'By Round'!B28</f>
+        <f>'By Round'!B54</f>
         <v/>
       </c>
       <c r="D18">
-        <f>'By Round'!C28</f>
+        <f>'By Round'!C54</f>
         <v/>
       </c>
       <c r="E18">
-        <f>'By Round'!D28</f>
+        <f>'By Round'!D54</f>
         <v/>
       </c>
       <c r="F18" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G18">
+        <f>'By Round'!G55</f>
+        <v/>
+      </c>
+      <c r="H18">
+        <f>'By Round'!H55</f>
+        <v/>
+      </c>
+      <c r="I18">
+        <f>'By Round'!I55</f>
+        <v/>
+      </c>
+      <c r="J18">
+        <f>'By Round'!J55</f>
+        <v/>
+      </c>
+      <c r="K18">
+        <f>'By Round'!K55</f>
+        <v/>
       </c>
       <c r="L18" s="11">
         <f>IFERROR(AVERAGE(P18:R18),"")</f>
@@ -1988,21 +2324,41 @@
         <v/>
       </c>
       <c r="C19">
-        <f>'By Round'!B4</f>
+        <f>'By Round'!B6</f>
         <v/>
       </c>
       <c r="D19">
-        <f>'By Round'!C4</f>
+        <f>'By Round'!C6</f>
         <v/>
       </c>
       <c r="E19">
-        <f>'By Round'!D4</f>
+        <f>'By Round'!D6</f>
         <v/>
       </c>
       <c r="F19" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G19">
+        <f>'By Round'!G6</f>
+        <v/>
+      </c>
+      <c r="H19">
+        <f>'By Round'!H6</f>
+        <v/>
+      </c>
+      <c r="I19">
+        <f>'By Round'!I6</f>
+        <v/>
+      </c>
+      <c r="J19">
+        <f>'By Round'!J6</f>
+        <v/>
+      </c>
+      <c r="K19">
+        <f>'By Round'!K6</f>
+        <v/>
       </c>
       <c r="L19" s="11">
         <f>IFERROR(AVERAGE(P19:R19),"")</f>
@@ -2047,25 +2403,45 @@
     </row>
     <row r="20">
       <c r="B20">
-        <f>'By Round'!A6</f>
+        <f>'By Round'!A10</f>
         <v/>
       </c>
       <c r="C20">
-        <f>'By Round'!B7</f>
+        <f>'By Round'!B12</f>
         <v/>
       </c>
       <c r="D20">
-        <f>'By Round'!C7</f>
+        <f>'By Round'!C12</f>
         <v/>
       </c>
       <c r="E20">
-        <f>'By Round'!D7</f>
+        <f>'By Round'!D12</f>
         <v/>
       </c>
       <c r="F20" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G20">
+        <f>'By Round'!G12</f>
+        <v/>
+      </c>
+      <c r="H20">
+        <f>'By Round'!H12</f>
+        <v/>
+      </c>
+      <c r="I20">
+        <f>'By Round'!I12</f>
+        <v/>
+      </c>
+      <c r="J20">
+        <f>'By Round'!J12</f>
+        <v/>
+      </c>
+      <c r="K20">
+        <f>'By Round'!K12</f>
+        <v/>
       </c>
       <c r="L20" s="11">
         <f>IFERROR(AVERAGE(P20:R20),"")</f>
@@ -2110,25 +2486,45 @@
     </row>
     <row r="21">
       <c r="B21">
-        <f>'By Round'!A10</f>
+        <f>'By Round'!A18</f>
         <v/>
       </c>
       <c r="C21">
-        <f>'By Round'!B10</f>
+        <f>'By Round'!B18</f>
         <v/>
       </c>
       <c r="D21">
-        <f>'By Round'!C10</f>
+        <f>'By Round'!C18</f>
         <v/>
       </c>
       <c r="E21">
-        <f>'By Round'!D10</f>
+        <f>'By Round'!D18</f>
         <v/>
       </c>
       <c r="F21" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G21">
+        <f>'By Round'!G18</f>
+        <v/>
+      </c>
+      <c r="H21">
+        <f>'By Round'!H18</f>
+        <v/>
+      </c>
+      <c r="I21">
+        <f>'By Round'!I18</f>
+        <v/>
+      </c>
+      <c r="J21">
+        <f>'By Round'!J18</f>
+        <v/>
+      </c>
+      <c r="K21">
+        <f>'By Round'!K18</f>
+        <v/>
       </c>
       <c r="L21" s="11">
         <f>IFERROR(AVERAGE(P21:R21),"")</f>
@@ -2173,25 +2569,45 @@
     </row>
     <row r="22">
       <c r="B22">
-        <f>'By Round'!A22</f>
+        <f>'By Round'!A42</f>
         <v/>
       </c>
       <c r="C22">
-        <f>'By Round'!B25</f>
+        <f>'By Round'!B48</f>
         <v/>
       </c>
       <c r="D22">
-        <f>'By Round'!C25</f>
+        <f>'By Round'!C48</f>
         <v/>
       </c>
       <c r="E22">
-        <f>'By Round'!D25</f>
+        <f>'By Round'!D48</f>
         <v/>
       </c>
       <c r="F22" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G22">
+        <f>'By Round'!G48</f>
+        <v/>
+      </c>
+      <c r="H22">
+        <f>'By Round'!H48</f>
+        <v/>
+      </c>
+      <c r="I22">
+        <f>'By Round'!I48</f>
+        <v/>
+      </c>
+      <c r="J22">
+        <f>'By Round'!J48</f>
+        <v/>
+      </c>
+      <c r="K22">
+        <f>'By Round'!K48</f>
+        <v/>
       </c>
       <c r="L22" s="11">
         <f>IFERROR(AVERAGE(P22:R22),"")</f>
@@ -2243,21 +2659,41 @@
         <v/>
       </c>
       <c r="C23">
-        <f>'By Round'!B4</f>
+        <f>'By Round'!B6</f>
         <v/>
       </c>
       <c r="D23">
-        <f>'By Round'!C4</f>
+        <f>'By Round'!C6</f>
         <v/>
       </c>
       <c r="E23">
-        <f>'By Round'!D4</f>
+        <f>'By Round'!D6</f>
         <v/>
       </c>
       <c r="F23" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G23">
+        <f>'By Round'!G7</f>
+        <v/>
+      </c>
+      <c r="H23">
+        <f>'By Round'!H7</f>
+        <v/>
+      </c>
+      <c r="I23">
+        <f>'By Round'!I7</f>
+        <v/>
+      </c>
+      <c r="J23">
+        <f>'By Round'!J7</f>
+        <v/>
+      </c>
+      <c r="K23">
+        <f>'By Round'!K7</f>
+        <v/>
       </c>
       <c r="L23" s="11">
         <f>IFERROR(AVERAGE(P23:R23),"")</f>
@@ -2302,25 +2738,45 @@
     </row>
     <row r="24">
       <c r="B24">
-        <f>'By Round'!A6</f>
+        <f>'By Round'!A10</f>
         <v/>
       </c>
       <c r="C24">
-        <f>'By Round'!B7</f>
+        <f>'By Round'!B12</f>
         <v/>
       </c>
       <c r="D24">
-        <f>'By Round'!C7</f>
+        <f>'By Round'!C12</f>
         <v/>
       </c>
       <c r="E24">
-        <f>'By Round'!D7</f>
+        <f>'By Round'!D12</f>
         <v/>
       </c>
       <c r="F24" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G24">
+        <f>'By Round'!G13</f>
+        <v/>
+      </c>
+      <c r="H24">
+        <f>'By Round'!H13</f>
+        <v/>
+      </c>
+      <c r="I24">
+        <f>'By Round'!I13</f>
+        <v/>
+      </c>
+      <c r="J24">
+        <f>'By Round'!J13</f>
+        <v/>
+      </c>
+      <c r="K24">
+        <f>'By Round'!K13</f>
+        <v/>
       </c>
       <c r="L24" s="11">
         <f>IFERROR(AVERAGE(P24:R24),"")</f>
@@ -2365,25 +2821,45 @@
     </row>
     <row r="25">
       <c r="B25">
-        <f>'By Round'!A10</f>
+        <f>'By Round'!A18</f>
         <v/>
       </c>
       <c r="C25">
-        <f>'By Round'!B10</f>
+        <f>'By Round'!B18</f>
         <v/>
       </c>
       <c r="D25">
-        <f>'By Round'!C10</f>
+        <f>'By Round'!C18</f>
         <v/>
       </c>
       <c r="E25">
-        <f>'By Round'!D10</f>
+        <f>'By Round'!D18</f>
         <v/>
       </c>
       <c r="F25" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G25">
+        <f>'By Round'!G19</f>
+        <v/>
+      </c>
+      <c r="H25">
+        <f>'By Round'!H19</f>
+        <v/>
+      </c>
+      <c r="I25">
+        <f>'By Round'!I19</f>
+        <v/>
+      </c>
+      <c r="J25">
+        <f>'By Round'!J19</f>
+        <v/>
+      </c>
+      <c r="K25">
+        <f>'By Round'!K19</f>
+        <v/>
       </c>
       <c r="L25" s="11">
         <f>IFERROR(AVERAGE(P25:R25),"")</f>
@@ -2428,25 +2904,45 @@
     </row>
     <row r="26">
       <c r="B26">
-        <f>'By Round'!A22</f>
+        <f>'By Round'!A42</f>
         <v/>
       </c>
       <c r="C26">
-        <f>'By Round'!B25</f>
+        <f>'By Round'!B48</f>
         <v/>
       </c>
       <c r="D26">
-        <f>'By Round'!C25</f>
+        <f>'By Round'!C48</f>
         <v/>
       </c>
       <c r="E26">
-        <f>'By Round'!D25</f>
+        <f>'By Round'!D48</f>
         <v/>
       </c>
       <c r="F26" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G26">
+        <f>'By Round'!G49</f>
+        <v/>
+      </c>
+      <c r="H26">
+        <f>'By Round'!H49</f>
+        <v/>
+      </c>
+      <c r="I26">
+        <f>'By Round'!I49</f>
+        <v/>
+      </c>
+      <c r="J26">
+        <f>'By Round'!J49</f>
+        <v/>
+      </c>
+      <c r="K26">
+        <f>'By Round'!K49</f>
+        <v/>
       </c>
       <c r="L26" s="11">
         <f>IFERROR(AVERAGE(P26:R26),"")</f>
@@ -2494,25 +2990,45 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <f>'By Round'!A6</f>
+        <f>'By Round'!A10</f>
         <v/>
       </c>
       <c r="C27">
-        <f>'By Round'!B8</f>
+        <f>'By Round'!B14</f>
         <v/>
       </c>
       <c r="D27">
-        <f>'By Round'!C8</f>
+        <f>'By Round'!C14</f>
         <v/>
       </c>
       <c r="E27">
-        <f>'By Round'!D8</f>
+        <f>'By Round'!D14</f>
         <v/>
       </c>
       <c r="F27" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G27">
+        <f>'By Round'!G14</f>
+        <v/>
+      </c>
+      <c r="H27">
+        <f>'By Round'!H14</f>
+        <v/>
+      </c>
+      <c r="I27">
+        <f>'By Round'!I14</f>
+        <v/>
+      </c>
+      <c r="J27">
+        <f>'By Round'!J14</f>
+        <v/>
+      </c>
+      <c r="K27">
+        <f>'By Round'!K14</f>
+        <v/>
       </c>
       <c r="L27" s="11">
         <f>IFERROR(AVERAGE(P27:R27),"")</f>
@@ -2557,25 +3073,45 @@
     </row>
     <row r="28">
       <c r="B28">
-        <f>'By Round'!A10</f>
+        <f>'By Round'!A18</f>
         <v/>
       </c>
       <c r="C28">
-        <f>'By Round'!B11</f>
+        <f>'By Round'!B20</f>
         <v/>
       </c>
       <c r="D28">
-        <f>'By Round'!C11</f>
+        <f>'By Round'!C20</f>
         <v/>
       </c>
       <c r="E28">
-        <f>'By Round'!D11</f>
+        <f>'By Round'!D20</f>
         <v/>
       </c>
       <c r="F28" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G28">
+        <f>'By Round'!G20</f>
+        <v/>
+      </c>
+      <c r="H28">
+        <f>'By Round'!H20</f>
+        <v/>
+      </c>
+      <c r="I28">
+        <f>'By Round'!I20</f>
+        <v/>
+      </c>
+      <c r="J28">
+        <f>'By Round'!J20</f>
+        <v/>
+      </c>
+      <c r="K28">
+        <f>'By Round'!K20</f>
+        <v/>
       </c>
       <c r="L28" s="11">
         <f>IFERROR(AVERAGE(P28:R28),"")</f>
@@ -2620,25 +3156,45 @@
     </row>
     <row r="29">
       <c r="B29">
-        <f>'By Round'!A14</f>
+        <f>'By Round'!A26</f>
         <v/>
       </c>
       <c r="C29">
-        <f>'By Round'!B14</f>
+        <f>'By Round'!B26</f>
         <v/>
       </c>
       <c r="D29">
-        <f>'By Round'!C14</f>
+        <f>'By Round'!C26</f>
         <v/>
       </c>
       <c r="E29">
-        <f>'By Round'!D14</f>
+        <f>'By Round'!D26</f>
         <v/>
       </c>
       <c r="F29" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G29">
+        <f>'By Round'!G26</f>
+        <v/>
+      </c>
+      <c r="H29">
+        <f>'By Round'!H26</f>
+        <v/>
+      </c>
+      <c r="I29">
+        <f>'By Round'!I26</f>
+        <v/>
+      </c>
+      <c r="J29">
+        <f>'By Round'!J26</f>
+        <v/>
+      </c>
+      <c r="K29">
+        <f>'By Round'!K26</f>
+        <v/>
       </c>
       <c r="L29" s="11">
         <f>IFERROR(AVERAGE(P29:R29),"")</f>
@@ -2683,25 +3239,45 @@
     </row>
     <row r="30">
       <c r="B30">
-        <f>'By Round'!A26</f>
+        <f>'By Round'!A50</f>
         <v/>
       </c>
       <c r="C30">
-        <f>'By Round'!B29</f>
+        <f>'By Round'!B56</f>
         <v/>
       </c>
       <c r="D30">
-        <f>'By Round'!C29</f>
+        <f>'By Round'!C56</f>
         <v/>
       </c>
       <c r="E30">
-        <f>'By Round'!D29</f>
+        <f>'By Round'!D56</f>
         <v/>
       </c>
       <c r="F30" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G30">
+        <f>'By Round'!G56</f>
+        <v/>
+      </c>
+      <c r="H30">
+        <f>'By Round'!H56</f>
+        <v/>
+      </c>
+      <c r="I30">
+        <f>'By Round'!I56</f>
+        <v/>
+      </c>
+      <c r="J30">
+        <f>'By Round'!J56</f>
+        <v/>
+      </c>
+      <c r="K30">
+        <f>'By Round'!K56</f>
+        <v/>
       </c>
       <c r="L30" s="11">
         <f>IFERROR(AVERAGE(P30:R30),"")</f>
@@ -2749,25 +3325,45 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <f>'By Round'!A6</f>
+        <f>'By Round'!A10</f>
         <v/>
       </c>
       <c r="C31">
-        <f>'By Round'!B8</f>
+        <f>'By Round'!B14</f>
         <v/>
       </c>
       <c r="D31">
-        <f>'By Round'!C8</f>
+        <f>'By Round'!C14</f>
         <v/>
       </c>
       <c r="E31">
-        <f>'By Round'!D8</f>
+        <f>'By Round'!D14</f>
         <v/>
       </c>
       <c r="F31" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G31">
+        <f>'By Round'!G15</f>
+        <v/>
+      </c>
+      <c r="H31">
+        <f>'By Round'!H15</f>
+        <v/>
+      </c>
+      <c r="I31">
+        <f>'By Round'!I15</f>
+        <v/>
+      </c>
+      <c r="J31">
+        <f>'By Round'!J15</f>
+        <v/>
+      </c>
+      <c r="K31">
+        <f>'By Round'!K15</f>
+        <v/>
       </c>
       <c r="L31" s="11">
         <f>IFERROR(AVERAGE(P31:R31),"")</f>
@@ -2812,25 +3408,45 @@
     </row>
     <row r="32">
       <c r="B32">
-        <f>'By Round'!A10</f>
+        <f>'By Round'!A18</f>
         <v/>
       </c>
       <c r="C32">
-        <f>'By Round'!B11</f>
+        <f>'By Round'!B20</f>
         <v/>
       </c>
       <c r="D32">
-        <f>'By Round'!C11</f>
+        <f>'By Round'!C20</f>
         <v/>
       </c>
       <c r="E32">
-        <f>'By Round'!D11</f>
+        <f>'By Round'!D20</f>
         <v/>
       </c>
       <c r="F32" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G32">
+        <f>'By Round'!G21</f>
+        <v/>
+      </c>
+      <c r="H32">
+        <f>'By Round'!H21</f>
+        <v/>
+      </c>
+      <c r="I32">
+        <f>'By Round'!I21</f>
+        <v/>
+      </c>
+      <c r="J32">
+        <f>'By Round'!J21</f>
+        <v/>
+      </c>
+      <c r="K32">
+        <f>'By Round'!K21</f>
+        <v/>
       </c>
       <c r="L32" s="11">
         <f>IFERROR(AVERAGE(P32:R32),"")</f>
@@ -2875,25 +3491,45 @@
     </row>
     <row r="33">
       <c r="B33">
-        <f>'By Round'!A14</f>
+        <f>'By Round'!A26</f>
         <v/>
       </c>
       <c r="C33">
-        <f>'By Round'!B14</f>
+        <f>'By Round'!B26</f>
         <v/>
       </c>
       <c r="D33">
-        <f>'By Round'!C14</f>
+        <f>'By Round'!C26</f>
         <v/>
       </c>
       <c r="E33">
-        <f>'By Round'!D14</f>
+        <f>'By Round'!D26</f>
         <v/>
       </c>
       <c r="F33" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G33">
+        <f>'By Round'!G27</f>
+        <v/>
+      </c>
+      <c r="H33">
+        <f>'By Round'!H27</f>
+        <v/>
+      </c>
+      <c r="I33">
+        <f>'By Round'!I27</f>
+        <v/>
+      </c>
+      <c r="J33">
+        <f>'By Round'!J27</f>
+        <v/>
+      </c>
+      <c r="K33">
+        <f>'By Round'!K27</f>
+        <v/>
       </c>
       <c r="L33" s="11">
         <f>IFERROR(AVERAGE(P33:R33),"")</f>
@@ -2938,25 +3574,45 @@
     </row>
     <row r="34">
       <c r="B34">
-        <f>'By Round'!A26</f>
+        <f>'By Round'!A50</f>
         <v/>
       </c>
       <c r="C34">
-        <f>'By Round'!B29</f>
+        <f>'By Round'!B56</f>
         <v/>
       </c>
       <c r="D34">
-        <f>'By Round'!C29</f>
+        <f>'By Round'!C56</f>
         <v/>
       </c>
       <c r="E34">
-        <f>'By Round'!D29</f>
+        <f>'By Round'!D56</f>
         <v/>
       </c>
       <c r="F34" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G34">
+        <f>'By Round'!G57</f>
+        <v/>
+      </c>
+      <c r="H34">
+        <f>'By Round'!H57</f>
+        <v/>
+      </c>
+      <c r="I34">
+        <f>'By Round'!I57</f>
+        <v/>
+      </c>
+      <c r="J34">
+        <f>'By Round'!J57</f>
+        <v/>
+      </c>
+      <c r="K34">
+        <f>'By Round'!K57</f>
+        <v/>
       </c>
       <c r="L34" s="11">
         <f>IFERROR(AVERAGE(P34:R34),"")</f>
@@ -3008,21 +3664,41 @@
         <v/>
       </c>
       <c r="C35">
-        <f>'By Round'!B5</f>
+        <f>'By Round'!B8</f>
         <v/>
       </c>
       <c r="D35">
-        <f>'By Round'!C5</f>
+        <f>'By Round'!C8</f>
         <v/>
       </c>
       <c r="E35">
-        <f>'By Round'!D5</f>
+        <f>'By Round'!D8</f>
         <v/>
       </c>
       <c r="F35" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G35">
+        <f>'By Round'!G8</f>
+        <v/>
+      </c>
+      <c r="H35">
+        <f>'By Round'!H8</f>
+        <v/>
+      </c>
+      <c r="I35">
+        <f>'By Round'!I8</f>
+        <v/>
+      </c>
+      <c r="J35">
+        <f>'By Round'!J8</f>
+        <v/>
+      </c>
+      <c r="K35">
+        <f>'By Round'!K8</f>
+        <v/>
       </c>
       <c r="L35" s="11">
         <f>IFERROR(AVERAGE(P35:R35),"")</f>
@@ -3067,25 +3743,45 @@
     </row>
     <row r="36">
       <c r="B36">
-        <f>'By Round'!A10</f>
+        <f>'By Round'!A18</f>
         <v/>
       </c>
       <c r="C36">
-        <f>'By Round'!B12</f>
+        <f>'By Round'!B22</f>
         <v/>
       </c>
       <c r="D36">
-        <f>'By Round'!C12</f>
+        <f>'By Round'!C22</f>
         <v/>
       </c>
       <c r="E36">
-        <f>'By Round'!D12</f>
+        <f>'By Round'!D22</f>
         <v/>
       </c>
       <c r="F36" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G36">
+        <f>'By Round'!G22</f>
+        <v/>
+      </c>
+      <c r="H36">
+        <f>'By Round'!H22</f>
+        <v/>
+      </c>
+      <c r="I36">
+        <f>'By Round'!I22</f>
+        <v/>
+      </c>
+      <c r="J36">
+        <f>'By Round'!J22</f>
+        <v/>
+      </c>
+      <c r="K36">
+        <f>'By Round'!K22</f>
+        <v/>
       </c>
       <c r="L36" s="11">
         <f>IFERROR(AVERAGE(P36:R36),"")</f>
@@ -3130,25 +3826,45 @@
     </row>
     <row r="37">
       <c r="B37">
-        <f>'By Round'!A14</f>
+        <f>'By Round'!A26</f>
         <v/>
       </c>
       <c r="C37">
-        <f>'By Round'!B15</f>
+        <f>'By Round'!B28</f>
         <v/>
       </c>
       <c r="D37">
-        <f>'By Round'!C15</f>
+        <f>'By Round'!C28</f>
         <v/>
       </c>
       <c r="E37">
-        <f>'By Round'!D15</f>
+        <f>'By Round'!D28</f>
         <v/>
       </c>
       <c r="F37" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G37">
+        <f>'By Round'!G28</f>
+        <v/>
+      </c>
+      <c r="H37">
+        <f>'By Round'!H28</f>
+        <v/>
+      </c>
+      <c r="I37">
+        <f>'By Round'!I28</f>
+        <v/>
+      </c>
+      <c r="J37">
+        <f>'By Round'!J28</f>
+        <v/>
+      </c>
+      <c r="K37">
+        <f>'By Round'!K28</f>
+        <v/>
       </c>
       <c r="L37" s="11">
         <f>IFERROR(AVERAGE(P37:R37),"")</f>
@@ -3193,25 +3909,45 @@
     </row>
     <row r="38">
       <c r="B38">
-        <f>'By Round'!A18</f>
+        <f>'By Round'!A34</f>
         <v/>
       </c>
       <c r="C38">
-        <f>'By Round'!B18</f>
+        <f>'By Round'!B34</f>
         <v/>
       </c>
       <c r="D38">
-        <f>'By Round'!C18</f>
+        <f>'By Round'!C34</f>
         <v/>
       </c>
       <c r="E38">
-        <f>'By Round'!D18</f>
+        <f>'By Round'!D34</f>
         <v/>
       </c>
       <c r="F38" s="10" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
+      </c>
+      <c r="G38">
+        <f>'By Round'!G34</f>
+        <v/>
+      </c>
+      <c r="H38">
+        <f>'By Round'!H34</f>
+        <v/>
+      </c>
+      <c r="I38">
+        <f>'By Round'!I34</f>
+        <v/>
+      </c>
+      <c r="J38">
+        <f>'By Round'!J34</f>
+        <v/>
+      </c>
+      <c r="K38">
+        <f>'By Round'!K34</f>
+        <v/>
       </c>
       <c r="L38" s="11">
         <f>IFERROR(AVERAGE(P38:R38),"")</f>
@@ -3263,21 +3999,41 @@
         <v/>
       </c>
       <c r="C39">
-        <f>'By Round'!B5</f>
+        <f>'By Round'!B8</f>
         <v/>
       </c>
       <c r="D39">
-        <f>'By Round'!C5</f>
+        <f>'By Round'!C8</f>
         <v/>
       </c>
       <c r="E39">
-        <f>'By Round'!D5</f>
+        <f>'By Round'!D8</f>
         <v/>
       </c>
       <c r="F39" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G39">
+        <f>'By Round'!G9</f>
+        <v/>
+      </c>
+      <c r="H39">
+        <f>'By Round'!H9</f>
+        <v/>
+      </c>
+      <c r="I39">
+        <f>'By Round'!I9</f>
+        <v/>
+      </c>
+      <c r="J39">
+        <f>'By Round'!J9</f>
+        <v/>
+      </c>
+      <c r="K39">
+        <f>'By Round'!K9</f>
+        <v/>
       </c>
       <c r="L39" s="11">
         <f>IFERROR(AVERAGE(P39:R39),"")</f>
@@ -3322,25 +4078,45 @@
     </row>
     <row r="40">
       <c r="B40">
-        <f>'By Round'!A10</f>
+        <f>'By Round'!A18</f>
         <v/>
       </c>
       <c r="C40">
-        <f>'By Round'!B12</f>
+        <f>'By Round'!B22</f>
         <v/>
       </c>
       <c r="D40">
-        <f>'By Round'!C12</f>
+        <f>'By Round'!C22</f>
         <v/>
       </c>
       <c r="E40">
-        <f>'By Round'!D12</f>
+        <f>'By Round'!D22</f>
         <v/>
       </c>
       <c r="F40" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G40">
+        <f>'By Round'!G23</f>
+        <v/>
+      </c>
+      <c r="H40">
+        <f>'By Round'!H23</f>
+        <v/>
+      </c>
+      <c r="I40">
+        <f>'By Round'!I23</f>
+        <v/>
+      </c>
+      <c r="J40">
+        <f>'By Round'!J23</f>
+        <v/>
+      </c>
+      <c r="K40">
+        <f>'By Round'!K23</f>
+        <v/>
       </c>
       <c r="L40" s="11">
         <f>IFERROR(AVERAGE(P40:R40),"")</f>
@@ -3385,25 +4161,45 @@
     </row>
     <row r="41">
       <c r="B41">
-        <f>'By Round'!A14</f>
+        <f>'By Round'!A26</f>
         <v/>
       </c>
       <c r="C41">
-        <f>'By Round'!B15</f>
+        <f>'By Round'!B28</f>
         <v/>
       </c>
       <c r="D41">
-        <f>'By Round'!C15</f>
+        <f>'By Round'!C28</f>
         <v/>
       </c>
       <c r="E41">
-        <f>'By Round'!D15</f>
+        <f>'By Round'!D28</f>
         <v/>
       </c>
       <c r="F41" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G41">
+        <f>'By Round'!G29</f>
+        <v/>
+      </c>
+      <c r="H41">
+        <f>'By Round'!H29</f>
+        <v/>
+      </c>
+      <c r="I41">
+        <f>'By Round'!I29</f>
+        <v/>
+      </c>
+      <c r="J41">
+        <f>'By Round'!J29</f>
+        <v/>
+      </c>
+      <c r="K41">
+        <f>'By Round'!K29</f>
+        <v/>
       </c>
       <c r="L41" s="11">
         <f>IFERROR(AVERAGE(P41:R41),"")</f>
@@ -3448,25 +4244,45 @@
     </row>
     <row r="42">
       <c r="B42">
-        <f>'By Round'!A18</f>
+        <f>'By Round'!A34</f>
         <v/>
       </c>
       <c r="C42">
-        <f>'By Round'!B18</f>
+        <f>'By Round'!B34</f>
         <v/>
       </c>
       <c r="D42">
-        <f>'By Round'!C18</f>
+        <f>'By Round'!C34</f>
         <v/>
       </c>
       <c r="E42">
-        <f>'By Round'!D18</f>
+        <f>'By Round'!D34</f>
         <v/>
       </c>
       <c r="F42" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G42">
+        <f>'By Round'!G35</f>
+        <v/>
+      </c>
+      <c r="H42">
+        <f>'By Round'!H35</f>
+        <v/>
+      </c>
+      <c r="I42">
+        <f>'By Round'!I35</f>
+        <v/>
+      </c>
+      <c r="J42">
+        <f>'By Round'!J35</f>
+        <v/>
+      </c>
+      <c r="K42">
+        <f>'By Round'!K35</f>
+        <v/>
       </c>
       <c r="L42" s="11">
         <f>IFERROR(AVERAGE(P42:R42),"")</f>
@@ -3514,25 +4330,45 @@
         <v>11</v>
       </c>
       <c r="B43">
-        <f>'By Round'!A6</f>
+        <f>'By Round'!A10</f>
         <v/>
       </c>
       <c r="C43">
-        <f>'By Round'!B9</f>
+        <f>'By Round'!B16</f>
         <v/>
       </c>
       <c r="D43">
-        <f>'By Round'!C9</f>
+        <f>'By Round'!C16</f>
         <v/>
       </c>
       <c r="E43">
-        <f>'By Round'!D9</f>
+        <f>'By Round'!D16</f>
         <v/>
       </c>
       <c r="F43" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G43">
+        <f>'By Round'!G16</f>
+        <v/>
+      </c>
+      <c r="H43">
+        <f>'By Round'!H16</f>
+        <v/>
+      </c>
+      <c r="I43">
+        <f>'By Round'!I16</f>
+        <v/>
+      </c>
+      <c r="J43">
+        <f>'By Round'!J16</f>
+        <v/>
+      </c>
+      <c r="K43">
+        <f>'By Round'!K16</f>
+        <v/>
       </c>
       <c r="L43" s="11">
         <f>IFERROR(AVERAGE(P43:R43),"")</f>
@@ -3577,25 +4413,45 @@
     </row>
     <row r="44">
       <c r="B44">
-        <f>'By Round'!A14</f>
+        <f>'By Round'!A26</f>
         <v/>
       </c>
       <c r="C44">
-        <f>'By Round'!B16</f>
+        <f>'By Round'!B30</f>
         <v/>
       </c>
       <c r="D44">
-        <f>'By Round'!C16</f>
+        <f>'By Round'!C30</f>
         <v/>
       </c>
       <c r="E44">
-        <f>'By Round'!D16</f>
+        <f>'By Round'!D30</f>
         <v/>
       </c>
       <c r="F44" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G44">
+        <f>'By Round'!G30</f>
+        <v/>
+      </c>
+      <c r="H44">
+        <f>'By Round'!H30</f>
+        <v/>
+      </c>
+      <c r="I44">
+        <f>'By Round'!I30</f>
+        <v/>
+      </c>
+      <c r="J44">
+        <f>'By Round'!J30</f>
+        <v/>
+      </c>
+      <c r="K44">
+        <f>'By Round'!K30</f>
+        <v/>
       </c>
       <c r="L44" s="11">
         <f>IFERROR(AVERAGE(P44:R44),"")</f>
@@ -3640,25 +4496,45 @@
     </row>
     <row r="45">
       <c r="B45">
-        <f>'By Round'!A18</f>
+        <f>'By Round'!A34</f>
         <v/>
       </c>
       <c r="C45">
-        <f>'By Round'!B19</f>
+        <f>'By Round'!B36</f>
         <v/>
       </c>
       <c r="D45">
-        <f>'By Round'!C19</f>
+        <f>'By Round'!C36</f>
         <v/>
       </c>
       <c r="E45">
-        <f>'By Round'!D19</f>
+        <f>'By Round'!D36</f>
         <v/>
       </c>
       <c r="F45" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G45">
+        <f>'By Round'!G36</f>
+        <v/>
+      </c>
+      <c r="H45">
+        <f>'By Round'!H36</f>
+        <v/>
+      </c>
+      <c r="I45">
+        <f>'By Round'!I36</f>
+        <v/>
+      </c>
+      <c r="J45">
+        <f>'By Round'!J36</f>
+        <v/>
+      </c>
+      <c r="K45">
+        <f>'By Round'!K36</f>
+        <v/>
       </c>
       <c r="L45" s="11">
         <f>IFERROR(AVERAGE(P45:R45),"")</f>
@@ -3703,25 +4579,45 @@
     </row>
     <row r="46">
       <c r="B46">
-        <f>'By Round'!A22</f>
+        <f>'By Round'!A42</f>
         <v/>
       </c>
       <c r="C46">
-        <f>'By Round'!B22</f>
+        <f>'By Round'!B42</f>
         <v/>
       </c>
       <c r="D46">
-        <f>'By Round'!C22</f>
+        <f>'By Round'!C42</f>
         <v/>
       </c>
       <c r="E46">
-        <f>'By Round'!D22</f>
+        <f>'By Round'!D42</f>
         <v/>
       </c>
       <c r="F46" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G46">
+        <f>'By Round'!G42</f>
+        <v/>
+      </c>
+      <c r="H46">
+        <f>'By Round'!H42</f>
+        <v/>
+      </c>
+      <c r="I46">
+        <f>'By Round'!I42</f>
+        <v/>
+      </c>
+      <c r="J46">
+        <f>'By Round'!J42</f>
+        <v/>
+      </c>
+      <c r="K46">
+        <f>'By Round'!K42</f>
+        <v/>
       </c>
       <c r="L46" s="11">
         <f>IFERROR(AVERAGE(P46:R46),"")</f>
@@ -3769,25 +4665,45 @@
         <v>12</v>
       </c>
       <c r="B47">
-        <f>'By Round'!A6</f>
+        <f>'By Round'!A10</f>
         <v/>
       </c>
       <c r="C47">
-        <f>'By Round'!B9</f>
+        <f>'By Round'!B16</f>
         <v/>
       </c>
       <c r="D47">
-        <f>'By Round'!C9</f>
+        <f>'By Round'!C16</f>
         <v/>
       </c>
       <c r="E47">
-        <f>'By Round'!D9</f>
+        <f>'By Round'!D16</f>
         <v/>
       </c>
       <c r="F47" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G47">
+        <f>'By Round'!G17</f>
+        <v/>
+      </c>
+      <c r="H47">
+        <f>'By Round'!H17</f>
+        <v/>
+      </c>
+      <c r="I47">
+        <f>'By Round'!I17</f>
+        <v/>
+      </c>
+      <c r="J47">
+        <f>'By Round'!J17</f>
+        <v/>
+      </c>
+      <c r="K47">
+        <f>'By Round'!K17</f>
+        <v/>
       </c>
       <c r="L47" s="11">
         <f>IFERROR(AVERAGE(P47:R47),"")</f>
@@ -3832,25 +4748,45 @@
     </row>
     <row r="48">
       <c r="B48">
-        <f>'By Round'!A14</f>
+        <f>'By Round'!A26</f>
         <v/>
       </c>
       <c r="C48">
-        <f>'By Round'!B16</f>
+        <f>'By Round'!B30</f>
         <v/>
       </c>
       <c r="D48">
-        <f>'By Round'!C16</f>
+        <f>'By Round'!C30</f>
         <v/>
       </c>
       <c r="E48">
-        <f>'By Round'!D16</f>
+        <f>'By Round'!D30</f>
         <v/>
       </c>
       <c r="F48" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G48">
+        <f>'By Round'!G31</f>
+        <v/>
+      </c>
+      <c r="H48">
+        <f>'By Round'!H31</f>
+        <v/>
+      </c>
+      <c r="I48">
+        <f>'By Round'!I31</f>
+        <v/>
+      </c>
+      <c r="J48">
+        <f>'By Round'!J31</f>
+        <v/>
+      </c>
+      <c r="K48">
+        <f>'By Round'!K31</f>
+        <v/>
       </c>
       <c r="L48" s="11">
         <f>IFERROR(AVERAGE(P48:R48),"")</f>
@@ -3895,25 +4831,45 @@
     </row>
     <row r="49">
       <c r="B49">
-        <f>'By Round'!A18</f>
+        <f>'By Round'!A34</f>
         <v/>
       </c>
       <c r="C49">
-        <f>'By Round'!B19</f>
+        <f>'By Round'!B36</f>
         <v/>
       </c>
       <c r="D49">
-        <f>'By Round'!C19</f>
+        <f>'By Round'!C36</f>
         <v/>
       </c>
       <c r="E49">
-        <f>'By Round'!D19</f>
+        <f>'By Round'!D36</f>
         <v/>
       </c>
       <c r="F49" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G49">
+        <f>'By Round'!G37</f>
+        <v/>
+      </c>
+      <c r="H49">
+        <f>'By Round'!H37</f>
+        <v/>
+      </c>
+      <c r="I49">
+        <f>'By Round'!I37</f>
+        <v/>
+      </c>
+      <c r="J49">
+        <f>'By Round'!J37</f>
+        <v/>
+      </c>
+      <c r="K49">
+        <f>'By Round'!K37</f>
+        <v/>
       </c>
       <c r="L49" s="11">
         <f>IFERROR(AVERAGE(P49:R49),"")</f>
@@ -3958,25 +4914,45 @@
     </row>
     <row r="50">
       <c r="B50">
-        <f>'By Round'!A22</f>
+        <f>'By Round'!A42</f>
         <v/>
       </c>
       <c r="C50">
-        <f>'By Round'!B22</f>
+        <f>'By Round'!B42</f>
         <v/>
       </c>
       <c r="D50">
-        <f>'By Round'!C22</f>
+        <f>'By Round'!C42</f>
         <v/>
       </c>
       <c r="E50">
-        <f>'By Round'!D22</f>
+        <f>'By Round'!D42</f>
         <v/>
       </c>
       <c r="F50" s="10" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
+      </c>
+      <c r="G50">
+        <f>'By Round'!G43</f>
+        <v/>
+      </c>
+      <c r="H50">
+        <f>'By Round'!H43</f>
+        <v/>
+      </c>
+      <c r="I50">
+        <f>'By Round'!I43</f>
+        <v/>
+      </c>
+      <c r="J50">
+        <f>'By Round'!J43</f>
+        <v/>
+      </c>
+      <c r="K50">
+        <f>'By Round'!K43</f>
+        <v/>
       </c>
       <c r="L50" s="11">
         <f>IFERROR(AVERAGE(P50:R50),"")</f>
@@ -4024,25 +5000,45 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <f>'By Round'!A10</f>
+        <f>'By Round'!A18</f>
         <v/>
       </c>
       <c r="C51">
-        <f>'By Round'!B13</f>
+        <f>'By Round'!B24</f>
         <v/>
       </c>
       <c r="D51">
-        <f>'By Round'!C13</f>
+        <f>'By Round'!C24</f>
         <v/>
       </c>
       <c r="E51">
-        <f>'By Round'!D13</f>
+        <f>'By Round'!D24</f>
         <v/>
       </c>
       <c r="F51" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G51">
+        <f>'By Round'!G24</f>
+        <v/>
+      </c>
+      <c r="H51">
+        <f>'By Round'!H24</f>
+        <v/>
+      </c>
+      <c r="I51">
+        <f>'By Round'!I24</f>
+        <v/>
+      </c>
+      <c r="J51">
+        <f>'By Round'!J24</f>
+        <v/>
+      </c>
+      <c r="K51">
+        <f>'By Round'!K24</f>
+        <v/>
       </c>
       <c r="L51" s="11">
         <f>IFERROR(AVERAGE(P51:R51),"")</f>
@@ -4087,25 +5083,45 @@
     </row>
     <row r="52">
       <c r="B52">
-        <f>'By Round'!A18</f>
+        <f>'By Round'!A34</f>
         <v/>
       </c>
       <c r="C52">
-        <f>'By Round'!B20</f>
+        <f>'By Round'!B38</f>
         <v/>
       </c>
       <c r="D52">
-        <f>'By Round'!C20</f>
+        <f>'By Round'!C38</f>
         <v/>
       </c>
       <c r="E52">
-        <f>'By Round'!D20</f>
+        <f>'By Round'!D38</f>
         <v/>
       </c>
       <c r="F52" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G52">
+        <f>'By Round'!G38</f>
+        <v/>
+      </c>
+      <c r="H52">
+        <f>'By Round'!H38</f>
+        <v/>
+      </c>
+      <c r="I52">
+        <f>'By Round'!I38</f>
+        <v/>
+      </c>
+      <c r="J52">
+        <f>'By Round'!J38</f>
+        <v/>
+      </c>
+      <c r="K52">
+        <f>'By Round'!K38</f>
+        <v/>
       </c>
       <c r="L52" s="11">
         <f>IFERROR(AVERAGE(P52:R52),"")</f>
@@ -4150,25 +5166,45 @@
     </row>
     <row r="53">
       <c r="B53">
-        <f>'By Round'!A22</f>
+        <f>'By Round'!A42</f>
         <v/>
       </c>
       <c r="C53">
-        <f>'By Round'!B23</f>
+        <f>'By Round'!B44</f>
         <v/>
       </c>
       <c r="D53">
-        <f>'By Round'!C23</f>
+        <f>'By Round'!C44</f>
         <v/>
       </c>
       <c r="E53">
-        <f>'By Round'!D23</f>
+        <f>'By Round'!D44</f>
         <v/>
       </c>
       <c r="F53" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G53">
+        <f>'By Round'!G44</f>
+        <v/>
+      </c>
+      <c r="H53">
+        <f>'By Round'!H44</f>
+        <v/>
+      </c>
+      <c r="I53">
+        <f>'By Round'!I44</f>
+        <v/>
+      </c>
+      <c r="J53">
+        <f>'By Round'!J44</f>
+        <v/>
+      </c>
+      <c r="K53">
+        <f>'By Round'!K44</f>
+        <v/>
       </c>
       <c r="L53" s="11">
         <f>IFERROR(AVERAGE(P53:R53),"")</f>
@@ -4213,25 +5249,45 @@
     </row>
     <row r="54">
       <c r="B54">
-        <f>'By Round'!A26</f>
+        <f>'By Round'!A50</f>
         <v/>
       </c>
       <c r="C54">
-        <f>'By Round'!B26</f>
+        <f>'By Round'!B50</f>
         <v/>
       </c>
       <c r="D54">
-        <f>'By Round'!C26</f>
+        <f>'By Round'!C50</f>
         <v/>
       </c>
       <c r="E54">
-        <f>'By Round'!D26</f>
+        <f>'By Round'!D50</f>
         <v/>
       </c>
       <c r="F54" s="10" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
+      </c>
+      <c r="G54">
+        <f>'By Round'!G50</f>
+        <v/>
+      </c>
+      <c r="H54">
+        <f>'By Round'!H50</f>
+        <v/>
+      </c>
+      <c r="I54">
+        <f>'By Round'!I50</f>
+        <v/>
+      </c>
+      <c r="J54">
+        <f>'By Round'!J50</f>
+        <v/>
+      </c>
+      <c r="K54">
+        <f>'By Round'!K50</f>
+        <v/>
       </c>
       <c r="L54" s="11">
         <f>IFERROR(AVERAGE(P54:R54),"")</f>
@@ -4279,25 +5335,45 @@
         <v>14</v>
       </c>
       <c r="B55">
-        <f>'By Round'!A10</f>
+        <f>'By Round'!A18</f>
         <v/>
       </c>
       <c r="C55">
-        <f>'By Round'!B13</f>
+        <f>'By Round'!B24</f>
         <v/>
       </c>
       <c r="D55">
-        <f>'By Round'!C13</f>
+        <f>'By Round'!C24</f>
         <v/>
       </c>
       <c r="E55">
-        <f>'By Round'!D13</f>
+        <f>'By Round'!D24</f>
         <v/>
       </c>
       <c r="F55" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G55">
+        <f>'By Round'!G25</f>
+        <v/>
+      </c>
+      <c r="H55">
+        <f>'By Round'!H25</f>
+        <v/>
+      </c>
+      <c r="I55">
+        <f>'By Round'!I25</f>
+        <v/>
+      </c>
+      <c r="J55">
+        <f>'By Round'!J25</f>
+        <v/>
+      </c>
+      <c r="K55">
+        <f>'By Round'!K25</f>
+        <v/>
       </c>
       <c r="L55" s="11">
         <f>IFERROR(AVERAGE(P55:R55),"")</f>
@@ -4342,25 +5418,45 @@
     </row>
     <row r="56">
       <c r="B56">
-        <f>'By Round'!A18</f>
+        <f>'By Round'!A34</f>
         <v/>
       </c>
       <c r="C56">
-        <f>'By Round'!B20</f>
+        <f>'By Round'!B38</f>
         <v/>
       </c>
       <c r="D56">
-        <f>'By Round'!C20</f>
+        <f>'By Round'!C38</f>
         <v/>
       </c>
       <c r="E56">
-        <f>'By Round'!D20</f>
+        <f>'By Round'!D38</f>
         <v/>
       </c>
       <c r="F56" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G56">
+        <f>'By Round'!G39</f>
+        <v/>
+      </c>
+      <c r="H56">
+        <f>'By Round'!H39</f>
+        <v/>
+      </c>
+      <c r="I56">
+        <f>'By Round'!I39</f>
+        <v/>
+      </c>
+      <c r="J56">
+        <f>'By Round'!J39</f>
+        <v/>
+      </c>
+      <c r="K56">
+        <f>'By Round'!K39</f>
+        <v/>
       </c>
       <c r="L56" s="11">
         <f>IFERROR(AVERAGE(P56:R56),"")</f>
@@ -4405,25 +5501,45 @@
     </row>
     <row r="57">
       <c r="B57">
-        <f>'By Round'!A22</f>
+        <f>'By Round'!A42</f>
         <v/>
       </c>
       <c r="C57">
-        <f>'By Round'!B23</f>
+        <f>'By Round'!B44</f>
         <v/>
       </c>
       <c r="D57">
-        <f>'By Round'!C23</f>
+        <f>'By Round'!C44</f>
         <v/>
       </c>
       <c r="E57">
-        <f>'By Round'!D23</f>
+        <f>'By Round'!D44</f>
         <v/>
       </c>
       <c r="F57" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G57">
+        <f>'By Round'!G45</f>
+        <v/>
+      </c>
+      <c r="H57">
+        <f>'By Round'!H45</f>
+        <v/>
+      </c>
+      <c r="I57">
+        <f>'By Round'!I45</f>
+        <v/>
+      </c>
+      <c r="J57">
+        <f>'By Round'!J45</f>
+        <v/>
+      </c>
+      <c r="K57">
+        <f>'By Round'!K45</f>
+        <v/>
       </c>
       <c r="L57" s="11">
         <f>IFERROR(AVERAGE(P57:R57),"")</f>
@@ -4468,25 +5584,45 @@
     </row>
     <row r="58">
       <c r="B58">
-        <f>'By Round'!A26</f>
+        <f>'By Round'!A50</f>
         <v/>
       </c>
       <c r="C58">
-        <f>'By Round'!B26</f>
+        <f>'By Round'!B50</f>
         <v/>
       </c>
       <c r="D58">
-        <f>'By Round'!C26</f>
+        <f>'By Round'!C50</f>
         <v/>
       </c>
       <c r="E58">
-        <f>'By Round'!D26</f>
+        <f>'By Round'!D50</f>
         <v/>
       </c>
       <c r="F58" s="10" t="inlineStr">
         <is>
           <t>None</t>
         </is>
+      </c>
+      <c r="G58">
+        <f>'By Round'!G51</f>
+        <v/>
+      </c>
+      <c r="H58">
+        <f>'By Round'!H51</f>
+        <v/>
+      </c>
+      <c r="I58">
+        <f>'By Round'!I51</f>
+        <v/>
+      </c>
+      <c r="J58">
+        <f>'By Round'!J51</f>
+        <v/>
+      </c>
+      <c r="K58">
+        <f>'By Round'!K51</f>
+        <v/>
       </c>
       <c r="L58" s="11">
         <f>IFERROR(AVERAGE(P58:R58),"")</f>
@@ -4547,7 +5683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4555,7 +5691,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4584,6 +5722,36 @@
           <t>Board</t>
         </is>
       </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Vul</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>By</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>NS Score</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>EW Score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -4600,473 +5768,985 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1 &amp; 2</t>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="n">
+      <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="F3" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3 &amp; 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="n">
+      <c r="E4" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="F4" s="13" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G4" s="12" t="n"/>
+      <c r="H4" s="12" t="n"/>
+      <c r="I4" s="12" t="n"/>
+      <c r="J4" s="12" t="n"/>
+      <c r="K4" s="12" t="n"/>
+    </row>
+    <row r="5">
+      <c r="E5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5 &amp; 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="n">
+      <c r="E6" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G6" s="12" t="n"/>
+      <c r="H6" s="12" t="n"/>
+      <c r="I6" s="12" t="n"/>
+      <c r="J6" s="12" t="n"/>
+      <c r="K6" s="12" t="n"/>
+    </row>
+    <row r="7">
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C8" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D8" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>9 &amp; 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="E8" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" s="13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G8" s="12" t="n"/>
+      <c r="H8" s="12" t="n"/>
+      <c r="I8" s="12" t="n"/>
+      <c r="J8" s="12" t="n"/>
+      <c r="K8" s="12" t="n"/>
+    </row>
+    <row r="9">
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B10" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D10" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3 &amp; 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="n">
+      <c r="E10" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="15" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G10" s="14" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="I10" s="14" t="n"/>
+      <c r="J10" s="14" t="n"/>
+      <c r="K10" s="14" t="n"/>
+    </row>
+    <row r="11">
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C12" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D12" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5 &amp; 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="n">
+      <c r="E12" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G12" s="12" t="n"/>
+      <c r="H12" s="12" t="n"/>
+      <c r="I12" s="12" t="n"/>
+      <c r="J12" s="12" t="n"/>
+      <c r="K12" s="12" t="n"/>
+    </row>
+    <row r="13">
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C14" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D14" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>7 &amp; 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="n">
+      <c r="E14" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" s="13" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G14" s="12" t="n"/>
+      <c r="H14" s="12" t="n"/>
+      <c r="I14" s="12" t="n"/>
+      <c r="J14" s="12" t="n"/>
+      <c r="K14" s="12" t="n"/>
+    </row>
+    <row r="15">
+      <c r="E15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C16" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D16" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>11 &amp; 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="E16" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="F16" s="13" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G16" s="12" t="n"/>
+      <c r="H16" s="12" t="n"/>
+      <c r="I16" s="12" t="n"/>
+      <c r="J16" s="12" t="n"/>
+      <c r="K16" s="12" t="n"/>
+    </row>
+    <row r="17">
+      <c r="E17" t="n">
+        <v>12</v>
+      </c>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B18" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C18" s="14" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D18" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5 &amp; 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="n">
+      <c r="E18" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G18" s="14" t="n"/>
+      <c r="H18" s="14" t="n"/>
+      <c r="I18" s="14" t="n"/>
+      <c r="J18" s="14" t="n"/>
+      <c r="K18" s="14" t="n"/>
+    </row>
+    <row r="19">
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C20" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D20" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7 &amp; 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="n">
+      <c r="E20" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" s="13" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G20" s="12" t="n"/>
+      <c r="H20" s="12" t="n"/>
+      <c r="I20" s="12" t="n"/>
+      <c r="J20" s="12" t="n"/>
+      <c r="K20" s="12" t="n"/>
+    </row>
+    <row r="21">
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C22" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D22" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>9 &amp; 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="n">
+      <c r="E22" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F22" s="13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G22" s="12" t="n"/>
+      <c r="H22" s="12" t="n"/>
+      <c r="I22" s="12" t="n"/>
+      <c r="J22" s="12" t="n"/>
+      <c r="K22" s="12" t="n"/>
+    </row>
+    <row r="23">
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C24" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D24" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>13 &amp; 14</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="E24" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F24" s="13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G24" s="12" t="n"/>
+      <c r="H24" s="12" t="n"/>
+      <c r="I24" s="12" t="n"/>
+      <c r="J24" s="12" t="n"/>
+      <c r="K24" s="12" t="n"/>
+    </row>
+    <row r="25">
+      <c r="E25" t="n">
+        <v>14</v>
+      </c>
+      <c r="F25" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B26" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C26" s="14" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D26" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>7 &amp; 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="n">
+      <c r="E26" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" s="15" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G26" s="14" t="n"/>
+      <c r="H26" s="14" t="n"/>
+      <c r="I26" s="14" t="n"/>
+      <c r="J26" s="14" t="n"/>
+      <c r="K26" s="14" t="n"/>
+    </row>
+    <row r="27">
+      <c r="E27" t="n">
+        <v>8</v>
+      </c>
+      <c r="F27" s="10" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C28" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D28" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>9 &amp; 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="n">
+      <c r="E28" s="12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F28" s="13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G28" s="12" t="n"/>
+      <c r="H28" s="12" t="n"/>
+      <c r="I28" s="12" t="n"/>
+      <c r="J28" s="12" t="n"/>
+      <c r="K28" s="12" t="n"/>
+    </row>
+    <row r="29">
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C30" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D30" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>11 &amp; 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="n">
+      <c r="E30" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="F30" s="13" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G30" s="12" t="n"/>
+      <c r="H30" s="12" t="n"/>
+      <c r="I30" s="12" t="n"/>
+      <c r="J30" s="12" t="n"/>
+      <c r="K30" s="12" t="n"/>
+    </row>
+    <row r="31">
+      <c r="E31" t="n">
+        <v>12</v>
+      </c>
+      <c r="F31" s="10" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C32" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D32" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1 &amp; 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="E32" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G32" s="12" t="n"/>
+      <c r="H32" s="12" t="n"/>
+      <c r="I32" s="12" t="n"/>
+      <c r="J32" s="12" t="n"/>
+      <c r="K32" s="12" t="n"/>
+    </row>
+    <row r="33">
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B34" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C34" s="14" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D34" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>9 &amp; 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="n">
+      <c r="E34" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F34" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G34" s="14" t="n"/>
+      <c r="H34" s="14" t="n"/>
+      <c r="I34" s="14" t="n"/>
+      <c r="J34" s="14" t="n"/>
+      <c r="K34" s="14" t="n"/>
+    </row>
+    <row r="35">
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C36" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D36" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>11 &amp; 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="n">
+      <c r="E36" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="F36" s="13" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G36" s="12" t="n"/>
+      <c r="H36" s="12" t="n"/>
+      <c r="I36" s="12" t="n"/>
+      <c r="J36" s="12" t="n"/>
+      <c r="K36" s="12" t="n"/>
+    </row>
+    <row r="37">
+      <c r="E37" t="n">
+        <v>12</v>
+      </c>
+      <c r="F37" s="10" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C38" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D38" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>13 &amp; 14</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="n">
+      <c r="E38" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F38" s="13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G38" s="12" t="n"/>
+      <c r="H38" s="12" t="n"/>
+      <c r="I38" s="12" t="n"/>
+      <c r="J38" s="12" t="n"/>
+      <c r="K38" s="12" t="n"/>
+    </row>
+    <row r="39">
+      <c r="E39" t="n">
+        <v>14</v>
+      </c>
+      <c r="F39" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C40" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D40" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3 &amp; 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="E40" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" s="13" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G40" s="12" t="n"/>
+      <c r="H40" s="12" t="n"/>
+      <c r="I40" s="12" t="n"/>
+      <c r="J40" s="12" t="n"/>
+      <c r="K40" s="12" t="n"/>
+    </row>
+    <row r="41">
+      <c r="E41" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" s="10" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B42" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C42" s="14" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D42" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>11 &amp; 12</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="n">
+      <c r="E42" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="F42" s="15" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G42" s="14" t="n"/>
+      <c r="H42" s="14" t="n"/>
+      <c r="I42" s="14" t="n"/>
+      <c r="J42" s="14" t="n"/>
+      <c r="K42" s="14" t="n"/>
+    </row>
+    <row r="43">
+      <c r="E43" t="n">
+        <v>12</v>
+      </c>
+      <c r="F43" s="10" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C44" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D44" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>13 &amp; 14</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="n">
+      <c r="E44" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F44" s="13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G44" s="12" t="n"/>
+      <c r="H44" s="12" t="n"/>
+      <c r="I44" s="12" t="n"/>
+      <c r="J44" s="12" t="n"/>
+      <c r="K44" s="12" t="n"/>
+    </row>
+    <row r="45">
+      <c r="E45" t="n">
+        <v>14</v>
+      </c>
+      <c r="F45" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C46" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D46" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1 &amp; 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="n">
+      <c r="E46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G46" s="12" t="n"/>
+      <c r="H46" s="12" t="n"/>
+      <c r="I46" s="12" t="n"/>
+      <c r="J46" s="12" t="n"/>
+      <c r="K46" s="12" t="n"/>
+    </row>
+    <row r="47">
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C48" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D48" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>5 &amp; 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="E48" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" s="13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G48" s="12" t="n"/>
+      <c r="H48" s="12" t="n"/>
+      <c r="I48" s="12" t="n"/>
+      <c r="J48" s="12" t="n"/>
+      <c r="K48" s="12" t="n"/>
+    </row>
+    <row r="49">
+      <c r="E49" t="n">
+        <v>6</v>
+      </c>
+      <c r="F49" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B50" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C50" s="14" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D50" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>13 &amp; 14</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="n">
+      <c r="E50" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F50" s="15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G50" s="14" t="n"/>
+      <c r="H50" s="14" t="n"/>
+      <c r="I50" s="14" t="n"/>
+      <c r="J50" s="14" t="n"/>
+      <c r="K50" s="14" t="n"/>
+    </row>
+    <row r="51">
+      <c r="E51" t="n">
+        <v>14</v>
+      </c>
+      <c r="F51" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C52" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D52" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>1 &amp; 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="n">
+      <c r="E52" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G52" s="12" t="n"/>
+      <c r="H52" s="12" t="n"/>
+      <c r="I52" s="12" t="n"/>
+      <c r="J52" s="12" t="n"/>
+      <c r="K52" s="12" t="n"/>
+    </row>
+    <row r="53">
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" s="10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C54" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D54" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3 &amp; 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="n">
+      <c r="E54" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" s="13" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G54" s="12" t="n"/>
+      <c r="H54" s="12" t="n"/>
+      <c r="I54" s="12" t="n"/>
+      <c r="J54" s="12" t="n"/>
+      <c r="K54" s="12" t="n"/>
+    </row>
+    <row r="55">
+      <c r="E55" t="n">
         <v>4</v>
       </c>
-      <c r="C29" t="n">
+      <c r="F55" s="10" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C56" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D56" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>7 &amp; 8</t>
-        </is>
-      </c>
+      <c r="E56" s="12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F56" s="13" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G56" s="12" t="n"/>
+      <c r="H56" s="12" t="n"/>
+      <c r="I56" s="12" t="n"/>
+      <c r="J56" s="12" t="n"/>
+      <c r="K56" s="12" t="n"/>
+    </row>
+    <row r="57">
+      <c r="E57" t="n">
+        <v>8</v>
+      </c>
+      <c r="F57" s="10" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="14" t="n"/>
+      <c r="B58" s="14" t="n"/>
+      <c r="C58" s="14" t="n"/>
+      <c r="D58" s="14" t="n"/>
+      <c r="E58" s="14" t="n"/>
+      <c r="F58" s="14" t="n"/>
+      <c r="G58" s="14" t="n"/>
+      <c r="H58" s="14" t="n"/>
+      <c r="I58" s="14" t="n"/>
+      <c r="J58" s="14" t="n"/>
+      <c r="K58" s="14" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5074,2025 +6754,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Table</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Board</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>NS Next</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>EW Next</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C2">
-        <f>'By Round'!C2</f>
-        <v/>
-      </c>
-      <c r="D2">
-        <f>'By Round'!D2</f>
-        <v/>
-      </c>
-      <c r="E2">
-        <f>'By Round'!E2</f>
-        <v/>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Table 1 NS</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Table 4 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3">
-        <f>'By Round'!A6</f>
-        <v/>
-      </c>
-      <c r="C3">
-        <f>'By Round'!C6</f>
-        <v/>
-      </c>
-      <c r="D3">
-        <f>'By Round'!D6</f>
-        <v/>
-      </c>
-      <c r="E3">
-        <f>'By Round'!E6</f>
-        <v/>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Table 1 NS</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Table 4 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4">
-        <f>'By Round'!A10</f>
-        <v/>
-      </c>
-      <c r="C4">
-        <f>'By Round'!C10</f>
-        <v/>
-      </c>
-      <c r="D4">
-        <f>'By Round'!D10</f>
-        <v/>
-      </c>
-      <c r="E4">
-        <f>'By Round'!E10</f>
-        <v/>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Table 1 NS</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Table 4 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C5">
-        <f>'By Round'!C14</f>
-        <v/>
-      </c>
-      <c r="D5">
-        <f>'By Round'!D14</f>
-        <v/>
-      </c>
-      <c r="E5">
-        <f>'By Round'!E14</f>
-        <v/>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Table 1 NS</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Table 4 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6">
-        <f>'By Round'!A18</f>
-        <v/>
-      </c>
-      <c r="C6">
-        <f>'By Round'!C18</f>
-        <v/>
-      </c>
-      <c r="D6">
-        <f>'By Round'!D18</f>
-        <v/>
-      </c>
-      <c r="E6">
-        <f>'By Round'!E18</f>
-        <v/>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Table 1 NS</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Table 4 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7">
-        <f>'By Round'!A22</f>
-        <v/>
-      </c>
-      <c r="C7">
-        <f>'By Round'!C22</f>
-        <v/>
-      </c>
-      <c r="D7">
-        <f>'By Round'!D22</f>
-        <v/>
-      </c>
-      <c r="E7">
-        <f>'By Round'!E22</f>
-        <v/>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Table 1 NS</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Table 4 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8">
-        <f>'By Round'!A26</f>
-        <v/>
-      </c>
-      <c r="C8">
-        <f>'By Round'!C26</f>
-        <v/>
-      </c>
-      <c r="D8">
-        <f>'By Round'!D26</f>
-        <v/>
-      </c>
-      <c r="E8">
-        <f>'By Round'!E26</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C9">
-        <f>'By Round'!C3</f>
-        <v/>
-      </c>
-      <c r="D9">
-        <f>'By Round'!D3</f>
-        <v/>
-      </c>
-      <c r="E9">
-        <f>'By Round'!E3</f>
-        <v/>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Table 2 EW</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Table 3 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10">
-        <f>'By Round'!A6</f>
-        <v/>
-      </c>
-      <c r="C10">
-        <f>'By Round'!C7</f>
-        <v/>
-      </c>
-      <c r="D10">
-        <f>'By Round'!D7</f>
-        <v/>
-      </c>
-      <c r="E10">
-        <f>'By Round'!E7</f>
-        <v/>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Table 2 EW</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Table 3 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11">
-        <f>'By Round'!A10</f>
-        <v/>
-      </c>
-      <c r="C11">
-        <f>'By Round'!C11</f>
-        <v/>
-      </c>
-      <c r="D11">
-        <f>'By Round'!D11</f>
-        <v/>
-      </c>
-      <c r="E11">
-        <f>'By Round'!E11</f>
-        <v/>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Table 2 EW</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Table 3 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C12">
-        <f>'By Round'!C15</f>
-        <v/>
-      </c>
-      <c r="D12">
-        <f>'By Round'!D15</f>
-        <v/>
-      </c>
-      <c r="E12">
-        <f>'By Round'!E15</f>
-        <v/>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Table 2 EW</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Table 3 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13">
-        <f>'By Round'!A18</f>
-        <v/>
-      </c>
-      <c r="C13">
-        <f>'By Round'!C19</f>
-        <v/>
-      </c>
-      <c r="D13">
-        <f>'By Round'!D19</f>
-        <v/>
-      </c>
-      <c r="E13">
-        <f>'By Round'!E19</f>
-        <v/>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Table 2 EW</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Table 3 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14">
-        <f>'By Round'!A22</f>
-        <v/>
-      </c>
-      <c r="C14">
-        <f>'By Round'!C23</f>
-        <v/>
-      </c>
-      <c r="D14">
-        <f>'By Round'!D23</f>
-        <v/>
-      </c>
-      <c r="E14">
-        <f>'By Round'!E23</f>
-        <v/>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Table 2 EW</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Table 3 NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15">
-        <f>'By Round'!A26</f>
-        <v/>
-      </c>
-      <c r="C15">
-        <f>'By Round'!C27</f>
-        <v/>
-      </c>
-      <c r="D15">
-        <f>'By Round'!D27</f>
-        <v/>
-      </c>
-      <c r="E15">
-        <f>'By Round'!E27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C16">
-        <f>'By Round'!C4</f>
-        <v/>
-      </c>
-      <c r="D16">
-        <f>'By Round'!D4</f>
-        <v/>
-      </c>
-      <c r="E16">
-        <f>'By Round'!E4</f>
-        <v/>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Table 4 EW</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Table 1 EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17">
-        <f>'By Round'!A6</f>
-        <v/>
-      </c>
-      <c r="C17">
-        <f>'By Round'!C8</f>
-        <v/>
-      </c>
-      <c r="D17">
-        <f>'By Round'!D8</f>
-        <v/>
-      </c>
-      <c r="E17">
-        <f>'By Round'!E8</f>
-        <v/>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Table 4 EW</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Table 1 EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18">
-        <f>'By Round'!A10</f>
-        <v/>
-      </c>
-      <c r="C18">
-        <f>'By Round'!C12</f>
-        <v/>
-      </c>
-      <c r="D18">
-        <f>'By Round'!D12</f>
-        <v/>
-      </c>
-      <c r="E18">
-        <f>'By Round'!E12</f>
-        <v/>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Table 4 EW</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Table 1 EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C19">
-        <f>'By Round'!C16</f>
-        <v/>
-      </c>
-      <c r="D19">
-        <f>'By Round'!D16</f>
-        <v/>
-      </c>
-      <c r="E19">
-        <f>'By Round'!E16</f>
-        <v/>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Table 4 EW</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Table 1 EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20">
-        <f>'By Round'!A18</f>
-        <v/>
-      </c>
-      <c r="C20">
-        <f>'By Round'!C20</f>
-        <v/>
-      </c>
-      <c r="D20">
-        <f>'By Round'!D20</f>
-        <v/>
-      </c>
-      <c r="E20">
-        <f>'By Round'!E20</f>
-        <v/>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Table 4 EW</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Table 1 EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21">
-        <f>'By Round'!A22</f>
-        <v/>
-      </c>
-      <c r="C21">
-        <f>'By Round'!C24</f>
-        <v/>
-      </c>
-      <c r="D21">
-        <f>'By Round'!D24</f>
-        <v/>
-      </c>
-      <c r="E21">
-        <f>'By Round'!E24</f>
-        <v/>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Table 4 EW</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Table 1 EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22">
-        <f>'By Round'!A26</f>
-        <v/>
-      </c>
-      <c r="C22">
-        <f>'By Round'!C28</f>
-        <v/>
-      </c>
-      <c r="D22">
-        <f>'By Round'!D28</f>
-        <v/>
-      </c>
-      <c r="E22">
-        <f>'By Round'!E28</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C23">
-        <f>'By Round'!C5</f>
-        <v/>
-      </c>
-      <c r="D23">
-        <f>'By Round'!D5</f>
-        <v/>
-      </c>
-      <c r="E23">
-        <f>'By Round'!E5</f>
-        <v/>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Table 2 NS</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Table 3 EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24">
-        <f>'By Round'!A6</f>
-        <v/>
-      </c>
-      <c r="C24">
-        <f>'By Round'!C9</f>
-        <v/>
-      </c>
-      <c r="D24">
-        <f>'By Round'!D9</f>
-        <v/>
-      </c>
-      <c r="E24">
-        <f>'By Round'!E9</f>
-        <v/>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Table 2 NS</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Table 3 EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25">
-        <f>'By Round'!A10</f>
-        <v/>
-      </c>
-      <c r="C25">
-        <f>'By Round'!C13</f>
-        <v/>
-      </c>
-      <c r="D25">
-        <f>'By Round'!D13</f>
-        <v/>
-      </c>
-      <c r="E25">
-        <f>'By Round'!E13</f>
-        <v/>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Table 2 NS</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Table 3 EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C26">
-        <f>'By Round'!C17</f>
-        <v/>
-      </c>
-      <c r="D26">
-        <f>'By Round'!D17</f>
-        <v/>
-      </c>
-      <c r="E26">
-        <f>'By Round'!E17</f>
-        <v/>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Table 2 NS</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Table 3 EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27">
-        <f>'By Round'!A18</f>
-        <v/>
-      </c>
-      <c r="C27">
-        <f>'By Round'!C21</f>
-        <v/>
-      </c>
-      <c r="D27">
-        <f>'By Round'!D21</f>
-        <v/>
-      </c>
-      <c r="E27">
-        <f>'By Round'!E21</f>
-        <v/>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Table 2 NS</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Table 3 EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28">
-        <f>'By Round'!A22</f>
-        <v/>
-      </c>
-      <c r="C28">
-        <f>'By Round'!C25</f>
-        <v/>
-      </c>
-      <c r="D28">
-        <f>'By Round'!D25</f>
-        <v/>
-      </c>
-      <c r="E28">
-        <f>'By Round'!E25</f>
-        <v/>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Table 2 NS</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Table 3 EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29">
-        <f>'By Round'!A26</f>
-        <v/>
-      </c>
-      <c r="C29">
-        <f>'By Round'!C29</f>
-        <v/>
-      </c>
-      <c r="D29">
-        <f>'By Round'!D29</f>
-        <v/>
-      </c>
-      <c r="E29">
-        <f>'By Round'!E29</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F50"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Pair</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Table</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Seats</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Against</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Board</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C2" s="10">
-        <f>'By Round'!B2</f>
-        <v/>
-      </c>
-      <c r="D2" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E2" s="10">
-        <f>'By Round'!C2</f>
-        <v/>
-      </c>
-      <c r="F2" s="10">
-        <f>'By Round'!E2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="10">
-        <f>'By Round'!A6</f>
-        <v/>
-      </c>
-      <c r="C3" s="10">
-        <f>'By Round'!B9</f>
-        <v/>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E3" s="10">
-        <f>'By Round'!D9</f>
-        <v/>
-      </c>
-      <c r="F3" s="10">
-        <f>'By Round'!E9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="10">
-        <f>'By Round'!A10</f>
-        <v/>
-      </c>
-      <c r="C4" s="10">
-        <f>'By Round'!B11</f>
-        <v/>
-      </c>
-      <c r="D4" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E4" s="10">
-        <f>'By Round'!D11</f>
-        <v/>
-      </c>
-      <c r="F4" s="10">
-        <f>'By Round'!E11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="10">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C5" s="10">
-        <f>'By Round'!B15</f>
-        <v/>
-      </c>
-      <c r="D5" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E5" s="10">
-        <f>'By Round'!C15</f>
-        <v/>
-      </c>
-      <c r="F5" s="10">
-        <f>'By Round'!E15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="10">
-        <f>'By Round'!A18</f>
-        <v/>
-      </c>
-      <c r="C6" s="10">
-        <f>'By Round'!B20</f>
-        <v/>
-      </c>
-      <c r="D6" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E6" s="10">
-        <f>'By Round'!D20</f>
-        <v/>
-      </c>
-      <c r="F6" s="10">
-        <f>'By Round'!E20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="10">
-        <f>'By Round'!A22</f>
-        <v/>
-      </c>
-      <c r="C7" s="10">
-        <f>'By Round'!B25</f>
-        <v/>
-      </c>
-      <c r="D7" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E7" s="10">
-        <f>'By Round'!C25</f>
-        <v/>
-      </c>
-      <c r="F7" s="10">
-        <f>'By Round'!E25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="10">
-        <f>'By Round'!A26</f>
-        <v/>
-      </c>
-      <c r="C8" s="10">
-        <f>'By Round'!B28</f>
-        <v/>
-      </c>
-      <c r="D8" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E8" s="10">
-        <f>'By Round'!C28</f>
-        <v/>
-      </c>
-      <c r="F8" s="10">
-        <f>'By Round'!E28</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C9" s="10">
-        <f>'By Round'!B4</f>
-        <v/>
-      </c>
-      <c r="D9" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E9" s="10">
-        <f>'By Round'!C4</f>
-        <v/>
-      </c>
-      <c r="F9" s="10">
-        <f>'By Round'!E4</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="10">
-        <f>'By Round'!A6</f>
-        <v/>
-      </c>
-      <c r="C10" s="10">
-        <f>'By Round'!B6</f>
-        <v/>
-      </c>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E10" s="10">
-        <f>'By Round'!C6</f>
-        <v/>
-      </c>
-      <c r="F10" s="10">
-        <f>'By Round'!E6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="10">
-        <f>'By Round'!A10</f>
-        <v/>
-      </c>
-      <c r="C11" s="10">
-        <f>'By Round'!B13</f>
-        <v/>
-      </c>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E11" s="10">
-        <f>'By Round'!D13</f>
-        <v/>
-      </c>
-      <c r="F11" s="10">
-        <f>'By Round'!E13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="10">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C12" s="10">
-        <f>'By Round'!B15</f>
-        <v/>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E12" s="10">
-        <f>'By Round'!D15</f>
-        <v/>
-      </c>
-      <c r="F12" s="10">
-        <f>'By Round'!E15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="10">
-        <f>'By Round'!A18</f>
-        <v/>
-      </c>
-      <c r="C13" s="10">
-        <f>'By Round'!B19</f>
-        <v/>
-      </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E13" s="10">
-        <f>'By Round'!C19</f>
-        <v/>
-      </c>
-      <c r="F13" s="10">
-        <f>'By Round'!E19</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="10">
-        <f>'By Round'!A22</f>
-        <v/>
-      </c>
-      <c r="C14" s="10">
-        <f>'By Round'!B24</f>
-        <v/>
-      </c>
-      <c r="D14" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E14" s="10">
-        <f>'By Round'!D24</f>
-        <v/>
-      </c>
-      <c r="F14" s="10">
-        <f>'By Round'!E24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="10">
-        <f>'By Round'!A26</f>
-        <v/>
-      </c>
-      <c r="C15" s="10">
-        <f>'By Round'!B29</f>
-        <v/>
-      </c>
-      <c r="D15" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E15" s="10">
-        <f>'By Round'!C29</f>
-        <v/>
-      </c>
-      <c r="F15" s="10">
-        <f>'By Round'!E29</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" s="10">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C16" s="10">
-        <f>'By Round'!B5</f>
-        <v/>
-      </c>
-      <c r="D16" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E16" s="10">
-        <f>'By Round'!C5</f>
-        <v/>
-      </c>
-      <c r="F16" s="10">
-        <f>'By Round'!E5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="10">
-        <f>'By Round'!A6</f>
-        <v/>
-      </c>
-      <c r="C17" s="10">
-        <f>'By Round'!B8</f>
-        <v/>
-      </c>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E17" s="10">
-        <f>'By Round'!C8</f>
-        <v/>
-      </c>
-      <c r="F17" s="10">
-        <f>'By Round'!E8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="10">
-        <f>'By Round'!A10</f>
-        <v/>
-      </c>
-      <c r="C18" s="10">
-        <f>'By Round'!B10</f>
-        <v/>
-      </c>
-      <c r="D18" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E18" s="10">
-        <f>'By Round'!C10</f>
-        <v/>
-      </c>
-      <c r="F18" s="10">
-        <f>'By Round'!E10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="10">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C19" s="10">
-        <f>'By Round'!B17</f>
-        <v/>
-      </c>
-      <c r="D19" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E19" s="10">
-        <f>'By Round'!D17</f>
-        <v/>
-      </c>
-      <c r="F19" s="10">
-        <f>'By Round'!E17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="10">
-        <f>'By Round'!A18</f>
-        <v/>
-      </c>
-      <c r="C20" s="10">
-        <f>'By Round'!B19</f>
-        <v/>
-      </c>
-      <c r="D20" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E20" s="10">
-        <f>'By Round'!D19</f>
-        <v/>
-      </c>
-      <c r="F20" s="10">
-        <f>'By Round'!E19</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="10">
-        <f>'By Round'!A22</f>
-        <v/>
-      </c>
-      <c r="C21" s="10">
-        <f>'By Round'!B23</f>
-        <v/>
-      </c>
-      <c r="D21" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E21" s="10">
-        <f>'By Round'!C23</f>
-        <v/>
-      </c>
-      <c r="F21" s="10">
-        <f>'By Round'!E23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="10">
-        <f>'By Round'!A26</f>
-        <v/>
-      </c>
-      <c r="C22" s="10">
-        <f>'By Round'!B28</f>
-        <v/>
-      </c>
-      <c r="D22" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E22" s="10">
-        <f>'By Round'!D28</f>
-        <v/>
-      </c>
-      <c r="F22" s="10">
-        <f>'By Round'!E28</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>4</v>
-      </c>
-      <c r="B23" s="10">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C23" s="10">
-        <f>'By Round'!B4</f>
-        <v/>
-      </c>
-      <c r="D23" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E23" s="10">
-        <f>'By Round'!D4</f>
-        <v/>
-      </c>
-      <c r="F23" s="10">
-        <f>'By Round'!E4</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="10">
-        <f>'By Round'!A6</f>
-        <v/>
-      </c>
-      <c r="C24" s="10">
-        <f>'By Round'!B9</f>
-        <v/>
-      </c>
-      <c r="D24" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E24" s="10">
-        <f>'By Round'!C9</f>
-        <v/>
-      </c>
-      <c r="F24" s="10">
-        <f>'By Round'!E9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="10">
-        <f>'By Round'!A10</f>
-        <v/>
-      </c>
-      <c r="C25" s="10">
-        <f>'By Round'!B12</f>
-        <v/>
-      </c>
-      <c r="D25" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E25" s="10">
-        <f>'By Round'!C12</f>
-        <v/>
-      </c>
-      <c r="F25" s="10">
-        <f>'By Round'!E12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="10">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C26" s="10">
-        <f>'By Round'!B14</f>
-        <v/>
-      </c>
-      <c r="D26" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E26" s="10">
-        <f>'By Round'!C14</f>
-        <v/>
-      </c>
-      <c r="F26" s="10">
-        <f>'By Round'!E14</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="10">
-        <f>'By Round'!A18</f>
-        <v/>
-      </c>
-      <c r="C27" s="10">
-        <f>'By Round'!B21</f>
-        <v/>
-      </c>
-      <c r="D27" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E27" s="10">
-        <f>'By Round'!D21</f>
-        <v/>
-      </c>
-      <c r="F27" s="10">
-        <f>'By Round'!E21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="10">
-        <f>'By Round'!A22</f>
-        <v/>
-      </c>
-      <c r="C28" s="10">
-        <f>'By Round'!B23</f>
-        <v/>
-      </c>
-      <c r="D28" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E28" s="10">
-        <f>'By Round'!D23</f>
-        <v/>
-      </c>
-      <c r="F28" s="10">
-        <f>'By Round'!E23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="10">
-        <f>'By Round'!A26</f>
-        <v/>
-      </c>
-      <c r="C29" s="10">
-        <f>'By Round'!B27</f>
-        <v/>
-      </c>
-      <c r="D29" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E29" s="10">
-        <f>'By Round'!C27</f>
-        <v/>
-      </c>
-      <c r="F29" s="10">
-        <f>'By Round'!E27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>5</v>
-      </c>
-      <c r="B30" s="10">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C30" s="10">
-        <f>'By Round'!B3</f>
-        <v/>
-      </c>
-      <c r="D30" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E30" s="10">
-        <f>'By Round'!C3</f>
-        <v/>
-      </c>
-      <c r="F30" s="10">
-        <f>'By Round'!E3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="10">
-        <f>'By Round'!A6</f>
-        <v/>
-      </c>
-      <c r="C31" s="10">
-        <f>'By Round'!B8</f>
-        <v/>
-      </c>
-      <c r="D31" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E31" s="10">
-        <f>'By Round'!D8</f>
-        <v/>
-      </c>
-      <c r="F31" s="10">
-        <f>'By Round'!E8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="10">
-        <f>'By Round'!A10</f>
-        <v/>
-      </c>
-      <c r="C32" s="10">
-        <f>'By Round'!B13</f>
-        <v/>
-      </c>
-      <c r="D32" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E32" s="10">
-        <f>'By Round'!C13</f>
-        <v/>
-      </c>
-      <c r="F32" s="10">
-        <f>'By Round'!E13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="10">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C33" s="10">
-        <f>'By Round'!B16</f>
-        <v/>
-      </c>
-      <c r="D33" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E33" s="10">
-        <f>'By Round'!C16</f>
-        <v/>
-      </c>
-      <c r="F33" s="10">
-        <f>'By Round'!E16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="10">
-        <f>'By Round'!A18</f>
-        <v/>
-      </c>
-      <c r="C34" s="10">
-        <f>'By Round'!B18</f>
-        <v/>
-      </c>
-      <c r="D34" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E34" s="10">
-        <f>'By Round'!C18</f>
-        <v/>
-      </c>
-      <c r="F34" s="10">
-        <f>'By Round'!E18</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="10">
-        <f>'By Round'!A22</f>
-        <v/>
-      </c>
-      <c r="C35" s="10">
-        <f>'By Round'!B25</f>
-        <v/>
-      </c>
-      <c r="D35" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E35" s="10">
-        <f>'By Round'!D25</f>
-        <v/>
-      </c>
-      <c r="F35" s="10">
-        <f>'By Round'!E25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="10">
-        <f>'By Round'!A26</f>
-        <v/>
-      </c>
-      <c r="C36" s="10">
-        <f>'By Round'!B27</f>
-        <v/>
-      </c>
-      <c r="D36" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E36" s="10">
-        <f>'By Round'!D27</f>
-        <v/>
-      </c>
-      <c r="F36" s="10">
-        <f>'By Round'!E27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>6</v>
-      </c>
-      <c r="B37" s="10">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C37" s="10">
-        <f>'By Round'!B3</f>
-        <v/>
-      </c>
-      <c r="D37" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E37" s="10">
-        <f>'By Round'!D3</f>
-        <v/>
-      </c>
-      <c r="F37" s="10">
-        <f>'By Round'!E3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="10">
-        <f>'By Round'!A6</f>
-        <v/>
-      </c>
-      <c r="C38" s="10">
-        <f>'By Round'!B7</f>
-        <v/>
-      </c>
-      <c r="D38" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E38" s="10">
-        <f>'By Round'!C7</f>
-        <v/>
-      </c>
-      <c r="F38" s="10">
-        <f>'By Round'!E7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="10">
-        <f>'By Round'!A10</f>
-        <v/>
-      </c>
-      <c r="C39" s="10">
-        <f>'By Round'!B12</f>
-        <v/>
-      </c>
-      <c r="D39" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E39" s="10">
-        <f>'By Round'!D12</f>
-        <v/>
-      </c>
-      <c r="F39" s="10">
-        <f>'By Round'!E12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="10">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C40" s="10">
-        <f>'By Round'!B17</f>
-        <v/>
-      </c>
-      <c r="D40" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E40" s="10">
-        <f>'By Round'!C17</f>
-        <v/>
-      </c>
-      <c r="F40" s="10">
-        <f>'By Round'!E17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="10">
-        <f>'By Round'!A18</f>
-        <v/>
-      </c>
-      <c r="C41" s="10">
-        <f>'By Round'!B20</f>
-        <v/>
-      </c>
-      <c r="D41" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E41" s="10">
-        <f>'By Round'!C20</f>
-        <v/>
-      </c>
-      <c r="F41" s="10">
-        <f>'By Round'!E20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="10">
-        <f>'By Round'!A22</f>
-        <v/>
-      </c>
-      <c r="C42" s="10">
-        <f>'By Round'!B22</f>
-        <v/>
-      </c>
-      <c r="D42" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E42" s="10">
-        <f>'By Round'!C22</f>
-        <v/>
-      </c>
-      <c r="F42" s="10">
-        <f>'By Round'!E22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="10">
-        <f>'By Round'!A26</f>
-        <v/>
-      </c>
-      <c r="C43" s="10">
-        <f>'By Round'!B29</f>
-        <v/>
-      </c>
-      <c r="D43" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E43" s="10">
-        <f>'By Round'!D29</f>
-        <v/>
-      </c>
-      <c r="F43" s="10">
-        <f>'By Round'!E29</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>7</v>
-      </c>
-      <c r="B44" s="10">
-        <f>'By Round'!A2</f>
-        <v/>
-      </c>
-      <c r="C44" s="10">
-        <f>'By Round'!B5</f>
-        <v/>
-      </c>
-      <c r="D44" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E44" s="10">
-        <f>'By Round'!D5</f>
-        <v/>
-      </c>
-      <c r="F44" s="10">
-        <f>'By Round'!E5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="10">
-        <f>'By Round'!A6</f>
-        <v/>
-      </c>
-      <c r="C45" s="10">
-        <f>'By Round'!B7</f>
-        <v/>
-      </c>
-      <c r="D45" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E45" s="10">
-        <f>'By Round'!D7</f>
-        <v/>
-      </c>
-      <c r="F45" s="10">
-        <f>'By Round'!E7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="10">
-        <f>'By Round'!A10</f>
-        <v/>
-      </c>
-      <c r="C46" s="10">
-        <f>'By Round'!B11</f>
-        <v/>
-      </c>
-      <c r="D46" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E46" s="10">
-        <f>'By Round'!C11</f>
-        <v/>
-      </c>
-      <c r="F46" s="10">
-        <f>'By Round'!E11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="10">
-        <f>'By Round'!A14</f>
-        <v/>
-      </c>
-      <c r="C47" s="10">
-        <f>'By Round'!B16</f>
-        <v/>
-      </c>
-      <c r="D47" s="10" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="E47" s="10">
-        <f>'By Round'!D16</f>
-        <v/>
-      </c>
-      <c r="F47" s="10">
-        <f>'By Round'!E16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="10">
-        <f>'By Round'!A18</f>
-        <v/>
-      </c>
-      <c r="C48" s="10">
-        <f>'By Round'!B21</f>
-        <v/>
-      </c>
-      <c r="D48" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E48" s="10">
-        <f>'By Round'!C21</f>
-        <v/>
-      </c>
-      <c r="F48" s="10">
-        <f>'By Round'!E21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="10">
-        <f>'By Round'!A22</f>
-        <v/>
-      </c>
-      <c r="C49" s="10">
-        <f>'By Round'!B24</f>
-        <v/>
-      </c>
-      <c r="D49" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E49" s="10">
-        <f>'By Round'!C24</f>
-        <v/>
-      </c>
-      <c r="F49" s="10">
-        <f>'By Round'!E24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="10">
-        <f>'By Round'!A26</f>
-        <v/>
-      </c>
-      <c r="C50" s="10">
-        <f>'By Round'!B26</f>
-        <v/>
-      </c>
-      <c r="D50" s="10" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E50" s="10">
-        <f>'By Round'!C26</f>
-        <v/>
-      </c>
-      <c r="F50" s="10">
-        <f>'By Round'!E26</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7115,12 +6776,12 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="16" t="inlineStr">
         <is>
           <t>Board #</t>
         </is>
       </c>
-      <c r="C1" s="12" t="n"/>
+      <c r="C1" s="16" t="n"/>
       <c r="D1" t="inlineStr">
         <is>
           <t>0 for contract made, "Avg" for incomplete</t>
@@ -7160,64 +6821,64 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="n"/>
-      <c r="C4" s="14" t="n"/>
-      <c r="D4" s="14" t="n"/>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="14" t="n"/>
+      <c r="B4" s="18" t="n"/>
+      <c r="C4" s="18" t="n"/>
+      <c r="D4" s="18" t="n"/>
+      <c r="E4" s="18" t="n"/>
+      <c r="F4" s="18" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="n"/>
-      <c r="C5" s="14" t="n"/>
-      <c r="D5" s="14" t="n"/>
-      <c r="E5" s="14" t="n"/>
-      <c r="F5" s="14" t="n"/>
+      <c r="B5" s="18" t="n"/>
+      <c r="C5" s="18" t="n"/>
+      <c r="D5" s="18" t="n"/>
+      <c r="E5" s="18" t="n"/>
+      <c r="F5" s="18" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="n"/>
-      <c r="C6" s="14" t="n"/>
-      <c r="D6" s="14" t="n"/>
-      <c r="E6" s="14" t="n"/>
-      <c r="F6" s="14" t="n"/>
+      <c r="B6" s="18" t="n"/>
+      <c r="C6" s="18" t="n"/>
+      <c r="D6" s="18" t="n"/>
+      <c r="E6" s="18" t="n"/>
+      <c r="F6" s="18" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="n"/>
-      <c r="C7" s="14" t="n"/>
-      <c r="D7" s="14" t="n"/>
-      <c r="E7" s="14" t="n"/>
-      <c r="F7" s="14" t="n"/>
+      <c r="B7" s="18" t="n"/>
+      <c r="C7" s="18" t="n"/>
+      <c r="D7" s="18" t="n"/>
+      <c r="E7" s="18" t="n"/>
+      <c r="F7" s="18" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="n"/>
-      <c r="C8" s="14" t="n"/>
-      <c r="D8" s="14" t="n"/>
-      <c r="E8" s="14" t="n"/>
-      <c r="F8" s="14" t="n"/>
+      <c r="B8" s="18" t="n"/>
+      <c r="C8" s="18" t="n"/>
+      <c r="D8" s="18" t="n"/>
+      <c r="E8" s="18" t="n"/>
+      <c r="F8" s="18" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="n"/>
-      <c r="C9" s="14" t="n"/>
-      <c r="D9" s="14" t="n"/>
-      <c r="E9" s="14" t="n"/>
-      <c r="F9" s="14" t="n"/>
+      <c r="B9" s="18" t="n"/>
+      <c r="C9" s="18" t="n"/>
+      <c r="D9" s="18" t="n"/>
+      <c r="E9" s="18" t="n"/>
+      <c r="F9" s="18" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7227,7 +6888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7538,7 +7199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7641,25 +7302,25 @@
           <t>1 D/C</t>
         </is>
       </c>
-      <c r="B3" s="15" t="n">
+      <c r="B3" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="n">
+      <c r="C3" s="20" t="n">
         <v>70</v>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="20" t="n">
         <v>140</v>
       </c>
-      <c r="E3" s="16" t="n">
+      <c r="E3" s="20" t="n">
         <v>230</v>
       </c>
-      <c r="F3" s="16" t="n">
+      <c r="F3" s="20" t="n">
         <v>70</v>
       </c>
-      <c r="G3" s="16" t="n">
+      <c r="G3" s="20" t="n">
         <v>140</v>
       </c>
-      <c r="H3" s="16" t="n">
+      <c r="H3" s="20" t="n">
         <v>230</v>
       </c>
       <c r="J3" t="n">
@@ -7687,25 +7348,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="15" t="n">
+      <c r="B4" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="20" t="n">
         <v>90</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="20" t="n">
         <v>240</v>
       </c>
-      <c r="E4" s="16" t="n">
+      <c r="E4" s="20" t="n">
         <v>430</v>
       </c>
-      <c r="F4" s="16" t="n">
+      <c r="F4" s="20" t="n">
         <v>90</v>
       </c>
-      <c r="G4" s="16" t="n">
+      <c r="G4" s="20" t="n">
         <v>340</v>
       </c>
-      <c r="H4" s="16" t="n">
+      <c r="H4" s="20" t="n">
         <v>630</v>
       </c>
       <c r="J4" t="n">
@@ -7737,25 +7398,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="15" t="n">
+      <c r="B5" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="n">
+      <c r="C5" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="20" t="n">
         <v>340</v>
       </c>
-      <c r="E5" s="16" t="n">
+      <c r="E5" s="20" t="n">
         <v>630</v>
       </c>
-      <c r="F5" s="16" t="n">
+      <c r="F5" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="G5" s="16" t="n">
+      <c r="G5" s="20" t="n">
         <v>540</v>
       </c>
-      <c r="H5" s="16" t="n">
+      <c r="H5" s="20" t="n">
         <v>1030</v>
       </c>
       <c r="J5" t="n">
@@ -7787,25 +7448,25 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="15" t="n">
+      <c r="B6" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="20" t="n">
         <v>130</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="20" t="n">
         <v>440</v>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E6" s="20" t="n">
         <v>830</v>
       </c>
-      <c r="F6" s="16" t="n">
+      <c r="F6" s="20" t="n">
         <v>130</v>
       </c>
-      <c r="G6" s="16" t="n">
+      <c r="G6" s="20" t="n">
         <v>740</v>
       </c>
-      <c r="H6" s="16" t="n">
+      <c r="H6" s="20" t="n">
         <v>1430</v>
       </c>
       <c r="J6" t="n">
@@ -7837,25 +7498,25 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="15" t="n">
+      <c r="B7" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="16" t="n">
+      <c r="C7" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D7" s="20" t="n">
         <v>540</v>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E7" s="20" t="n">
         <v>1030</v>
       </c>
-      <c r="F7" s="16" t="n">
+      <c r="F7" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="G7" s="16" t="n">
+      <c r="G7" s="20" t="n">
         <v>940</v>
       </c>
-      <c r="H7" s="16" t="n">
+      <c r="H7" s="20" t="n">
         <v>1830</v>
       </c>
       <c r="J7" t="n">
@@ -7887,25 +7548,25 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="15" t="n">
+      <c r="B8" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="20" t="n">
         <v>640</v>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="20" t="n">
         <v>1230</v>
       </c>
-      <c r="F8" s="16" t="n">
+      <c r="F8" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="G8" s="16" t="n">
+      <c r="G8" s="20" t="n">
         <v>1140</v>
       </c>
-      <c r="H8" s="16" t="n">
+      <c r="H8" s="20" t="n">
         <v>2230</v>
       </c>
       <c r="J8" t="n">
@@ -7937,25 +7598,25 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="15" t="n">
+      <c r="B9" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="C9" s="16" t="n">
+      <c r="C9" s="20" t="n">
         <v>190</v>
       </c>
-      <c r="D9" s="16" t="n">
+      <c r="D9" s="20" t="n">
         <v>740</v>
       </c>
-      <c r="E9" s="16" t="n">
+      <c r="E9" s="20" t="n">
         <v>1430</v>
       </c>
-      <c r="F9" s="16" t="n">
+      <c r="F9" s="20" t="n">
         <v>190</v>
       </c>
-      <c r="G9" s="16" t="n">
+      <c r="G9" s="20" t="n">
         <v>1340</v>
       </c>
-      <c r="H9" s="16" t="n">
+      <c r="H9" s="20" t="n">
         <v>2630</v>
       </c>
       <c r="J9" t="n">
@@ -7992,25 +7653,25 @@
           <t>1 H/S</t>
         </is>
       </c>
-      <c r="B10" s="15" t="n">
+      <c r="B10" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="16" t="n">
+      <c r="C10" s="20" t="n">
         <v>80</v>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="20" t="n">
         <v>160</v>
       </c>
-      <c r="E10" s="16" t="n">
+      <c r="E10" s="20" t="n">
         <v>520</v>
       </c>
-      <c r="F10" s="16" t="n">
+      <c r="F10" s="20" t="n">
         <v>80</v>
       </c>
-      <c r="G10" s="16" t="n">
+      <c r="G10" s="20" t="n">
         <v>160</v>
       </c>
-      <c r="H10" s="16" t="n">
+      <c r="H10" s="20" t="n">
         <v>720</v>
       </c>
       <c r="J10" t="n">
@@ -8042,25 +7703,25 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="15" t="n">
+      <c r="B11" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="16" t="n">
+      <c r="C11" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="D11" s="16" t="n">
+      <c r="D11" s="20" t="n">
         <v>260</v>
       </c>
-      <c r="E11" s="16" t="n">
+      <c r="E11" s="20" t="n">
         <v>720</v>
       </c>
-      <c r="F11" s="16" t="n">
+      <c r="F11" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="G11" s="16" t="n">
+      <c r="G11" s="20" t="n">
         <v>360</v>
       </c>
-      <c r="H11" s="16" t="n">
+      <c r="H11" s="20" t="n">
         <v>1120</v>
       </c>
       <c r="J11" t="n">
@@ -8092,25 +7753,25 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="15" t="n">
+      <c r="B12" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" s="20" t="n">
         <v>140</v>
       </c>
-      <c r="D12" s="16" t="n">
+      <c r="D12" s="20" t="n">
         <v>360</v>
       </c>
-      <c r="E12" s="16" t="n">
+      <c r="E12" s="20" t="n">
         <v>920</v>
       </c>
-      <c r="F12" s="16" t="n">
+      <c r="F12" s="20" t="n">
         <v>140</v>
       </c>
-      <c r="G12" s="16" t="n">
+      <c r="G12" s="20" t="n">
         <v>560</v>
       </c>
-      <c r="H12" s="16" t="n">
+      <c r="H12" s="20" t="n">
         <v>1520</v>
       </c>
       <c r="J12" t="n">
@@ -8142,25 +7803,25 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="15" t="n">
+      <c r="B13" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="16" t="n">
+      <c r="C13" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="D13" s="16" t="n">
+      <c r="D13" s="20" t="n">
         <v>460</v>
       </c>
-      <c r="E13" s="16" t="n">
+      <c r="E13" s="20" t="n">
         <v>1120</v>
       </c>
-      <c r="F13" s="16" t="n">
+      <c r="F13" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="G13" s="16" t="n">
+      <c r="G13" s="20" t="n">
         <v>760</v>
       </c>
-      <c r="H13" s="16" t="n">
+      <c r="H13" s="20" t="n">
         <v>1920</v>
       </c>
       <c r="J13" t="n">
@@ -8192,25 +7853,25 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="15" t="n">
+      <c r="B14" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="D14" s="16" t="n">
+      <c r="D14" s="20" t="n">
         <v>560</v>
       </c>
-      <c r="E14" s="16" t="n">
+      <c r="E14" s="20" t="n">
         <v>1320</v>
       </c>
-      <c r="F14" s="16" t="n">
+      <c r="F14" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="16" t="n">
+      <c r="G14" s="20" t="n">
         <v>960</v>
       </c>
-      <c r="H14" s="16" t="n">
+      <c r="H14" s="20" t="n">
         <v>2320</v>
       </c>
       <c r="J14" t="n">
@@ -8242,25 +7903,25 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="15" t="n">
+      <c r="B15" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="C15" s="16" t="n">
+      <c r="C15" s="20" t="n">
         <v>230</v>
       </c>
-      <c r="D15" s="16" t="n">
+      <c r="D15" s="20" t="n">
         <v>660</v>
       </c>
-      <c r="E15" s="16" t="n">
+      <c r="E15" s="20" t="n">
         <v>1520</v>
       </c>
-      <c r="F15" s="16" t="n">
+      <c r="F15" s="20" t="n">
         <v>230</v>
       </c>
-      <c r="G15" s="16" t="n">
+      <c r="G15" s="20" t="n">
         <v>1160</v>
       </c>
-      <c r="H15" s="16" t="n">
+      <c r="H15" s="20" t="n">
         <v>2720</v>
       </c>
       <c r="J15" t="n">
@@ -8292,25 +7953,25 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="15" t="n">
+      <c r="B16" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="C16" s="16" t="n">
+      <c r="C16" s="20" t="n">
         <v>260</v>
       </c>
-      <c r="D16" s="16" t="n">
+      <c r="D16" s="20" t="n">
         <v>760</v>
       </c>
-      <c r="E16" s="16" t="n">
+      <c r="E16" s="20" t="n">
         <v>1720</v>
       </c>
-      <c r="F16" s="16" t="n">
+      <c r="F16" s="20" t="n">
         <v>260</v>
       </c>
-      <c r="G16" s="16" t="n">
+      <c r="G16" s="20" t="n">
         <v>1360</v>
       </c>
-      <c r="H16" s="16" t="n">
+      <c r="H16" s="20" t="n">
         <v>3120</v>
       </c>
     </row>
@@ -8320,163 +7981,163 @@
           <t>1 NT</t>
         </is>
       </c>
-      <c r="B17" s="15" t="n">
+      <c r="B17" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="16" t="n">
+      <c r="C17" s="20" t="n">
         <v>90</v>
       </c>
-      <c r="D17" s="16" t="n">
+      <c r="D17" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="20" t="n">
         <v>560</v>
       </c>
-      <c r="F17" s="16" t="n">
+      <c r="F17" s="20" t="n">
         <v>90</v>
       </c>
-      <c r="G17" s="16" t="n">
+      <c r="G17" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="H17" s="16" t="n">
+      <c r="H17" s="20" t="n">
         <v>760</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="15" t="n">
+      <c r="B18" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="16" t="n">
+      <c r="C18" s="20" t="n">
         <v>120</v>
       </c>
-      <c r="D18" s="16" t="n">
+      <c r="D18" s="20" t="n">
         <v>280</v>
       </c>
-      <c r="E18" s="16" t="n">
+      <c r="E18" s="20" t="n">
         <v>760</v>
       </c>
-      <c r="F18" s="16" t="n">
+      <c r="F18" s="20" t="n">
         <v>120</v>
       </c>
-      <c r="G18" s="16" t="n">
+      <c r="G18" s="20" t="n">
         <v>380</v>
       </c>
-      <c r="H18" s="16" t="n">
+      <c r="H18" s="20" t="n">
         <v>1160</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="15" t="n">
+      <c r="B19" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C19" s="16" t="n">
+      <c r="C19" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="D19" s="16" t="n">
+      <c r="D19" s="20" t="n">
         <v>380</v>
       </c>
-      <c r="E19" s="16" t="n">
+      <c r="E19" s="20" t="n">
         <v>960</v>
       </c>
-      <c r="F19" s="16" t="n">
+      <c r="F19" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="G19" s="16" t="n">
+      <c r="G19" s="20" t="n">
         <v>580</v>
       </c>
-      <c r="H19" s="16" t="n">
+      <c r="H19" s="20" t="n">
         <v>1560</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="15" t="n">
+      <c r="B20" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C20" s="16" t="n">
+      <c r="C20" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="D20" s="16" t="n">
+      <c r="D20" s="20" t="n">
         <v>480</v>
       </c>
-      <c r="E20" s="16" t="n">
+      <c r="E20" s="20" t="n">
         <v>1160</v>
       </c>
-      <c r="F20" s="16" t="n">
+      <c r="F20" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="G20" s="16" t="n">
+      <c r="G20" s="20" t="n">
         <v>780</v>
       </c>
-      <c r="H20" s="16" t="n">
+      <c r="H20" s="20" t="n">
         <v>1960</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="n">
+      <c r="B21" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C21" s="16" t="n">
+      <c r="C21" s="20" t="n">
         <v>210</v>
       </c>
-      <c r="D21" s="16" t="n">
+      <c r="D21" s="20" t="n">
         <v>580</v>
       </c>
-      <c r="E21" s="16" t="n">
+      <c r="E21" s="20" t="n">
         <v>1360</v>
       </c>
-      <c r="F21" s="16" t="n">
+      <c r="F21" s="20" t="n">
         <v>210</v>
       </c>
-      <c r="G21" s="16" t="n">
+      <c r="G21" s="20" t="n">
         <v>980</v>
       </c>
-      <c r="H21" s="16" t="n">
+      <c r="H21" s="20" t="n">
         <v>2360</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="15" t="n">
+      <c r="B22" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="C22" s="16" t="n">
+      <c r="C22" s="20" t="n">
         <v>240</v>
       </c>
-      <c r="D22" s="16" t="n">
+      <c r="D22" s="20" t="n">
         <v>680</v>
       </c>
-      <c r="E22" s="16" t="n">
+      <c r="E22" s="20" t="n">
         <v>1560</v>
       </c>
-      <c r="F22" s="16" t="n">
+      <c r="F22" s="20" t="n">
         <v>240</v>
       </c>
-      <c r="G22" s="16" t="n">
+      <c r="G22" s="20" t="n">
         <v>1180</v>
       </c>
-      <c r="H22" s="16" t="n">
+      <c r="H22" s="20" t="n">
         <v>2760</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="15" t="n">
+      <c r="B23" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="C23" s="16" t="n">
+      <c r="C23" s="20" t="n">
         <v>270</v>
       </c>
-      <c r="D23" s="16" t="n">
+      <c r="D23" s="20" t="n">
         <v>780</v>
       </c>
-      <c r="E23" s="16" t="n">
+      <c r="E23" s="20" t="n">
         <v>1760</v>
       </c>
-      <c r="F23" s="16" t="n">
+      <c r="F23" s="20" t="n">
         <v>270</v>
       </c>
-      <c r="G23" s="16" t="n">
+      <c r="G23" s="20" t="n">
         <v>1380</v>
       </c>
-      <c r="H23" s="16" t="n">
+      <c r="H23" s="20" t="n">
         <v>3160</v>
       </c>
     </row>
@@ -8486,140 +8147,140 @@
           <t>2 D/C</t>
         </is>
       </c>
-      <c r="B24" s="15" t="n">
+      <c r="B24" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C24" s="16" t="n">
+      <c r="C24" s="20" t="n">
         <v>90</v>
       </c>
-      <c r="D24" s="16" t="n">
+      <c r="D24" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="E24" s="16" t="n">
+      <c r="E24" s="20" t="n">
         <v>560</v>
       </c>
-      <c r="F24" s="16" t="n">
+      <c r="F24" s="20" t="n">
         <v>90</v>
       </c>
-      <c r="G24" s="16" t="n">
+      <c r="G24" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="H24" s="16" t="n">
+      <c r="H24" s="20" t="n">
         <v>760</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="15" t="n">
+      <c r="B25" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="16" t="n">
+      <c r="C25" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="D25" s="16" t="n">
+      <c r="D25" s="20" t="n">
         <v>280</v>
       </c>
-      <c r="E25" s="16" t="n">
+      <c r="E25" s="20" t="n">
         <v>760</v>
       </c>
-      <c r="F25" s="16" t="n">
+      <c r="F25" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="G25" s="16" t="n">
+      <c r="G25" s="20" t="n">
         <v>380</v>
       </c>
-      <c r="H25" s="16" t="n">
+      <c r="H25" s="20" t="n">
         <v>1160</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n">
+      <c r="B26" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C26" s="16" t="n">
+      <c r="C26" s="20" t="n">
         <v>130</v>
       </c>
-      <c r="D26" s="16" t="n">
+      <c r="D26" s="20" t="n">
         <v>380</v>
       </c>
-      <c r="E26" s="16" t="n">
+      <c r="E26" s="20" t="n">
         <v>960</v>
       </c>
-      <c r="F26" s="16" t="n">
+      <c r="F26" s="20" t="n">
         <v>130</v>
       </c>
-      <c r="G26" s="16" t="n">
+      <c r="G26" s="20" t="n">
         <v>580</v>
       </c>
-      <c r="H26" s="16" t="n">
+      <c r="H26" s="20" t="n">
         <v>1560</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="15" t="n">
+      <c r="B27" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C27" s="16" t="n">
+      <c r="C27" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="D27" s="16" t="n">
+      <c r="D27" s="20" t="n">
         <v>480</v>
       </c>
-      <c r="E27" s="16" t="n">
+      <c r="E27" s="20" t="n">
         <v>1160</v>
       </c>
-      <c r="F27" s="16" t="n">
+      <c r="F27" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="G27" s="16" t="n">
+      <c r="G27" s="20" t="n">
         <v>780</v>
       </c>
-      <c r="H27" s="16" t="n">
+      <c r="H27" s="20" t="n">
         <v>1960</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="15" t="n">
+      <c r="B28" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C28" s="16" t="n">
+      <c r="C28" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="D28" s="16" t="n">
+      <c r="D28" s="20" t="n">
         <v>580</v>
       </c>
-      <c r="E28" s="16" t="n">
+      <c r="E28" s="20" t="n">
         <v>1360</v>
       </c>
-      <c r="F28" s="16" t="n">
+      <c r="F28" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="G28" s="16" t="n">
+      <c r="G28" s="20" t="n">
         <v>980</v>
       </c>
-      <c r="H28" s="16" t="n">
+      <c r="H28" s="20" t="n">
         <v>2360</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="15" t="n">
+      <c r="B29" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="C29" s="16" t="n">
+      <c r="C29" s="20" t="n">
         <v>190</v>
       </c>
-      <c r="D29" s="16" t="n">
+      <c r="D29" s="20" t="n">
         <v>680</v>
       </c>
-      <c r="E29" s="16" t="n">
+      <c r="E29" s="20" t="n">
         <v>1560</v>
       </c>
-      <c r="F29" s="16" t="n">
+      <c r="F29" s="20" t="n">
         <v>190</v>
       </c>
-      <c r="G29" s="16" t="n">
+      <c r="G29" s="20" t="n">
         <v>1180</v>
       </c>
-      <c r="H29" s="16" t="n">
+      <c r="H29" s="20" t="n">
         <v>2760</v>
       </c>
     </row>
@@ -8629,140 +8290,140 @@
           <t>2 H/S</t>
         </is>
       </c>
-      <c r="B30" s="15" t="n">
+      <c r="B30" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C30" s="16" t="n">
+      <c r="C30" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="D30" s="16" t="n">
+      <c r="D30" s="20" t="n">
         <v>470</v>
       </c>
-      <c r="E30" s="16" t="n">
+      <c r="E30" s="20" t="n">
         <v>640</v>
       </c>
-      <c r="F30" s="16" t="n">
+      <c r="F30" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="G30" s="16" t="n">
+      <c r="G30" s="20" t="n">
         <v>670</v>
       </c>
-      <c r="H30" s="16" t="n">
+      <c r="H30" s="20" t="n">
         <v>840</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="15" t="n">
+      <c r="B31" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="16" t="n">
+      <c r="C31" s="20" t="n">
         <v>140</v>
       </c>
-      <c r="D31" s="16" t="n">
+      <c r="D31" s="20" t="n">
         <v>570</v>
       </c>
-      <c r="E31" s="16" t="n">
+      <c r="E31" s="20" t="n">
         <v>840</v>
       </c>
-      <c r="F31" s="16" t="n">
+      <c r="F31" s="20" t="n">
         <v>140</v>
       </c>
-      <c r="G31" s="16" t="n">
+      <c r="G31" s="20" t="n">
         <v>870</v>
       </c>
-      <c r="H31" s="16" t="n">
+      <c r="H31" s="20" t="n">
         <v>1240</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="15" t="n">
+      <c r="B32" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C32" s="16" t="n">
+      <c r="C32" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="D32" s="16" t="n">
+      <c r="D32" s="20" t="n">
         <v>670</v>
       </c>
-      <c r="E32" s="16" t="n">
+      <c r="E32" s="20" t="n">
         <v>1040</v>
       </c>
-      <c r="F32" s="16" t="n">
+      <c r="F32" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="G32" s="16" t="n">
+      <c r="G32" s="20" t="n">
         <v>1070</v>
       </c>
-      <c r="H32" s="16" t="n">
+      <c r="H32" s="20" t="n">
         <v>1640</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="15" t="n">
+      <c r="B33" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C33" s="16" t="n">
+      <c r="C33" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="D33" s="16" t="n">
+      <c r="D33" s="20" t="n">
         <v>770</v>
       </c>
-      <c r="E33" s="16" t="n">
+      <c r="E33" s="20" t="n">
         <v>1240</v>
       </c>
-      <c r="F33" s="16" t="n">
+      <c r="F33" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="G33" s="16" t="n">
+      <c r="G33" s="20" t="n">
         <v>1270</v>
       </c>
-      <c r="H33" s="16" t="n">
+      <c r="H33" s="20" t="n">
         <v>2040</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="15" t="n">
+      <c r="B34" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C34" s="16" t="n">
+      <c r="C34" s="20" t="n">
         <v>230</v>
       </c>
-      <c r="D34" s="16" t="n">
+      <c r="D34" s="20" t="n">
         <v>870</v>
       </c>
-      <c r="E34" s="16" t="n">
+      <c r="E34" s="20" t="n">
         <v>1440</v>
       </c>
-      <c r="F34" s="16" t="n">
+      <c r="F34" s="20" t="n">
         <v>230</v>
       </c>
-      <c r="G34" s="16" t="n">
+      <c r="G34" s="20" t="n">
         <v>1470</v>
       </c>
-      <c r="H34" s="16" t="n">
+      <c r="H34" s="20" t="n">
         <v>2440</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="15" t="n">
+      <c r="B35" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="C35" s="16" t="n">
+      <c r="C35" s="20" t="n">
         <v>260</v>
       </c>
-      <c r="D35" s="16" t="n">
+      <c r="D35" s="20" t="n">
         <v>970</v>
       </c>
-      <c r="E35" s="16" t="n">
+      <c r="E35" s="20" t="n">
         <v>1640</v>
       </c>
-      <c r="F35" s="16" t="n">
+      <c r="F35" s="20" t="n">
         <v>260</v>
       </c>
-      <c r="G35" s="16" t="n">
+      <c r="G35" s="20" t="n">
         <v>1670</v>
       </c>
-      <c r="H35" s="16" t="n">
+      <c r="H35" s="20" t="n">
         <v>2840</v>
       </c>
     </row>
@@ -8772,140 +8433,140 @@
           <t>2 NT</t>
         </is>
       </c>
-      <c r="B36" s="15" t="n">
+      <c r="B36" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C36" s="16" t="n">
+      <c r="C36" s="20" t="n">
         <v>120</v>
       </c>
-      <c r="D36" s="16" t="n">
+      <c r="D36" s="20" t="n">
         <v>490</v>
       </c>
-      <c r="E36" s="16" t="n">
+      <c r="E36" s="20" t="n">
         <v>680</v>
       </c>
-      <c r="F36" s="16" t="n">
+      <c r="F36" s="20" t="n">
         <v>120</v>
       </c>
-      <c r="G36" s="16" t="n">
+      <c r="G36" s="20" t="n">
         <v>690</v>
       </c>
-      <c r="H36" s="16" t="n">
+      <c r="H36" s="20" t="n">
         <v>880</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="15" t="n">
+      <c r="B37" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="16" t="n">
+      <c r="C37" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="D37" s="16" t="n">
+      <c r="D37" s="20" t="n">
         <v>590</v>
       </c>
-      <c r="E37" s="16" t="n">
+      <c r="E37" s="20" t="n">
         <v>880</v>
       </c>
-      <c r="F37" s="16" t="n">
+      <c r="F37" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="G37" s="16" t="n">
+      <c r="G37" s="20" t="n">
         <v>890</v>
       </c>
-      <c r="H37" s="16" t="n">
+      <c r="H37" s="20" t="n">
         <v>1280</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="15" t="n">
+      <c r="B38" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C38" s="16" t="n">
+      <c r="C38" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="D38" s="16" t="n">
+      <c r="D38" s="20" t="n">
         <v>690</v>
       </c>
-      <c r="E38" s="16" t="n">
+      <c r="E38" s="20" t="n">
         <v>1080</v>
       </c>
-      <c r="F38" s="16" t="n">
+      <c r="F38" s="20" t="n">
         <v>180</v>
       </c>
-      <c r="G38" s="16" t="n">
+      <c r="G38" s="20" t="n">
         <v>1090</v>
       </c>
-      <c r="H38" s="16" t="n">
+      <c r="H38" s="20" t="n">
         <v>1680</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="15" t="n">
+      <c r="B39" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C39" s="16" t="n">
+      <c r="C39" s="20" t="n">
         <v>210</v>
       </c>
-      <c r="D39" s="16" t="n">
+      <c r="D39" s="20" t="n">
         <v>790</v>
       </c>
-      <c r="E39" s="16" t="n">
+      <c r="E39" s="20" t="n">
         <v>1280</v>
       </c>
-      <c r="F39" s="16" t="n">
+      <c r="F39" s="20" t="n">
         <v>210</v>
       </c>
-      <c r="G39" s="16" t="n">
+      <c r="G39" s="20" t="n">
         <v>1290</v>
       </c>
-      <c r="H39" s="16" t="n">
+      <c r="H39" s="20" t="n">
         <v>2080</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="15" t="n">
+      <c r="B40" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C40" s="16" t="n">
+      <c r="C40" s="20" t="n">
         <v>240</v>
       </c>
-      <c r="D40" s="16" t="n">
+      <c r="D40" s="20" t="n">
         <v>890</v>
       </c>
-      <c r="E40" s="16" t="n">
+      <c r="E40" s="20" t="n">
         <v>1480</v>
       </c>
-      <c r="F40" s="16" t="n">
+      <c r="F40" s="20" t="n">
         <v>240</v>
       </c>
-      <c r="G40" s="16" t="n">
+      <c r="G40" s="20" t="n">
         <v>1490</v>
       </c>
-      <c r="H40" s="16" t="n">
+      <c r="H40" s="20" t="n">
         <v>2480</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="15" t="n">
+      <c r="B41" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="C41" s="16" t="n">
+      <c r="C41" s="20" t="n">
         <v>270</v>
       </c>
-      <c r="D41" s="16" t="n">
+      <c r="D41" s="20" t="n">
         <v>990</v>
       </c>
-      <c r="E41" s="16" t="n">
+      <c r="E41" s="20" t="n">
         <v>1680</v>
       </c>
-      <c r="F41" s="16" t="n">
+      <c r="F41" s="20" t="n">
         <v>270</v>
       </c>
-      <c r="G41" s="16" t="n">
+      <c r="G41" s="20" t="n">
         <v>1690</v>
       </c>
-      <c r="H41" s="16" t="n">
+      <c r="H41" s="20" t="n">
         <v>2880</v>
       </c>
     </row>
@@ -8915,117 +8576,117 @@
           <t>3 D/C</t>
         </is>
       </c>
-      <c r="B42" s="15" t="n">
+      <c r="B42" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C42" s="16" t="n">
+      <c r="C42" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="D42" s="16" t="n">
+      <c r="D42" s="20" t="n">
         <v>470</v>
       </c>
-      <c r="E42" s="16" t="n">
+      <c r="E42" s="20" t="n">
         <v>640</v>
       </c>
-      <c r="F42" s="16" t="n">
+      <c r="F42" s="20" t="n">
         <v>110</v>
       </c>
-      <c r="G42" s="16" t="n">
+      <c r="G42" s="20" t="n">
         <v>670</v>
       </c>
-      <c r="H42" s="16" t="n">
+      <c r="H42" s="20" t="n">
         <v>840</v>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="15" t="n">
+      <c r="B43" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="16" t="n">
+      <c r="C43" s="20" t="n">
         <v>130</v>
       </c>
-      <c r="D43" s="16" t="n">
+      <c r="D43" s="20" t="n">
         <v>570</v>
       </c>
-      <c r="E43" s="16" t="n">
+      <c r="E43" s="20" t="n">
         <v>840</v>
       </c>
-      <c r="F43" s="16" t="n">
+      <c r="F43" s="20" t="n">
         <v>130</v>
       </c>
-      <c r="G43" s="16" t="n">
+      <c r="G43" s="20" t="n">
         <v>870</v>
       </c>
-      <c r="H43" s="16" t="n">
+      <c r="H43" s="20" t="n">
         <v>1240</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="15" t="n">
+      <c r="B44" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C44" s="16" t="n">
+      <c r="C44" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="D44" s="16" t="n">
+      <c r="D44" s="20" t="n">
         <v>670</v>
       </c>
-      <c r="E44" s="16" t="n">
+      <c r="E44" s="20" t="n">
         <v>1040</v>
       </c>
-      <c r="F44" s="16" t="n">
+      <c r="F44" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="G44" s="16" t="n">
+      <c r="G44" s="20" t="n">
         <v>1070</v>
       </c>
-      <c r="H44" s="16" t="n">
+      <c r="H44" s="20" t="n">
         <v>1640</v>
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="15" t="n">
+      <c r="B45" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C45" s="16" t="n">
+      <c r="C45" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="D45" s="16" t="n">
+      <c r="D45" s="20" t="n">
         <v>770</v>
       </c>
-      <c r="E45" s="16" t="n">
+      <c r="E45" s="20" t="n">
         <v>1240</v>
       </c>
-      <c r="F45" s="16" t="n">
+      <c r="F45" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="G45" s="16" t="n">
+      <c r="G45" s="20" t="n">
         <v>1270</v>
       </c>
-      <c r="H45" s="16" t="n">
+      <c r="H45" s="20" t="n">
         <v>2040</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="15" t="n">
+      <c r="B46" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C46" s="16" t="n">
+      <c r="C46" s="20" t="n">
         <v>190</v>
       </c>
-      <c r="D46" s="16" t="n">
+      <c r="D46" s="20" t="n">
         <v>870</v>
       </c>
-      <c r="E46" s="16" t="n">
+      <c r="E46" s="20" t="n">
         <v>1440</v>
       </c>
-      <c r="F46" s="16" t="n">
+      <c r="F46" s="20" t="n">
         <v>190</v>
       </c>
-      <c r="G46" s="16" t="n">
+      <c r="G46" s="20" t="n">
         <v>1470</v>
       </c>
-      <c r="H46" s="16" t="n">
+      <c r="H46" s="20" t="n">
         <v>2440</v>
       </c>
     </row>
@@ -9035,117 +8696,117 @@
           <t>3 H/S</t>
         </is>
       </c>
-      <c r="B47" s="15" t="n">
+      <c r="B47" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C47" s="16" t="n">
+      <c r="C47" s="20" t="n">
         <v>140</v>
       </c>
-      <c r="D47" s="16" t="n">
+      <c r="D47" s="20" t="n">
         <v>530</v>
       </c>
-      <c r="E47" s="16" t="n">
+      <c r="E47" s="20" t="n">
         <v>760</v>
       </c>
-      <c r="F47" s="16" t="n">
+      <c r="F47" s="20" t="n">
         <v>140</v>
       </c>
-      <c r="G47" s="16" t="n">
+      <c r="G47" s="20" t="n">
         <v>730</v>
       </c>
-      <c r="H47" s="16" t="n">
+      <c r="H47" s="20" t="n">
         <v>960</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="15" t="n">
+      <c r="B48" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C48" s="16" t="n">
+      <c r="C48" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="D48" s="16" t="n">
+      <c r="D48" s="20" t="n">
         <v>630</v>
       </c>
-      <c r="E48" s="16" t="n">
+      <c r="E48" s="20" t="n">
         <v>960</v>
       </c>
-      <c r="F48" s="16" t="n">
+      <c r="F48" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="G48" s="16" t="n">
+      <c r="G48" s="20" t="n">
         <v>930</v>
       </c>
-      <c r="H48" s="16" t="n">
+      <c r="H48" s="20" t="n">
         <v>1360</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="15" t="n">
+      <c r="B49" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C49" s="16" t="n">
+      <c r="C49" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="D49" s="16" t="n">
+      <c r="D49" s="20" t="n">
         <v>730</v>
       </c>
-      <c r="E49" s="16" t="n">
+      <c r="E49" s="20" t="n">
         <v>1160</v>
       </c>
-      <c r="F49" s="16" t="n">
+      <c r="F49" s="20" t="n">
         <v>200</v>
       </c>
-      <c r="G49" s="16" t="n">
+      <c r="G49" s="20" t="n">
         <v>1130</v>
       </c>
-      <c r="H49" s="16" t="n">
+      <c r="H49" s="20" t="n">
         <v>1760</v>
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="15" t="n">
+      <c r="B50" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C50" s="16" t="n">
+      <c r="C50" s="20" t="n">
         <v>230</v>
       </c>
-      <c r="D50" s="16" t="n">
+      <c r="D50" s="20" t="n">
         <v>830</v>
       </c>
-      <c r="E50" s="16" t="n">
+      <c r="E50" s="20" t="n">
         <v>1360</v>
       </c>
-      <c r="F50" s="16" t="n">
+      <c r="F50" s="20" t="n">
         <v>230</v>
       </c>
-      <c r="G50" s="16" t="n">
+      <c r="G50" s="20" t="n">
         <v>1330</v>
       </c>
-      <c r="H50" s="16" t="n">
+      <c r="H50" s="20" t="n">
         <v>2160</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="15" t="n">
+      <c r="B51" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C51" s="16" t="n">
+      <c r="C51" s="20" t="n">
         <v>260</v>
       </c>
-      <c r="D51" s="16" t="n">
+      <c r="D51" s="20" t="n">
         <v>930</v>
       </c>
-      <c r="E51" s="16" t="n">
+      <c r="E51" s="20" t="n">
         <v>1560</v>
       </c>
-      <c r="F51" s="16" t="n">
+      <c r="F51" s="20" t="n">
         <v>260</v>
       </c>
-      <c r="G51" s="16" t="n">
+      <c r="G51" s="20" t="n">
         <v>1530</v>
       </c>
-      <c r="H51" s="16" t="n">
+      <c r="H51" s="20" t="n">
         <v>2560</v>
       </c>
     </row>
@@ -9155,117 +8816,117 @@
           <t>3 NT</t>
         </is>
       </c>
-      <c r="B52" s="15" t="n">
+      <c r="B52" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C52" s="16" t="n">
+      <c r="C52" s="20" t="n">
         <v>400</v>
       </c>
-      <c r="D52" s="16" t="n">
+      <c r="D52" s="20" t="n">
         <v>550</v>
       </c>
-      <c r="E52" s="16" t="n">
+      <c r="E52" s="20" t="n">
         <v>800</v>
       </c>
-      <c r="F52" s="16" t="n">
+      <c r="F52" s="20" t="n">
         <v>600</v>
       </c>
-      <c r="G52" s="16" t="n">
+      <c r="G52" s="20" t="n">
         <v>750</v>
       </c>
-      <c r="H52" s="16" t="n">
+      <c r="H52" s="20" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="15" t="n">
+      <c r="B53" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C53" s="16" t="n">
+      <c r="C53" s="20" t="n">
         <v>430</v>
       </c>
-      <c r="D53" s="16" t="n">
+      <c r="D53" s="20" t="n">
         <v>650</v>
       </c>
-      <c r="E53" s="16" t="n">
+      <c r="E53" s="20" t="n">
         <v>1000</v>
       </c>
-      <c r="F53" s="16" t="n">
+      <c r="F53" s="20" t="n">
         <v>630</v>
       </c>
-      <c r="G53" s="16" t="n">
+      <c r="G53" s="20" t="n">
         <v>950</v>
       </c>
-      <c r="H53" s="16" t="n">
+      <c r="H53" s="20" t="n">
         <v>1400</v>
       </c>
     </row>
     <row r="54">
-      <c r="B54" s="15" t="n">
+      <c r="B54" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C54" s="16" t="n">
+      <c r="C54" s="20" t="n">
         <v>460</v>
       </c>
-      <c r="D54" s="16" t="n">
+      <c r="D54" s="20" t="n">
         <v>750</v>
       </c>
-      <c r="E54" s="16" t="n">
+      <c r="E54" s="20" t="n">
         <v>1200</v>
       </c>
-      <c r="F54" s="16" t="n">
+      <c r="F54" s="20" t="n">
         <v>660</v>
       </c>
-      <c r="G54" s="16" t="n">
+      <c r="G54" s="20" t="n">
         <v>1150</v>
       </c>
-      <c r="H54" s="16" t="n">
+      <c r="H54" s="20" t="n">
         <v>1800</v>
       </c>
     </row>
     <row r="55">
-      <c r="B55" s="15" t="n">
+      <c r="B55" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C55" s="16" t="n">
+      <c r="C55" s="20" t="n">
         <v>490</v>
       </c>
-      <c r="D55" s="16" t="n">
+      <c r="D55" s="20" t="n">
         <v>850</v>
       </c>
-      <c r="E55" s="16" t="n">
+      <c r="E55" s="20" t="n">
         <v>1400</v>
       </c>
-      <c r="F55" s="16" t="n">
+      <c r="F55" s="20" t="n">
         <v>690</v>
       </c>
-      <c r="G55" s="16" t="n">
+      <c r="G55" s="20" t="n">
         <v>1350</v>
       </c>
-      <c r="H55" s="16" t="n">
+      <c r="H55" s="20" t="n">
         <v>2200</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="15" t="n">
+      <c r="B56" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C56" s="16" t="n">
+      <c r="C56" s="20" t="n">
         <v>520</v>
       </c>
-      <c r="D56" s="16" t="n">
+      <c r="D56" s="20" t="n">
         <v>950</v>
       </c>
-      <c r="E56" s="16" t="n">
+      <c r="E56" s="20" t="n">
         <v>1600</v>
       </c>
-      <c r="F56" s="16" t="n">
+      <c r="F56" s="20" t="n">
         <v>720</v>
       </c>
-      <c r="G56" s="16" t="n">
+      <c r="G56" s="20" t="n">
         <v>1550</v>
       </c>
-      <c r="H56" s="16" t="n">
+      <c r="H56" s="20" t="n">
         <v>2600</v>
       </c>
     </row>
@@ -9275,94 +8936,94 @@
           <t>4 D/C</t>
         </is>
       </c>
-      <c r="B57" s="15" t="n">
+      <c r="B57" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C57" s="16" t="n">
+      <c r="C57" s="20" t="n">
         <v>130</v>
       </c>
-      <c r="D57" s="16" t="n">
+      <c r="D57" s="20" t="n">
         <v>510</v>
       </c>
-      <c r="E57" s="16" t="n">
+      <c r="E57" s="20" t="n">
         <v>720</v>
       </c>
-      <c r="F57" s="16" t="n">
+      <c r="F57" s="20" t="n">
         <v>130</v>
       </c>
-      <c r="G57" s="16" t="n">
+      <c r="G57" s="20" t="n">
         <v>710</v>
       </c>
-      <c r="H57" s="16" t="n">
+      <c r="H57" s="20" t="n">
         <v>920</v>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="15" t="n">
+      <c r="B58" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C58" s="16" t="n">
+      <c r="C58" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="D58" s="16" t="n">
+      <c r="D58" s="20" t="n">
         <v>610</v>
       </c>
-      <c r="E58" s="16" t="n">
+      <c r="E58" s="20" t="n">
         <v>920</v>
       </c>
-      <c r="F58" s="16" t="n">
+      <c r="F58" s="20" t="n">
         <v>150</v>
       </c>
-      <c r="G58" s="16" t="n">
+      <c r="G58" s="20" t="n">
         <v>910</v>
       </c>
-      <c r="H58" s="16" t="n">
+      <c r="H58" s="20" t="n">
         <v>1320</v>
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="15" t="n">
+      <c r="B59" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C59" s="16" t="n">
+      <c r="C59" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="D59" s="16" t="n">
+      <c r="D59" s="20" t="n">
         <v>710</v>
       </c>
-      <c r="E59" s="16" t="n">
+      <c r="E59" s="20" t="n">
         <v>1120</v>
       </c>
-      <c r="F59" s="16" t="n">
+      <c r="F59" s="20" t="n">
         <v>170</v>
       </c>
-      <c r="G59" s="16" t="n">
+      <c r="G59" s="20" t="n">
         <v>1110</v>
       </c>
-      <c r="H59" s="16" t="n">
+      <c r="H59" s="20" t="n">
         <v>1720</v>
       </c>
     </row>
     <row r="60">
-      <c r="B60" s="15" t="n">
+      <c r="B60" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C60" s="16" t="n">
+      <c r="C60" s="20" t="n">
         <v>190</v>
       </c>
-      <c r="D60" s="16" t="n">
+      <c r="D60" s="20" t="n">
         <v>810</v>
       </c>
-      <c r="E60" s="16" t="n">
+      <c r="E60" s="20" t="n">
         <v>1320</v>
       </c>
-      <c r="F60" s="16" t="n">
+      <c r="F60" s="20" t="n">
         <v>190</v>
       </c>
-      <c r="G60" s="16" t="n">
+      <c r="G60" s="20" t="n">
         <v>1310</v>
       </c>
-      <c r="H60" s="16" t="n">
+      <c r="H60" s="20" t="n">
         <v>2120</v>
       </c>
     </row>
@@ -9372,94 +9033,94 @@
           <t>4 H/S</t>
         </is>
       </c>
-      <c r="B61" s="15" t="n">
+      <c r="B61" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C61" s="16" t="n">
+      <c r="C61" s="20" t="n">
         <v>420</v>
       </c>
-      <c r="D61" s="16" t="n">
+      <c r="D61" s="20" t="n">
         <v>590</v>
       </c>
-      <c r="E61" s="16" t="n">
+      <c r="E61" s="20" t="n">
         <v>880</v>
       </c>
-      <c r="F61" s="16" t="n">
+      <c r="F61" s="20" t="n">
         <v>620</v>
       </c>
-      <c r="G61" s="16" t="n">
+      <c r="G61" s="20" t="n">
         <v>790</v>
       </c>
-      <c r="H61" s="16" t="n">
+      <c r="H61" s="20" t="n">
         <v>1080</v>
       </c>
     </row>
     <row r="62">
-      <c r="B62" s="15" t="n">
+      <c r="B62" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C62" s="16" t="n">
+      <c r="C62" s="20" t="n">
         <v>450</v>
       </c>
-      <c r="D62" s="16" t="n">
+      <c r="D62" s="20" t="n">
         <v>690</v>
       </c>
-      <c r="E62" s="16" t="n">
+      <c r="E62" s="20" t="n">
         <v>1080</v>
       </c>
-      <c r="F62" s="16" t="n">
+      <c r="F62" s="20" t="n">
         <v>650</v>
       </c>
-      <c r="G62" s="16" t="n">
+      <c r="G62" s="20" t="n">
         <v>990</v>
       </c>
-      <c r="H62" s="16" t="n">
+      <c r="H62" s="20" t="n">
         <v>1480</v>
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="15" t="n">
+      <c r="B63" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C63" s="16" t="n">
+      <c r="C63" s="20" t="n">
         <v>480</v>
       </c>
-      <c r="D63" s="16" t="n">
+      <c r="D63" s="20" t="n">
         <v>790</v>
       </c>
-      <c r="E63" s="16" t="n">
+      <c r="E63" s="20" t="n">
         <v>1280</v>
       </c>
-      <c r="F63" s="16" t="n">
+      <c r="F63" s="20" t="n">
         <v>680</v>
       </c>
-      <c r="G63" s="16" t="n">
+      <c r="G63" s="20" t="n">
         <v>1190</v>
       </c>
-      <c r="H63" s="16" t="n">
+      <c r="H63" s="20" t="n">
         <v>1880</v>
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="15" t="n">
+      <c r="B64" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C64" s="16" t="n">
+      <c r="C64" s="20" t="n">
         <v>510</v>
       </c>
-      <c r="D64" s="16" t="n">
+      <c r="D64" s="20" t="n">
         <v>890</v>
       </c>
-      <c r="E64" s="16" t="n">
+      <c r="E64" s="20" t="n">
         <v>1480</v>
       </c>
-      <c r="F64" s="16" t="n">
+      <c r="F64" s="20" t="n">
         <v>710</v>
       </c>
-      <c r="G64" s="16" t="n">
+      <c r="G64" s="20" t="n">
         <v>1390</v>
       </c>
-      <c r="H64" s="16" t="n">
+      <c r="H64" s="20" t="n">
         <v>2280</v>
       </c>
     </row>
@@ -9469,94 +9130,94 @@
           <t>4 NT</t>
         </is>
       </c>
-      <c r="B65" s="15" t="n">
+      <c r="B65" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C65" s="16" t="n">
+      <c r="C65" s="20" t="n">
         <v>430</v>
       </c>
-      <c r="D65" s="16" t="n">
+      <c r="D65" s="20" t="n">
         <v>610</v>
       </c>
-      <c r="E65" s="16" t="n">
+      <c r="E65" s="20" t="n">
         <v>920</v>
       </c>
-      <c r="F65" s="16" t="n">
+      <c r="F65" s="20" t="n">
         <v>630</v>
       </c>
-      <c r="G65" s="16" t="n">
+      <c r="G65" s="20" t="n">
         <v>810</v>
       </c>
-      <c r="H65" s="16" t="n">
+      <c r="H65" s="20" t="n">
         <v>1120</v>
       </c>
     </row>
     <row r="66">
-      <c r="B66" s="15" t="n">
+      <c r="B66" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C66" s="16" t="n">
+      <c r="C66" s="20" t="n">
         <v>460</v>
       </c>
-      <c r="D66" s="16" t="n">
+      <c r="D66" s="20" t="n">
         <v>710</v>
       </c>
-      <c r="E66" s="16" t="n">
+      <c r="E66" s="20" t="n">
         <v>1120</v>
       </c>
-      <c r="F66" s="16" t="n">
+      <c r="F66" s="20" t="n">
         <v>660</v>
       </c>
-      <c r="G66" s="16" t="n">
+      <c r="G66" s="20" t="n">
         <v>1010</v>
       </c>
-      <c r="H66" s="16" t="n">
+      <c r="H66" s="20" t="n">
         <v>1520</v>
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="15" t="n">
+      <c r="B67" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C67" s="16" t="n">
+      <c r="C67" s="20" t="n">
         <v>490</v>
       </c>
-      <c r="D67" s="16" t="n">
+      <c r="D67" s="20" t="n">
         <v>810</v>
       </c>
-      <c r="E67" s="16" t="n">
+      <c r="E67" s="20" t="n">
         <v>1320</v>
       </c>
-      <c r="F67" s="16" t="n">
+      <c r="F67" s="20" t="n">
         <v>690</v>
       </c>
-      <c r="G67" s="16" t="n">
+      <c r="G67" s="20" t="n">
         <v>1210</v>
       </c>
-      <c r="H67" s="16" t="n">
+      <c r="H67" s="20" t="n">
         <v>1920</v>
       </c>
     </row>
     <row r="68">
-      <c r="B68" s="15" t="n">
+      <c r="B68" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C68" s="16" t="n">
+      <c r="C68" s="20" t="n">
         <v>520</v>
       </c>
-      <c r="D68" s="16" t="n">
+      <c r="D68" s="20" t="n">
         <v>910</v>
       </c>
-      <c r="E68" s="16" t="n">
+      <c r="E68" s="20" t="n">
         <v>1520</v>
       </c>
-      <c r="F68" s="16" t="n">
+      <c r="F68" s="20" t="n">
         <v>720</v>
       </c>
-      <c r="G68" s="16" t="n">
+      <c r="G68" s="20" t="n">
         <v>1410</v>
       </c>
-      <c r="H68" s="16" t="n">
+      <c r="H68" s="20" t="n">
         <v>2320</v>
       </c>
     </row>
@@ -9566,71 +9227,71 @@
           <t>5 D/C</t>
         </is>
       </c>
-      <c r="B69" s="15" t="n">
+      <c r="B69" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C69" s="16" t="n">
+      <c r="C69" s="20" t="n">
         <v>400</v>
       </c>
-      <c r="D69" s="16" t="n">
+      <c r="D69" s="20" t="n">
         <v>550</v>
       </c>
-      <c r="E69" s="16" t="n">
+      <c r="E69" s="20" t="n">
         <v>800</v>
       </c>
-      <c r="F69" s="16" t="n">
+      <c r="F69" s="20" t="n">
         <v>600</v>
       </c>
-      <c r="G69" s="16" t="n">
+      <c r="G69" s="20" t="n">
         <v>750</v>
       </c>
-      <c r="H69" s="16" t="n">
+      <c r="H69" s="20" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="70">
-      <c r="B70" s="15" t="n">
+      <c r="B70" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C70" s="16" t="n">
+      <c r="C70" s="20" t="n">
         <v>420</v>
       </c>
-      <c r="D70" s="16" t="n">
+      <c r="D70" s="20" t="n">
         <v>650</v>
       </c>
-      <c r="E70" s="16" t="n">
+      <c r="E70" s="20" t="n">
         <v>1000</v>
       </c>
-      <c r="F70" s="16" t="n">
+      <c r="F70" s="20" t="n">
         <v>620</v>
       </c>
-      <c r="G70" s="16" t="n">
+      <c r="G70" s="20" t="n">
         <v>950</v>
       </c>
-      <c r="H70" s="16" t="n">
+      <c r="H70" s="20" t="n">
         <v>1400</v>
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="15" t="n">
+      <c r="B71" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C71" s="16" t="n">
+      <c r="C71" s="20" t="n">
         <v>440</v>
       </c>
-      <c r="D71" s="16" t="n">
+      <c r="D71" s="20" t="n">
         <v>750</v>
       </c>
-      <c r="E71" s="16" t="n">
+      <c r="E71" s="20" t="n">
         <v>1200</v>
       </c>
-      <c r="F71" s="16" t="n">
+      <c r="F71" s="20" t="n">
         <v>640</v>
       </c>
-      <c r="G71" s="16" t="n">
+      <c r="G71" s="20" t="n">
         <v>1150</v>
       </c>
-      <c r="H71" s="16" t="n">
+      <c r="H71" s="20" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -9640,71 +9301,71 @@
           <t>5 H/S</t>
         </is>
       </c>
-      <c r="B72" s="15" t="n">
+      <c r="B72" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C72" s="16" t="n">
+      <c r="C72" s="20" t="n">
         <v>450</v>
       </c>
-      <c r="D72" s="16" t="n">
+      <c r="D72" s="20" t="n">
         <v>650</v>
       </c>
-      <c r="E72" s="16" t="n">
+      <c r="E72" s="20" t="n">
         <v>1000</v>
       </c>
-      <c r="F72" s="16" t="n">
+      <c r="F72" s="20" t="n">
         <v>650</v>
       </c>
-      <c r="G72" s="16" t="n">
+      <c r="G72" s="20" t="n">
         <v>850</v>
       </c>
-      <c r="H72" s="16" t="n">
+      <c r="H72" s="20" t="n">
         <v>1200</v>
       </c>
     </row>
     <row r="73">
-      <c r="B73" s="15" t="n">
+      <c r="B73" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C73" s="16" t="n">
+      <c r="C73" s="20" t="n">
         <v>480</v>
       </c>
-      <c r="D73" s="16" t="n">
+      <c r="D73" s="20" t="n">
         <v>750</v>
       </c>
-      <c r="E73" s="16" t="n">
+      <c r="E73" s="20" t="n">
         <v>1200</v>
       </c>
-      <c r="F73" s="16" t="n">
+      <c r="F73" s="20" t="n">
         <v>680</v>
       </c>
-      <c r="G73" s="16" t="n">
+      <c r="G73" s="20" t="n">
         <v>1050</v>
       </c>
-      <c r="H73" s="16" t="n">
+      <c r="H73" s="20" t="n">
         <v>1600</v>
       </c>
     </row>
     <row r="74">
-      <c r="B74" s="15" t="n">
+      <c r="B74" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C74" s="16" t="n">
+      <c r="C74" s="20" t="n">
         <v>510</v>
       </c>
-      <c r="D74" s="16" t="n">
+      <c r="D74" s="20" t="n">
         <v>850</v>
       </c>
-      <c r="E74" s="16" t="n">
+      <c r="E74" s="20" t="n">
         <v>1400</v>
       </c>
-      <c r="F74" s="16" t="n">
+      <c r="F74" s="20" t="n">
         <v>710</v>
       </c>
-      <c r="G74" s="16" t="n">
+      <c r="G74" s="20" t="n">
         <v>1250</v>
       </c>
-      <c r="H74" s="16" t="n">
+      <c r="H74" s="20" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -9714,71 +9375,71 @@
           <t>5 NT</t>
         </is>
       </c>
-      <c r="B75" s="15" t="n">
+      <c r="B75" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C75" s="16" t="n">
+      <c r="C75" s="20" t="n">
         <v>460</v>
       </c>
-      <c r="D75" s="16" t="n">
+      <c r="D75" s="20" t="n">
         <v>670</v>
       </c>
-      <c r="E75" s="16" t="n">
+      <c r="E75" s="20" t="n">
         <v>1040</v>
       </c>
-      <c r="F75" s="16" t="n">
+      <c r="F75" s="20" t="n">
         <v>660</v>
       </c>
-      <c r="G75" s="16" t="n">
+      <c r="G75" s="20" t="n">
         <v>870</v>
       </c>
-      <c r="H75" s="16" t="n">
+      <c r="H75" s="20" t="n">
         <v>1240</v>
       </c>
     </row>
     <row r="76">
-      <c r="B76" s="15" t="n">
+      <c r="B76" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C76" s="16" t="n">
+      <c r="C76" s="20" t="n">
         <v>490</v>
       </c>
-      <c r="D76" s="16" t="n">
+      <c r="D76" s="20" t="n">
         <v>770</v>
       </c>
-      <c r="E76" s="16" t="n">
+      <c r="E76" s="20" t="n">
         <v>1240</v>
       </c>
-      <c r="F76" s="16" t="n">
+      <c r="F76" s="20" t="n">
         <v>690</v>
       </c>
-      <c r="G76" s="16" t="n">
+      <c r="G76" s="20" t="n">
         <v>1070</v>
       </c>
-      <c r="H76" s="16" t="n">
+      <c r="H76" s="20" t="n">
         <v>1640</v>
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="15" t="n">
+      <c r="B77" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C77" s="16" t="n">
+      <c r="C77" s="20" t="n">
         <v>520</v>
       </c>
-      <c r="D77" s="16" t="n">
+      <c r="D77" s="20" t="n">
         <v>870</v>
       </c>
-      <c r="E77" s="16" t="n">
+      <c r="E77" s="20" t="n">
         <v>1440</v>
       </c>
-      <c r="F77" s="16" t="n">
+      <c r="F77" s="20" t="n">
         <v>720</v>
       </c>
-      <c r="G77" s="16" t="n">
+      <c r="G77" s="20" t="n">
         <v>1270</v>
       </c>
-      <c r="H77" s="16" t="n">
+      <c r="H77" s="20" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -9788,48 +9449,48 @@
           <t>6 D/C</t>
         </is>
       </c>
-      <c r="B78" s="15" t="n">
+      <c r="B78" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C78" s="16" t="n">
+      <c r="C78" s="20" t="n">
         <v>920</v>
       </c>
-      <c r="D78" s="16" t="n">
+      <c r="D78" s="20" t="n">
         <v>1090</v>
       </c>
-      <c r="E78" s="16" t="n">
+      <c r="E78" s="20" t="n">
         <v>1380</v>
       </c>
-      <c r="F78" s="16" t="n">
+      <c r="F78" s="20" t="n">
         <v>1370</v>
       </c>
-      <c r="G78" s="16" t="n">
+      <c r="G78" s="20" t="n">
         <v>1540</v>
       </c>
-      <c r="H78" s="16" t="n">
+      <c r="H78" s="20" t="n">
         <v>1830</v>
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="15" t="n">
+      <c r="B79" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C79" s="16" t="n">
+      <c r="C79" s="20" t="n">
         <v>940</v>
       </c>
-      <c r="D79" s="16" t="n">
+      <c r="D79" s="20" t="n">
         <v>1190</v>
       </c>
-      <c r="E79" s="16" t="n">
+      <c r="E79" s="20" t="n">
         <v>1580</v>
       </c>
-      <c r="F79" s="16" t="n">
+      <c r="F79" s="20" t="n">
         <v>1390</v>
       </c>
-      <c r="G79" s="16" t="n">
+      <c r="G79" s="20" t="n">
         <v>1740</v>
       </c>
-      <c r="H79" s="16" t="n">
+      <c r="H79" s="20" t="n">
         <v>2230</v>
       </c>
     </row>
@@ -9839,48 +9500,48 @@
           <t>6 H/S</t>
         </is>
       </c>
-      <c r="B80" s="15" t="n">
+      <c r="B80" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C80" s="16" t="n">
+      <c r="C80" s="20" t="n">
         <v>980</v>
       </c>
-      <c r="D80" s="16" t="n">
+      <c r="D80" s="20" t="n">
         <v>1210</v>
       </c>
-      <c r="E80" s="16" t="n">
+      <c r="E80" s="20" t="n">
         <v>1620</v>
       </c>
-      <c r="F80" s="16" t="n">
+      <c r="F80" s="20" t="n">
         <v>1430</v>
       </c>
-      <c r="G80" s="16" t="n">
+      <c r="G80" s="20" t="n">
         <v>1660</v>
       </c>
-      <c r="H80" s="16" t="n">
+      <c r="H80" s="20" t="n">
         <v>2070</v>
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="15" t="n">
+      <c r="B81" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C81" s="16" t="n">
+      <c r="C81" s="20" t="n">
         <v>1010</v>
       </c>
-      <c r="D81" s="16" t="n">
+      <c r="D81" s="20" t="n">
         <v>1310</v>
       </c>
-      <c r="E81" s="16" t="n">
+      <c r="E81" s="20" t="n">
         <v>1820</v>
       </c>
-      <c r="F81" s="16" t="n">
+      <c r="F81" s="20" t="n">
         <v>1460</v>
       </c>
-      <c r="G81" s="16" t="n">
+      <c r="G81" s="20" t="n">
         <v>1860</v>
       </c>
-      <c r="H81" s="16" t="n">
+      <c r="H81" s="20" t="n">
         <v>2470</v>
       </c>
     </row>
@@ -9890,48 +9551,48 @@
           <t>6 NT</t>
         </is>
       </c>
-      <c r="B82" s="15" t="n">
+      <c r="B82" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C82" s="16" t="n">
+      <c r="C82" s="20" t="n">
         <v>990</v>
       </c>
-      <c r="D82" s="16" t="n">
+      <c r="D82" s="20" t="n">
         <v>1230</v>
       </c>
-      <c r="E82" s="16" t="n">
+      <c r="E82" s="20" t="n">
         <v>1660</v>
       </c>
-      <c r="F82" s="16" t="n">
+      <c r="F82" s="20" t="n">
         <v>1440</v>
       </c>
-      <c r="G82" s="16" t="n">
+      <c r="G82" s="20" t="n">
         <v>1680</v>
       </c>
-      <c r="H82" s="16" t="n">
+      <c r="H82" s="20" t="n">
         <v>2110</v>
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="15" t="n">
+      <c r="B83" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="C83" s="16" t="n">
+      <c r="C83" s="20" t="n">
         <v>1020</v>
       </c>
-      <c r="D83" s="16" t="n">
+      <c r="D83" s="20" t="n">
         <v>1330</v>
       </c>
-      <c r="E83" s="16" t="n">
+      <c r="E83" s="20" t="n">
         <v>1860</v>
       </c>
-      <c r="F83" s="16" t="n">
+      <c r="F83" s="20" t="n">
         <v>1470</v>
       </c>
-      <c r="G83" s="16" t="n">
+      <c r="G83" s="20" t="n">
         <v>1880</v>
       </c>
-      <c r="H83" s="16" t="n">
+      <c r="H83" s="20" t="n">
         <v>2510</v>
       </c>
     </row>
@@ -9941,25 +9602,25 @@
           <t>7 D/C</t>
         </is>
       </c>
-      <c r="B84" s="15" t="n">
+      <c r="B84" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C84" s="16" t="n">
+      <c r="C84" s="20" t="n">
         <v>1440</v>
       </c>
-      <c r="D84" s="16" t="n">
+      <c r="D84" s="20" t="n">
         <v>1630</v>
       </c>
-      <c r="E84" s="16" t="n">
+      <c r="E84" s="20" t="n">
         <v>1960</v>
       </c>
-      <c r="F84" s="16" t="n">
+      <c r="F84" s="20" t="n">
         <v>2140</v>
       </c>
-      <c r="G84" s="16" t="n">
+      <c r="G84" s="20" t="n">
         <v>2330</v>
       </c>
-      <c r="H84" s="16" t="n">
+      <c r="H84" s="20" t="n">
         <v>2660</v>
       </c>
     </row>
@@ -9969,25 +9630,25 @@
           <t>7 H/S</t>
         </is>
       </c>
-      <c r="B85" s="15" t="n">
+      <c r="B85" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C85" s="16" t="n">
+      <c r="C85" s="20" t="n">
         <v>1510</v>
       </c>
-      <c r="D85" s="16" t="n">
+      <c r="D85" s="20" t="n">
         <v>1770</v>
       </c>
-      <c r="E85" s="16" t="n">
+      <c r="E85" s="20" t="n">
         <v>2240</v>
       </c>
-      <c r="F85" s="16" t="n">
+      <c r="F85" s="20" t="n">
         <v>2210</v>
       </c>
-      <c r="G85" s="16" t="n">
+      <c r="G85" s="20" t="n">
         <v>2470</v>
       </c>
-      <c r="H85" s="16" t="n">
+      <c r="H85" s="20" t="n">
         <v>2940</v>
       </c>
     </row>
@@ -9997,25 +9658,25 @@
           <t>7 NT</t>
         </is>
       </c>
-      <c r="B86" s="15" t="n">
+      <c r="B86" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C86" s="16" t="n">
+      <c r="C86" s="20" t="n">
         <v>1520</v>
       </c>
-      <c r="D86" s="16" t="n">
+      <c r="D86" s="20" t="n">
         <v>1790</v>
       </c>
-      <c r="E86" s="16" t="n">
+      <c r="E86" s="20" t="n">
         <v>2280</v>
       </c>
-      <c r="F86" s="16" t="n">
+      <c r="F86" s="20" t="n">
         <v>2220</v>
       </c>
-      <c r="G86" s="16" t="n">
+      <c r="G86" s="20" t="n">
         <v>2490</v>
       </c>
-      <c r="H86" s="16" t="n">
+      <c r="H86" s="20" t="n">
         <v>2980</v>
       </c>
     </row>

--- a/howell7.xlsx
+++ b/howell7.xlsx
@@ -536,7 +536,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Jan 14, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Jan 18, 2026.</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PH78</t>
+          <t>PH54</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH44</t>
+          <t>PH87</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -730,12 +730,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PH60</t>
+          <t>PH73</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PH57</t>
+          <t>PH95</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -749,12 +749,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PH93</t>
+          <t>PH75</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PH65</t>
+          <t>PH36</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -768,12 +768,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PH99</t>
+          <t>PH29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PH96</t>
+          <t>PH19</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -787,12 +787,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PH95</t>
+          <t>PH92</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PH33</t>
+          <t>PH73</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -806,12 +806,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PH56</t>
+          <t>PH30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PH80</t>
+          <t>PH49</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -825,12 +825,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PH95</t>
+          <t>PH85</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PH99</t>
+          <t>PH88</t>
         </is>
       </c>
       <c r="D8" s="4">
@@ -1336,23 +1336,23 @@
         </is>
       </c>
       <c r="G7">
-        <f>'By Round'!G3</f>
+        <f>'By Round'!G2</f>
         <v/>
       </c>
       <c r="H7">
-        <f>'By Round'!H3</f>
+        <f>'By Round'!H2</f>
         <v/>
       </c>
       <c r="I7">
-        <f>'By Round'!I3</f>
+        <f>'By Round'!I2</f>
         <v/>
       </c>
       <c r="J7">
-        <f>'By Round'!J3</f>
+        <f>'By Round'!J2</f>
         <v/>
       </c>
       <c r="K7">
-        <f>'By Round'!K3</f>
+        <f>'By Round'!K2</f>
         <v/>
       </c>
       <c r="L7" s="11">
@@ -1419,23 +1419,23 @@
         </is>
       </c>
       <c r="G8">
-        <f>'By Round'!G33</f>
+        <f>'By Round'!G32</f>
         <v/>
       </c>
       <c r="H8">
-        <f>'By Round'!H33</f>
+        <f>'By Round'!H32</f>
         <v/>
       </c>
       <c r="I8">
-        <f>'By Round'!I33</f>
+        <f>'By Round'!I32</f>
         <v/>
       </c>
       <c r="J8">
-        <f>'By Round'!J33</f>
+        <f>'By Round'!J32</f>
         <v/>
       </c>
       <c r="K8">
-        <f>'By Round'!K33</f>
+        <f>'By Round'!K32</f>
         <v/>
       </c>
       <c r="L8" s="11">
@@ -1502,23 +1502,23 @@
         </is>
       </c>
       <c r="G9">
-        <f>'By Round'!G47</f>
+        <f>'By Round'!G46</f>
         <v/>
       </c>
       <c r="H9">
-        <f>'By Round'!H47</f>
+        <f>'By Round'!H46</f>
         <v/>
       </c>
       <c r="I9">
-        <f>'By Round'!I47</f>
+        <f>'By Round'!I46</f>
         <v/>
       </c>
       <c r="J9">
-        <f>'By Round'!J47</f>
+        <f>'By Round'!J46</f>
         <v/>
       </c>
       <c r="K9">
-        <f>'By Round'!K47</f>
+        <f>'By Round'!K46</f>
         <v/>
       </c>
       <c r="L9" s="11">
@@ -1585,23 +1585,23 @@
         </is>
       </c>
       <c r="G10">
-        <f>'By Round'!G53</f>
+        <f>'By Round'!G52</f>
         <v/>
       </c>
       <c r="H10">
-        <f>'By Round'!H53</f>
+        <f>'By Round'!H52</f>
         <v/>
       </c>
       <c r="I10">
-        <f>'By Round'!I53</f>
+        <f>'By Round'!I52</f>
         <v/>
       </c>
       <c r="J10">
-        <f>'By Round'!J53</f>
+        <f>'By Round'!J52</f>
         <v/>
       </c>
       <c r="K10">
-        <f>'By Round'!K53</f>
+        <f>'By Round'!K52</f>
         <v/>
       </c>
       <c r="L10" s="11">
@@ -2006,23 +2006,23 @@
         </is>
       </c>
       <c r="G15">
-        <f>'By Round'!G5</f>
+        <f>'By Round'!G4</f>
         <v/>
       </c>
       <c r="H15">
-        <f>'By Round'!H5</f>
+        <f>'By Round'!H4</f>
         <v/>
       </c>
       <c r="I15">
-        <f>'By Round'!I5</f>
+        <f>'By Round'!I4</f>
         <v/>
       </c>
       <c r="J15">
-        <f>'By Round'!J5</f>
+        <f>'By Round'!J4</f>
         <v/>
       </c>
       <c r="K15">
-        <f>'By Round'!K5</f>
+        <f>'By Round'!K4</f>
         <v/>
       </c>
       <c r="L15" s="11">
@@ -2089,23 +2089,23 @@
         </is>
       </c>
       <c r="G16">
-        <f>'By Round'!G11</f>
+        <f>'By Round'!G10</f>
         <v/>
       </c>
       <c r="H16">
-        <f>'By Round'!H11</f>
+        <f>'By Round'!H10</f>
         <v/>
       </c>
       <c r="I16">
-        <f>'By Round'!I11</f>
+        <f>'By Round'!I10</f>
         <v/>
       </c>
       <c r="J16">
-        <f>'By Round'!J11</f>
+        <f>'By Round'!J10</f>
         <v/>
       </c>
       <c r="K16">
-        <f>'By Round'!K11</f>
+        <f>'By Round'!K10</f>
         <v/>
       </c>
       <c r="L16" s="11">
@@ -2172,23 +2172,23 @@
         </is>
       </c>
       <c r="G17">
-        <f>'By Round'!G41</f>
+        <f>'By Round'!G40</f>
         <v/>
       </c>
       <c r="H17">
-        <f>'By Round'!H41</f>
+        <f>'By Round'!H40</f>
         <v/>
       </c>
       <c r="I17">
-        <f>'By Round'!I41</f>
+        <f>'By Round'!I40</f>
         <v/>
       </c>
       <c r="J17">
-        <f>'By Round'!J41</f>
+        <f>'By Round'!J40</f>
         <v/>
       </c>
       <c r="K17">
-        <f>'By Round'!K41</f>
+        <f>'By Round'!K40</f>
         <v/>
       </c>
       <c r="L17" s="11">
@@ -2255,23 +2255,23 @@
         </is>
       </c>
       <c r="G18">
-        <f>'By Round'!G55</f>
+        <f>'By Round'!G54</f>
         <v/>
       </c>
       <c r="H18">
-        <f>'By Round'!H55</f>
+        <f>'By Round'!H54</f>
         <v/>
       </c>
       <c r="I18">
-        <f>'By Round'!I55</f>
+        <f>'By Round'!I54</f>
         <v/>
       </c>
       <c r="J18">
-        <f>'By Round'!J55</f>
+        <f>'By Round'!J54</f>
         <v/>
       </c>
       <c r="K18">
-        <f>'By Round'!K55</f>
+        <f>'By Round'!K54</f>
         <v/>
       </c>
       <c r="L18" s="11">
@@ -2676,23 +2676,23 @@
         </is>
       </c>
       <c r="G23">
-        <f>'By Round'!G7</f>
+        <f>'By Round'!G6</f>
         <v/>
       </c>
       <c r="H23">
-        <f>'By Round'!H7</f>
+        <f>'By Round'!H6</f>
         <v/>
       </c>
       <c r="I23">
-        <f>'By Round'!I7</f>
+        <f>'By Round'!I6</f>
         <v/>
       </c>
       <c r="J23">
-        <f>'By Round'!J7</f>
+        <f>'By Round'!J6</f>
         <v/>
       </c>
       <c r="K23">
-        <f>'By Round'!K7</f>
+        <f>'By Round'!K6</f>
         <v/>
       </c>
       <c r="L23" s="11">
@@ -2759,23 +2759,23 @@
         </is>
       </c>
       <c r="G24">
-        <f>'By Round'!G13</f>
+        <f>'By Round'!G12</f>
         <v/>
       </c>
       <c r="H24">
-        <f>'By Round'!H13</f>
+        <f>'By Round'!H12</f>
         <v/>
       </c>
       <c r="I24">
-        <f>'By Round'!I13</f>
+        <f>'By Round'!I12</f>
         <v/>
       </c>
       <c r="J24">
-        <f>'By Round'!J13</f>
+        <f>'By Round'!J12</f>
         <v/>
       </c>
       <c r="K24">
-        <f>'By Round'!K13</f>
+        <f>'By Round'!K12</f>
         <v/>
       </c>
       <c r="L24" s="11">
@@ -2842,23 +2842,23 @@
         </is>
       </c>
       <c r="G25">
-        <f>'By Round'!G19</f>
+        <f>'By Round'!G18</f>
         <v/>
       </c>
       <c r="H25">
-        <f>'By Round'!H19</f>
+        <f>'By Round'!H18</f>
         <v/>
       </c>
       <c r="I25">
-        <f>'By Round'!I19</f>
+        <f>'By Round'!I18</f>
         <v/>
       </c>
       <c r="J25">
-        <f>'By Round'!J19</f>
+        <f>'By Round'!J18</f>
         <v/>
       </c>
       <c r="K25">
-        <f>'By Round'!K19</f>
+        <f>'By Round'!K18</f>
         <v/>
       </c>
       <c r="L25" s="11">
@@ -2925,23 +2925,23 @@
         </is>
       </c>
       <c r="G26">
-        <f>'By Round'!G49</f>
+        <f>'By Round'!G48</f>
         <v/>
       </c>
       <c r="H26">
-        <f>'By Round'!H49</f>
+        <f>'By Round'!H48</f>
         <v/>
       </c>
       <c r="I26">
-        <f>'By Round'!I49</f>
+        <f>'By Round'!I48</f>
         <v/>
       </c>
       <c r="J26">
-        <f>'By Round'!J49</f>
+        <f>'By Round'!J48</f>
         <v/>
       </c>
       <c r="K26">
-        <f>'By Round'!K49</f>
+        <f>'By Round'!K48</f>
         <v/>
       </c>
       <c r="L26" s="11">
@@ -3346,23 +3346,23 @@
         </is>
       </c>
       <c r="G31">
-        <f>'By Round'!G15</f>
+        <f>'By Round'!G14</f>
         <v/>
       </c>
       <c r="H31">
-        <f>'By Round'!H15</f>
+        <f>'By Round'!H14</f>
         <v/>
       </c>
       <c r="I31">
-        <f>'By Round'!I15</f>
+        <f>'By Round'!I14</f>
         <v/>
       </c>
       <c r="J31">
-        <f>'By Round'!J15</f>
+        <f>'By Round'!J14</f>
         <v/>
       </c>
       <c r="K31">
-        <f>'By Round'!K15</f>
+        <f>'By Round'!K14</f>
         <v/>
       </c>
       <c r="L31" s="11">
@@ -3429,23 +3429,23 @@
         </is>
       </c>
       <c r="G32">
-        <f>'By Round'!G21</f>
+        <f>'By Round'!G20</f>
         <v/>
       </c>
       <c r="H32">
-        <f>'By Round'!H21</f>
+        <f>'By Round'!H20</f>
         <v/>
       </c>
       <c r="I32">
-        <f>'By Round'!I21</f>
+        <f>'By Round'!I20</f>
         <v/>
       </c>
       <c r="J32">
-        <f>'By Round'!J21</f>
+        <f>'By Round'!J20</f>
         <v/>
       </c>
       <c r="K32">
-        <f>'By Round'!K21</f>
+        <f>'By Round'!K20</f>
         <v/>
       </c>
       <c r="L32" s="11">
@@ -3512,23 +3512,23 @@
         </is>
       </c>
       <c r="G33">
-        <f>'By Round'!G27</f>
+        <f>'By Round'!G26</f>
         <v/>
       </c>
       <c r="H33">
-        <f>'By Round'!H27</f>
+        <f>'By Round'!H26</f>
         <v/>
       </c>
       <c r="I33">
-        <f>'By Round'!I27</f>
+        <f>'By Round'!I26</f>
         <v/>
       </c>
       <c r="J33">
-        <f>'By Round'!J27</f>
+        <f>'By Round'!J26</f>
         <v/>
       </c>
       <c r="K33">
-        <f>'By Round'!K27</f>
+        <f>'By Round'!K26</f>
         <v/>
       </c>
       <c r="L33" s="11">
@@ -3595,23 +3595,23 @@
         </is>
       </c>
       <c r="G34">
-        <f>'By Round'!G57</f>
+        <f>'By Round'!G56</f>
         <v/>
       </c>
       <c r="H34">
-        <f>'By Round'!H57</f>
+        <f>'By Round'!H56</f>
         <v/>
       </c>
       <c r="I34">
-        <f>'By Round'!I57</f>
+        <f>'By Round'!I56</f>
         <v/>
       </c>
       <c r="J34">
-        <f>'By Round'!J57</f>
+        <f>'By Round'!J56</f>
         <v/>
       </c>
       <c r="K34">
-        <f>'By Round'!K57</f>
+        <f>'By Round'!K56</f>
         <v/>
       </c>
       <c r="L34" s="11">
@@ -4016,23 +4016,23 @@
         </is>
       </c>
       <c r="G39">
-        <f>'By Round'!G9</f>
+        <f>'By Round'!G8</f>
         <v/>
       </c>
       <c r="H39">
-        <f>'By Round'!H9</f>
+        <f>'By Round'!H8</f>
         <v/>
       </c>
       <c r="I39">
-        <f>'By Round'!I9</f>
+        <f>'By Round'!I8</f>
         <v/>
       </c>
       <c r="J39">
-        <f>'By Round'!J9</f>
+        <f>'By Round'!J8</f>
         <v/>
       </c>
       <c r="K39">
-        <f>'By Round'!K9</f>
+        <f>'By Round'!K8</f>
         <v/>
       </c>
       <c r="L39" s="11">
@@ -4099,23 +4099,23 @@
         </is>
       </c>
       <c r="G40">
-        <f>'By Round'!G23</f>
+        <f>'By Round'!G22</f>
         <v/>
       </c>
       <c r="H40">
-        <f>'By Round'!H23</f>
+        <f>'By Round'!H22</f>
         <v/>
       </c>
       <c r="I40">
-        <f>'By Round'!I23</f>
+        <f>'By Round'!I22</f>
         <v/>
       </c>
       <c r="J40">
-        <f>'By Round'!J23</f>
+        <f>'By Round'!J22</f>
         <v/>
       </c>
       <c r="K40">
-        <f>'By Round'!K23</f>
+        <f>'By Round'!K22</f>
         <v/>
       </c>
       <c r="L40" s="11">
@@ -4182,23 +4182,23 @@
         </is>
       </c>
       <c r="G41">
-        <f>'By Round'!G29</f>
+        <f>'By Round'!G28</f>
         <v/>
       </c>
       <c r="H41">
-        <f>'By Round'!H29</f>
+        <f>'By Round'!H28</f>
         <v/>
       </c>
       <c r="I41">
-        <f>'By Round'!I29</f>
+        <f>'By Round'!I28</f>
         <v/>
       </c>
       <c r="J41">
-        <f>'By Round'!J29</f>
+        <f>'By Round'!J28</f>
         <v/>
       </c>
       <c r="K41">
-        <f>'By Round'!K29</f>
+        <f>'By Round'!K28</f>
         <v/>
       </c>
       <c r="L41" s="11">
@@ -4265,23 +4265,23 @@
         </is>
       </c>
       <c r="G42">
-        <f>'By Round'!G35</f>
+        <f>'By Round'!G34</f>
         <v/>
       </c>
       <c r="H42">
-        <f>'By Round'!H35</f>
+        <f>'By Round'!H34</f>
         <v/>
       </c>
       <c r="I42">
-        <f>'By Round'!I35</f>
+        <f>'By Round'!I34</f>
         <v/>
       </c>
       <c r="J42">
-        <f>'By Round'!J35</f>
+        <f>'By Round'!J34</f>
         <v/>
       </c>
       <c r="K42">
-        <f>'By Round'!K35</f>
+        <f>'By Round'!K34</f>
         <v/>
       </c>
       <c r="L42" s="11">
@@ -4686,23 +4686,23 @@
         </is>
       </c>
       <c r="G47">
-        <f>'By Round'!G17</f>
+        <f>'By Round'!G16</f>
         <v/>
       </c>
       <c r="H47">
-        <f>'By Round'!H17</f>
+        <f>'By Round'!H16</f>
         <v/>
       </c>
       <c r="I47">
-        <f>'By Round'!I17</f>
+        <f>'By Round'!I16</f>
         <v/>
       </c>
       <c r="J47">
-        <f>'By Round'!J17</f>
+        <f>'By Round'!J16</f>
         <v/>
       </c>
       <c r="K47">
-        <f>'By Round'!K17</f>
+        <f>'By Round'!K16</f>
         <v/>
       </c>
       <c r="L47" s="11">
@@ -4769,23 +4769,23 @@
         </is>
       </c>
       <c r="G48">
-        <f>'By Round'!G31</f>
+        <f>'By Round'!G30</f>
         <v/>
       </c>
       <c r="H48">
-        <f>'By Round'!H31</f>
+        <f>'By Round'!H30</f>
         <v/>
       </c>
       <c r="I48">
-        <f>'By Round'!I31</f>
+        <f>'By Round'!I30</f>
         <v/>
       </c>
       <c r="J48">
-        <f>'By Round'!J31</f>
+        <f>'By Round'!J30</f>
         <v/>
       </c>
       <c r="K48">
-        <f>'By Round'!K31</f>
+        <f>'By Round'!K30</f>
         <v/>
       </c>
       <c r="L48" s="11">
@@ -4852,23 +4852,23 @@
         </is>
       </c>
       <c r="G49">
-        <f>'By Round'!G37</f>
+        <f>'By Round'!G36</f>
         <v/>
       </c>
       <c r="H49">
-        <f>'By Round'!H37</f>
+        <f>'By Round'!H36</f>
         <v/>
       </c>
       <c r="I49">
-        <f>'By Round'!I37</f>
+        <f>'By Round'!I36</f>
         <v/>
       </c>
       <c r="J49">
-        <f>'By Round'!J37</f>
+        <f>'By Round'!J36</f>
         <v/>
       </c>
       <c r="K49">
-        <f>'By Round'!K37</f>
+        <f>'By Round'!K36</f>
         <v/>
       </c>
       <c r="L49" s="11">
@@ -4935,23 +4935,23 @@
         </is>
       </c>
       <c r="G50">
-        <f>'By Round'!G43</f>
+        <f>'By Round'!G42</f>
         <v/>
       </c>
       <c r="H50">
-        <f>'By Round'!H43</f>
+        <f>'By Round'!H42</f>
         <v/>
       </c>
       <c r="I50">
-        <f>'By Round'!I43</f>
+        <f>'By Round'!I42</f>
         <v/>
       </c>
       <c r="J50">
-        <f>'By Round'!J43</f>
+        <f>'By Round'!J42</f>
         <v/>
       </c>
       <c r="K50">
-        <f>'By Round'!K43</f>
+        <f>'By Round'!K42</f>
         <v/>
       </c>
       <c r="L50" s="11">
@@ -5356,23 +5356,23 @@
         </is>
       </c>
       <c r="G55">
-        <f>'By Round'!G25</f>
+        <f>'By Round'!G24</f>
         <v/>
       </c>
       <c r="H55">
-        <f>'By Round'!H25</f>
+        <f>'By Round'!H24</f>
         <v/>
       </c>
       <c r="I55">
-        <f>'By Round'!I25</f>
+        <f>'By Round'!I24</f>
         <v/>
       </c>
       <c r="J55">
-        <f>'By Round'!J25</f>
+        <f>'By Round'!J24</f>
         <v/>
       </c>
       <c r="K55">
-        <f>'By Round'!K25</f>
+        <f>'By Round'!K24</f>
         <v/>
       </c>
       <c r="L55" s="11">
@@ -5439,23 +5439,23 @@
         </is>
       </c>
       <c r="G56">
-        <f>'By Round'!G39</f>
+        <f>'By Round'!G38</f>
         <v/>
       </c>
       <c r="H56">
-        <f>'By Round'!H39</f>
+        <f>'By Round'!H38</f>
         <v/>
       </c>
       <c r="I56">
-        <f>'By Round'!I39</f>
+        <f>'By Round'!I38</f>
         <v/>
       </c>
       <c r="J56">
-        <f>'By Round'!J39</f>
+        <f>'By Round'!J38</f>
         <v/>
       </c>
       <c r="K56">
-        <f>'By Round'!K39</f>
+        <f>'By Round'!K38</f>
         <v/>
       </c>
       <c r="L56" s="11">
@@ -5522,23 +5522,23 @@
         </is>
       </c>
       <c r="G57">
-        <f>'By Round'!G45</f>
+        <f>'By Round'!G44</f>
         <v/>
       </c>
       <c r="H57">
-        <f>'By Round'!H45</f>
+        <f>'By Round'!H44</f>
         <v/>
       </c>
       <c r="I57">
-        <f>'By Round'!I45</f>
+        <f>'By Round'!I44</f>
         <v/>
       </c>
       <c r="J57">
-        <f>'By Round'!J45</f>
+        <f>'By Round'!J44</f>
         <v/>
       </c>
       <c r="K57">
-        <f>'By Round'!K45</f>
+        <f>'By Round'!K44</f>
         <v/>
       </c>
       <c r="L57" s="11">
@@ -5605,23 +5605,23 @@
         </is>
       </c>
       <c r="G58">
-        <f>'By Round'!G51</f>
+        <f>'By Round'!G50</f>
         <v/>
       </c>
       <c r="H58">
-        <f>'By Round'!H51</f>
+        <f>'By Round'!H50</f>
         <v/>
       </c>
       <c r="I58">
-        <f>'By Round'!I51</f>
+        <f>'By Round'!I50</f>
         <v/>
       </c>
       <c r="J58">
-        <f>'By Round'!J51</f>
+        <f>'By Round'!J50</f>
         <v/>
       </c>
       <c r="K58">
-        <f>'By Round'!K51</f>
+        <f>'By Round'!K50</f>
         <v/>
       </c>
       <c r="L58" s="11">
@@ -7212,6 +7212,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="C1" s="3" t="inlineStr">

--- a/howell7.xlsx
+++ b/howell7.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 01, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 02, 2026.</t>
         </is>
       </c>
     </row>
@@ -652,12 +652,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Name 40</t>
+          <t>Name 68</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Name 73</t>
+          <t>Name 66</t>
         </is>
       </c>
       <c r="D2" s="4">
@@ -675,12 +675,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Name 37</t>
+          <t>Name 63</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Name 35</t>
+          <t>Name 21</t>
         </is>
       </c>
       <c r="D3" s="4">
@@ -698,12 +698,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Name 84</t>
+          <t>Name 14</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Name 28</t>
+          <t>Name 39</t>
         </is>
       </c>
       <c r="D4" s="4">
@@ -721,12 +721,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Name 45</t>
+          <t>Name 59</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Name 72</t>
+          <t>Name 38</t>
         </is>
       </c>
       <c r="D5" s="4">
@@ -744,12 +744,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Name 38</t>
+          <t>Name 22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Name 87</t>
+          <t>Name 69</t>
         </is>
       </c>
       <c r="D6" s="4">
@@ -767,12 +767,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Name 36</t>
+          <t>Name 74</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Name 18</t>
+          <t>Name 59</t>
         </is>
       </c>
       <c r="D7" s="4">
@@ -790,12 +790,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Name 47</t>
+          <t>Name 22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Name 87</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="D8" s="4">

--- a/howell7.xlsx
+++ b/howell7.xlsx
@@ -7,13 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tournament" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Roster" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="By Board" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="By Round" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Traveler Template" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="IMP Table" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Scoring Table" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Roster" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="By Board" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="By Round" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="IMP Table" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Scoring Table" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23,12 +21,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="#0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#0.00"/>
     <numFmt numFmtId="166" formatCode="#0.0"/>
     <numFmt numFmtId="167" formatCode="#0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,10 +52,6 @@
       <i val="1"/>
       <color rgb="00FF0000"/>
     </font>
-    <font>
-      <b val="1"/>
-      <sz val="22"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -67,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -99,35 +93,21 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -148,13 +128,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -521,93 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>For public domain. No rights reserved. Generated on Feb 02, 2026.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Howell Arrangement (IMP &amp; MP)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Pairs</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Tables</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Rounds</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Boards per round</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Total Boards to play</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,300 +509,361 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Pair #</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Player 1</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Player 2</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>For public domain. No rights reserved. Generated on Feb 04, 2026.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Howell Tournament</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Pairs</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Tables</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Rounds</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Boards per round</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Total Boards to play</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Pairs</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>IMP</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Name 68</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Name 66</t>
-        </is>
-      </c>
-      <c r="D2" s="4">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Name 25</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Name 34</t>
+        </is>
+      </c>
+      <c r="D10" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$50,"=1",'By Board'!$N$3:$N$50)/12+SUMIF('By Board'!$E$3:$E$50,"=1",'By Board'!$O$3:$O$50)/12</f>
+        <v/>
+      </c>
+      <c r="E10" s="5">
         <f>SUMIF('By Board'!$D$3:$D$50,"=1",'By Board'!$L$3:$L$50)+SUMIF('By Board'!$E$3:$E$50,"=1",'By Board'!$M$3:$M$50)</f>
         <v/>
       </c>
-      <c r="E2" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$50,"=1",'By Board'!$N$3:$N$50)/12+SUMIF('By Board'!$E$3:$E$50,"=1",'By Board'!$O$3:$O$50)/12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Name 63</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Name 21</t>
-        </is>
-      </c>
-      <c r="D3" s="4">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Name 38</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Name 76</t>
+        </is>
+      </c>
+      <c r="D11" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$50,"=2",'By Board'!$N$3:$N$50)/12+SUMIF('By Board'!$E$3:$E$50,"=2",'By Board'!$O$3:$O$50)/12</f>
+        <v/>
+      </c>
+      <c r="E11" s="5">
         <f>SUMIF('By Board'!$D$3:$D$50,"=2",'By Board'!$L$3:$L$50)+SUMIF('By Board'!$E$3:$E$50,"=2",'By Board'!$M$3:$M$50)</f>
         <v/>
       </c>
-      <c r="E3" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$50,"=2",'By Board'!$N$3:$N$50)/12+SUMIF('By Board'!$E$3:$E$50,"=2",'By Board'!$O$3:$O$50)/12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Name 14</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Name 39</t>
-        </is>
-      </c>
-      <c r="D4" s="4">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Name 22</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Name 55</t>
+        </is>
+      </c>
+      <c r="D12" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$50,"=3",'By Board'!$N$3:$N$50)/12+SUMIF('By Board'!$E$3:$E$50,"=3",'By Board'!$O$3:$O$50)/12</f>
+        <v/>
+      </c>
+      <c r="E12" s="5">
         <f>SUMIF('By Board'!$D$3:$D$50,"=3",'By Board'!$L$3:$L$50)+SUMIF('By Board'!$E$3:$E$50,"=3",'By Board'!$M$3:$M$50)</f>
         <v/>
       </c>
-      <c r="E4" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$50,"=3",'By Board'!$N$3:$N$50)/12+SUMIF('By Board'!$E$3:$E$50,"=3",'By Board'!$O$3:$O$50)/12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Name 59</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Name 38</t>
-        </is>
-      </c>
-      <c r="D5" s="4">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Name 17</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Name 71</t>
+        </is>
+      </c>
+      <c r="D13" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$50,"=4",'By Board'!$N$3:$N$50)/12+SUMIF('By Board'!$E$3:$E$50,"=4",'By Board'!$O$3:$O$50)/12</f>
+        <v/>
+      </c>
+      <c r="E13" s="5">
         <f>SUMIF('By Board'!$D$3:$D$50,"=4",'By Board'!$L$3:$L$50)+SUMIF('By Board'!$E$3:$E$50,"=4",'By Board'!$M$3:$M$50)</f>
         <v/>
       </c>
-      <c r="E5" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$50,"=4",'By Board'!$N$3:$N$50)/12+SUMIF('By Board'!$E$3:$E$50,"=4",'By Board'!$O$3:$O$50)/12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Name 22</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Name 69</t>
-        </is>
-      </c>
-      <c r="D6" s="4">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Name 29</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Name 44</t>
+        </is>
+      </c>
+      <c r="D14" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$50,"=5",'By Board'!$N$3:$N$50)/12+SUMIF('By Board'!$E$3:$E$50,"=5",'By Board'!$O$3:$O$50)/12</f>
+        <v/>
+      </c>
+      <c r="E14" s="5">
         <f>SUMIF('By Board'!$D$3:$D$50,"=5",'By Board'!$L$3:$L$50)+SUMIF('By Board'!$E$3:$E$50,"=5",'By Board'!$M$3:$M$50)</f>
         <v/>
       </c>
-      <c r="E6" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$50,"=5",'By Board'!$N$3:$N$50)/12+SUMIF('By Board'!$E$3:$E$50,"=5",'By Board'!$O$3:$O$50)/12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Name 74</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Name 59</t>
-        </is>
-      </c>
-      <c r="D7" s="4">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Name 34</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Name 77</t>
+        </is>
+      </c>
+      <c r="D15" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$50,"=6",'By Board'!$N$3:$N$50)/12+SUMIF('By Board'!$E$3:$E$50,"=6",'By Board'!$O$3:$O$50)/12</f>
+        <v/>
+      </c>
+      <c r="E15" s="5">
         <f>SUMIF('By Board'!$D$3:$D$50,"=6",'By Board'!$L$3:$L$50)+SUMIF('By Board'!$E$3:$E$50,"=6",'By Board'!$M$3:$M$50)</f>
         <v/>
       </c>
-      <c r="E7" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$50,"=6",'By Board'!$N$3:$N$50)/12+SUMIF('By Board'!$E$3:$E$50,"=6",'By Board'!$O$3:$O$50)/12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Name 22</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Name 43</t>
-        </is>
-      </c>
-      <c r="D8" s="4">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Name 29</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Name 90</t>
+        </is>
+      </c>
+      <c r="D16" s="4">
+        <f>SUMIF('By Board'!$D$3:$D$50,"=7",'By Board'!$N$3:$N$50)/12+SUMIF('By Board'!$E$3:$E$50,"=7",'By Board'!$O$3:$O$50)/12</f>
+        <v/>
+      </c>
+      <c r="E16" s="5">
         <f>SUMIF('By Board'!$D$3:$D$50,"=7",'By Board'!$L$3:$L$50)+SUMIF('By Board'!$E$3:$E$50,"=7",'By Board'!$M$3:$M$50)</f>
         <v/>
       </c>
-      <c r="E8" s="5">
-        <f>SUMIF('By Board'!$D$3:$D$50,"=7",'By Board'!$N$3:$N$50)/12+SUMIF('By Board'!$E$3:$E$50,"=7",'By Board'!$O$3:$O$50)/12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" s="6">
-        <f>SUM(D2:D8)</f>
-        <v/>
-      </c>
-      <c r="E9" s="7">
-        <f>AVERAGE(E2:E8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Array Formula below, remove single quote</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="D17" s="6">
+        <f>AVERAGE(D10:D16)</f>
+        <v/>
+      </c>
+      <c r="E17" s="7">
+        <f>SUM(E10:E16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>To sort, remove single quote below</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>IMP Ranking</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>'=SORT(A2:E8,4,-1)</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="n"/>
-      <c r="E13" s="8" t="n"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="4" t="n"/>
-      <c r="E14" s="8" t="n"/>
-    </row>
-    <row r="15">
-      <c r="D15" s="4" t="n"/>
-      <c r="E15" s="8" t="n"/>
-    </row>
-    <row r="16">
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="8" t="n"/>
-    </row>
-    <row r="17">
-      <c r="D17" s="4" t="n"/>
-      <c r="E17" s="8" t="n"/>
-    </row>
-    <row r="18">
-      <c r="D18" s="4" t="n"/>
-      <c r="E18" s="8" t="n"/>
-    </row>
-    <row r="19">
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="8" t="n"/>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>'=SORT(A10:E16,4,-1)</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="8" t="n"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="5" t="n"/>
+      <c r="E22" s="8" t="n"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="5" t="n"/>
+      <c r="E23" s="8" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="D24" s="5" t="n"/>
+      <c r="E24" s="8" t="n"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="8" t="n"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="5" t="n"/>
+      <c r="E26" s="8" t="n"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="5" t="n"/>
+      <c r="E27" s="8" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>MP Ranking</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>'=SORT(A2:E8,5,-1)</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="8" t="n"/>
-    </row>
-    <row r="26">
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="8" t="n"/>
-    </row>
-    <row r="27">
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="8" t="n"/>
-    </row>
-    <row r="28">
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="8" t="n"/>
-    </row>
-    <row r="29">
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="8" t="n"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="8" t="n"/>
-    </row>
-    <row r="31">
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="8" t="n"/>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>'=SORT(A10:E16,5,-1)</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n"/>
+      <c r="E33" s="8" t="n"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="5" t="n"/>
+      <c r="E34" s="8" t="n"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="5" t="n"/>
+      <c r="E35" s="8" t="n"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="5" t="n"/>
+      <c r="E36" s="8" t="n"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="5" t="n"/>
+      <c r="E37" s="8" t="n"/>
+    </row>
+    <row r="38">
+      <c r="D38" s="5" t="n"/>
+      <c r="E38" s="8" t="n"/>
+    </row>
+    <row r="39">
+      <c r="D39" s="5" t="n"/>
+      <c r="E39" s="8" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A24:E24"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -968,57 +918,57 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>By</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -1028,27 +978,27 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -1058,7 +1008,7 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -1068,7 +1018,7 @@
           <t>NS MP Scores</t>
         </is>
       </c>
-      <c r="W2" s="3" t="inlineStr">
+      <c r="W2" s="2" t="inlineStr">
         <is>
           <t>EW MP Scores</t>
         </is>
@@ -1078,7 +1028,7 @@
           <t>NS IMP Pair-wise</t>
         </is>
       </c>
-      <c r="AC2" s="3" t="inlineStr">
+      <c r="AC2" s="2" t="inlineStr">
         <is>
           <t>EW IMP Pair-wise</t>
         </is>
@@ -1145,11 +1095,11 @@
         <f>IF(COUNT(W3:Y3)&gt;0,Q3/COUNT(W3:Y3),0.5)</f>
         <v/>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="5">
         <f>SUM(T3:V3)</f>
         <v/>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="5">
         <f>SUM(W3:Y3)</f>
         <v/>
       </c>
@@ -1268,11 +1218,11 @@
         <f>IF(COUNT(W4:Y4)&gt;0,Q4/COUNT(W4:Y4),0.5)</f>
         <v/>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="5">
         <f>SUM(T4:V4)</f>
         <v/>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="5">
         <f>SUM(W4:Y4)</f>
         <v/>
       </c>
@@ -1391,11 +1341,11 @@
         <f>IF(COUNT(W5:Y5)&gt;0,Q5/COUNT(W5:Y5),0.5)</f>
         <v/>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="5">
         <f>SUM(T5:V5)</f>
         <v/>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="5">
         <f>SUM(W5:Y5)</f>
         <v/>
       </c>
@@ -1641,11 +1591,11 @@
         <f>IF(COUNT(W7:Y7)&gt;0,Q7/COUNT(W7:Y7),0.5)</f>
         <v/>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="5">
         <f>SUM(T7:V7)</f>
         <v/>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="5">
         <f>SUM(W7:Y7)</f>
         <v/>
       </c>
@@ -1764,11 +1714,11 @@
         <f>IF(COUNT(W8:Y8)&gt;0,Q8/COUNT(W8:Y8),0.5)</f>
         <v/>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="5">
         <f>SUM(T8:V8)</f>
         <v/>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="5">
         <f>SUM(W8:Y8)</f>
         <v/>
       </c>
@@ -1887,11 +1837,11 @@
         <f>IF(COUNT(W9:Y9)&gt;0,Q9/COUNT(W9:Y9),0.5)</f>
         <v/>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="5">
         <f>SUM(T9:V9)</f>
         <v/>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="5">
         <f>SUM(W9:Y9)</f>
         <v/>
       </c>
@@ -2137,11 +2087,11 @@
         <f>IF(COUNT(W11:Y11)&gt;0,Q11/COUNT(W11:Y11),0.5)</f>
         <v/>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="5">
         <f>SUM(T11:V11)</f>
         <v/>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="5">
         <f>SUM(W11:Y11)</f>
         <v/>
       </c>
@@ -2260,11 +2210,11 @@
         <f>IF(COUNT(W12:Y12)&gt;0,Q12/COUNT(W12:Y12),0.5)</f>
         <v/>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="5">
         <f>SUM(T12:V12)</f>
         <v/>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="5">
         <f>SUM(W12:Y12)</f>
         <v/>
       </c>
@@ -2383,11 +2333,11 @@
         <f>IF(COUNT(W13:Y13)&gt;0,Q13/COUNT(W13:Y13),0.5)</f>
         <v/>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="5">
         <f>SUM(T13:V13)</f>
         <v/>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="5">
         <f>SUM(W13:Y13)</f>
         <v/>
       </c>
@@ -2633,11 +2583,11 @@
         <f>IF(COUNT(W15:Y15)&gt;0,Q15/COUNT(W15:Y15),0.5)</f>
         <v/>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="5">
         <f>SUM(T15:V15)</f>
         <v/>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="5">
         <f>SUM(W15:Y15)</f>
         <v/>
       </c>
@@ -2756,11 +2706,11 @@
         <f>IF(COUNT(W16:Y16)&gt;0,Q16/COUNT(W16:Y16),0.5)</f>
         <v/>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="5">
         <f>SUM(T16:V16)</f>
         <v/>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="5">
         <f>SUM(W16:Y16)</f>
         <v/>
       </c>
@@ -2879,11 +2829,11 @@
         <f>IF(COUNT(W17:Y17)&gt;0,Q17/COUNT(W17:Y17),0.5)</f>
         <v/>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="5">
         <f>SUM(T17:V17)</f>
         <v/>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="5">
         <f>SUM(W17:Y17)</f>
         <v/>
       </c>
@@ -3129,11 +3079,11 @@
         <f>IF(COUNT(W19:Y19)&gt;0,Q19/COUNT(W19:Y19),0.5)</f>
         <v/>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="5">
         <f>SUM(T19:V19)</f>
         <v/>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="5">
         <f>SUM(W19:Y19)</f>
         <v/>
       </c>
@@ -3252,11 +3202,11 @@
         <f>IF(COUNT(W20:Y20)&gt;0,Q20/COUNT(W20:Y20),0.5)</f>
         <v/>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="5">
         <f>SUM(T20:V20)</f>
         <v/>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="5">
         <f>SUM(W20:Y20)</f>
         <v/>
       </c>
@@ -3375,11 +3325,11 @@
         <f>IF(COUNT(W21:Y21)&gt;0,Q21/COUNT(W21:Y21),0.5)</f>
         <v/>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="5">
         <f>SUM(T21:V21)</f>
         <v/>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="5">
         <f>SUM(W21:Y21)</f>
         <v/>
       </c>
@@ -3625,11 +3575,11 @@
         <f>IF(COUNT(W23:Y23)&gt;0,Q23/COUNT(W23:Y23),0.5)</f>
         <v/>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="5">
         <f>SUM(T23:V23)</f>
         <v/>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="5">
         <f>SUM(W23:Y23)</f>
         <v/>
       </c>
@@ -3748,11 +3698,11 @@
         <f>IF(COUNT(W24:Y24)&gt;0,Q24/COUNT(W24:Y24),0.5)</f>
         <v/>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="5">
         <f>SUM(T24:V24)</f>
         <v/>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="5">
         <f>SUM(W24:Y24)</f>
         <v/>
       </c>
@@ -3871,11 +3821,11 @@
         <f>IF(COUNT(W25:Y25)&gt;0,Q25/COUNT(W25:Y25),0.5)</f>
         <v/>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="5">
         <f>SUM(T25:V25)</f>
         <v/>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="5">
         <f>SUM(W25:Y25)</f>
         <v/>
       </c>
@@ -4121,11 +4071,11 @@
         <f>IF(COUNT(W27:Y27)&gt;0,Q27/COUNT(W27:Y27),0.5)</f>
         <v/>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="5">
         <f>SUM(T27:V27)</f>
         <v/>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="5">
         <f>SUM(W27:Y27)</f>
         <v/>
       </c>
@@ -4244,11 +4194,11 @@
         <f>IF(COUNT(W28:Y28)&gt;0,Q28/COUNT(W28:Y28),0.5)</f>
         <v/>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="5">
         <f>SUM(T28:V28)</f>
         <v/>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="5">
         <f>SUM(W28:Y28)</f>
         <v/>
       </c>
@@ -4367,11 +4317,11 @@
         <f>IF(COUNT(W29:Y29)&gt;0,Q29/COUNT(W29:Y29),0.5)</f>
         <v/>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="5">
         <f>SUM(T29:V29)</f>
         <v/>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="5">
         <f>SUM(W29:Y29)</f>
         <v/>
       </c>
@@ -4617,11 +4567,11 @@
         <f>IF(COUNT(W31:Y31)&gt;0,Q31/COUNT(W31:Y31),0.5)</f>
         <v/>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="5">
         <f>SUM(T31:V31)</f>
         <v/>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="5">
         <f>SUM(W31:Y31)</f>
         <v/>
       </c>
@@ -4740,11 +4690,11 @@
         <f>IF(COUNT(W32:Y32)&gt;0,Q32/COUNT(W32:Y32),0.5)</f>
         <v/>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="5">
         <f>SUM(T32:V32)</f>
         <v/>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q32" s="5">
         <f>SUM(W32:Y32)</f>
         <v/>
       </c>
@@ -4863,11 +4813,11 @@
         <f>IF(COUNT(W33:Y33)&gt;0,Q33/COUNT(W33:Y33),0.5)</f>
         <v/>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="5">
         <f>SUM(T33:V33)</f>
         <v/>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33" s="5">
         <f>SUM(W33:Y33)</f>
         <v/>
       </c>
@@ -5113,11 +5063,11 @@
         <f>IF(COUNT(W35:Y35)&gt;0,Q35/COUNT(W35:Y35),0.5)</f>
         <v/>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="5">
         <f>SUM(T35:V35)</f>
         <v/>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35" s="5">
         <f>SUM(W35:Y35)</f>
         <v/>
       </c>
@@ -5236,11 +5186,11 @@
         <f>IF(COUNT(W36:Y36)&gt;0,Q36/COUNT(W36:Y36),0.5)</f>
         <v/>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="5">
         <f>SUM(T36:V36)</f>
         <v/>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36" s="5">
         <f>SUM(W36:Y36)</f>
         <v/>
       </c>
@@ -5359,11 +5309,11 @@
         <f>IF(COUNT(W37:Y37)&gt;0,Q37/COUNT(W37:Y37),0.5)</f>
         <v/>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="5">
         <f>SUM(T37:V37)</f>
         <v/>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q37" s="5">
         <f>SUM(W37:Y37)</f>
         <v/>
       </c>
@@ -5609,11 +5559,11 @@
         <f>IF(COUNT(W39:Y39)&gt;0,Q39/COUNT(W39:Y39),0.5)</f>
         <v/>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="5">
         <f>SUM(T39:V39)</f>
         <v/>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q39" s="5">
         <f>SUM(W39:Y39)</f>
         <v/>
       </c>
@@ -5732,11 +5682,11 @@
         <f>IF(COUNT(W40:Y40)&gt;0,Q40/COUNT(W40:Y40),0.5)</f>
         <v/>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="5">
         <f>SUM(T40:V40)</f>
         <v/>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q40" s="5">
         <f>SUM(W40:Y40)</f>
         <v/>
       </c>
@@ -5855,11 +5805,11 @@
         <f>IF(COUNT(W41:Y41)&gt;0,Q41/COUNT(W41:Y41),0.5)</f>
         <v/>
       </c>
-      <c r="P41" s="4">
+      <c r="P41" s="5">
         <f>SUM(T41:V41)</f>
         <v/>
       </c>
-      <c r="Q41" s="4">
+      <c r="Q41" s="5">
         <f>SUM(W41:Y41)</f>
         <v/>
       </c>
@@ -6105,11 +6055,11 @@
         <f>IF(COUNT(W43:Y43)&gt;0,Q43/COUNT(W43:Y43),0.5)</f>
         <v/>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="5">
         <f>SUM(T43:V43)</f>
         <v/>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q43" s="5">
         <f>SUM(W43:Y43)</f>
         <v/>
       </c>
@@ -6228,11 +6178,11 @@
         <f>IF(COUNT(W44:Y44)&gt;0,Q44/COUNT(W44:Y44),0.5)</f>
         <v/>
       </c>
-      <c r="P44" s="4">
+      <c r="P44" s="5">
         <f>SUM(T44:V44)</f>
         <v/>
       </c>
-      <c r="Q44" s="4">
+      <c r="Q44" s="5">
         <f>SUM(W44:Y44)</f>
         <v/>
       </c>
@@ -6351,11 +6301,11 @@
         <f>IF(COUNT(W45:Y45)&gt;0,Q45/COUNT(W45:Y45),0.5)</f>
         <v/>
       </c>
-      <c r="P45" s="4">
+      <c r="P45" s="5">
         <f>SUM(T45:V45)</f>
         <v/>
       </c>
-      <c r="Q45" s="4">
+      <c r="Q45" s="5">
         <f>SUM(W45:Y45)</f>
         <v/>
       </c>
@@ -6601,11 +6551,11 @@
         <f>IF(COUNT(W47:Y47)&gt;0,Q47/COUNT(W47:Y47),0.5)</f>
         <v/>
       </c>
-      <c r="P47" s="4">
+      <c r="P47" s="5">
         <f>SUM(T47:V47)</f>
         <v/>
       </c>
-      <c r="Q47" s="4">
+      <c r="Q47" s="5">
         <f>SUM(W47:Y47)</f>
         <v/>
       </c>
@@ -6724,11 +6674,11 @@
         <f>IF(COUNT(W48:Y48)&gt;0,Q48/COUNT(W48:Y48),0.5)</f>
         <v/>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="5">
         <f>SUM(T48:V48)</f>
         <v/>
       </c>
-      <c r="Q48" s="4">
+      <c r="Q48" s="5">
         <f>SUM(W48:Y48)</f>
         <v/>
       </c>
@@ -6847,11 +6797,11 @@
         <f>IF(COUNT(W49:Y49)&gt;0,Q49/COUNT(W49:Y49),0.5)</f>
         <v/>
       </c>
-      <c r="P49" s="4">
+      <c r="P49" s="5">
         <f>SUM(T49:V49)</f>
         <v/>
       </c>
-      <c r="Q49" s="4">
+      <c r="Q49" s="5">
         <f>SUM(W49:Y49)</f>
         <v/>
       </c>
@@ -7097,11 +7047,11 @@
         <f>IF(COUNT(W51:Y51)&gt;0,Q51/COUNT(W51:Y51),0.5)</f>
         <v/>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="5">
         <f>SUM(T51:V51)</f>
         <v/>
       </c>
-      <c r="Q51" s="4">
+      <c r="Q51" s="5">
         <f>SUM(W51:Y51)</f>
         <v/>
       </c>
@@ -7220,11 +7170,11 @@
         <f>IF(COUNT(W52:Y52)&gt;0,Q52/COUNT(W52:Y52),0.5)</f>
         <v/>
       </c>
-      <c r="P52" s="4">
+      <c r="P52" s="5">
         <f>SUM(T52:V52)</f>
         <v/>
       </c>
-      <c r="Q52" s="4">
+      <c r="Q52" s="5">
         <f>SUM(W52:Y52)</f>
         <v/>
       </c>
@@ -7343,11 +7293,11 @@
         <f>IF(COUNT(W53:Y53)&gt;0,Q53/COUNT(W53:Y53),0.5)</f>
         <v/>
       </c>
-      <c r="P53" s="4">
+      <c r="P53" s="5">
         <f>SUM(T53:V53)</f>
         <v/>
       </c>
-      <c r="Q53" s="4">
+      <c r="Q53" s="5">
         <f>SUM(W53:Y53)</f>
         <v/>
       </c>
@@ -7593,11 +7543,11 @@
         <f>IF(COUNT(W55:Y55)&gt;0,Q55/COUNT(W55:Y55),0.5)</f>
         <v/>
       </c>
-      <c r="P55" s="4">
+      <c r="P55" s="5">
         <f>SUM(T55:V55)</f>
         <v/>
       </c>
-      <c r="Q55" s="4">
+      <c r="Q55" s="5">
         <f>SUM(W55:Y55)</f>
         <v/>
       </c>
@@ -7716,11 +7666,11 @@
         <f>IF(COUNT(W56:Y56)&gt;0,Q56/COUNT(W56:Y56),0.5)</f>
         <v/>
       </c>
-      <c r="P56" s="4">
+      <c r="P56" s="5">
         <f>SUM(T56:V56)</f>
         <v/>
       </c>
-      <c r="Q56" s="4">
+      <c r="Q56" s="5">
         <f>SUM(W56:Y56)</f>
         <v/>
       </c>
@@ -7839,11 +7789,11 @@
         <f>IF(COUNT(W57:Y57)&gt;0,Q57/COUNT(W57:Y57),0.5)</f>
         <v/>
       </c>
-      <c r="P57" s="4">
+      <c r="P57" s="5">
         <f>SUM(T57:V57)</f>
         <v/>
       </c>
-      <c r="Q57" s="4">
+      <c r="Q57" s="5">
         <f>SUM(W57:Y57)</f>
         <v/>
       </c>
@@ -8046,7 +7996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8064,64 +8014,64 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Scores</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>By</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
@@ -9199,160 +9149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="22" t="inlineStr">
-        <is>
-          <t>Board #</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>By</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="24" t="n"/>
-      <c r="D4" s="24" t="n"/>
-      <c r="E4" s="24" t="n"/>
-      <c r="F4" s="24" t="n"/>
-      <c r="G4" s="24" t="n"/>
-      <c r="H4" s="24" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="24" t="n"/>
-      <c r="C5" s="24" t="n"/>
-      <c r="D5" s="24" t="n"/>
-      <c r="E5" s="24" t="n"/>
-      <c r="F5" s="24" t="n"/>
-      <c r="G5" s="24" t="n"/>
-      <c r="H5" s="24" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="24" t="n"/>
-      <c r="C6" s="24" t="n"/>
-      <c r="D6" s="24" t="n"/>
-      <c r="E6" s="24" t="n"/>
-      <c r="F6" s="24" t="n"/>
-      <c r="G6" s="24" t="n"/>
-      <c r="H6" s="24" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="23" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="24" t="n"/>
-      <c r="C7" s="24" t="n"/>
-      <c r="D7" s="24" t="n"/>
-      <c r="E7" s="24" t="n"/>
-      <c r="F7" s="24" t="n"/>
-      <c r="G7" s="24" t="n"/>
-      <c r="H7" s="24" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="24" t="n"/>
-      <c r="C8" s="24" t="n"/>
-      <c r="D8" s="24" t="n"/>
-      <c r="E8" s="24" t="n"/>
-      <c r="F8" s="24" t="n"/>
-      <c r="G8" s="24" t="n"/>
-      <c r="H8" s="24" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="24" t="n"/>
-      <c r="C9" s="24" t="n"/>
-      <c r="D9" s="24" t="n"/>
-      <c r="E9" s="24" t="n"/>
-      <c r="F9" s="24" t="n"/>
-      <c r="G9" s="24" t="n"/>
-      <c r="H9" s="24" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9367,17 +9164,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>From</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>To</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>IMP</t>
         </is>
@@ -9663,7 +9460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9681,90 +9478,90 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Not Vulnerable</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Vulnerable</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Not Vulnerable</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Vulnerable</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Made</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr"/>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>Down by</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr"/>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr"/>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>XX</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>1 D/C</t>
         </is>
@@ -9772,22 +9569,22 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="n">
+      <c r="C3" s="22" t="n">
         <v>70</v>
       </c>
-      <c r="D3" s="25" t="n">
+      <c r="D3" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="E3" s="25" t="n">
+      <c r="E3" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="F3" s="25" t="n">
+      <c r="F3" s="22" t="n">
         <v>70</v>
       </c>
-      <c r="G3" s="25" t="n">
+      <c r="G3" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="H3" s="25" t="n">
+      <c r="H3" s="22" t="n">
         <v>230</v>
       </c>
       <c r="J3" t="n">
@@ -9818,22 +9615,22 @@
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="n">
+      <c r="C4" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="D4" s="25" t="n">
+      <c r="D4" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="E4" s="25" t="n">
+      <c r="E4" s="22" t="n">
         <v>430</v>
       </c>
-      <c r="F4" s="25" t="n">
+      <c r="F4" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="G4" s="25" t="n">
+      <c r="G4" s="22" t="n">
         <v>340</v>
       </c>
-      <c r="H4" s="25" t="n">
+      <c r="H4" s="22" t="n">
         <v>630</v>
       </c>
       <c r="J4" t="n">
@@ -9868,22 +9665,22 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="n">
+      <c r="C5" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D5" s="25" t="n">
+      <c r="D5" s="22" t="n">
         <v>340</v>
       </c>
-      <c r="E5" s="25" t="n">
+      <c r="E5" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="F5" s="25" t="n">
+      <c r="F5" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G5" s="25" t="n">
+      <c r="G5" s="22" t="n">
         <v>540</v>
       </c>
-      <c r="H5" s="25" t="n">
+      <c r="H5" s="22" t="n">
         <v>1030</v>
       </c>
       <c r="J5" t="n">
@@ -9918,22 +9715,22 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="22" t="n">
         <v>440</v>
       </c>
-      <c r="E6" s="25" t="n">
+      <c r="E6" s="22" t="n">
         <v>830</v>
       </c>
-      <c r="F6" s="25" t="n">
+      <c r="F6" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G6" s="25" t="n">
+      <c r="G6" s="22" t="n">
         <v>740</v>
       </c>
-      <c r="H6" s="25" t="n">
+      <c r="H6" s="22" t="n">
         <v>1430</v>
       </c>
       <c r="J6" t="n">
@@ -9968,22 +9765,22 @@
       <c r="B7" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="25" t="n">
+      <c r="C7" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D7" s="25" t="n">
+      <c r="D7" s="22" t="n">
         <v>540</v>
       </c>
-      <c r="E7" s="25" t="n">
+      <c r="E7" s="22" t="n">
         <v>1030</v>
       </c>
-      <c r="F7" s="25" t="n">
+      <c r="F7" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G7" s="25" t="n">
+      <c r="G7" s="22" t="n">
         <v>940</v>
       </c>
-      <c r="H7" s="25" t="n">
+      <c r="H7" s="22" t="n">
         <v>1830</v>
       </c>
       <c r="J7" t="n">
@@ -10018,22 +9815,22 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="25" t="n">
+      <c r="C8" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="E8" s="25" t="n">
+      <c r="E8" s="22" t="n">
         <v>1230</v>
       </c>
-      <c r="F8" s="25" t="n">
+      <c r="F8" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G8" s="25" t="n">
+      <c r="G8" s="22" t="n">
         <v>1140</v>
       </c>
-      <c r="H8" s="25" t="n">
+      <c r="H8" s="22" t="n">
         <v>2230</v>
       </c>
       <c r="J8" t="n">
@@ -10068,22 +9865,22 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="25" t="n">
+      <c r="C9" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D9" s="25" t="n">
+      <c r="D9" s="22" t="n">
         <v>740</v>
       </c>
-      <c r="E9" s="25" t="n">
+      <c r="E9" s="22" t="n">
         <v>1430</v>
       </c>
-      <c r="F9" s="25" t="n">
+      <c r="F9" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G9" s="25" t="n">
+      <c r="G9" s="22" t="n">
         <v>1340</v>
       </c>
-      <c r="H9" s="25" t="n">
+      <c r="H9" s="22" t="n">
         <v>2630</v>
       </c>
       <c r="J9" t="n">
@@ -10115,7 +9912,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>1 H/S</t>
         </is>
@@ -10123,22 +9920,22 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="25" t="n">
+      <c r="C10" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="D10" s="25" t="n">
+      <c r="D10" s="22" t="n">
         <v>160</v>
       </c>
-      <c r="E10" s="25" t="n">
+      <c r="E10" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="F10" s="25" t="n">
+      <c r="F10" s="22" t="n">
         <v>80</v>
       </c>
-      <c r="G10" s="25" t="n">
+      <c r="G10" s="22" t="n">
         <v>160</v>
       </c>
-      <c r="H10" s="25" t="n">
+      <c r="H10" s="22" t="n">
         <v>720</v>
       </c>
       <c r="J10" t="n">
@@ -10173,22 +9970,22 @@
       <c r="B11" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="25" t="n">
+      <c r="C11" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D11" s="25" t="n">
+      <c r="D11" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="E11" s="25" t="n">
+      <c r="E11" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="F11" s="25" t="n">
+      <c r="F11" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G11" s="25" t="n">
+      <c r="G11" s="22" t="n">
         <v>360</v>
       </c>
-      <c r="H11" s="25" t="n">
+      <c r="H11" s="22" t="n">
         <v>1120</v>
       </c>
       <c r="J11" t="n">
@@ -10223,22 +10020,22 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="25" t="n">
+      <c r="C12" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="D12" s="25" t="n">
+      <c r="D12" s="22" t="n">
         <v>360</v>
       </c>
-      <c r="E12" s="25" t="n">
+      <c r="E12" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="F12" s="25" t="n">
+      <c r="F12" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="G12" s="25" t="n">
+      <c r="G12" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="H12" s="25" t="n">
+      <c r="H12" s="22" t="n">
         <v>1520</v>
       </c>
       <c r="J12" t="n">
@@ -10273,22 +10070,22 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="25" t="n">
+      <c r="C13" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D13" s="25" t="n">
+      <c r="D13" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="E13" s="25" t="n">
+      <c r="E13" s="22" t="n">
         <v>1120</v>
       </c>
-      <c r="F13" s="25" t="n">
+      <c r="F13" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G13" s="25" t="n">
+      <c r="G13" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="H13" s="25" t="n">
+      <c r="H13" s="22" t="n">
         <v>1920</v>
       </c>
       <c r="J13" t="n">
@@ -10323,22 +10120,22 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="25" t="n">
+      <c r="C14" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="D14" s="25" t="n">
+      <c r="D14" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="E14" s="25" t="n">
+      <c r="E14" s="22" t="n">
         <v>1320</v>
       </c>
-      <c r="F14" s="25" t="n">
+      <c r="F14" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="25" t="n">
+      <c r="G14" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="H14" s="25" t="n">
+      <c r="H14" s="22" t="n">
         <v>2320</v>
       </c>
       <c r="J14" t="n">
@@ -10373,22 +10170,22 @@
       <c r="B15" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="25" t="n">
+      <c r="C15" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="D15" s="25" t="n">
+      <c r="D15" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="E15" s="25" t="n">
+      <c r="E15" s="22" t="n">
         <v>1520</v>
       </c>
-      <c r="F15" s="25" t="n">
+      <c r="F15" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="G15" s="25" t="n">
+      <c r="G15" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="H15" s="25" t="n">
+      <c r="H15" s="22" t="n">
         <v>2720</v>
       </c>
       <c r="J15" t="n">
@@ -10423,27 +10220,27 @@
       <c r="B16" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="25" t="n">
+      <c r="C16" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="D16" s="25" t="n">
+      <c r="D16" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="E16" s="25" t="n">
+      <c r="E16" s="22" t="n">
         <v>1720</v>
       </c>
-      <c r="F16" s="25" t="n">
+      <c r="F16" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="G16" s="25" t="n">
+      <c r="G16" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="H16" s="25" t="n">
+      <c r="H16" s="22" t="n">
         <v>3120</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>1 NT</t>
         </is>
@@ -10451,22 +10248,22 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="25" t="n">
+      <c r="C17" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="D17" s="25" t="n">
+      <c r="D17" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="E17" s="25" t="n">
+      <c r="E17" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="F17" s="25" t="n">
+      <c r="F17" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="G17" s="25" t="n">
+      <c r="G17" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="H17" s="25" t="n">
+      <c r="H17" s="22" t="n">
         <v>760</v>
       </c>
     </row>
@@ -10474,22 +10271,22 @@
       <c r="B18" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="25" t="n">
+      <c r="C18" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="D18" s="25" t="n">
+      <c r="D18" s="22" t="n">
         <v>280</v>
       </c>
-      <c r="E18" s="25" t="n">
+      <c r="E18" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="F18" s="25" t="n">
+      <c r="F18" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="G18" s="25" t="n">
+      <c r="G18" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="H18" s="25" t="n">
+      <c r="H18" s="22" t="n">
         <v>1160</v>
       </c>
     </row>
@@ -10497,22 +10294,22 @@
       <c r="B19" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="25" t="n">
+      <c r="C19" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D19" s="25" t="n">
+      <c r="D19" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="E19" s="25" t="n">
+      <c r="E19" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="F19" s="25" t="n">
+      <c r="F19" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G19" s="25" t="n">
+      <c r="G19" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="H19" s="25" t="n">
+      <c r="H19" s="22" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -10520,22 +10317,22 @@
       <c r="B20" t="n">
         <v>4</v>
       </c>
-      <c r="C20" s="25" t="n">
+      <c r="C20" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="D20" s="25" t="n">
+      <c r="D20" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="E20" s="25" t="n">
+      <c r="E20" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="F20" s="25" t="n">
+      <c r="F20" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="G20" s="25" t="n">
+      <c r="G20" s="22" t="n">
         <v>780</v>
       </c>
-      <c r="H20" s="25" t="n">
+      <c r="H20" s="22" t="n">
         <v>1960</v>
       </c>
     </row>
@@ -10543,22 +10340,22 @@
       <c r="B21" t="n">
         <v>5</v>
       </c>
-      <c r="C21" s="25" t="n">
+      <c r="C21" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="D21" s="25" t="n">
+      <c r="D21" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="E21" s="25" t="n">
+      <c r="E21" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="F21" s="25" t="n">
+      <c r="F21" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="G21" s="25" t="n">
+      <c r="G21" s="22" t="n">
         <v>980</v>
       </c>
-      <c r="H21" s="25" t="n">
+      <c r="H21" s="22" t="n">
         <v>2360</v>
       </c>
     </row>
@@ -10566,22 +10363,22 @@
       <c r="B22" t="n">
         <v>6</v>
       </c>
-      <c r="C22" s="25" t="n">
+      <c r="C22" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="D22" s="25" t="n">
+      <c r="D22" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="E22" s="25" t="n">
+      <c r="E22" s="22" t="n">
         <v>1560</v>
       </c>
-      <c r="F22" s="25" t="n">
+      <c r="F22" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="G22" s="25" t="n">
+      <c r="G22" s="22" t="n">
         <v>1180</v>
       </c>
-      <c r="H22" s="25" t="n">
+      <c r="H22" s="22" t="n">
         <v>2760</v>
       </c>
     </row>
@@ -10589,27 +10386,27 @@
       <c r="B23" t="n">
         <v>7</v>
       </c>
-      <c r="C23" s="25" t="n">
+      <c r="C23" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="D23" s="25" t="n">
+      <c r="D23" s="22" t="n">
         <v>780</v>
       </c>
-      <c r="E23" s="25" t="n">
+      <c r="E23" s="22" t="n">
         <v>1760</v>
       </c>
-      <c r="F23" s="25" t="n">
+      <c r="F23" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="G23" s="25" t="n">
+      <c r="G23" s="22" t="n">
         <v>1380</v>
       </c>
-      <c r="H23" s="25" t="n">
+      <c r="H23" s="22" t="n">
         <v>3160</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>2 D/C</t>
         </is>
@@ -10617,22 +10414,22 @@
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="25" t="n">
+      <c r="C24" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="D24" s="25" t="n">
+      <c r="D24" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="E24" s="25" t="n">
+      <c r="E24" s="22" t="n">
         <v>560</v>
       </c>
-      <c r="F24" s="25" t="n">
+      <c r="F24" s="22" t="n">
         <v>90</v>
       </c>
-      <c r="G24" s="25" t="n">
+      <c r="G24" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="H24" s="25" t="n">
+      <c r="H24" s="22" t="n">
         <v>760</v>
       </c>
     </row>
@@ -10640,22 +10437,22 @@
       <c r="B25" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="25" t="n">
+      <c r="C25" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D25" s="25" t="n">
+      <c r="D25" s="22" t="n">
         <v>280</v>
       </c>
-      <c r="E25" s="25" t="n">
+      <c r="E25" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="F25" s="25" t="n">
+      <c r="F25" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G25" s="25" t="n">
+      <c r="G25" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="H25" s="25" t="n">
+      <c r="H25" s="22" t="n">
         <v>1160</v>
       </c>
     </row>
@@ -10663,22 +10460,22 @@
       <c r="B26" t="n">
         <v>3</v>
       </c>
-      <c r="C26" s="25" t="n">
+      <c r="C26" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D26" s="25" t="n">
+      <c r="D26" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="E26" s="25" t="n">
+      <c r="E26" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="F26" s="25" t="n">
+      <c r="F26" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G26" s="25" t="n">
+      <c r="G26" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="H26" s="25" t="n">
+      <c r="H26" s="22" t="n">
         <v>1560</v>
       </c>
     </row>
@@ -10686,22 +10483,22 @@
       <c r="B27" t="n">
         <v>4</v>
       </c>
-      <c r="C27" s="25" t="n">
+      <c r="C27" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D27" s="25" t="n">
+      <c r="D27" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="E27" s="25" t="n">
+      <c r="E27" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="F27" s="25" t="n">
+      <c r="F27" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G27" s="25" t="n">
+      <c r="G27" s="22" t="n">
         <v>780</v>
       </c>
-      <c r="H27" s="25" t="n">
+      <c r="H27" s="22" t="n">
         <v>1960</v>
       </c>
     </row>
@@ -10709,22 +10506,22 @@
       <c r="B28" t="n">
         <v>5</v>
       </c>
-      <c r="C28" s="25" t="n">
+      <c r="C28" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D28" s="25" t="n">
+      <c r="D28" s="22" t="n">
         <v>580</v>
       </c>
-      <c r="E28" s="25" t="n">
+      <c r="E28" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="F28" s="25" t="n">
+      <c r="F28" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G28" s="25" t="n">
+      <c r="G28" s="22" t="n">
         <v>980</v>
       </c>
-      <c r="H28" s="25" t="n">
+      <c r="H28" s="22" t="n">
         <v>2360</v>
       </c>
     </row>
@@ -10732,27 +10529,27 @@
       <c r="B29" t="n">
         <v>6</v>
       </c>
-      <c r="C29" s="25" t="n">
+      <c r="C29" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D29" s="25" t="n">
+      <c r="D29" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="E29" s="25" t="n">
+      <c r="E29" s="22" t="n">
         <v>1560</v>
       </c>
-      <c r="F29" s="25" t="n">
+      <c r="F29" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G29" s="25" t="n">
+      <c r="G29" s="22" t="n">
         <v>1180</v>
       </c>
-      <c r="H29" s="25" t="n">
+      <c r="H29" s="22" t="n">
         <v>2760</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>2 H/S</t>
         </is>
@@ -10760,22 +10557,22 @@
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="25" t="n">
+      <c r="C30" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D30" s="25" t="n">
+      <c r="D30" s="22" t="n">
         <v>470</v>
       </c>
-      <c r="E30" s="25" t="n">
+      <c r="E30" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="F30" s="25" t="n">
+      <c r="F30" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G30" s="25" t="n">
+      <c r="G30" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="H30" s="25" t="n">
+      <c r="H30" s="22" t="n">
         <v>840</v>
       </c>
     </row>
@@ -10783,22 +10580,22 @@
       <c r="B31" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="25" t="n">
+      <c r="C31" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="D31" s="25" t="n">
+      <c r="D31" s="22" t="n">
         <v>570</v>
       </c>
-      <c r="E31" s="25" t="n">
+      <c r="E31" s="22" t="n">
         <v>840</v>
       </c>
-      <c r="F31" s="25" t="n">
+      <c r="F31" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="G31" s="25" t="n">
+      <c r="G31" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="H31" s="25" t="n">
+      <c r="H31" s="22" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -10806,22 +10603,22 @@
       <c r="B32" t="n">
         <v>3</v>
       </c>
-      <c r="C32" s="25" t="n">
+      <c r="C32" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D32" s="25" t="n">
+      <c r="D32" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="E32" s="25" t="n">
+      <c r="E32" s="22" t="n">
         <v>1040</v>
       </c>
-      <c r="F32" s="25" t="n">
+      <c r="F32" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G32" s="25" t="n">
+      <c r="G32" s="22" t="n">
         <v>1070</v>
       </c>
-      <c r="H32" s="25" t="n">
+      <c r="H32" s="22" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -10829,22 +10626,22 @@
       <c r="B33" t="n">
         <v>4</v>
       </c>
-      <c r="C33" s="25" t="n">
+      <c r="C33" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="D33" s="25" t="n">
+      <c r="D33" s="22" t="n">
         <v>770</v>
       </c>
-      <c r="E33" s="25" t="n">
+      <c r="E33" s="22" t="n">
         <v>1240</v>
       </c>
-      <c r="F33" s="25" t="n">
+      <c r="F33" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="G33" s="25" t="n">
+      <c r="G33" s="22" t="n">
         <v>1270</v>
       </c>
-      <c r="H33" s="25" t="n">
+      <c r="H33" s="22" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -10852,22 +10649,22 @@
       <c r="B34" t="n">
         <v>5</v>
       </c>
-      <c r="C34" s="25" t="n">
+      <c r="C34" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="D34" s="25" t="n">
+      <c r="D34" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="E34" s="25" t="n">
+      <c r="E34" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="F34" s="25" t="n">
+      <c r="F34" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="G34" s="25" t="n">
+      <c r="G34" s="22" t="n">
         <v>1470</v>
       </c>
-      <c r="H34" s="25" t="n">
+      <c r="H34" s="22" t="n">
         <v>2440</v>
       </c>
     </row>
@@ -10875,27 +10672,27 @@
       <c r="B35" t="n">
         <v>6</v>
       </c>
-      <c r="C35" s="25" t="n">
+      <c r="C35" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="D35" s="25" t="n">
+      <c r="D35" s="22" t="n">
         <v>970</v>
       </c>
-      <c r="E35" s="25" t="n">
+      <c r="E35" s="22" t="n">
         <v>1640</v>
       </c>
-      <c r="F35" s="25" t="n">
+      <c r="F35" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="G35" s="25" t="n">
+      <c r="G35" s="22" t="n">
         <v>1670</v>
       </c>
-      <c r="H35" s="25" t="n">
+      <c r="H35" s="22" t="n">
         <v>2840</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>2 NT</t>
         </is>
@@ -10903,22 +10700,22 @@
       <c r="B36" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="25" t="n">
+      <c r="C36" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="D36" s="25" t="n">
+      <c r="D36" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="E36" s="25" t="n">
+      <c r="E36" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="F36" s="25" t="n">
+      <c r="F36" s="22" t="n">
         <v>120</v>
       </c>
-      <c r="G36" s="25" t="n">
+      <c r="G36" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="H36" s="25" t="n">
+      <c r="H36" s="22" t="n">
         <v>880</v>
       </c>
     </row>
@@ -10926,22 +10723,22 @@
       <c r="B37" t="n">
         <v>2</v>
       </c>
-      <c r="C37" s="25" t="n">
+      <c r="C37" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D37" s="25" t="n">
+      <c r="D37" s="22" t="n">
         <v>590</v>
       </c>
-      <c r="E37" s="25" t="n">
+      <c r="E37" s="22" t="n">
         <v>880</v>
       </c>
-      <c r="F37" s="25" t="n">
+      <c r="F37" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G37" s="25" t="n">
+      <c r="G37" s="22" t="n">
         <v>890</v>
       </c>
-      <c r="H37" s="25" t="n">
+      <c r="H37" s="22" t="n">
         <v>1280</v>
       </c>
     </row>
@@ -10949,22 +10746,22 @@
       <c r="B38" t="n">
         <v>3</v>
       </c>
-      <c r="C38" s="25" t="n">
+      <c r="C38" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="D38" s="25" t="n">
+      <c r="D38" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="E38" s="25" t="n">
+      <c r="E38" s="22" t="n">
         <v>1080</v>
       </c>
-      <c r="F38" s="25" t="n">
+      <c r="F38" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="G38" s="25" t="n">
+      <c r="G38" s="22" t="n">
         <v>1090</v>
       </c>
-      <c r="H38" s="25" t="n">
+      <c r="H38" s="22" t="n">
         <v>1680</v>
       </c>
     </row>
@@ -10972,22 +10769,22 @@
       <c r="B39" t="n">
         <v>4</v>
       </c>
-      <c r="C39" s="25" t="n">
+      <c r="C39" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="D39" s="25" t="n">
+      <c r="D39" s="22" t="n">
         <v>790</v>
       </c>
-      <c r="E39" s="25" t="n">
+      <c r="E39" s="22" t="n">
         <v>1280</v>
       </c>
-      <c r="F39" s="25" t="n">
+      <c r="F39" s="22" t="n">
         <v>210</v>
       </c>
-      <c r="G39" s="25" t="n">
+      <c r="G39" s="22" t="n">
         <v>1290</v>
       </c>
-      <c r="H39" s="25" t="n">
+      <c r="H39" s="22" t="n">
         <v>2080</v>
       </c>
     </row>
@@ -10995,22 +10792,22 @@
       <c r="B40" t="n">
         <v>5</v>
       </c>
-      <c r="C40" s="25" t="n">
+      <c r="C40" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="D40" s="25" t="n">
+      <c r="D40" s="22" t="n">
         <v>890</v>
       </c>
-      <c r="E40" s="25" t="n">
+      <c r="E40" s="22" t="n">
         <v>1480</v>
       </c>
-      <c r="F40" s="25" t="n">
+      <c r="F40" s="22" t="n">
         <v>240</v>
       </c>
-      <c r="G40" s="25" t="n">
+      <c r="G40" s="22" t="n">
         <v>1490</v>
       </c>
-      <c r="H40" s="25" t="n">
+      <c r="H40" s="22" t="n">
         <v>2480</v>
       </c>
     </row>
@@ -11018,27 +10815,27 @@
       <c r="B41" t="n">
         <v>6</v>
       </c>
-      <c r="C41" s="25" t="n">
+      <c r="C41" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="D41" s="25" t="n">
+      <c r="D41" s="22" t="n">
         <v>990</v>
       </c>
-      <c r="E41" s="25" t="n">
+      <c r="E41" s="22" t="n">
         <v>1680</v>
       </c>
-      <c r="F41" s="25" t="n">
+      <c r="F41" s="22" t="n">
         <v>270</v>
       </c>
-      <c r="G41" s="25" t="n">
+      <c r="G41" s="22" t="n">
         <v>1690</v>
       </c>
-      <c r="H41" s="25" t="n">
+      <c r="H41" s="22" t="n">
         <v>2880</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>3 D/C</t>
         </is>
@@ -11046,22 +10843,22 @@
       <c r="B42" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="25" t="n">
+      <c r="C42" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="D42" s="25" t="n">
+      <c r="D42" s="22" t="n">
         <v>470</v>
       </c>
-      <c r="E42" s="25" t="n">
+      <c r="E42" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="F42" s="25" t="n">
+      <c r="F42" s="22" t="n">
         <v>110</v>
       </c>
-      <c r="G42" s="25" t="n">
+      <c r="G42" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="H42" s="25" t="n">
+      <c r="H42" s="22" t="n">
         <v>840</v>
       </c>
     </row>
@@ -11069,22 +10866,22 @@
       <c r="B43" t="n">
         <v>2</v>
       </c>
-      <c r="C43" s="25" t="n">
+      <c r="C43" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D43" s="25" t="n">
+      <c r="D43" s="22" t="n">
         <v>570</v>
       </c>
-      <c r="E43" s="25" t="n">
+      <c r="E43" s="22" t="n">
         <v>840</v>
       </c>
-      <c r="F43" s="25" t="n">
+      <c r="F43" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G43" s="25" t="n">
+      <c r="G43" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="H43" s="25" t="n">
+      <c r="H43" s="22" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -11092,22 +10889,22 @@
       <c r="B44" t="n">
         <v>3</v>
       </c>
-      <c r="C44" s="25" t="n">
+      <c r="C44" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D44" s="25" t="n">
+      <c r="D44" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="E44" s="25" t="n">
+      <c r="E44" s="22" t="n">
         <v>1040</v>
       </c>
-      <c r="F44" s="25" t="n">
+      <c r="F44" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G44" s="25" t="n">
+      <c r="G44" s="22" t="n">
         <v>1070</v>
       </c>
-      <c r="H44" s="25" t="n">
+      <c r="H44" s="22" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -11115,22 +10912,22 @@
       <c r="B45" t="n">
         <v>4</v>
       </c>
-      <c r="C45" s="25" t="n">
+      <c r="C45" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D45" s="25" t="n">
+      <c r="D45" s="22" t="n">
         <v>770</v>
       </c>
-      <c r="E45" s="25" t="n">
+      <c r="E45" s="22" t="n">
         <v>1240</v>
       </c>
-      <c r="F45" s="25" t="n">
+      <c r="F45" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G45" s="25" t="n">
+      <c r="G45" s="22" t="n">
         <v>1270</v>
       </c>
-      <c r="H45" s="25" t="n">
+      <c r="H45" s="22" t="n">
         <v>2040</v>
       </c>
     </row>
@@ -11138,27 +10935,27 @@
       <c r="B46" t="n">
         <v>5</v>
       </c>
-      <c r="C46" s="25" t="n">
+      <c r="C46" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D46" s="25" t="n">
+      <c r="D46" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="E46" s="25" t="n">
+      <c r="E46" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="F46" s="25" t="n">
+      <c r="F46" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G46" s="25" t="n">
+      <c r="G46" s="22" t="n">
         <v>1470</v>
       </c>
-      <c r="H46" s="25" t="n">
+      <c r="H46" s="22" t="n">
         <v>2440</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
         <is>
           <t>3 H/S</t>
         </is>
@@ -11166,22 +10963,22 @@
       <c r="B47" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="25" t="n">
+      <c r="C47" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="D47" s="25" t="n">
+      <c r="D47" s="22" t="n">
         <v>530</v>
       </c>
-      <c r="E47" s="25" t="n">
+      <c r="E47" s="22" t="n">
         <v>760</v>
       </c>
-      <c r="F47" s="25" t="n">
+      <c r="F47" s="22" t="n">
         <v>140</v>
       </c>
-      <c r="G47" s="25" t="n">
+      <c r="G47" s="22" t="n">
         <v>730</v>
       </c>
-      <c r="H47" s="25" t="n">
+      <c r="H47" s="22" t="n">
         <v>960</v>
       </c>
     </row>
@@ -11189,22 +10986,22 @@
       <c r="B48" t="n">
         <v>2</v>
       </c>
-      <c r="C48" s="25" t="n">
+      <c r="C48" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D48" s="25" t="n">
+      <c r="D48" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="E48" s="25" t="n">
+      <c r="E48" s="22" t="n">
         <v>960</v>
       </c>
-      <c r="F48" s="25" t="n">
+      <c r="F48" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G48" s="25" t="n">
+      <c r="G48" s="22" t="n">
         <v>930</v>
       </c>
-      <c r="H48" s="25" t="n">
+      <c r="H48" s="22" t="n">
         <v>1360</v>
       </c>
     </row>
@@ -11212,22 +11009,22 @@
       <c r="B49" t="n">
         <v>3</v>
       </c>
-      <c r="C49" s="25" t="n">
+      <c r="C49" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="D49" s="25" t="n">
+      <c r="D49" s="22" t="n">
         <v>730</v>
       </c>
-      <c r="E49" s="25" t="n">
+      <c r="E49" s="22" t="n">
         <v>1160</v>
       </c>
-      <c r="F49" s="25" t="n">
+      <c r="F49" s="22" t="n">
         <v>200</v>
       </c>
-      <c r="G49" s="25" t="n">
+      <c r="G49" s="22" t="n">
         <v>1130</v>
       </c>
-      <c r="H49" s="25" t="n">
+      <c r="H49" s="22" t="n">
         <v>1760</v>
       </c>
     </row>
@@ -11235,22 +11032,22 @@
       <c r="B50" t="n">
         <v>4</v>
       </c>
-      <c r="C50" s="25" t="n">
+      <c r="C50" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="D50" s="25" t="n">
+      <c r="D50" s="22" t="n">
         <v>830</v>
       </c>
-      <c r="E50" s="25" t="n">
+      <c r="E50" s="22" t="n">
         <v>1360</v>
       </c>
-      <c r="F50" s="25" t="n">
+      <c r="F50" s="22" t="n">
         <v>230</v>
       </c>
-      <c r="G50" s="25" t="n">
+      <c r="G50" s="22" t="n">
         <v>1330</v>
       </c>
-      <c r="H50" s="25" t="n">
+      <c r="H50" s="22" t="n">
         <v>2160</v>
       </c>
     </row>
@@ -11258,27 +11055,27 @@
       <c r="B51" t="n">
         <v>5</v>
       </c>
-      <c r="C51" s="25" t="n">
+      <c r="C51" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="D51" s="25" t="n">
+      <c r="D51" s="22" t="n">
         <v>930</v>
       </c>
-      <c r="E51" s="25" t="n">
+      <c r="E51" s="22" t="n">
         <v>1560</v>
       </c>
-      <c r="F51" s="25" t="n">
+      <c r="F51" s="22" t="n">
         <v>260</v>
       </c>
-      <c r="G51" s="25" t="n">
+      <c r="G51" s="22" t="n">
         <v>1530</v>
       </c>
-      <c r="H51" s="25" t="n">
+      <c r="H51" s="22" t="n">
         <v>2560</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>3 NT</t>
         </is>
@@ -11286,22 +11083,22 @@
       <c r="B52" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="25" t="n">
+      <c r="C52" s="22" t="n">
         <v>400</v>
       </c>
-      <c r="D52" s="25" t="n">
+      <c r="D52" s="22" t="n">
         <v>550</v>
       </c>
-      <c r="E52" s="25" t="n">
+      <c r="E52" s="22" t="n">
         <v>800</v>
       </c>
-      <c r="F52" s="25" t="n">
+      <c r="F52" s="22" t="n">
         <v>600</v>
       </c>
-      <c r="G52" s="25" t="n">
+      <c r="G52" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="H52" s="25" t="n">
+      <c r="H52" s="22" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -11309,22 +11106,22 @@
       <c r="B53" t="n">
         <v>2</v>
       </c>
-      <c r="C53" s="25" t="n">
+      <c r="C53" s="22" t="n">
         <v>430</v>
       </c>
-      <c r="D53" s="25" t="n">
+      <c r="D53" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="E53" s="25" t="n">
+      <c r="E53" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="F53" s="25" t="n">
+      <c r="F53" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="G53" s="25" t="n">
+      <c r="G53" s="22" t="n">
         <v>950</v>
       </c>
-      <c r="H53" s="25" t="n">
+      <c r="H53" s="22" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -11332,22 +11129,22 @@
       <c r="B54" t="n">
         <v>3</v>
       </c>
-      <c r="C54" s="25" t="n">
+      <c r="C54" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="D54" s="25" t="n">
+      <c r="D54" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="E54" s="25" t="n">
+      <c r="E54" s="22" t="n">
         <v>1200</v>
       </c>
-      <c r="F54" s="25" t="n">
+      <c r="F54" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="G54" s="25" t="n">
+      <c r="G54" s="22" t="n">
         <v>1150</v>
       </c>
-      <c r="H54" s="25" t="n">
+      <c r="H54" s="22" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -11355,22 +11152,22 @@
       <c r="B55" t="n">
         <v>4</v>
       </c>
-      <c r="C55" s="25" t="n">
+      <c r="C55" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="D55" s="25" t="n">
+      <c r="D55" s="22" t="n">
         <v>850</v>
       </c>
-      <c r="E55" s="25" t="n">
+      <c r="E55" s="22" t="n">
         <v>1400</v>
       </c>
-      <c r="F55" s="25" t="n">
+      <c r="F55" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="G55" s="25" t="n">
+      <c r="G55" s="22" t="n">
         <v>1350</v>
       </c>
-      <c r="H55" s="25" t="n">
+      <c r="H55" s="22" t="n">
         <v>2200</v>
       </c>
     </row>
@@ -11378,27 +11175,27 @@
       <c r="B56" t="n">
         <v>5</v>
       </c>
-      <c r="C56" s="25" t="n">
+      <c r="C56" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="D56" s="25" t="n">
+      <c r="D56" s="22" t="n">
         <v>950</v>
       </c>
-      <c r="E56" s="25" t="n">
+      <c r="E56" s="22" t="n">
         <v>1600</v>
       </c>
-      <c r="F56" s="25" t="n">
+      <c r="F56" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="G56" s="25" t="n">
+      <c r="G56" s="22" t="n">
         <v>1550</v>
       </c>
-      <c r="H56" s="25" t="n">
+      <c r="H56" s="22" t="n">
         <v>2600</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>4 D/C</t>
         </is>
@@ -11406,22 +11203,22 @@
       <c r="B57" t="n">
         <v>1</v>
       </c>
-      <c r="C57" s="25" t="n">
+      <c r="C57" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="D57" s="25" t="n">
+      <c r="D57" s="22" t="n">
         <v>510</v>
       </c>
-      <c r="E57" s="25" t="n">
+      <c r="E57" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="F57" s="25" t="n">
+      <c r="F57" s="22" t="n">
         <v>130</v>
       </c>
-      <c r="G57" s="25" t="n">
+      <c r="G57" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="H57" s="25" t="n">
+      <c r="H57" s="22" t="n">
         <v>920</v>
       </c>
     </row>
@@ -11429,22 +11226,22 @@
       <c r="B58" t="n">
         <v>2</v>
       </c>
-      <c r="C58" s="25" t="n">
+      <c r="C58" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="D58" s="25" t="n">
+      <c r="D58" s="22" t="n">
         <v>610</v>
       </c>
-      <c r="E58" s="25" t="n">
+      <c r="E58" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="F58" s="25" t="n">
+      <c r="F58" s="22" t="n">
         <v>150</v>
       </c>
-      <c r="G58" s="25" t="n">
+      <c r="G58" s="22" t="n">
         <v>910</v>
       </c>
-      <c r="H58" s="25" t="n">
+      <c r="H58" s="22" t="n">
         <v>1320</v>
       </c>
     </row>
@@ -11452,22 +11249,22 @@
       <c r="B59" t="n">
         <v>3</v>
       </c>
-      <c r="C59" s="25" t="n">
+      <c r="C59" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="D59" s="25" t="n">
+      <c r="D59" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="E59" s="25" t="n">
+      <c r="E59" s="22" t="n">
         <v>1120</v>
       </c>
-      <c r="F59" s="25" t="n">
+      <c r="F59" s="22" t="n">
         <v>170</v>
       </c>
-      <c r="G59" s="25" t="n">
+      <c r="G59" s="22" t="n">
         <v>1110</v>
       </c>
-      <c r="H59" s="25" t="n">
+      <c r="H59" s="22" t="n">
         <v>1720</v>
       </c>
     </row>
@@ -11475,27 +11272,27 @@
       <c r="B60" t="n">
         <v>4</v>
       </c>
-      <c r="C60" s="25" t="n">
+      <c r="C60" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="D60" s="25" t="n">
+      <c r="D60" s="22" t="n">
         <v>810</v>
       </c>
-      <c r="E60" s="25" t="n">
+      <c r="E60" s="22" t="n">
         <v>1320</v>
       </c>
-      <c r="F60" s="25" t="n">
+      <c r="F60" s="22" t="n">
         <v>190</v>
       </c>
-      <c r="G60" s="25" t="n">
+      <c r="G60" s="22" t="n">
         <v>1310</v>
       </c>
-      <c r="H60" s="25" t="n">
+      <c r="H60" s="22" t="n">
         <v>2120</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>4 H/S</t>
         </is>
@@ -11503,22 +11300,22 @@
       <c r="B61" t="n">
         <v>1</v>
       </c>
-      <c r="C61" s="25" t="n">
+      <c r="C61" s="22" t="n">
         <v>420</v>
       </c>
-      <c r="D61" s="25" t="n">
+      <c r="D61" s="22" t="n">
         <v>590</v>
       </c>
-      <c r="E61" s="25" t="n">
+      <c r="E61" s="22" t="n">
         <v>880</v>
       </c>
-      <c r="F61" s="25" t="n">
+      <c r="F61" s="22" t="n">
         <v>620</v>
       </c>
-      <c r="G61" s="25" t="n">
+      <c r="G61" s="22" t="n">
         <v>790</v>
       </c>
-      <c r="H61" s="25" t="n">
+      <c r="H61" s="22" t="n">
         <v>1080</v>
       </c>
     </row>
@@ -11526,22 +11323,22 @@
       <c r="B62" t="n">
         <v>2</v>
       </c>
-      <c r="C62" s="25" t="n">
+      <c r="C62" s="22" t="n">
         <v>450</v>
       </c>
-      <c r="D62" s="25" t="n">
+      <c r="D62" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="E62" s="25" t="n">
+      <c r="E62" s="22" t="n">
         <v>1080</v>
       </c>
-      <c r="F62" s="25" t="n">
+      <c r="F62" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="G62" s="25" t="n">
+      <c r="G62" s="22" t="n">
         <v>990</v>
       </c>
-      <c r="H62" s="25" t="n">
+      <c r="H62" s="22" t="n">
         <v>1480</v>
       </c>
     </row>
@@ -11549,22 +11346,22 @@
       <c r="B63" t="n">
         <v>3</v>
       </c>
-      <c r="C63" s="25" t="n">
+      <c r="C63" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="D63" s="25" t="n">
+      <c r="D63" s="22" t="n">
         <v>790</v>
       </c>
-      <c r="E63" s="25" t="n">
+      <c r="E63" s="22" t="n">
         <v>1280</v>
       </c>
-      <c r="F63" s="25" t="n">
+      <c r="F63" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="G63" s="25" t="n">
+      <c r="G63" s="22" t="n">
         <v>1190</v>
       </c>
-      <c r="H63" s="25" t="n">
+      <c r="H63" s="22" t="n">
         <v>1880</v>
       </c>
     </row>
@@ -11572,27 +11369,27 @@
       <c r="B64" t="n">
         <v>4</v>
       </c>
-      <c r="C64" s="25" t="n">
+      <c r="C64" s="22" t="n">
         <v>510</v>
       </c>
-      <c r="D64" s="25" t="n">
+      <c r="D64" s="22" t="n">
         <v>890</v>
       </c>
-      <c r="E64" s="25" t="n">
+      <c r="E64" s="22" t="n">
         <v>1480</v>
       </c>
-      <c r="F64" s="25" t="n">
+      <c r="F64" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="G64" s="25" t="n">
+      <c r="G64" s="22" t="n">
         <v>1390</v>
       </c>
-      <c r="H64" s="25" t="n">
+      <c r="H64" s="22" t="n">
         <v>2280</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>4 NT</t>
         </is>
@@ -11600,22 +11397,22 @@
       <c r="B65" t="n">
         <v>1</v>
       </c>
-      <c r="C65" s="25" t="n">
+      <c r="C65" s="22" t="n">
         <v>430</v>
       </c>
-      <c r="D65" s="25" t="n">
+      <c r="D65" s="22" t="n">
         <v>610</v>
       </c>
-      <c r="E65" s="25" t="n">
+      <c r="E65" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="F65" s="25" t="n">
+      <c r="F65" s="22" t="n">
         <v>630</v>
       </c>
-      <c r="G65" s="25" t="n">
+      <c r="G65" s="22" t="n">
         <v>810</v>
       </c>
-      <c r="H65" s="25" t="n">
+      <c r="H65" s="22" t="n">
         <v>1120</v>
       </c>
     </row>
@@ -11623,22 +11420,22 @@
       <c r="B66" t="n">
         <v>2</v>
       </c>
-      <c r="C66" s="25" t="n">
+      <c r="C66" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="D66" s="25" t="n">
+      <c r="D66" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="E66" s="25" t="n">
+      <c r="E66" s="22" t="n">
         <v>1120</v>
       </c>
-      <c r="F66" s="25" t="n">
+      <c r="F66" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="G66" s="25" t="n">
+      <c r="G66" s="22" t="n">
         <v>1010</v>
       </c>
-      <c r="H66" s="25" t="n">
+      <c r="H66" s="22" t="n">
         <v>1520</v>
       </c>
     </row>
@@ -11646,22 +11443,22 @@
       <c r="B67" t="n">
         <v>3</v>
       </c>
-      <c r="C67" s="25" t="n">
+      <c r="C67" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="D67" s="25" t="n">
+      <c r="D67" s="22" t="n">
         <v>810</v>
       </c>
-      <c r="E67" s="25" t="n">
+      <c r="E67" s="22" t="n">
         <v>1320</v>
       </c>
-      <c r="F67" s="25" t="n">
+      <c r="F67" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="G67" s="25" t="n">
+      <c r="G67" s="22" t="n">
         <v>1210</v>
       </c>
-      <c r="H67" s="25" t="n">
+      <c r="H67" s="22" t="n">
         <v>1920</v>
       </c>
     </row>
@@ -11669,27 +11466,27 @@
       <c r="B68" t="n">
         <v>4</v>
       </c>
-      <c r="C68" s="25" t="n">
+      <c r="C68" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="D68" s="25" t="n">
+      <c r="D68" s="22" t="n">
         <v>910</v>
       </c>
-      <c r="E68" s="25" t="n">
+      <c r="E68" s="22" t="n">
         <v>1520</v>
       </c>
-      <c r="F68" s="25" t="n">
+      <c r="F68" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="G68" s="25" t="n">
+      <c r="G68" s="22" t="n">
         <v>1410</v>
       </c>
-      <c r="H68" s="25" t="n">
+      <c r="H68" s="22" t="n">
         <v>2320</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="inlineStr">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>5 D/C</t>
         </is>
@@ -11697,22 +11494,22 @@
       <c r="B69" t="n">
         <v>1</v>
       </c>
-      <c r="C69" s="25" t="n">
+      <c r="C69" s="22" t="n">
         <v>400</v>
       </c>
-      <c r="D69" s="25" t="n">
+      <c r="D69" s="22" t="n">
         <v>550</v>
       </c>
-      <c r="E69" s="25" t="n">
+      <c r="E69" s="22" t="n">
         <v>800</v>
       </c>
-      <c r="F69" s="25" t="n">
+      <c r="F69" s="22" t="n">
         <v>600</v>
       </c>
-      <c r="G69" s="25" t="n">
+      <c r="G69" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="H69" s="25" t="n">
+      <c r="H69" s="22" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -11720,22 +11517,22 @@
       <c r="B70" t="n">
         <v>2</v>
       </c>
-      <c r="C70" s="25" t="n">
+      <c r="C70" s="22" t="n">
         <v>420</v>
       </c>
-      <c r="D70" s="25" t="n">
+      <c r="D70" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="E70" s="25" t="n">
+      <c r="E70" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="F70" s="25" t="n">
+      <c r="F70" s="22" t="n">
         <v>620</v>
       </c>
-      <c r="G70" s="25" t="n">
+      <c r="G70" s="22" t="n">
         <v>950</v>
       </c>
-      <c r="H70" s="25" t="n">
+      <c r="H70" s="22" t="n">
         <v>1400</v>
       </c>
     </row>
@@ -11743,27 +11540,27 @@
       <c r="B71" t="n">
         <v>3</v>
       </c>
-      <c r="C71" s="25" t="n">
+      <c r="C71" s="22" t="n">
         <v>440</v>
       </c>
-      <c r="D71" s="25" t="n">
+      <c r="D71" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="E71" s="25" t="n">
+      <c r="E71" s="22" t="n">
         <v>1200</v>
       </c>
-      <c r="F71" s="25" t="n">
+      <c r="F71" s="22" t="n">
         <v>640</v>
       </c>
-      <c r="G71" s="25" t="n">
+      <c r="G71" s="22" t="n">
         <v>1150</v>
       </c>
-      <c r="H71" s="25" t="n">
+      <c r="H71" s="22" t="n">
         <v>1800</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="inlineStr">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>5 H/S</t>
         </is>
@@ -11771,22 +11568,22 @@
       <c r="B72" t="n">
         <v>1</v>
       </c>
-      <c r="C72" s="25" t="n">
+      <c r="C72" s="22" t="n">
         <v>450</v>
       </c>
-      <c r="D72" s="25" t="n">
+      <c r="D72" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="E72" s="25" t="n">
+      <c r="E72" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="F72" s="25" t="n">
+      <c r="F72" s="22" t="n">
         <v>650</v>
       </c>
-      <c r="G72" s="25" t="n">
+      <c r="G72" s="22" t="n">
         <v>850</v>
       </c>
-      <c r="H72" s="25" t="n">
+      <c r="H72" s="22" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -11794,22 +11591,22 @@
       <c r="B73" t="n">
         <v>2</v>
       </c>
-      <c r="C73" s="25" t="n">
+      <c r="C73" s="22" t="n">
         <v>480</v>
       </c>
-      <c r="D73" s="25" t="n">
+      <c r="D73" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="E73" s="25" t="n">
+      <c r="E73" s="22" t="n">
         <v>1200</v>
       </c>
-      <c r="F73" s="25" t="n">
+      <c r="F73" s="22" t="n">
         <v>680</v>
       </c>
-      <c r="G73" s="25" t="n">
+      <c r="G73" s="22" t="n">
         <v>1050</v>
       </c>
-      <c r="H73" s="25" t="n">
+      <c r="H73" s="22" t="n">
         <v>1600</v>
       </c>
     </row>
@@ -11817,27 +11614,27 @@
       <c r="B74" t="n">
         <v>3</v>
       </c>
-      <c r="C74" s="25" t="n">
+      <c r="C74" s="22" t="n">
         <v>510</v>
       </c>
-      <c r="D74" s="25" t="n">
+      <c r="D74" s="22" t="n">
         <v>850</v>
       </c>
-      <c r="E74" s="25" t="n">
+      <c r="E74" s="22" t="n">
         <v>1400</v>
       </c>
-      <c r="F74" s="25" t="n">
+      <c r="F74" s="22" t="n">
         <v>710</v>
       </c>
-      <c r="G74" s="25" t="n">
+      <c r="G74" s="22" t="n">
         <v>1250</v>
       </c>
-      <c r="H74" s="25" t="n">
+      <c r="H74" s="22" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="inlineStr">
+      <c r="A75" s="2" t="inlineStr">
         <is>
           <t>5 NT</t>
         </is>
@@ -11845,22 +11642,22 @@
       <c r="B75" t="n">
         <v>1</v>
       </c>
-      <c r="C75" s="25" t="n">
+      <c r="C75" s="22" t="n">
         <v>460</v>
       </c>
-      <c r="D75" s="25" t="n">
+      <c r="D75" s="22" t="n">
         <v>670</v>
       </c>
-      <c r="E75" s="25" t="n">
+      <c r="E75" s="22" t="n">
         <v>1040</v>
       </c>
-      <c r="F75" s="25" t="n">
+      <c r="F75" s="22" t="n">
         <v>660</v>
       </c>
-      <c r="G75" s="25" t="n">
+      <c r="G75" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="H75" s="25" t="n">
+      <c r="H75" s="22" t="n">
         <v>1240</v>
       </c>
     </row>
@@ -11868,22 +11665,22 @@
       <c r="B76" t="n">
         <v>2</v>
       </c>
-      <c r="C76" s="25" t="n">
+      <c r="C76" s="22" t="n">
         <v>490</v>
       </c>
-      <c r="D76" s="25" t="n">
+      <c r="D76" s="22" t="n">
         <v>770</v>
       </c>
-      <c r="E76" s="25" t="n">
+      <c r="E76" s="22" t="n">
         <v>1240</v>
       </c>
-      <c r="F76" s="25" t="n">
+      <c r="F76" s="22" t="n">
         <v>690</v>
       </c>
-      <c r="G76" s="25" t="n">
+      <c r="G76" s="22" t="n">
         <v>1070</v>
       </c>
-      <c r="H76" s="25" t="n">
+      <c r="H76" s="22" t="n">
         <v>1640</v>
       </c>
     </row>
@@ -11891,27 +11688,27 @@
       <c r="B77" t="n">
         <v>3</v>
       </c>
-      <c r="C77" s="25" t="n">
+      <c r="C77" s="22" t="n">
         <v>520</v>
       </c>
-      <c r="D77" s="25" t="n">
+      <c r="D77" s="22" t="n">
         <v>870</v>
       </c>
-      <c r="E77" s="25" t="n">
+      <c r="E77" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="F77" s="25" t="n">
+      <c r="F77" s="22" t="n">
         <v>720</v>
       </c>
-      <c r="G77" s="25" t="n">
+      <c r="G77" s="22" t="n">
         <v>1270</v>
       </c>
-      <c r="H77" s="25" t="n">
+      <c r="H77" s="22" t="n">
         <v>2040</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="inlineStr">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>6 D/C</t>
         </is>
@@ -11919,22 +11716,22 @@
       <c r="B78" t="n">
         <v>1</v>
       </c>
-      <c r="C78" s="25" t="n">
+      <c r="C78" s="22" t="n">
         <v>920</v>
       </c>
-      <c r="D78" s="25" t="n">
+      <c r="D78" s="22" t="n">
         <v>1090</v>
       </c>
-      <c r="E78" s="25" t="n">
+      <c r="E78" s="22" t="n">
         <v>1380</v>
       </c>
-      <c r="F78" s="25" t="n">
+      <c r="F78" s="22" t="n">
         <v>1370</v>
       </c>
-      <c r="G78" s="25" t="n">
+      <c r="G78" s="22" t="n">
         <v>1540</v>
       </c>
-      <c r="H78" s="25" t="n">
+      <c r="H78" s="22" t="n">
         <v>1830</v>
       </c>
     </row>
@@ -11942,27 +11739,27 @@
       <c r="B79" t="n">
         <v>2</v>
       </c>
-      <c r="C79" s="25" t="n">
+      <c r="C79" s="22" t="n">
         <v>940</v>
       </c>
-      <c r="D79" s="25" t="n">
+      <c r="D79" s="22" t="n">
         <v>1190</v>
       </c>
-      <c r="E79" s="25" t="n">
+      <c r="E79" s="22" t="n">
         <v>1580</v>
       </c>
-      <c r="F79" s="25" t="n">
+      <c r="F79" s="22" t="n">
         <v>1390</v>
       </c>
-      <c r="G79" s="25" t="n">
+      <c r="G79" s="22" t="n">
         <v>1740</v>
       </c>
-      <c r="H79" s="25" t="n">
+      <c r="H79" s="22" t="n">
         <v>2230</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="inlineStr">
+      <c r="A80" s="2" t="inlineStr">
         <is>
           <t>6 H/S</t>
         </is>
@@ -11970,22 +11767,22 @@
       <c r="B80" t="n">
         <v>1</v>
       </c>
-      <c r="C80" s="25" t="n">
+      <c r="C80" s="22" t="n">
         <v>980</v>
       </c>
-      <c r="D80" s="25" t="n">
+      <c r="D80" s="22" t="n">
         <v>1210</v>
       </c>
-      <c r="E80" s="25" t="n">
+      <c r="E80" s="22" t="n">
         <v>1620</v>
       </c>
-      <c r="F80" s="25" t="n">
+      <c r="F80" s="22" t="n">
         <v>1430</v>
       </c>
-      <c r="G80" s="25" t="n">
+      <c r="G80" s="22" t="n">
         <v>1660</v>
       </c>
-      <c r="H80" s="25" t="n">
+      <c r="H80" s="22" t="n">
         <v>2070</v>
       </c>
     </row>
@@ -11993,27 +11790,27 @@
       <c r="B81" t="n">
         <v>2</v>
       </c>
-      <c r="C81" s="25" t="n">
+      <c r="C81" s="22" t="n">
         <v>1010</v>
       </c>
-      <c r="D81" s="25" t="n">
+      <c r="D81" s="22" t="n">
         <v>1310</v>
       </c>
-      <c r="E81" s="25" t="n">
+      <c r="E81" s="22" t="n">
         <v>1820</v>
       </c>
-      <c r="F81" s="25" t="n">
+      <c r="F81" s="22" t="n">
         <v>1460</v>
       </c>
-      <c r="G81" s="25" t="n">
+      <c r="G81" s="22" t="n">
         <v>1860</v>
       </c>
-      <c r="H81" s="25" t="n">
+      <c r="H81" s="22" t="n">
         <v>2470</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="inlineStr">
+      <c r="A82" s="2" t="inlineStr">
         <is>
           <t>6 NT</t>
         </is>
@@ -12021,22 +11818,22 @@
       <c r="B82" t="n">
         <v>1</v>
       </c>
-      <c r="C82" s="25" t="n">
+      <c r="C82" s="22" t="n">
         <v>990</v>
       </c>
-      <c r="D82" s="25" t="n">
+      <c r="D82" s="22" t="n">
         <v>1230</v>
       </c>
-      <c r="E82" s="25" t="n">
+      <c r="E82" s="22" t="n">
         <v>1660</v>
       </c>
-      <c r="F82" s="25" t="n">
+      <c r="F82" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="G82" s="25" t="n">
+      <c r="G82" s="22" t="n">
         <v>1680</v>
       </c>
-      <c r="H82" s="25" t="n">
+      <c r="H82" s="22" t="n">
         <v>2110</v>
       </c>
     </row>
@@ -12044,27 +11841,27 @@
       <c r="B83" t="n">
         <v>2</v>
       </c>
-      <c r="C83" s="25" t="n">
+      <c r="C83" s="22" t="n">
         <v>1020</v>
       </c>
-      <c r="D83" s="25" t="n">
+      <c r="D83" s="22" t="n">
         <v>1330</v>
       </c>
-      <c r="E83" s="25" t="n">
+      <c r="E83" s="22" t="n">
         <v>1860</v>
       </c>
-      <c r="F83" s="25" t="n">
+      <c r="F83" s="22" t="n">
         <v>1470</v>
       </c>
-      <c r="G83" s="25" t="n">
+      <c r="G83" s="22" t="n">
         <v>1880</v>
       </c>
-      <c r="H83" s="25" t="n">
+      <c r="H83" s="22" t="n">
         <v>2510</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="inlineStr">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>7 D/C</t>
         </is>
@@ -12072,27 +11869,27 @@
       <c r="B84" t="n">
         <v>1</v>
       </c>
-      <c r="C84" s="25" t="n">
+      <c r="C84" s="22" t="n">
         <v>1440</v>
       </c>
-      <c r="D84" s="25" t="n">
+      <c r="D84" s="22" t="n">
         <v>1630</v>
       </c>
-      <c r="E84" s="25" t="n">
+      <c r="E84" s="22" t="n">
         <v>1960</v>
       </c>
-      <c r="F84" s="25" t="n">
+      <c r="F84" s="22" t="n">
         <v>2140</v>
       </c>
-      <c r="G84" s="25" t="n">
+      <c r="G84" s="22" t="n">
         <v>2330</v>
       </c>
-      <c r="H84" s="25" t="n">
+      <c r="H84" s="22" t="n">
         <v>2660</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="inlineStr">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>7 H/S</t>
         </is>
@@ -12100,27 +11897,27 @@
       <c r="B85" t="n">
         <v>1</v>
       </c>
-      <c r="C85" s="25" t="n">
+      <c r="C85" s="22" t="n">
         <v>1510</v>
       </c>
-      <c r="D85" s="25" t="n">
+      <c r="D85" s="22" t="n">
         <v>1770</v>
       </c>
-      <c r="E85" s="25" t="n">
+      <c r="E85" s="22" t="n">
         <v>2240</v>
       </c>
-      <c r="F85" s="25" t="n">
+      <c r="F85" s="22" t="n">
         <v>2210</v>
       </c>
-      <c r="G85" s="25" t="n">
+      <c r="G85" s="22" t="n">
         <v>2470</v>
       </c>
-      <c r="H85" s="25" t="n">
+      <c r="H85" s="22" t="n">
         <v>2940</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="inlineStr">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>7 NT</t>
         </is>
@@ -12128,22 +11925,22 @@
       <c r="B86" t="n">
         <v>1</v>
       </c>
-      <c r="C86" s="25" t="n">
+      <c r="C86" s="22" t="n">
         <v>1520</v>
       </c>
-      <c r="D86" s="25" t="n">
+      <c r="D86" s="22" t="n">
         <v>1790</v>
       </c>
-      <c r="E86" s="25" t="n">
+      <c r="E86" s="22" t="n">
         <v>2280</v>
       </c>
-      <c r="F86" s="25" t="n">
+      <c r="F86" s="22" t="n">
         <v>2220</v>
       </c>
-      <c r="G86" s="25" t="n">
+      <c r="G86" s="22" t="n">
         <v>2490</v>
       </c>
-      <c r="H86" s="25" t="n">
+      <c r="H86" s="22" t="n">
         <v>2980</v>
       </c>
     </row>

--- a/howell7.xlsx
+++ b/howell7.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 04, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 05, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 25</t>
+          <t>Name 44</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 34</t>
+          <t>Name 24</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 38</t>
+          <t>Name 55</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 76</t>
+          <t>Name 14</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 22</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 55</t>
+          <t>Name 31</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 17</t>
+          <t>Name 53</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 71</t>
+          <t>Name 67</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 29</t>
+          <t>Name 31</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 44</t>
+          <t>Name 18</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 34</t>
+          <t>Name 11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 77</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 29</t>
+          <t>Name 77</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 90</t>
+          <t>Name 21</t>
         </is>
       </c>
       <c r="D16" s="4">

--- a/howell7.xlsx
+++ b/howell7.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 05, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 06, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 44</t>
+          <t>Name 90</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 24</t>
+          <t>Name 72</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 55</t>
+          <t>Name 60</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 14</t>
+          <t>Name 74</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 33</t>
+          <t>Name 80</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 49</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 53</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 67</t>
+          <t>Name 59</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 49</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 18</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 11</t>
+          <t>Name 45</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 43</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 77</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 21</t>
+          <t>Name 72</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -8002,7 +8002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8014,1136 +8014,1176 @@
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Round</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Table</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Board</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Vul</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Contract</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>By</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
           <t>Scores</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Round</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Table</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="A2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="16" t="n"/>
+      <c r="C3" s="16" t="n"/>
+      <c r="D3" s="16" t="n"/>
+      <c r="E3" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="G3" s="15" t="n"/>
+      <c r="H3" s="15" t="n"/>
+      <c r="I3" s="15" t="n"/>
+      <c r="J3" s="15" t="n"/>
+      <c r="K3" s="15" t="n"/>
+      <c r="L3" s="15" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Board</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Vul</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Contract</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>By</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="B5" s="16" t="n"/>
+      <c r="C5" s="16" t="n"/>
+      <c r="D5" s="16" t="n"/>
+      <c r="E5" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G5" s="15" t="n"/>
+      <c r="H5" s="15" t="n"/>
+      <c r="I5" s="15" t="n"/>
+      <c r="J5" s="15" t="n"/>
+      <c r="K5" s="15" t="n"/>
+      <c r="L5" s="15" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="B7" s="16" t="n"/>
+      <c r="C7" s="16" t="n"/>
+      <c r="D7" s="16" t="n"/>
+      <c r="E7" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="n">
+      <c r="G7" s="15" t="n"/>
+      <c r="H7" s="15" t="n"/>
+      <c r="I7" s="15" t="n"/>
+      <c r="J7" s="15" t="n"/>
+      <c r="K7" s="15" t="n"/>
+      <c r="L7" s="15" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="n"/>
+      <c r="B9" s="16" t="n"/>
+      <c r="C9" s="16" t="n"/>
+      <c r="D9" s="16" t="n"/>
+      <c r="E9" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G9" s="15" t="n"/>
+      <c r="H9" s="15" t="n"/>
+      <c r="I9" s="15" t="n"/>
+      <c r="J9" s="15" t="n"/>
+      <c r="K9" s="15" t="n"/>
+      <c r="L9" s="15" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="16" t="n"/>
+      <c r="C11" s="16" t="n"/>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G11" s="15" t="n"/>
+      <c r="H11" s="15" t="n"/>
+      <c r="I11" s="15" t="n"/>
+      <c r="J11" s="15" t="n"/>
+      <c r="K11" s="15" t="n"/>
+      <c r="L11" s="15" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="16" t="n"/>
+      <c r="C13" s="16" t="n"/>
+      <c r="D13" s="16" t="n"/>
+      <c r="E13" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G13" s="15" t="n"/>
+      <c r="H13" s="15" t="n"/>
+      <c r="I13" s="15" t="n"/>
+      <c r="J13" s="15" t="n"/>
+      <c r="K13" s="15" t="n"/>
+      <c r="L13" s="15" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="16" t="n"/>
+      <c r="C15" s="16" t="n"/>
+      <c r="D15" s="16" t="n"/>
+      <c r="E15" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G15" s="15" t="n"/>
+      <c r="H15" s="15" t="n"/>
+      <c r="I15" s="15" t="n"/>
+      <c r="J15" s="15" t="n"/>
+      <c r="K15" s="15" t="n"/>
+      <c r="L15" s="15" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11" t="n">
+      <c r="D16" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F16" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="n"/>
+      <c r="B17" s="16" t="n"/>
+      <c r="C17" s="16" t="n"/>
+      <c r="D17" s="16" t="n"/>
+      <c r="E17" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F17" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G17" s="15" t="n"/>
+      <c r="H17" s="15" t="n"/>
+      <c r="I17" s="15" t="n"/>
+      <c r="J17" s="15" t="n"/>
+      <c r="K17" s="15" t="n"/>
+      <c r="L17" s="15" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="C18" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="16" t="n"/>
+      <c r="C19" s="16" t="n"/>
+      <c r="D19" s="16" t="n"/>
+      <c r="E19" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G19" s="15" t="n"/>
+      <c r="H19" s="15" t="n"/>
+      <c r="I19" s="15" t="n"/>
+      <c r="J19" s="15" t="n"/>
+      <c r="K19" s="15" t="n"/>
+      <c r="L19" s="15" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="D20" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="16" t="n"/>
+      <c r="C21" s="16" t="n"/>
+      <c r="D21" s="16" t="n"/>
+      <c r="E21" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="16" t="n"/>
-      <c r="C4" s="16" t="n"/>
-      <c r="D4" s="16" t="n"/>
-      <c r="E4" s="16" t="n">
+      <c r="G21" s="15" t="n"/>
+      <c r="H21" s="15" t="n"/>
+      <c r="I21" s="15" t="n"/>
+      <c r="J21" s="15" t="n"/>
+      <c r="K21" s="15" t="n"/>
+      <c r="L21" s="15" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D22" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F22" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="16" t="n"/>
+      <c r="C23" s="16" t="n"/>
+      <c r="D23" s="16" t="n"/>
+      <c r="E23" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G23" s="15" t="n"/>
+      <c r="H23" s="15" t="n"/>
+      <c r="I23" s="15" t="n"/>
+      <c r="J23" s="15" t="n"/>
+      <c r="K23" s="15" t="n"/>
+      <c r="L23" s="15" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="inlineStr">
+      <c r="D24" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F24" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="15" t="n"/>
+      <c r="B25" s="16" t="n"/>
+      <c r="C25" s="16" t="n"/>
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F25" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G25" s="15" t="n"/>
+      <c r="H25" s="15" t="n"/>
+      <c r="I25" s="15" t="n"/>
+      <c r="J25" s="15" t="n"/>
+      <c r="K25" s="15" t="n"/>
+      <c r="L25" s="15" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="16" t="n"/>
+      <c r="C27" s="16" t="n"/>
+      <c r="D27" s="16" t="n"/>
+      <c r="E27" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F27" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G27" s="15" t="n"/>
+      <c r="H27" s="15" t="n"/>
+      <c r="I27" s="15" t="n"/>
+      <c r="J27" s="15" t="n"/>
+      <c r="K27" s="15" t="n"/>
+      <c r="L27" s="15" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F28" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="16" t="n"/>
+      <c r="C29" s="16" t="n"/>
+      <c r="D29" s="16" t="n"/>
+      <c r="E29" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G29" s="15" t="n"/>
+      <c r="H29" s="15" t="n"/>
+      <c r="I29" s="15" t="n"/>
+      <c r="J29" s="15" t="n"/>
+      <c r="K29" s="15" t="n"/>
+      <c r="L29" s="15" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F30" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="16" t="n"/>
+      <c r="C31" s="16" t="n"/>
+      <c r="D31" s="16" t="n"/>
+      <c r="E31" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F31" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G4" s="15" t="n"/>
-      <c r="H4" s="15" t="n"/>
-      <c r="I4" s="15" t="n"/>
-      <c r="J4" s="15" t="n"/>
-      <c r="K4" s="15" t="n"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="11" t="n">
+      <c r="G31" s="15" t="n"/>
+      <c r="H31" s="15" t="n"/>
+      <c r="I31" s="15" t="n"/>
+      <c r="J31" s="15" t="n"/>
+      <c r="K31" s="15" t="n"/>
+      <c r="L31" s="15" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="15" t="n"/>
+      <c r="B33" s="16" t="n"/>
+      <c r="C33" s="16" t="n"/>
+      <c r="D33" s="16" t="n"/>
+      <c r="E33" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="F33" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G33" s="15" t="n"/>
+      <c r="H33" s="15" t="n"/>
+      <c r="I33" s="15" t="n"/>
+      <c r="J33" s="15" t="n"/>
+      <c r="K33" s="15" t="n"/>
+      <c r="L33" s="15" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D34" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F34" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="16" t="n"/>
+      <c r="C35" s="16" t="n"/>
+      <c r="D35" s="16" t="n"/>
+      <c r="E35" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G35" s="15" t="n"/>
+      <c r="H35" s="15" t="n"/>
+      <c r="I35" s="15" t="n"/>
+      <c r="J35" s="15" t="n"/>
+      <c r="K35" s="15" t="n"/>
+      <c r="L35" s="15" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F36" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="16" t="n"/>
+      <c r="C37" s="16" t="n"/>
+      <c r="D37" s="16" t="n"/>
+      <c r="E37" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F37" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G37" s="15" t="n"/>
+      <c r="H37" s="15" t="n"/>
+      <c r="I37" s="15" t="n"/>
+      <c r="J37" s="15" t="n"/>
+      <c r="K37" s="15" t="n"/>
+      <c r="L37" s="15" t="n"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="E38" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F38" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="16" t="n"/>
+      <c r="C39" s="16" t="n"/>
+      <c r="D39" s="16" t="n"/>
+      <c r="E39" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F39" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G39" s="15" t="n"/>
+      <c r="H39" s="15" t="n"/>
+      <c r="I39" s="15" t="n"/>
+      <c r="J39" s="15" t="n"/>
+      <c r="K39" s="15" t="n"/>
+      <c r="L39" s="15" t="n"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E40" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" s="11" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="15" t="n"/>
+      <c r="B41" s="16" t="n"/>
+      <c r="C41" s="16" t="n"/>
+      <c r="D41" s="16" t="n"/>
+      <c r="E41" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" s="16" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="G41" s="15" t="n"/>
+      <c r="H41" s="15" t="n"/>
+      <c r="I41" s="15" t="n"/>
+      <c r="J41" s="15" t="n"/>
+      <c r="K41" s="15" t="n"/>
+      <c r="L41" s="15" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B42" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D42" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E42" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F42" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="16" t="n"/>
+      <c r="C43" s="16" t="n"/>
+      <c r="D43" s="16" t="n"/>
+      <c r="E43" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F43" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G43" s="15" t="n"/>
+      <c r="H43" s="15" t="n"/>
+      <c r="I43" s="15" t="n"/>
+      <c r="J43" s="15" t="n"/>
+      <c r="K43" s="15" t="n"/>
+      <c r="L43" s="15" t="n"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F44" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="16" t="n"/>
+      <c r="C45" s="16" t="n"/>
+      <c r="D45" s="16" t="n"/>
+      <c r="E45" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F45" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G45" s="15" t="n"/>
+      <c r="H45" s="15" t="n"/>
+      <c r="I45" s="15" t="n"/>
+      <c r="J45" s="15" t="n"/>
+      <c r="K45" s="15" t="n"/>
+      <c r="L45" s="15" t="n"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="16" t="n"/>
+      <c r="C47" s="16" t="n"/>
+      <c r="D47" s="16" t="n"/>
+      <c r="E47" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G47" s="15" t="n"/>
+      <c r="H47" s="15" t="n"/>
+      <c r="I47" s="15" t="n"/>
+      <c r="J47" s="15" t="n"/>
+      <c r="K47" s="15" t="n"/>
+      <c r="L47" s="15" t="n"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="D48" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" s="11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="15" t="n"/>
+      <c r="B49" s="16" t="n"/>
+      <c r="C49" s="16" t="n"/>
+      <c r="D49" s="16" t="n"/>
+      <c r="E49" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F49" s="16" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="G49" s="15" t="n"/>
+      <c r="H49" s="15" t="n"/>
+      <c r="I49" s="15" t="n"/>
+      <c r="J49" s="15" t="n"/>
+      <c r="K49" s="15" t="n"/>
+      <c r="L49" s="15" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="11" t="inlineStr">
+        <is>
+          <t>Sit-Out</t>
+        </is>
+      </c>
+      <c r="D50" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E50" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F50" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="16" t="n"/>
+      <c r="C51" s="16" t="n"/>
+      <c r="D51" s="16" t="n"/>
+      <c r="E51" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="F51" s="16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G51" s="15" t="n"/>
+      <c r="H51" s="15" t="n"/>
+      <c r="I51" s="15" t="n"/>
+      <c r="J51" s="15" t="n"/>
+      <c r="K51" s="15" t="n"/>
+      <c r="L51" s="15" t="n"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="16" t="n"/>
+      <c r="C53" s="16" t="n"/>
+      <c r="D53" s="16" t="n"/>
+      <c r="E53" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" s="16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="G53" s="15" t="n"/>
+      <c r="H53" s="15" t="n"/>
+      <c r="I53" s="15" t="n"/>
+      <c r="J53" s="15" t="n"/>
+      <c r="K53" s="15" t="n"/>
+      <c r="L53" s="15" t="n"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="C54" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D54" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="16" t="n"/>
-      <c r="C6" s="16" t="n"/>
-      <c r="D6" s="16" t="n"/>
-      <c r="E6" s="16" t="n">
+    <row r="55">
+      <c r="B55" s="16" t="n"/>
+      <c r="C55" s="16" t="n"/>
+      <c r="D55" s="16" t="n"/>
+      <c r="E55" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="16" t="inlineStr">
+      <c r="F55" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G6" s="15" t="n"/>
-      <c r="H6" s="15" t="n"/>
-      <c r="I6" s="15" t="n"/>
-      <c r="J6" s="15" t="n"/>
-      <c r="K6" s="15" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="n">
+      <c r="G55" s="15" t="n"/>
+      <c r="H55" s="15" t="n"/>
+      <c r="I55" s="15" t="n"/>
+      <c r="J55" s="15" t="n"/>
+      <c r="K55" s="15" t="n"/>
+      <c r="L55" s="15" t="n"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="C56" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D56" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="16" t="n"/>
-      <c r="C8" s="16" t="n"/>
-      <c r="D8" s="16" t="n"/>
-      <c r="E8" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G8" s="15" t="n"/>
-      <c r="H8" s="15" t="n"/>
-      <c r="I8" s="15" t="n"/>
-      <c r="J8" s="15" t="n"/>
-      <c r="K8" s="15" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" s="11" t="n">
+      <c r="E56" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D9" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F9" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n"/>
-      <c r="B10" s="16" t="n"/>
-      <c r="C10" s="16" t="n"/>
-      <c r="D10" s="16" t="n"/>
-      <c r="E10" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F10" s="16" t="inlineStr">
+      <c r="F56" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G10" s="15" t="n"/>
-      <c r="H10" s="15" t="n"/>
-      <c r="I10" s="15" t="n"/>
-      <c r="J10" s="15" t="n"/>
-      <c r="K10" s="15" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="16" t="n"/>
-      <c r="C12" s="16" t="n"/>
-      <c r="D12" s="16" t="n"/>
-      <c r="E12" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G12" s="15" t="n"/>
-      <c r="H12" s="15" t="n"/>
-      <c r="I12" s="15" t="n"/>
-      <c r="J12" s="15" t="n"/>
-      <c r="K12" s="15" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D13" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E13" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="16" t="n"/>
-      <c r="C14" s="16" t="n"/>
-      <c r="D14" s="16" t="n"/>
-      <c r="E14" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G14" s="15" t="n"/>
-      <c r="H14" s="15" t="n"/>
-      <c r="I14" s="15" t="n"/>
-      <c r="J14" s="15" t="n"/>
-      <c r="K14" s="15" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F15" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="16" t="n"/>
-      <c r="C16" s="16" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n">
+    </row>
+    <row r="57">
+      <c r="A57" s="15" t="n"/>
+      <c r="B57" s="16" t="n"/>
+      <c r="C57" s="16" t="n"/>
+      <c r="D57" s="16" t="n"/>
+      <c r="E57" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F16" s="16" t="inlineStr">
+      <c r="F57" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G16" s="15" t="n"/>
-      <c r="H16" s="15" t="n"/>
-      <c r="I16" s="15" t="n"/>
-      <c r="J16" s="15" t="n"/>
-      <c r="K16" s="15" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E17" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F17" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="15" t="n"/>
-      <c r="B18" s="16" t="n"/>
-      <c r="C18" s="16" t="n"/>
-      <c r="D18" s="16" t="n"/>
-      <c r="E18" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F18" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G18" s="15" t="n"/>
-      <c r="H18" s="15" t="n"/>
-      <c r="I18" s="15" t="n"/>
-      <c r="J18" s="15" t="n"/>
-      <c r="K18" s="15" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B19" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F19" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="16" t="n"/>
-      <c r="C20" s="16" t="n"/>
-      <c r="D20" s="16" t="n"/>
-      <c r="E20" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F20" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G20" s="15" t="n"/>
-      <c r="H20" s="15" t="n"/>
-      <c r="I20" s="15" t="n"/>
-      <c r="J20" s="15" t="n"/>
-      <c r="K20" s="15" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E21" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="16" t="n"/>
-      <c r="C22" s="16" t="n"/>
-      <c r="D22" s="16" t="n"/>
-      <c r="E22" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F22" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G22" s="15" t="n"/>
-      <c r="H22" s="15" t="n"/>
-      <c r="I22" s="15" t="n"/>
-      <c r="J22" s="15" t="n"/>
-      <c r="K22" s="15" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D23" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F23" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="16" t="n"/>
-      <c r="C24" s="16" t="n"/>
-      <c r="D24" s="16" t="n"/>
-      <c r="E24" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F24" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G24" s="15" t="n"/>
-      <c r="H24" s="15" t="n"/>
-      <c r="I24" s="15" t="n"/>
-      <c r="J24" s="15" t="n"/>
-      <c r="K24" s="15" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E25" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F25" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="15" t="n"/>
-      <c r="B26" s="16" t="n"/>
-      <c r="C26" s="16" t="n"/>
-      <c r="D26" s="16" t="n"/>
-      <c r="E26" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F26" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G26" s="15" t="n"/>
-      <c r="H26" s="15" t="n"/>
-      <c r="I26" s="15" t="n"/>
-      <c r="J26" s="15" t="n"/>
-      <c r="K26" s="15" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B27" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E27" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F27" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="16" t="n"/>
-      <c r="C28" s="16" t="n"/>
-      <c r="D28" s="16" t="n"/>
-      <c r="E28" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F28" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G28" s="15" t="n"/>
-      <c r="H28" s="15" t="n"/>
-      <c r="I28" s="15" t="n"/>
-      <c r="J28" s="15" t="n"/>
-      <c r="K28" s="15" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D29" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F29" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="16" t="n"/>
-      <c r="C30" s="16" t="n"/>
-      <c r="D30" s="16" t="n"/>
-      <c r="E30" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F30" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G30" s="15" t="n"/>
-      <c r="H30" s="15" t="n"/>
-      <c r="I30" s="15" t="n"/>
-      <c r="J30" s="15" t="n"/>
-      <c r="K30" s="15" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C31" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D31" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E31" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F31" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="16" t="n"/>
-      <c r="C32" s="16" t="n"/>
-      <c r="D32" s="16" t="n"/>
-      <c r="E32" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F32" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G32" s="15" t="n"/>
-      <c r="H32" s="15" t="n"/>
-      <c r="I32" s="15" t="n"/>
-      <c r="J32" s="15" t="n"/>
-      <c r="K32" s="15" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C33" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D33" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E33" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="15" t="n"/>
-      <c r="B34" s="16" t="n"/>
-      <c r="C34" s="16" t="n"/>
-      <c r="D34" s="16" t="n"/>
-      <c r="E34" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G34" s="15" t="n"/>
-      <c r="H34" s="15" t="n"/>
-      <c r="I34" s="15" t="n"/>
-      <c r="J34" s="15" t="n"/>
-      <c r="K34" s="15" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B35" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E35" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F35" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="16" t="n"/>
-      <c r="C36" s="16" t="n"/>
-      <c r="D36" s="16" t="n"/>
-      <c r="E36" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F36" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G36" s="15" t="n"/>
-      <c r="H36" s="15" t="n"/>
-      <c r="I36" s="15" t="n"/>
-      <c r="J36" s="15" t="n"/>
-      <c r="K36" s="15" t="n"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D37" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E37" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F37" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="16" t="n"/>
-      <c r="C38" s="16" t="n"/>
-      <c r="D38" s="16" t="n"/>
-      <c r="E38" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F38" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G38" s="15" t="n"/>
-      <c r="H38" s="15" t="n"/>
-      <c r="I38" s="15" t="n"/>
-      <c r="J38" s="15" t="n"/>
-      <c r="K38" s="15" t="n"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C39" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E39" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F39" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="16" t="n"/>
-      <c r="C40" s="16" t="n"/>
-      <c r="D40" s="16" t="n"/>
-      <c r="E40" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F40" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G40" s="15" t="n"/>
-      <c r="H40" s="15" t="n"/>
-      <c r="I40" s="15" t="n"/>
-      <c r="J40" s="15" t="n"/>
-      <c r="K40" s="15" t="n"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C41" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D41" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E41" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F41" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="15" t="n"/>
-      <c r="B42" s="16" t="n"/>
-      <c r="C42" s="16" t="n"/>
-      <c r="D42" s="16" t="n"/>
-      <c r="E42" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F42" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G42" s="15" t="n"/>
-      <c r="H42" s="15" t="n"/>
-      <c r="I42" s="15" t="n"/>
-      <c r="J42" s="15" t="n"/>
-      <c r="K42" s="15" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="B43" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E43" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="F43" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="16" t="n"/>
-      <c r="C44" s="16" t="n"/>
-      <c r="D44" s="16" t="n"/>
-      <c r="E44" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F44" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G44" s="15" t="n"/>
-      <c r="H44" s="15" t="n"/>
-      <c r="I44" s="15" t="n"/>
-      <c r="J44" s="15" t="n"/>
-      <c r="K44" s="15" t="n"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C45" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D45" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E45" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F45" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="16" t="n"/>
-      <c r="C46" s="16" t="n"/>
-      <c r="D46" s="16" t="n"/>
-      <c r="E46" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F46" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G46" s="15" t="n"/>
-      <c r="H46" s="15" t="n"/>
-      <c r="I46" s="15" t="n"/>
-      <c r="J46" s="15" t="n"/>
-      <c r="K46" s="15" t="n"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C47" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D47" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E47" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="16" t="n"/>
-      <c r="C48" s="16" t="n"/>
-      <c r="D48" s="16" t="n"/>
-      <c r="E48" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G48" s="15" t="n"/>
-      <c r="H48" s="15" t="n"/>
-      <c r="I48" s="15" t="n"/>
-      <c r="J48" s="15" t="n"/>
-      <c r="K48" s="15" t="n"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C49" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D49" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F49" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="15" t="n"/>
-      <c r="B50" s="16" t="n"/>
-      <c r="C50" s="16" t="n"/>
-      <c r="D50" s="16" t="n"/>
-      <c r="E50" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F50" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="G50" s="15" t="n"/>
-      <c r="H50" s="15" t="n"/>
-      <c r="I50" s="15" t="n"/>
-      <c r="J50" s="15" t="n"/>
-      <c r="K50" s="15" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="B51" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="E51" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="F51" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="16" t="n"/>
-      <c r="C52" s="16" t="n"/>
-      <c r="D52" s="16" t="n"/>
-      <c r="E52" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="F52" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G52" s="15" t="n"/>
-      <c r="H52" s="15" t="n"/>
-      <c r="I52" s="15" t="n"/>
-      <c r="J52" s="15" t="n"/>
-      <c r="K52" s="15" t="n"/>
-    </row>
-    <row r="53">
-      <c r="B53" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C53" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D53" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E53" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="16" t="n"/>
-      <c r="C54" s="16" t="n"/>
-      <c r="D54" s="16" t="n"/>
-      <c r="E54" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F54" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="G54" s="15" t="n"/>
-      <c r="H54" s="15" t="n"/>
-      <c r="I54" s="15" t="n"/>
-      <c r="J54" s="15" t="n"/>
-      <c r="K54" s="15" t="n"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C55" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D55" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F55" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="16" t="n"/>
-      <c r="C56" s="16" t="n"/>
-      <c r="D56" s="16" t="n"/>
-      <c r="E56" s="16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F56" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-      <c r="G56" s="15" t="n"/>
-      <c r="H56" s="15" t="n"/>
-      <c r="I56" s="15" t="n"/>
-      <c r="J56" s="15" t="n"/>
-      <c r="K56" s="15" t="n"/>
-    </row>
-    <row r="57">
-      <c r="B57" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C57" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D57" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E57" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="F57" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="15" t="n"/>
-      <c r="B58" s="16" t="n"/>
-      <c r="C58" s="16" t="n"/>
-      <c r="D58" s="16" t="n"/>
-      <c r="E58" s="16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F58" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G58" s="15" t="n"/>
-      <c r="H58" s="15" t="n"/>
-      <c r="I58" s="15" t="n"/>
-      <c r="J58" s="15" t="n"/>
-      <c r="K58" s="15" t="n"/>
+      <c r="G57" s="15" t="n"/>
+      <c r="H57" s="15" t="n"/>
+      <c r="I57" s="15" t="n"/>
+      <c r="J57" s="15" t="n"/>
+      <c r="K57" s="15" t="n"/>
+      <c r="L57" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/howell7.xlsx
+++ b/howell7.xlsx
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 90</t>
+          <t>Name 28</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 72</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 60</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 74</t>
+          <t>Name 34</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 80</t>
+          <t>Name 11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 49</t>
+          <t>Name 62</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 27</t>
+          <t>Name 83</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 59</t>
+          <t>Name 31</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 49</t>
+          <t>Name 54</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 61</t>
+          <t>Name 37</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 45</t>
+          <t>Name 64</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 27</t>
+          <t>Name 52</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 61</t>
+          <t>Name 23</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 72</t>
+          <t>Name 89</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -8002,7 +8002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M57"/>
+  <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8013,1178 +8013,1142 @@
     <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Vul</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Contract</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>By</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Scores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="n">
+      <c r="E3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="16" t="n"/>
-      <c r="C3" s="16" t="n"/>
-      <c r="D3" s="16" t="n"/>
-      <c r="E3" s="16" t="n">
+    <row r="4">
+      <c r="B4" s="16" t="n"/>
+      <c r="C4" s="16" t="n"/>
+      <c r="D4" s="16" t="n"/>
+      <c r="E4" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="16" t="inlineStr">
+      <c r="F4" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G3" s="15" t="n"/>
-      <c r="H3" s="15" t="n"/>
-      <c r="I3" s="15" t="n"/>
-      <c r="J3" s="15" t="n"/>
-      <c r="K3" s="15" t="n"/>
-      <c r="L3" s="15" t="n"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="11" t="n">
+      <c r="G4" s="15" t="n"/>
+      <c r="H4" s="15" t="n"/>
+      <c r="I4" s="15" t="n"/>
+      <c r="J4" s="15" t="n"/>
+      <c r="K4" s="15" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C5" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D5" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E5" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="F5" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="16" t="n"/>
-      <c r="C5" s="16" t="n"/>
-      <c r="D5" s="16" t="n"/>
-      <c r="E5" s="16" t="n">
+    <row r="6">
+      <c r="B6" s="16" t="n"/>
+      <c r="C6" s="16" t="n"/>
+      <c r="D6" s="16" t="n"/>
+      <c r="E6" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F5" s="16" t="inlineStr">
+      <c r="F6" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G5" s="15" t="n"/>
-      <c r="H5" s="15" t="n"/>
-      <c r="I5" s="15" t="n"/>
-      <c r="J5" s="15" t="n"/>
-      <c r="K5" s="15" t="n"/>
-      <c r="L5" s="15" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="11" t="n">
+      <c r="G6" s="15" t="n"/>
+      <c r="H6" s="15" t="n"/>
+      <c r="I6" s="15" t="n"/>
+      <c r="J6" s="15" t="n"/>
+      <c r="K6" s="15" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C7" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D7" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E7" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="16" t="n"/>
-      <c r="C7" s="16" t="n"/>
-      <c r="D7" s="16" t="n"/>
-      <c r="E7" s="16" t="n">
+    <row r="8">
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="16" t="n"/>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="16" t="inlineStr">
+      <c r="F8" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G7" s="15" t="n"/>
-      <c r="H7" s="15" t="n"/>
-      <c r="I7" s="15" t="n"/>
-      <c r="J7" s="15" t="n"/>
-      <c r="K7" s="15" t="n"/>
-      <c r="L7" s="15" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="11" t="n">
+      <c r="G8" s="15" t="n"/>
+      <c r="H8" s="15" t="n"/>
+      <c r="I8" s="15" t="n"/>
+      <c r="J8" s="15" t="n"/>
+      <c r="K8" s="15" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C9" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D9" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E9" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F8" s="11" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="15" t="n"/>
-      <c r="B9" s="16" t="n"/>
-      <c r="C9" s="16" t="n"/>
-      <c r="D9" s="16" t="n"/>
-      <c r="E9" s="16" t="n">
+    <row r="10">
+      <c r="A10" s="15" t="n"/>
+      <c r="B10" s="16" t="n"/>
+      <c r="C10" s="16" t="n"/>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F9" s="16" t="inlineStr">
+      <c r="F10" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G9" s="15" t="n"/>
-      <c r="H9" s="15" t="n"/>
-      <c r="I9" s="15" t="n"/>
-      <c r="J9" s="15" t="n"/>
-      <c r="K9" s="15" t="n"/>
-      <c r="L9" s="15" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="n">
+      <c r="G10" s="15" t="n"/>
+      <c r="H10" s="15" t="n"/>
+      <c r="I10" s="15" t="n"/>
+      <c r="J10" s="15" t="n"/>
+      <c r="K10" s="15" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B11" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D11" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E11" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="11" t="inlineStr">
+      <c r="F11" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="16" t="n"/>
-      <c r="C11" s="16" t="n"/>
-      <c r="D11" s="16" t="n"/>
-      <c r="E11" s="16" t="n">
+    <row r="12">
+      <c r="B12" s="16" t="n"/>
+      <c r="C12" s="16" t="n"/>
+      <c r="D12" s="16" t="n"/>
+      <c r="E12" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="16" t="inlineStr">
+      <c r="F12" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G11" s="15" t="n"/>
-      <c r="H11" s="15" t="n"/>
-      <c r="I11" s="15" t="n"/>
-      <c r="J11" s="15" t="n"/>
-      <c r="K11" s="15" t="n"/>
-      <c r="L11" s="15" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="11" t="n">
+      <c r="G12" s="15" t="n"/>
+      <c r="H12" s="15" t="n"/>
+      <c r="I12" s="15" t="n"/>
+      <c r="J12" s="15" t="n"/>
+      <c r="K12" s="15" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C13" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D13" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E13" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F12" s="11" t="inlineStr">
+      <c r="F13" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="16" t="n"/>
-      <c r="C13" s="16" t="n"/>
-      <c r="D13" s="16" t="n"/>
-      <c r="E13" s="16" t="n">
+    <row r="14">
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="16" t="n"/>
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F13" s="16" t="inlineStr">
+      <c r="F14" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G13" s="15" t="n"/>
-      <c r="H13" s="15" t="n"/>
-      <c r="I13" s="15" t="n"/>
-      <c r="J13" s="15" t="n"/>
-      <c r="K13" s="15" t="n"/>
-      <c r="L13" s="15" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="11" t="n">
+      <c r="G14" s="15" t="n"/>
+      <c r="H14" s="15" t="n"/>
+      <c r="I14" s="15" t="n"/>
+      <c r="J14" s="15" t="n"/>
+      <c r="K14" s="15" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C15" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D15" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E15" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="F15" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="16" t="n"/>
-      <c r="C15" s="16" t="n"/>
-      <c r="D15" s="16" t="n"/>
-      <c r="E15" s="16" t="n">
+    <row r="16">
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F15" s="16" t="inlineStr">
+      <c r="F16" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G15" s="15" t="n"/>
-      <c r="H15" s="15" t="n"/>
-      <c r="I15" s="15" t="n"/>
-      <c r="J15" s="15" t="n"/>
-      <c r="K15" s="15" t="n"/>
-      <c r="L15" s="15" t="n"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="11" t="n">
+      <c r="G16" s="15" t="n"/>
+      <c r="H16" s="15" t="n"/>
+      <c r="I16" s="15" t="n"/>
+      <c r="J16" s="15" t="n"/>
+      <c r="K16" s="15" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C17" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="11" t="n">
+      <c r="D17" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E17" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F16" s="11" t="inlineStr">
+      <c r="F17" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="15" t="n"/>
-      <c r="B17" s="16" t="n"/>
-      <c r="C17" s="16" t="n"/>
-      <c r="D17" s="16" t="n"/>
-      <c r="E17" s="16" t="n">
+    <row r="18">
+      <c r="A18" s="15" t="n"/>
+      <c r="B18" s="16" t="n"/>
+      <c r="C18" s="16" t="n"/>
+      <c r="D18" s="16" t="n"/>
+      <c r="E18" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F17" s="16" t="inlineStr">
+      <c r="F18" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G17" s="15" t="n"/>
-      <c r="H17" s="15" t="n"/>
-      <c r="I17" s="15" t="n"/>
-      <c r="J17" s="15" t="n"/>
-      <c r="K17" s="15" t="n"/>
-      <c r="L17" s="15" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="n">
+      <c r="G18" s="15" t="n"/>
+      <c r="H18" s="15" t="n"/>
+      <c r="I18" s="15" t="n"/>
+      <c r="J18" s="15" t="n"/>
+      <c r="K18" s="15" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B19" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="11" t="inlineStr">
+      <c r="C19" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D18" s="11" t="n">
+      <c r="D19" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E18" s="11" t="n">
+      <c r="E19" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="11" t="inlineStr">
+      <c r="F19" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="16" t="n"/>
-      <c r="C19" s="16" t="n"/>
-      <c r="D19" s="16" t="n"/>
-      <c r="E19" s="16" t="n">
+    <row r="20">
+      <c r="B20" s="16" t="n"/>
+      <c r="C20" s="16" t="n"/>
+      <c r="D20" s="16" t="n"/>
+      <c r="E20" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F19" s="16" t="inlineStr">
+      <c r="F20" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G19" s="15" t="n"/>
-      <c r="H19" s="15" t="n"/>
-      <c r="I19" s="15" t="n"/>
-      <c r="J19" s="15" t="n"/>
-      <c r="K19" s="15" t="n"/>
-      <c r="L19" s="15" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="11" t="n">
+      <c r="G20" s="15" t="n"/>
+      <c r="H20" s="15" t="n"/>
+      <c r="I20" s="15" t="n"/>
+      <c r="J20" s="15" t="n"/>
+      <c r="K20" s="15" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C21" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="11" t="n">
+      <c r="D21" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E20" s="11" t="n">
+      <c r="E21" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F20" s="11" t="inlineStr">
+      <c r="F21" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="16" t="n"/>
-      <c r="C21" s="16" t="n"/>
-      <c r="D21" s="16" t="n"/>
-      <c r="E21" s="16" t="n">
+    <row r="22">
+      <c r="B22" s="16" t="n"/>
+      <c r="C22" s="16" t="n"/>
+      <c r="D22" s="16" t="n"/>
+      <c r="E22" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F21" s="16" t="inlineStr">
+      <c r="F22" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G21" s="15" t="n"/>
-      <c r="H21" s="15" t="n"/>
-      <c r="I21" s="15" t="n"/>
-      <c r="J21" s="15" t="n"/>
-      <c r="K21" s="15" t="n"/>
-      <c r="L21" s="15" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="11" t="n">
+      <c r="G22" s="15" t="n"/>
+      <c r="H22" s="15" t="n"/>
+      <c r="I22" s="15" t="n"/>
+      <c r="J22" s="15" t="n"/>
+      <c r="K22" s="15" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C23" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D22" s="11" t="n">
+      <c r="D23" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E22" s="11" t="n">
+      <c r="E23" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F22" s="11" t="inlineStr">
+      <c r="F23" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="16" t="n"/>
-      <c r="C23" s="16" t="n"/>
-      <c r="D23" s="16" t="n"/>
-      <c r="E23" s="16" t="n">
+    <row r="24">
+      <c r="B24" s="16" t="n"/>
+      <c r="C24" s="16" t="n"/>
+      <c r="D24" s="16" t="n"/>
+      <c r="E24" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="16" t="inlineStr">
+      <c r="F24" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G23" s="15" t="n"/>
-      <c r="H23" s="15" t="n"/>
-      <c r="I23" s="15" t="n"/>
-      <c r="J23" s="15" t="n"/>
-      <c r="K23" s="15" t="n"/>
-      <c r="L23" s="15" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="11" t="n">
+      <c r="G24" s="15" t="n"/>
+      <c r="H24" s="15" t="n"/>
+      <c r="I24" s="15" t="n"/>
+      <c r="J24" s="15" t="n"/>
+      <c r="K24" s="15" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C25" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="D25" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E24" s="11" t="n">
+      <c r="E25" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F24" s="11" t="inlineStr">
+      <c r="F25" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="15" t="n"/>
-      <c r="B25" s="16" t="n"/>
-      <c r="C25" s="16" t="n"/>
-      <c r="D25" s="16" t="n"/>
-      <c r="E25" s="16" t="n">
+    <row r="26">
+      <c r="A26" s="15" t="n"/>
+      <c r="B26" s="16" t="n"/>
+      <c r="C26" s="16" t="n"/>
+      <c r="D26" s="16" t="n"/>
+      <c r="E26" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F25" s="16" t="inlineStr">
+      <c r="F26" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G25" s="15" t="n"/>
-      <c r="H25" s="15" t="n"/>
-      <c r="I25" s="15" t="n"/>
-      <c r="J25" s="15" t="n"/>
-      <c r="K25" s="15" t="n"/>
-      <c r="L25" s="15" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="n">
+      <c r="G26" s="15" t="n"/>
+      <c r="H26" s="15" t="n"/>
+      <c r="I26" s="15" t="n"/>
+      <c r="J26" s="15" t="n"/>
+      <c r="K26" s="15" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B26" s="11" t="n">
+      <c r="B27" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="11" t="inlineStr">
+      <c r="C27" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D26" s="11" t="n">
+      <c r="D27" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E26" s="11" t="n">
+      <c r="E27" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="11" t="inlineStr">
+      <c r="F27" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="16" t="n"/>
-      <c r="C27" s="16" t="n"/>
-      <c r="D27" s="16" t="n"/>
-      <c r="E27" s="16" t="n">
+    <row r="28">
+      <c r="B28" s="16" t="n"/>
+      <c r="C28" s="16" t="n"/>
+      <c r="D28" s="16" t="n"/>
+      <c r="E28" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="16" t="inlineStr">
+      <c r="F28" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G27" s="15" t="n"/>
-      <c r="H27" s="15" t="n"/>
-      <c r="I27" s="15" t="n"/>
-      <c r="J27" s="15" t="n"/>
-      <c r="K27" s="15" t="n"/>
-      <c r="L27" s="15" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="11" t="n">
+      <c r="G28" s="15" t="n"/>
+      <c r="H28" s="15" t="n"/>
+      <c r="I28" s="15" t="n"/>
+      <c r="J28" s="15" t="n"/>
+      <c r="K28" s="15" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C28" s="11" t="n">
+      <c r="C29" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D28" s="11" t="n">
+      <c r="D29" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="11" t="n">
+      <c r="E29" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="11" t="inlineStr">
+      <c r="F29" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="16" t="n"/>
-      <c r="C29" s="16" t="n"/>
-      <c r="D29" s="16" t="n"/>
-      <c r="E29" s="16" t="n">
+    <row r="30">
+      <c r="B30" s="16" t="n"/>
+      <c r="C30" s="16" t="n"/>
+      <c r="D30" s="16" t="n"/>
+      <c r="E30" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="16" t="inlineStr">
+      <c r="F30" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G29" s="15" t="n"/>
-      <c r="H29" s="15" t="n"/>
-      <c r="I29" s="15" t="n"/>
-      <c r="J29" s="15" t="n"/>
-      <c r="K29" s="15" t="n"/>
-      <c r="L29" s="15" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="11" t="n">
+      <c r="G30" s="15" t="n"/>
+      <c r="H30" s="15" t="n"/>
+      <c r="I30" s="15" t="n"/>
+      <c r="J30" s="15" t="n"/>
+      <c r="K30" s="15" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="11" t="n">
+      <c r="C31" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D30" s="11" t="n">
+      <c r="D31" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E30" s="11" t="n">
+      <c r="E31" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="11" t="inlineStr">
+      <c r="F31" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" s="16" t="n"/>
-      <c r="C31" s="16" t="n"/>
-      <c r="D31" s="16" t="n"/>
-      <c r="E31" s="16" t="n">
+    <row r="32">
+      <c r="B32" s="16" t="n"/>
+      <c r="C32" s="16" t="n"/>
+      <c r="D32" s="16" t="n"/>
+      <c r="E32" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F31" s="16" t="inlineStr">
+      <c r="F32" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G31" s="15" t="n"/>
-      <c r="H31" s="15" t="n"/>
-      <c r="I31" s="15" t="n"/>
-      <c r="J31" s="15" t="n"/>
-      <c r="K31" s="15" t="n"/>
-      <c r="L31" s="15" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="11" t="n">
+      <c r="G32" s="15" t="n"/>
+      <c r="H32" s="15" t="n"/>
+      <c r="I32" s="15" t="n"/>
+      <c r="J32" s="15" t="n"/>
+      <c r="K32" s="15" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C32" s="11" t="n">
+      <c r="C33" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D32" s="11" t="n">
+      <c r="D33" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E32" s="11" t="n">
+      <c r="E33" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F32" s="11" t="inlineStr">
+      <c r="F33" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="15" t="n"/>
-      <c r="B33" s="16" t="n"/>
-      <c r="C33" s="16" t="n"/>
-      <c r="D33" s="16" t="n"/>
-      <c r="E33" s="16" t="n">
+    <row r="34">
+      <c r="A34" s="15" t="n"/>
+      <c r="B34" s="16" t="n"/>
+      <c r="C34" s="16" t="n"/>
+      <c r="D34" s="16" t="n"/>
+      <c r="E34" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F33" s="16" t="inlineStr">
+      <c r="F34" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G33" s="15" t="n"/>
-      <c r="H33" s="15" t="n"/>
-      <c r="I33" s="15" t="n"/>
-      <c r="J33" s="15" t="n"/>
-      <c r="K33" s="15" t="n"/>
-      <c r="L33" s="15" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="n">
+      <c r="G34" s="15" t="n"/>
+      <c r="H34" s="15" t="n"/>
+      <c r="I34" s="15" t="n"/>
+      <c r="J34" s="15" t="n"/>
+      <c r="K34" s="15" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B34" s="11" t="n">
+      <c r="B35" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="C35" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D34" s="11" t="n">
+      <c r="D35" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E34" s="11" t="n">
+      <c r="E35" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="F34" s="11" t="inlineStr">
+      <c r="F35" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="B35" s="16" t="n"/>
-      <c r="C35" s="16" t="n"/>
-      <c r="D35" s="16" t="n"/>
-      <c r="E35" s="16" t="n">
+    <row r="36">
+      <c r="B36" s="16" t="n"/>
+      <c r="C36" s="16" t="n"/>
+      <c r="D36" s="16" t="n"/>
+      <c r="E36" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F35" s="16" t="inlineStr">
+      <c r="F36" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G35" s="15" t="n"/>
-      <c r="H35" s="15" t="n"/>
-      <c r="I35" s="15" t="n"/>
-      <c r="J35" s="15" t="n"/>
-      <c r="K35" s="15" t="n"/>
-      <c r="L35" s="15" t="n"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="11" t="n">
+      <c r="G36" s="15" t="n"/>
+      <c r="H36" s="15" t="n"/>
+      <c r="I36" s="15" t="n"/>
+      <c r="J36" s="15" t="n"/>
+      <c r="K36" s="15" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C36" s="11" t="n">
+      <c r="C37" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D36" s="11" t="n">
+      <c r="D37" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E36" s="11" t="n">
+      <c r="E37" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F36" s="11" t="inlineStr">
+      <c r="F37" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" s="16" t="n"/>
-      <c r="C37" s="16" t="n"/>
-      <c r="D37" s="16" t="n"/>
-      <c r="E37" s="16" t="n">
+    <row r="38">
+      <c r="B38" s="16" t="n"/>
+      <c r="C38" s="16" t="n"/>
+      <c r="D38" s="16" t="n"/>
+      <c r="E38" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F37" s="16" t="inlineStr">
+      <c r="F38" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G37" s="15" t="n"/>
-      <c r="H37" s="15" t="n"/>
-      <c r="I37" s="15" t="n"/>
-      <c r="J37" s="15" t="n"/>
-      <c r="K37" s="15" t="n"/>
-      <c r="L37" s="15" t="n"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="11" t="n">
+      <c r="G38" s="15" t="n"/>
+      <c r="H38" s="15" t="n"/>
+      <c r="I38" s="15" t="n"/>
+      <c r="J38" s="15" t="n"/>
+      <c r="K38" s="15" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C38" s="11" t="n">
+      <c r="C39" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="11" t="n">
+      <c r="D39" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E38" s="11" t="n">
+      <c r="E39" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F38" s="11" t="inlineStr">
+      <c r="F39" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" s="16" t="n"/>
-      <c r="C39" s="16" t="n"/>
-      <c r="D39" s="16" t="n"/>
-      <c r="E39" s="16" t="n">
+    <row r="40">
+      <c r="B40" s="16" t="n"/>
+      <c r="C40" s="16" t="n"/>
+      <c r="D40" s="16" t="n"/>
+      <c r="E40" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F39" s="16" t="inlineStr">
+      <c r="F40" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G39" s="15" t="n"/>
-      <c r="H39" s="15" t="n"/>
-      <c r="I39" s="15" t="n"/>
-      <c r="J39" s="15" t="n"/>
-      <c r="K39" s="15" t="n"/>
-      <c r="L39" s="15" t="n"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="11" t="n">
+      <c r="G40" s="15" t="n"/>
+      <c r="H40" s="15" t="n"/>
+      <c r="I40" s="15" t="n"/>
+      <c r="J40" s="15" t="n"/>
+      <c r="K40" s="15" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C40" s="11" t="n">
+      <c r="C41" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D40" s="11" t="n">
+      <c r="D41" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E40" s="11" t="n">
+      <c r="E41" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F40" s="11" t="inlineStr">
+      <c r="F41" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="15" t="n"/>
-      <c r="B41" s="16" t="n"/>
-      <c r="C41" s="16" t="n"/>
-      <c r="D41" s="16" t="n"/>
-      <c r="E41" s="16" t="n">
+    <row r="42">
+      <c r="A42" s="15" t="n"/>
+      <c r="B42" s="16" t="n"/>
+      <c r="C42" s="16" t="n"/>
+      <c r="D42" s="16" t="n"/>
+      <c r="E42" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F41" s="16" t="inlineStr">
+      <c r="F42" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G41" s="15" t="n"/>
-      <c r="H41" s="15" t="n"/>
-      <c r="I41" s="15" t="n"/>
-      <c r="J41" s="15" t="n"/>
-      <c r="K41" s="15" t="n"/>
-      <c r="L41" s="15" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="11" t="n">
+      <c r="G42" s="15" t="n"/>
+      <c r="H42" s="15" t="n"/>
+      <c r="I42" s="15" t="n"/>
+      <c r="J42" s="15" t="n"/>
+      <c r="K42" s="15" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B42" s="11" t="n">
+      <c r="B43" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="11" t="inlineStr">
+      <c r="C43" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D42" s="11" t="n">
+      <c r="D43" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="E42" s="11" t="n">
+      <c r="E43" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="F42" s="11" t="inlineStr">
+      <c r="F43" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" s="16" t="n"/>
-      <c r="C43" s="16" t="n"/>
-      <c r="D43" s="16" t="n"/>
-      <c r="E43" s="16" t="n">
+    <row r="44">
+      <c r="B44" s="16" t="n"/>
+      <c r="C44" s="16" t="n"/>
+      <c r="D44" s="16" t="n"/>
+      <c r="E44" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="F43" s="16" t="inlineStr">
+      <c r="F44" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G43" s="15" t="n"/>
-      <c r="H43" s="15" t="n"/>
-      <c r="I43" s="15" t="n"/>
-      <c r="J43" s="15" t="n"/>
-      <c r="K43" s="15" t="n"/>
-      <c r="L43" s="15" t="n"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="11" t="n">
+      <c r="G44" s="15" t="n"/>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="n"/>
+      <c r="J44" s="15" t="n"/>
+      <c r="K44" s="15" t="n"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C44" s="11" t="n">
+      <c r="C45" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D44" s="11" t="n">
+      <c r="D45" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E44" s="11" t="n">
+      <c r="E45" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F44" s="11" t="inlineStr">
+      <c r="F45" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" s="16" t="n"/>
-      <c r="C45" s="16" t="n"/>
-      <c r="D45" s="16" t="n"/>
-      <c r="E45" s="16" t="n">
+    <row r="46">
+      <c r="B46" s="16" t="n"/>
+      <c r="C46" s="16" t="n"/>
+      <c r="D46" s="16" t="n"/>
+      <c r="E46" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F45" s="16" t="inlineStr">
+      <c r="F46" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G45" s="15" t="n"/>
-      <c r="H45" s="15" t="n"/>
-      <c r="I45" s="15" t="n"/>
-      <c r="J45" s="15" t="n"/>
-      <c r="K45" s="15" t="n"/>
-      <c r="L45" s="15" t="n"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="11" t="n">
+      <c r="G46" s="15" t="n"/>
+      <c r="H46" s="15" t="n"/>
+      <c r="I46" s="15" t="n"/>
+      <c r="J46" s="15" t="n"/>
+      <c r="K46" s="15" t="n"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C46" s="11" t="n">
+      <c r="C47" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="D46" s="11" t="n">
+      <c r="D47" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E46" s="11" t="n">
+      <c r="E47" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F46" s="11" t="inlineStr">
+      <c r="F47" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="B47" s="16" t="n"/>
-      <c r="C47" s="16" t="n"/>
-      <c r="D47" s="16" t="n"/>
-      <c r="E47" s="16" t="n">
+    <row r="48">
+      <c r="B48" s="16" t="n"/>
+      <c r="C48" s="16" t="n"/>
+      <c r="D48" s="16" t="n"/>
+      <c r="E48" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F47" s="16" t="inlineStr">
+      <c r="F48" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G47" s="15" t="n"/>
-      <c r="H47" s="15" t="n"/>
-      <c r="I47" s="15" t="n"/>
-      <c r="J47" s="15" t="n"/>
-      <c r="K47" s="15" t="n"/>
-      <c r="L47" s="15" t="n"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="11" t="n">
+      <c r="G48" s="15" t="n"/>
+      <c r="H48" s="15" t="n"/>
+      <c r="I48" s="15" t="n"/>
+      <c r="J48" s="15" t="n"/>
+      <c r="K48" s="15" t="n"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C48" s="11" t="n">
+      <c r="C49" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D48" s="11" t="n">
+      <c r="D49" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E48" s="11" t="n">
+      <c r="E49" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F48" s="11" t="inlineStr">
+      <c r="F49" s="11" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="15" t="n"/>
-      <c r="B49" s="16" t="n"/>
-      <c r="C49" s="16" t="n"/>
-      <c r="D49" s="16" t="n"/>
-      <c r="E49" s="16" t="n">
+    <row r="50">
+      <c r="A50" s="15" t="n"/>
+      <c r="B50" s="16" t="n"/>
+      <c r="C50" s="16" t="n"/>
+      <c r="D50" s="16" t="n"/>
+      <c r="E50" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F49" s="16" t="inlineStr">
+      <c r="F50" s="16" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
-      <c r="G49" s="15" t="n"/>
-      <c r="H49" s="15" t="n"/>
-      <c r="I49" s="15" t="n"/>
-      <c r="J49" s="15" t="n"/>
-      <c r="K49" s="15" t="n"/>
-      <c r="L49" s="15" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="n">
+      <c r="G50" s="15" t="n"/>
+      <c r="H50" s="15" t="n"/>
+      <c r="I50" s="15" t="n"/>
+      <c r="J50" s="15" t="n"/>
+      <c r="K50" s="15" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B50" s="11" t="n">
+      <c r="B51" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C50" s="11" t="inlineStr">
+      <c r="C51" s="11" t="inlineStr">
         <is>
           <t>Sit-Out</t>
         </is>
       </c>
-      <c r="D50" s="11" t="n">
+      <c r="D51" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="E50" s="11" t="n">
+      <c r="E51" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="F50" s="11" t="inlineStr">
+      <c r="F51" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="B51" s="16" t="n"/>
-      <c r="C51" s="16" t="n"/>
-      <c r="D51" s="16" t="n"/>
-      <c r="E51" s="16" t="n">
+    <row r="52">
+      <c r="B52" s="16" t="n"/>
+      <c r="C52" s="16" t="n"/>
+      <c r="D52" s="16" t="n"/>
+      <c r="E52" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="F51" s="16" t="inlineStr">
+      <c r="F52" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G51" s="15" t="n"/>
-      <c r="H51" s="15" t="n"/>
-      <c r="I51" s="15" t="n"/>
-      <c r="J51" s="15" t="n"/>
-      <c r="K51" s="15" t="n"/>
-      <c r="L51" s="15" t="n"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="11" t="n">
+      <c r="G52" s="15" t="n"/>
+      <c r="H52" s="15" t="n"/>
+      <c r="I52" s="15" t="n"/>
+      <c r="J52" s="15" t="n"/>
+      <c r="K52" s="15" t="n"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="C52" s="11" t="n">
+      <c r="C53" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D52" s="11" t="n">
+      <c r="D53" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="11" t="n">
+      <c r="E53" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F52" s="11" t="inlineStr">
+      <c r="F53" s="11" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="B53" s="16" t="n"/>
-      <c r="C53" s="16" t="n"/>
-      <c r="D53" s="16" t="n"/>
-      <c r="E53" s="16" t="n">
+    <row r="54">
+      <c r="B54" s="16" t="n"/>
+      <c r="C54" s="16" t="n"/>
+      <c r="D54" s="16" t="n"/>
+      <c r="E54" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F53" s="16" t="inlineStr">
+      <c r="F54" s="16" t="inlineStr">
         <is>
           <t>NS</t>
         </is>
       </c>
-      <c r="G53" s="15" t="n"/>
-      <c r="H53" s="15" t="n"/>
-      <c r="I53" s="15" t="n"/>
-      <c r="J53" s="15" t="n"/>
-      <c r="K53" s="15" t="n"/>
-      <c r="L53" s="15" t="n"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="11" t="n">
+      <c r="G54" s="15" t="n"/>
+      <c r="H54" s="15" t="n"/>
+      <c r="I54" s="15" t="n"/>
+      <c r="J54" s="15" t="n"/>
+      <c r="K54" s="15" t="n"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C54" s="11" t="n">
+      <c r="C55" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D54" s="11" t="n">
+      <c r="D55" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="E54" s="11" t="n">
+      <c r="E55" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F54" s="11" t="inlineStr">
+      <c r="F55" s="11" t="inlineStr">
         <is>
           <t>EW</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" s="16" t="n"/>
-      <c r="C55" s="16" t="n"/>
-      <c r="D55" s="16" t="n"/>
-      <c r="E55" s="16" t="n">
+    <row r="56">
+      <c r="B56" s="16" t="n"/>
+      <c r="C56" s="16" t="n"/>
+      <c r="D56" s="16" t="n"/>
+      <c r="E56" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F55" s="16" t="inlineStr">
+      <c r="F56" s="16" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
-      <c r="G55" s="15" t="n"/>
-      <c r="H55" s="15" t="n"/>
-      <c r="I55" s="15" t="n"/>
-      <c r="J55" s="15" t="n"/>
-      <c r="K55" s="15" t="n"/>
-      <c r="L55" s="15" t="n"/>
-    </row>
-    <row r="56">
-      <c r="B56" s="11" t="n">
+      <c r="G56" s="15" t="n"/>
+      <c r="H56" s="15" t="n"/>
+      <c r="I56" s="15" t="n"/>
+      <c r="J56" s="15" t="n"/>
+      <c r="K56" s="15" t="n"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="C56" s="11" t="n">
+      <c r="C57" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D56" s="11" t="n">
+      <c r="D57" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E56" s="11" t="n">
+      <c r="E57" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F56" s="11" t="inlineStr">
+      <c r="F57" s="11" t="inlineStr">
         <is>
           <t>Both</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="15" t="n"/>
-      <c r="B57" s="16" t="n"/>
-      <c r="C57" s="16" t="n"/>
-      <c r="D57" s="16" t="n"/>
-      <c r="E57" s="16" t="n">
+    <row r="58">
+      <c r="A58" s="15" t="n"/>
+      <c r="B58" s="16" t="n"/>
+      <c r="C58" s="16" t="n"/>
+      <c r="D58" s="16" t="n"/>
+      <c r="E58" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F57" s="16" t="inlineStr">
+      <c r="F58" s="16" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G57" s="15" t="n"/>
-      <c r="H57" s="15" t="n"/>
-      <c r="I57" s="15" t="n"/>
-      <c r="J57" s="15" t="n"/>
-      <c r="K57" s="15" t="n"/>
-      <c r="L57" s="15" t="n"/>
+      <c r="G58" s="15" t="n"/>
+      <c r="H58" s="15" t="n"/>
+      <c r="I58" s="15" t="n"/>
+      <c r="J58" s="15" t="n"/>
+      <c r="K58" s="15" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L1:M1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/howell7.xlsx
+++ b/howell7.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 06, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 08, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 28</t>
+          <t>Name 42</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 81</t>
+          <t>Name 59</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 81</t>
+          <t>Name 87</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 34</t>
+          <t>Name 41</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 11</t>
+          <t>Name 83</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 62</t>
+          <t>Name 52</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 83</t>
+          <t>Name 26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 31</t>
+          <t>Name 36</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 54</t>
+          <t>Name 58</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 37</t>
+          <t>Name 79</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 64</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 52</t>
+          <t>Name 42</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -738,7 +738,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 89</t>
+          <t>Name 22</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -1035,29 +1035,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <f>'By Round'!B3</f>
         <v/>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <f>'By Round'!C3</f>
         <v/>
       </c>
-      <c r="E3">
+      <c r="E3" s="11">
         <f>'By Round'!D3</f>
         <v/>
       </c>
-      <c r="F3" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F3" s="11">
+        <f>IF(ISBLANK('By Round'!F3),"",'By Round'!F3)</f>
+        <v/>
       </c>
       <c r="G3">
         <f>IF(ISBLANK('By Round'!G3),"",'By Round'!G3)</f>
@@ -1161,26 +1160,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4">
+      <c r="B4" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <f>'By Round'!B33</f>
         <v/>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <f>'By Round'!C33</f>
         <v/>
       </c>
-      <c r="E4">
+      <c r="E4" s="11">
         <f>'By Round'!D33</f>
         <v/>
       </c>
-      <c r="F4" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F4" s="11">
+        <f>IF(ISBLANK('By Round'!F33),"",'By Round'!F33)</f>
+        <v/>
       </c>
       <c r="G4">
         <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
@@ -1284,26 +1282,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5">
+      <c r="B5" s="11">
         <f>'By Round'!A43</f>
         <v/>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <f>'By Round'!B47</f>
         <v/>
       </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <f>'By Round'!C47</f>
         <v/>
       </c>
-      <c r="E5">
+      <c r="E5" s="11">
         <f>'By Round'!D47</f>
         <v/>
       </c>
-      <c r="F5" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F5" s="11">
+        <f>IF(ISBLANK('By Round'!F47),"",'By Round'!F47)</f>
+        <v/>
       </c>
       <c r="G5">
         <f>IF(ISBLANK('By Round'!G47),"",'By Round'!G47)</f>
@@ -1408,26 +1405,25 @@
     </row>
     <row r="6">
       <c r="A6" s="15" t="n"/>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <f>'By Round'!B53</f>
         <v/>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="16">
         <f>'By Round'!C53</f>
         <v/>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="16">
         <f>'By Round'!D53</f>
         <v/>
       </c>
-      <c r="F6" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F6" s="16">
+        <f>IF(ISBLANK('By Round'!F53),"",'By Round'!F53)</f>
+        <v/>
       </c>
       <c r="G6" s="15">
         <f>IF(ISBLANK('By Round'!G53),"",'By Round'!G53)</f>
@@ -1531,48 +1527,47 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C7">
+      <c r="C7" s="11">
         <f>'By Round'!B3</f>
         <v/>
       </c>
-      <c r="D7">
+      <c r="D7" s="11">
         <f>'By Round'!C3</f>
         <v/>
       </c>
-      <c r="E7">
+      <c r="E7" s="11">
         <f>'By Round'!D3</f>
         <v/>
       </c>
-      <c r="F7" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F7" s="11">
+        <f>IF(ISBLANK('By Round'!F4),"",'By Round'!F4)</f>
+        <v/>
       </c>
       <c r="G7">
-        <f>IF(ISBLANK('By Round'!G3),"",'By Round'!G3)</f>
+        <f>IF(ISBLANK('By Round'!G4),"",'By Round'!G4)</f>
         <v/>
       </c>
       <c r="H7">
-        <f>IF(ISBLANK('By Round'!H3),"",'By Round'!H3)</f>
+        <f>IF(ISBLANK('By Round'!H4),"",'By Round'!H4)</f>
         <v/>
       </c>
       <c r="I7">
-        <f>IF(ISBLANK('By Round'!I3),"",'By Round'!I3)</f>
+        <f>IF(ISBLANK('By Round'!I4),"",'By Round'!I4)</f>
         <v/>
       </c>
       <c r="J7">
-        <f>IF(ISBLANK('By Round'!J3),"",'By Round'!J3)</f>
+        <f>IF(ISBLANK('By Round'!J4),"",'By Round'!J4)</f>
         <v/>
       </c>
       <c r="K7">
-        <f>IF(ISBLANK('By Round'!K3),"",'By Round'!K3)</f>
+        <f>IF(ISBLANK('By Round'!K4),"",'By Round'!K4)</f>
         <v/>
       </c>
       <c r="L7" s="12">
@@ -1657,45 +1652,44 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8">
+      <c r="B8" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C8">
+      <c r="C8" s="11">
         <f>'By Round'!B33</f>
         <v/>
       </c>
-      <c r="D8">
+      <c r="D8" s="11">
         <f>'By Round'!C33</f>
         <v/>
       </c>
-      <c r="E8">
+      <c r="E8" s="11">
         <f>'By Round'!D33</f>
         <v/>
       </c>
-      <c r="F8" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F8" s="11">
+        <f>IF(ISBLANK('By Round'!F34),"",'By Round'!F34)</f>
+        <v/>
       </c>
       <c r="G8">
-        <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
+        <f>IF(ISBLANK('By Round'!G34),"",'By Round'!G34)</f>
         <v/>
       </c>
       <c r="H8">
-        <f>IF(ISBLANK('By Round'!H33),"",'By Round'!H33)</f>
+        <f>IF(ISBLANK('By Round'!H34),"",'By Round'!H34)</f>
         <v/>
       </c>
       <c r="I8">
-        <f>IF(ISBLANK('By Round'!I33),"",'By Round'!I33)</f>
+        <f>IF(ISBLANK('By Round'!I34),"",'By Round'!I34)</f>
         <v/>
       </c>
       <c r="J8">
-        <f>IF(ISBLANK('By Round'!J33),"",'By Round'!J33)</f>
+        <f>IF(ISBLANK('By Round'!J34),"",'By Round'!J34)</f>
         <v/>
       </c>
       <c r="K8">
-        <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
+        <f>IF(ISBLANK('By Round'!K34),"",'By Round'!K34)</f>
         <v/>
       </c>
       <c r="L8" s="12">
@@ -1780,45 +1774,44 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9">
+      <c r="B9" s="11">
         <f>'By Round'!A43</f>
         <v/>
       </c>
-      <c r="C9">
+      <c r="C9" s="11">
         <f>'By Round'!B47</f>
         <v/>
       </c>
-      <c r="D9">
+      <c r="D9" s="11">
         <f>'By Round'!C47</f>
         <v/>
       </c>
-      <c r="E9">
+      <c r="E9" s="11">
         <f>'By Round'!D47</f>
         <v/>
       </c>
-      <c r="F9" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F9" s="11">
+        <f>IF(ISBLANK('By Round'!F48),"",'By Round'!F48)</f>
+        <v/>
       </c>
       <c r="G9">
-        <f>IF(ISBLANK('By Round'!G47),"",'By Round'!G47)</f>
+        <f>IF(ISBLANK('By Round'!G48),"",'By Round'!G48)</f>
         <v/>
       </c>
       <c r="H9">
-        <f>IF(ISBLANK('By Round'!H47),"",'By Round'!H47)</f>
+        <f>IF(ISBLANK('By Round'!H48),"",'By Round'!H48)</f>
         <v/>
       </c>
       <c r="I9">
-        <f>IF(ISBLANK('By Round'!I47),"",'By Round'!I47)</f>
+        <f>IF(ISBLANK('By Round'!I48),"",'By Round'!I48)</f>
         <v/>
       </c>
       <c r="J9">
-        <f>IF(ISBLANK('By Round'!J47),"",'By Round'!J47)</f>
+        <f>IF(ISBLANK('By Round'!J48),"",'By Round'!J48)</f>
         <v/>
       </c>
       <c r="K9">
-        <f>IF(ISBLANK('By Round'!K47),"",'By Round'!K47)</f>
+        <f>IF(ISBLANK('By Round'!K48),"",'By Round'!K48)</f>
         <v/>
       </c>
       <c r="L9" s="12">
@@ -1904,45 +1897,44 @@
     </row>
     <row r="10">
       <c r="A10" s="15" t="n"/>
-      <c r="B10" s="15">
+      <c r="B10" s="16">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="16">
         <f>'By Round'!B53</f>
         <v/>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="16">
         <f>'By Round'!C53</f>
         <v/>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="16">
         <f>'By Round'!D53</f>
         <v/>
       </c>
-      <c r="F10" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F10" s="16">
+        <f>IF(ISBLANK('By Round'!F54),"",'By Round'!F54)</f>
+        <v/>
       </c>
       <c r="G10" s="15">
-        <f>IF(ISBLANK('By Round'!G53),"",'By Round'!G53)</f>
+        <f>IF(ISBLANK('By Round'!G54),"",'By Round'!G54)</f>
         <v/>
       </c>
       <c r="H10" s="15">
-        <f>IF(ISBLANK('By Round'!H53),"",'By Round'!H53)</f>
+        <f>IF(ISBLANK('By Round'!H54),"",'By Round'!H54)</f>
         <v/>
       </c>
       <c r="I10" s="15">
-        <f>IF(ISBLANK('By Round'!I53),"",'By Round'!I53)</f>
+        <f>IF(ISBLANK('By Round'!I54),"",'By Round'!I54)</f>
         <v/>
       </c>
       <c r="J10" s="15">
-        <f>IF(ISBLANK('By Round'!J53),"",'By Round'!J53)</f>
+        <f>IF(ISBLANK('By Round'!J54),"",'By Round'!J54)</f>
         <v/>
       </c>
       <c r="K10" s="15">
-        <f>IF(ISBLANK('By Round'!K53),"",'By Round'!K53)</f>
+        <f>IF(ISBLANK('By Round'!K54),"",'By Round'!K54)</f>
         <v/>
       </c>
       <c r="L10" s="17">
@@ -2027,29 +2019,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C11">
+      <c r="C11" s="11">
         <f>'By Round'!B5</f>
         <v/>
       </c>
-      <c r="D11">
+      <c r="D11" s="11">
         <f>'By Round'!C5</f>
         <v/>
       </c>
-      <c r="E11">
+      <c r="E11" s="11">
         <f>'By Round'!D5</f>
         <v/>
       </c>
-      <c r="F11" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F11" s="11">
+        <f>IF(ISBLANK('By Round'!F5),"",'By Round'!F5)</f>
+        <v/>
       </c>
       <c r="G11">
         <f>IF(ISBLANK('By Round'!G5),"",'By Round'!G5)</f>
@@ -2153,26 +2144,25 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12">
+      <c r="B12" s="11">
         <f>'By Round'!A11</f>
         <v/>
       </c>
-      <c r="C12">
+      <c r="C12" s="11">
         <f>'By Round'!B11</f>
         <v/>
       </c>
-      <c r="D12">
+      <c r="D12" s="11">
         <f>'By Round'!C11</f>
         <v/>
       </c>
-      <c r="E12">
+      <c r="E12" s="11">
         <f>'By Round'!D11</f>
         <v/>
       </c>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F12" s="11">
+        <f>IF(ISBLANK('By Round'!F11),"",'By Round'!F11)</f>
+        <v/>
       </c>
       <c r="G12">
         <f>IF(ISBLANK('By Round'!G11),"",'By Round'!G11)</f>
@@ -2276,26 +2266,25 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13">
+      <c r="B13" s="11">
         <f>'By Round'!A35</f>
         <v/>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <f>'By Round'!B41</f>
         <v/>
       </c>
-      <c r="D13">
+      <c r="D13" s="11">
         <f>'By Round'!C41</f>
         <v/>
       </c>
-      <c r="E13">
+      <c r="E13" s="11">
         <f>'By Round'!D41</f>
         <v/>
       </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F13" s="11">
+        <f>IF(ISBLANK('By Round'!F41),"",'By Round'!F41)</f>
+        <v/>
       </c>
       <c r="G13">
         <f>IF(ISBLANK('By Round'!G41),"",'By Round'!G41)</f>
@@ -2400,26 +2389,25 @@
     </row>
     <row r="14">
       <c r="A14" s="15" t="n"/>
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="16">
         <f>'By Round'!B55</f>
         <v/>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="16">
         <f>'By Round'!C55</f>
         <v/>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="16">
         <f>'By Round'!D55</f>
         <v/>
       </c>
-      <c r="F14" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F14" s="16">
+        <f>IF(ISBLANK('By Round'!F55),"",'By Round'!F55)</f>
+        <v/>
       </c>
       <c r="G14" s="15">
         <f>IF(ISBLANK('By Round'!G55),"",'By Round'!G55)</f>
@@ -2523,48 +2511,47 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C15">
+      <c r="C15" s="11">
         <f>'By Round'!B5</f>
         <v/>
       </c>
-      <c r="D15">
+      <c r="D15" s="11">
         <f>'By Round'!C5</f>
         <v/>
       </c>
-      <c r="E15">
+      <c r="E15" s="11">
         <f>'By Round'!D5</f>
         <v/>
       </c>
-      <c r="F15" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F15" s="11">
+        <f>IF(ISBLANK('By Round'!F6),"",'By Round'!F6)</f>
+        <v/>
       </c>
       <c r="G15">
-        <f>IF(ISBLANK('By Round'!G5),"",'By Round'!G5)</f>
+        <f>IF(ISBLANK('By Round'!G6),"",'By Round'!G6)</f>
         <v/>
       </c>
       <c r="H15">
-        <f>IF(ISBLANK('By Round'!H5),"",'By Round'!H5)</f>
+        <f>IF(ISBLANK('By Round'!H6),"",'By Round'!H6)</f>
         <v/>
       </c>
       <c r="I15">
-        <f>IF(ISBLANK('By Round'!I5),"",'By Round'!I5)</f>
+        <f>IF(ISBLANK('By Round'!I6),"",'By Round'!I6)</f>
         <v/>
       </c>
       <c r="J15">
-        <f>IF(ISBLANK('By Round'!J5),"",'By Round'!J5)</f>
+        <f>IF(ISBLANK('By Round'!J6),"",'By Round'!J6)</f>
         <v/>
       </c>
       <c r="K15">
-        <f>IF(ISBLANK('By Round'!K5),"",'By Round'!K5)</f>
+        <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
         <v/>
       </c>
       <c r="L15" s="12">
@@ -2649,45 +2636,44 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16">
+      <c r="B16" s="11">
         <f>'By Round'!A11</f>
         <v/>
       </c>
-      <c r="C16">
+      <c r="C16" s="11">
         <f>'By Round'!B11</f>
         <v/>
       </c>
-      <c r="D16">
+      <c r="D16" s="11">
         <f>'By Round'!C11</f>
         <v/>
       </c>
-      <c r="E16">
+      <c r="E16" s="11">
         <f>'By Round'!D11</f>
         <v/>
       </c>
-      <c r="F16" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F16" s="11">
+        <f>IF(ISBLANK('By Round'!F12),"",'By Round'!F12)</f>
+        <v/>
       </c>
       <c r="G16">
-        <f>IF(ISBLANK('By Round'!G11),"",'By Round'!G11)</f>
+        <f>IF(ISBLANK('By Round'!G12),"",'By Round'!G12)</f>
         <v/>
       </c>
       <c r="H16">
-        <f>IF(ISBLANK('By Round'!H11),"",'By Round'!H11)</f>
+        <f>IF(ISBLANK('By Round'!H12),"",'By Round'!H12)</f>
         <v/>
       </c>
       <c r="I16">
-        <f>IF(ISBLANK('By Round'!I11),"",'By Round'!I11)</f>
+        <f>IF(ISBLANK('By Round'!I12),"",'By Round'!I12)</f>
         <v/>
       </c>
       <c r="J16">
-        <f>IF(ISBLANK('By Round'!J11),"",'By Round'!J11)</f>
+        <f>IF(ISBLANK('By Round'!J12),"",'By Round'!J12)</f>
         <v/>
       </c>
       <c r="K16">
-        <f>IF(ISBLANK('By Round'!K11),"",'By Round'!K11)</f>
+        <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
         <v/>
       </c>
       <c r="L16" s="12">
@@ -2772,45 +2758,44 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17">
+      <c r="B17" s="11">
         <f>'By Round'!A35</f>
         <v/>
       </c>
-      <c r="C17">
+      <c r="C17" s="11">
         <f>'By Round'!B41</f>
         <v/>
       </c>
-      <c r="D17">
+      <c r="D17" s="11">
         <f>'By Round'!C41</f>
         <v/>
       </c>
-      <c r="E17">
+      <c r="E17" s="11">
         <f>'By Round'!D41</f>
         <v/>
       </c>
-      <c r="F17" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F17" s="11">
+        <f>IF(ISBLANK('By Round'!F42),"",'By Round'!F42)</f>
+        <v/>
       </c>
       <c r="G17">
-        <f>IF(ISBLANK('By Round'!G41),"",'By Round'!G41)</f>
+        <f>IF(ISBLANK('By Round'!G42),"",'By Round'!G42)</f>
         <v/>
       </c>
       <c r="H17">
-        <f>IF(ISBLANK('By Round'!H41),"",'By Round'!H41)</f>
+        <f>IF(ISBLANK('By Round'!H42),"",'By Round'!H42)</f>
         <v/>
       </c>
       <c r="I17">
-        <f>IF(ISBLANK('By Round'!I41),"",'By Round'!I41)</f>
+        <f>IF(ISBLANK('By Round'!I42),"",'By Round'!I42)</f>
         <v/>
       </c>
       <c r="J17">
-        <f>IF(ISBLANK('By Round'!J41),"",'By Round'!J41)</f>
+        <f>IF(ISBLANK('By Round'!J42),"",'By Round'!J42)</f>
         <v/>
       </c>
       <c r="K17">
-        <f>IF(ISBLANK('By Round'!K41),"",'By Round'!K41)</f>
+        <f>IF(ISBLANK('By Round'!K42),"",'By Round'!K42)</f>
         <v/>
       </c>
       <c r="L17" s="12">
@@ -2896,45 +2881,44 @@
     </row>
     <row r="18">
       <c r="A18" s="15" t="n"/>
-      <c r="B18" s="15">
+      <c r="B18" s="16">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="16">
         <f>'By Round'!B55</f>
         <v/>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="16">
         <f>'By Round'!C55</f>
         <v/>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="16">
         <f>'By Round'!D55</f>
         <v/>
       </c>
-      <c r="F18" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F18" s="16">
+        <f>IF(ISBLANK('By Round'!F56),"",'By Round'!F56)</f>
+        <v/>
       </c>
       <c r="G18" s="15">
-        <f>IF(ISBLANK('By Round'!G55),"",'By Round'!G55)</f>
+        <f>IF(ISBLANK('By Round'!G56),"",'By Round'!G56)</f>
         <v/>
       </c>
       <c r="H18" s="15">
-        <f>IF(ISBLANK('By Round'!H55),"",'By Round'!H55)</f>
+        <f>IF(ISBLANK('By Round'!H56),"",'By Round'!H56)</f>
         <v/>
       </c>
       <c r="I18" s="15">
-        <f>IF(ISBLANK('By Round'!I55),"",'By Round'!I55)</f>
+        <f>IF(ISBLANK('By Round'!I56),"",'By Round'!I56)</f>
         <v/>
       </c>
       <c r="J18" s="15">
-        <f>IF(ISBLANK('By Round'!J55),"",'By Round'!J55)</f>
+        <f>IF(ISBLANK('By Round'!J56),"",'By Round'!J56)</f>
         <v/>
       </c>
       <c r="K18" s="15">
-        <f>IF(ISBLANK('By Round'!K55),"",'By Round'!K55)</f>
+        <f>IF(ISBLANK('By Round'!K56),"",'By Round'!K56)</f>
         <v/>
       </c>
       <c r="L18" s="17">
@@ -3019,29 +3003,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C19">
+      <c r="C19" s="11">
         <f>'By Round'!B7</f>
         <v/>
       </c>
-      <c r="D19">
+      <c r="D19" s="11">
         <f>'By Round'!C7</f>
         <v/>
       </c>
-      <c r="E19">
+      <c r="E19" s="11">
         <f>'By Round'!D7</f>
         <v/>
       </c>
-      <c r="F19" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F19" s="11">
+        <f>IF(ISBLANK('By Round'!F7),"",'By Round'!F7)</f>
+        <v/>
       </c>
       <c r="G19">
         <f>IF(ISBLANK('By Round'!G7),"",'By Round'!G7)</f>
@@ -3145,26 +3128,25 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20">
+      <c r="B20" s="11">
         <f>'By Round'!A11</f>
         <v/>
       </c>
-      <c r="C20">
+      <c r="C20" s="11">
         <f>'By Round'!B13</f>
         <v/>
       </c>
-      <c r="D20">
+      <c r="D20" s="11">
         <f>'By Round'!C13</f>
         <v/>
       </c>
-      <c r="E20">
+      <c r="E20" s="11">
         <f>'By Round'!D13</f>
         <v/>
       </c>
-      <c r="F20" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F20" s="11">
+        <f>IF(ISBLANK('By Round'!F13),"",'By Round'!F13)</f>
+        <v/>
       </c>
       <c r="G20">
         <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
@@ -3268,26 +3250,25 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21">
+      <c r="B21" s="11">
         <f>'By Round'!A19</f>
         <v/>
       </c>
-      <c r="C21">
+      <c r="C21" s="11">
         <f>'By Round'!B19</f>
         <v/>
       </c>
-      <c r="D21">
+      <c r="D21" s="11">
         <f>'By Round'!C19</f>
         <v/>
       </c>
-      <c r="E21">
+      <c r="E21" s="11">
         <f>'By Round'!D19</f>
         <v/>
       </c>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F21" s="11">
+        <f>IF(ISBLANK('By Round'!F19),"",'By Round'!F19)</f>
+        <v/>
       </c>
       <c r="G21">
         <f>IF(ISBLANK('By Round'!G19),"",'By Round'!G19)</f>
@@ -3392,26 +3373,25 @@
     </row>
     <row r="22">
       <c r="A22" s="15" t="n"/>
-      <c r="B22" s="15">
+      <c r="B22" s="16">
         <f>'By Round'!A43</f>
         <v/>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="16">
         <f>'By Round'!B49</f>
         <v/>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="16">
         <f>'By Round'!C49</f>
         <v/>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="16">
         <f>'By Round'!D49</f>
         <v/>
       </c>
-      <c r="F22" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F22" s="16">
+        <f>IF(ISBLANK('By Round'!F49),"",'By Round'!F49)</f>
+        <v/>
       </c>
       <c r="G22" s="15">
         <f>IF(ISBLANK('By Round'!G49),"",'By Round'!G49)</f>
@@ -3515,48 +3495,47 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C23">
+      <c r="C23" s="11">
         <f>'By Round'!B7</f>
         <v/>
       </c>
-      <c r="D23">
+      <c r="D23" s="11">
         <f>'By Round'!C7</f>
         <v/>
       </c>
-      <c r="E23">
+      <c r="E23" s="11">
         <f>'By Round'!D7</f>
         <v/>
       </c>
-      <c r="F23" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F23" s="11">
+        <f>IF(ISBLANK('By Round'!F8),"",'By Round'!F8)</f>
+        <v/>
       </c>
       <c r="G23">
-        <f>IF(ISBLANK('By Round'!G7),"",'By Round'!G7)</f>
+        <f>IF(ISBLANK('By Round'!G8),"",'By Round'!G8)</f>
         <v/>
       </c>
       <c r="H23">
-        <f>IF(ISBLANK('By Round'!H7),"",'By Round'!H7)</f>
+        <f>IF(ISBLANK('By Round'!H8),"",'By Round'!H8)</f>
         <v/>
       </c>
       <c r="I23">
-        <f>IF(ISBLANK('By Round'!I7),"",'By Round'!I7)</f>
+        <f>IF(ISBLANK('By Round'!I8),"",'By Round'!I8)</f>
         <v/>
       </c>
       <c r="J23">
-        <f>IF(ISBLANK('By Round'!J7),"",'By Round'!J7)</f>
+        <f>IF(ISBLANK('By Round'!J8),"",'By Round'!J8)</f>
         <v/>
       </c>
       <c r="K23">
-        <f>IF(ISBLANK('By Round'!K7),"",'By Round'!K7)</f>
+        <f>IF(ISBLANK('By Round'!K8),"",'By Round'!K8)</f>
         <v/>
       </c>
       <c r="L23" s="12">
@@ -3641,45 +3620,44 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24">
+      <c r="B24" s="11">
         <f>'By Round'!A11</f>
         <v/>
       </c>
-      <c r="C24">
+      <c r="C24" s="11">
         <f>'By Round'!B13</f>
         <v/>
       </c>
-      <c r="D24">
+      <c r="D24" s="11">
         <f>'By Round'!C13</f>
         <v/>
       </c>
-      <c r="E24">
+      <c r="E24" s="11">
         <f>'By Round'!D13</f>
         <v/>
       </c>
-      <c r="F24" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F24" s="11">
+        <f>IF(ISBLANK('By Round'!F14),"",'By Round'!F14)</f>
+        <v/>
       </c>
       <c r="G24">
-        <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
+        <f>IF(ISBLANK('By Round'!G14),"",'By Round'!G14)</f>
         <v/>
       </c>
       <c r="H24">
-        <f>IF(ISBLANK('By Round'!H13),"",'By Round'!H13)</f>
+        <f>IF(ISBLANK('By Round'!H14),"",'By Round'!H14)</f>
         <v/>
       </c>
       <c r="I24">
-        <f>IF(ISBLANK('By Round'!I13),"",'By Round'!I13)</f>
+        <f>IF(ISBLANK('By Round'!I14),"",'By Round'!I14)</f>
         <v/>
       </c>
       <c r="J24">
-        <f>IF(ISBLANK('By Round'!J13),"",'By Round'!J13)</f>
+        <f>IF(ISBLANK('By Round'!J14),"",'By Round'!J14)</f>
         <v/>
       </c>
       <c r="K24">
-        <f>IF(ISBLANK('By Round'!K13),"",'By Round'!K13)</f>
+        <f>IF(ISBLANK('By Round'!K14),"",'By Round'!K14)</f>
         <v/>
       </c>
       <c r="L24" s="12">
@@ -3764,45 +3742,44 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25">
+      <c r="B25" s="11">
         <f>'By Round'!A19</f>
         <v/>
       </c>
-      <c r="C25">
+      <c r="C25" s="11">
         <f>'By Round'!B19</f>
         <v/>
       </c>
-      <c r="D25">
+      <c r="D25" s="11">
         <f>'By Round'!C19</f>
         <v/>
       </c>
-      <c r="E25">
+      <c r="E25" s="11">
         <f>'By Round'!D19</f>
         <v/>
       </c>
-      <c r="F25" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F25" s="11">
+        <f>IF(ISBLANK('By Round'!F20),"",'By Round'!F20)</f>
+        <v/>
       </c>
       <c r="G25">
-        <f>IF(ISBLANK('By Round'!G19),"",'By Round'!G19)</f>
+        <f>IF(ISBLANK('By Round'!G20),"",'By Round'!G20)</f>
         <v/>
       </c>
       <c r="H25">
-        <f>IF(ISBLANK('By Round'!H19),"",'By Round'!H19)</f>
+        <f>IF(ISBLANK('By Round'!H20),"",'By Round'!H20)</f>
         <v/>
       </c>
       <c r="I25">
-        <f>IF(ISBLANK('By Round'!I19),"",'By Round'!I19)</f>
+        <f>IF(ISBLANK('By Round'!I20),"",'By Round'!I20)</f>
         <v/>
       </c>
       <c r="J25">
-        <f>IF(ISBLANK('By Round'!J19),"",'By Round'!J19)</f>
+        <f>IF(ISBLANK('By Round'!J20),"",'By Round'!J20)</f>
         <v/>
       </c>
       <c r="K25">
-        <f>IF(ISBLANK('By Round'!K19),"",'By Round'!K19)</f>
+        <f>IF(ISBLANK('By Round'!K20),"",'By Round'!K20)</f>
         <v/>
       </c>
       <c r="L25" s="12">
@@ -3888,45 +3865,44 @@
     </row>
     <row r="26">
       <c r="A26" s="15" t="n"/>
-      <c r="B26" s="15">
+      <c r="B26" s="16">
         <f>'By Round'!A43</f>
         <v/>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="16">
         <f>'By Round'!B49</f>
         <v/>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="16">
         <f>'By Round'!C49</f>
         <v/>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="16">
         <f>'By Round'!D49</f>
         <v/>
       </c>
-      <c r="F26" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F26" s="16">
+        <f>IF(ISBLANK('By Round'!F50),"",'By Round'!F50)</f>
+        <v/>
       </c>
       <c r="G26" s="15">
-        <f>IF(ISBLANK('By Round'!G49),"",'By Round'!G49)</f>
+        <f>IF(ISBLANK('By Round'!G50),"",'By Round'!G50)</f>
         <v/>
       </c>
       <c r="H26" s="15">
-        <f>IF(ISBLANK('By Round'!H49),"",'By Round'!H49)</f>
+        <f>IF(ISBLANK('By Round'!H50),"",'By Round'!H50)</f>
         <v/>
       </c>
       <c r="I26" s="15">
-        <f>IF(ISBLANK('By Round'!I49),"",'By Round'!I49)</f>
+        <f>IF(ISBLANK('By Round'!I50),"",'By Round'!I50)</f>
         <v/>
       </c>
       <c r="J26" s="15">
-        <f>IF(ISBLANK('By Round'!J49),"",'By Round'!J49)</f>
+        <f>IF(ISBLANK('By Round'!J50),"",'By Round'!J50)</f>
         <v/>
       </c>
       <c r="K26" s="15">
-        <f>IF(ISBLANK('By Round'!K49),"",'By Round'!K49)</f>
+        <f>IF(ISBLANK('By Round'!K50),"",'By Round'!K50)</f>
         <v/>
       </c>
       <c r="L26" s="17">
@@ -4011,29 +3987,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="11">
         <f>'By Round'!A11</f>
         <v/>
       </c>
-      <c r="C27">
+      <c r="C27" s="11">
         <f>'By Round'!B15</f>
         <v/>
       </c>
-      <c r="D27">
+      <c r="D27" s="11">
         <f>'By Round'!C15</f>
         <v/>
       </c>
-      <c r="E27">
+      <c r="E27" s="11">
         <f>'By Round'!D15</f>
         <v/>
       </c>
-      <c r="F27" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F27" s="11">
+        <f>IF(ISBLANK('By Round'!F15),"",'By Round'!F15)</f>
+        <v/>
       </c>
       <c r="G27">
         <f>IF(ISBLANK('By Round'!G15),"",'By Round'!G15)</f>
@@ -4137,26 +4112,25 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28">
+      <c r="B28" s="11">
         <f>'By Round'!A19</f>
         <v/>
       </c>
-      <c r="C28">
+      <c r="C28" s="11">
         <f>'By Round'!B21</f>
         <v/>
       </c>
-      <c r="D28">
+      <c r="D28" s="11">
         <f>'By Round'!C21</f>
         <v/>
       </c>
-      <c r="E28">
+      <c r="E28" s="11">
         <f>'By Round'!D21</f>
         <v/>
       </c>
-      <c r="F28" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F28" s="11">
+        <f>IF(ISBLANK('By Round'!F21),"",'By Round'!F21)</f>
+        <v/>
       </c>
       <c r="G28">
         <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
@@ -4260,26 +4234,25 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29">
+      <c r="B29" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C29">
+      <c r="C29" s="11">
         <f>'By Round'!B27</f>
         <v/>
       </c>
-      <c r="D29">
+      <c r="D29" s="11">
         <f>'By Round'!C27</f>
         <v/>
       </c>
-      <c r="E29">
+      <c r="E29" s="11">
         <f>'By Round'!D27</f>
         <v/>
       </c>
-      <c r="F29" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F29" s="11">
+        <f>IF(ISBLANK('By Round'!F27),"",'By Round'!F27)</f>
+        <v/>
       </c>
       <c r="G29">
         <f>IF(ISBLANK('By Round'!G27),"",'By Round'!G27)</f>
@@ -4384,26 +4357,25 @@
     </row>
     <row r="30">
       <c r="A30" s="15" t="n"/>
-      <c r="B30" s="15">
+      <c r="B30" s="16">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="16">
         <f>'By Round'!B57</f>
         <v/>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="16">
         <f>'By Round'!C57</f>
         <v/>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="16">
         <f>'By Round'!D57</f>
         <v/>
       </c>
-      <c r="F30" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F30" s="16">
+        <f>IF(ISBLANK('By Round'!F57),"",'By Round'!F57)</f>
+        <v/>
       </c>
       <c r="G30" s="15">
         <f>IF(ISBLANK('By Round'!G57),"",'By Round'!G57)</f>
@@ -4507,48 +4479,47 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="11">
         <f>'By Round'!A11</f>
         <v/>
       </c>
-      <c r="C31">
+      <c r="C31" s="11">
         <f>'By Round'!B15</f>
         <v/>
       </c>
-      <c r="D31">
+      <c r="D31" s="11">
         <f>'By Round'!C15</f>
         <v/>
       </c>
-      <c r="E31">
+      <c r="E31" s="11">
         <f>'By Round'!D15</f>
         <v/>
       </c>
-      <c r="F31" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F31" s="11">
+        <f>IF(ISBLANK('By Round'!F16),"",'By Round'!F16)</f>
+        <v/>
       </c>
       <c r="G31">
-        <f>IF(ISBLANK('By Round'!G15),"",'By Round'!G15)</f>
+        <f>IF(ISBLANK('By Round'!G16),"",'By Round'!G16)</f>
         <v/>
       </c>
       <c r="H31">
-        <f>IF(ISBLANK('By Round'!H15),"",'By Round'!H15)</f>
+        <f>IF(ISBLANK('By Round'!H16),"",'By Round'!H16)</f>
         <v/>
       </c>
       <c r="I31">
-        <f>IF(ISBLANK('By Round'!I15),"",'By Round'!I15)</f>
+        <f>IF(ISBLANK('By Round'!I16),"",'By Round'!I16)</f>
         <v/>
       </c>
       <c r="J31">
-        <f>IF(ISBLANK('By Round'!J15),"",'By Round'!J15)</f>
+        <f>IF(ISBLANK('By Round'!J16),"",'By Round'!J16)</f>
         <v/>
       </c>
       <c r="K31">
-        <f>IF(ISBLANK('By Round'!K15),"",'By Round'!K15)</f>
+        <f>IF(ISBLANK('By Round'!K16),"",'By Round'!K16)</f>
         <v/>
       </c>
       <c r="L31" s="12">
@@ -4633,45 +4604,44 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32">
+      <c r="B32" s="11">
         <f>'By Round'!A19</f>
         <v/>
       </c>
-      <c r="C32">
+      <c r="C32" s="11">
         <f>'By Round'!B21</f>
         <v/>
       </c>
-      <c r="D32">
+      <c r="D32" s="11">
         <f>'By Round'!C21</f>
         <v/>
       </c>
-      <c r="E32">
+      <c r="E32" s="11">
         <f>'By Round'!D21</f>
         <v/>
       </c>
-      <c r="F32" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F32" s="11">
+        <f>IF(ISBLANK('By Round'!F22),"",'By Round'!F22)</f>
+        <v/>
       </c>
       <c r="G32">
-        <f>IF(ISBLANK('By Round'!G21),"",'By Round'!G21)</f>
+        <f>IF(ISBLANK('By Round'!G22),"",'By Round'!G22)</f>
         <v/>
       </c>
       <c r="H32">
-        <f>IF(ISBLANK('By Round'!H21),"",'By Round'!H21)</f>
+        <f>IF(ISBLANK('By Round'!H22),"",'By Round'!H22)</f>
         <v/>
       </c>
       <c r="I32">
-        <f>IF(ISBLANK('By Round'!I21),"",'By Round'!I21)</f>
+        <f>IF(ISBLANK('By Round'!I22),"",'By Round'!I22)</f>
         <v/>
       </c>
       <c r="J32">
-        <f>IF(ISBLANK('By Round'!J21),"",'By Round'!J21)</f>
+        <f>IF(ISBLANK('By Round'!J22),"",'By Round'!J22)</f>
         <v/>
       </c>
       <c r="K32">
-        <f>IF(ISBLANK('By Round'!K21),"",'By Round'!K21)</f>
+        <f>IF(ISBLANK('By Round'!K22),"",'By Round'!K22)</f>
         <v/>
       </c>
       <c r="L32" s="12">
@@ -4756,45 +4726,44 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33">
+      <c r="B33" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C33">
+      <c r="C33" s="11">
         <f>'By Round'!B27</f>
         <v/>
       </c>
-      <c r="D33">
+      <c r="D33" s="11">
         <f>'By Round'!C27</f>
         <v/>
       </c>
-      <c r="E33">
+      <c r="E33" s="11">
         <f>'By Round'!D27</f>
         <v/>
       </c>
-      <c r="F33" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F33" s="11">
+        <f>IF(ISBLANK('By Round'!F28),"",'By Round'!F28)</f>
+        <v/>
       </c>
       <c r="G33">
-        <f>IF(ISBLANK('By Round'!G27),"",'By Round'!G27)</f>
+        <f>IF(ISBLANK('By Round'!G28),"",'By Round'!G28)</f>
         <v/>
       </c>
       <c r="H33">
-        <f>IF(ISBLANK('By Round'!H27),"",'By Round'!H27)</f>
+        <f>IF(ISBLANK('By Round'!H28),"",'By Round'!H28)</f>
         <v/>
       </c>
       <c r="I33">
-        <f>IF(ISBLANK('By Round'!I27),"",'By Round'!I27)</f>
+        <f>IF(ISBLANK('By Round'!I28),"",'By Round'!I28)</f>
         <v/>
       </c>
       <c r="J33">
-        <f>IF(ISBLANK('By Round'!J27),"",'By Round'!J27)</f>
+        <f>IF(ISBLANK('By Round'!J28),"",'By Round'!J28)</f>
         <v/>
       </c>
       <c r="K33">
-        <f>IF(ISBLANK('By Round'!K27),"",'By Round'!K27)</f>
+        <f>IF(ISBLANK('By Round'!K28),"",'By Round'!K28)</f>
         <v/>
       </c>
       <c r="L33" s="12">
@@ -4880,45 +4849,44 @@
     </row>
     <row r="34">
       <c r="A34" s="15" t="n"/>
-      <c r="B34" s="15">
+      <c r="B34" s="16">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="16">
         <f>'By Round'!B57</f>
         <v/>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="16">
         <f>'By Round'!C57</f>
         <v/>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="16">
         <f>'By Round'!D57</f>
         <v/>
       </c>
-      <c r="F34" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F34" s="16">
+        <f>IF(ISBLANK('By Round'!F58),"",'By Round'!F58)</f>
+        <v/>
       </c>
       <c r="G34" s="15">
-        <f>IF(ISBLANK('By Round'!G57),"",'By Round'!G57)</f>
+        <f>IF(ISBLANK('By Round'!G58),"",'By Round'!G58)</f>
         <v/>
       </c>
       <c r="H34" s="15">
-        <f>IF(ISBLANK('By Round'!H57),"",'By Round'!H57)</f>
+        <f>IF(ISBLANK('By Round'!H58),"",'By Round'!H58)</f>
         <v/>
       </c>
       <c r="I34" s="15">
-        <f>IF(ISBLANK('By Round'!I57),"",'By Round'!I57)</f>
+        <f>IF(ISBLANK('By Round'!I58),"",'By Round'!I58)</f>
         <v/>
       </c>
       <c r="J34" s="15">
-        <f>IF(ISBLANK('By Round'!J57),"",'By Round'!J57)</f>
+        <f>IF(ISBLANK('By Round'!J58),"",'By Round'!J58)</f>
         <v/>
       </c>
       <c r="K34" s="15">
-        <f>IF(ISBLANK('By Round'!K57),"",'By Round'!K57)</f>
+        <f>IF(ISBLANK('By Round'!K58),"",'By Round'!K58)</f>
         <v/>
       </c>
       <c r="L34" s="17">
@@ -5003,29 +4971,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C35">
+      <c r="C35" s="11">
         <f>'By Round'!B9</f>
         <v/>
       </c>
-      <c r="D35">
+      <c r="D35" s="11">
         <f>'By Round'!C9</f>
         <v/>
       </c>
-      <c r="E35">
+      <c r="E35" s="11">
         <f>'By Round'!D9</f>
         <v/>
       </c>
-      <c r="F35" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F35" s="11">
+        <f>IF(ISBLANK('By Round'!F9),"",'By Round'!F9)</f>
+        <v/>
       </c>
       <c r="G35">
         <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
@@ -5129,26 +5096,25 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36">
+      <c r="B36" s="11">
         <f>'By Round'!A19</f>
         <v/>
       </c>
-      <c r="C36">
+      <c r="C36" s="11">
         <f>'By Round'!B23</f>
         <v/>
       </c>
-      <c r="D36">
+      <c r="D36" s="11">
         <f>'By Round'!C23</f>
         <v/>
       </c>
-      <c r="E36">
+      <c r="E36" s="11">
         <f>'By Round'!D23</f>
         <v/>
       </c>
-      <c r="F36" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F36" s="11">
+        <f>IF(ISBLANK('By Round'!F23),"",'By Round'!F23)</f>
+        <v/>
       </c>
       <c r="G36">
         <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
@@ -5252,26 +5218,25 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37">
+      <c r="B37" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C37">
+      <c r="C37" s="11">
         <f>'By Round'!B29</f>
         <v/>
       </c>
-      <c r="D37">
+      <c r="D37" s="11">
         <f>'By Round'!C29</f>
         <v/>
       </c>
-      <c r="E37">
+      <c r="E37" s="11">
         <f>'By Round'!D29</f>
         <v/>
       </c>
-      <c r="F37" s="11" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F37" s="11">
+        <f>IF(ISBLANK('By Round'!F29),"",'By Round'!F29)</f>
+        <v/>
       </c>
       <c r="G37">
         <f>IF(ISBLANK('By Round'!G29),"",'By Round'!G29)</f>
@@ -5376,26 +5341,25 @@
     </row>
     <row r="38">
       <c r="A38" s="15" t="n"/>
-      <c r="B38" s="15">
+      <c r="B38" s="16">
         <f>'By Round'!A35</f>
         <v/>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="16">
         <f>'By Round'!B35</f>
         <v/>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="16">
         <f>'By Round'!C35</f>
         <v/>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="16">
         <f>'By Round'!D35</f>
         <v/>
       </c>
-      <c r="F38" s="16" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
+      <c r="F38" s="16">
+        <f>IF(ISBLANK('By Round'!F35),"",'By Round'!F35)</f>
+        <v/>
       </c>
       <c r="G38" s="15">
         <f>IF(ISBLANK('By Round'!G35),"",'By Round'!G35)</f>
@@ -5499,48 +5463,47 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="11">
         <f>'By Round'!A3</f>
         <v/>
       </c>
-      <c r="C39">
+      <c r="C39" s="11">
         <f>'By Round'!B9</f>
         <v/>
       </c>
-      <c r="D39">
+      <c r="D39" s="11">
         <f>'By Round'!C9</f>
         <v/>
       </c>
-      <c r="E39">
+      <c r="E39" s="11">
         <f>'By Round'!D9</f>
         <v/>
       </c>
-      <c r="F39" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F39" s="11">
+        <f>IF(ISBLANK('By Round'!F10),"",'By Round'!F10)</f>
+        <v/>
       </c>
       <c r="G39">
-        <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
+        <f>IF(ISBLANK('By Round'!G10),"",'By Round'!G10)</f>
         <v/>
       </c>
       <c r="H39">
-        <f>IF(ISBLANK('By Round'!H9),"",'By Round'!H9)</f>
+        <f>IF(ISBLANK('By Round'!H10),"",'By Round'!H10)</f>
         <v/>
       </c>
       <c r="I39">
-        <f>IF(ISBLANK('By Round'!I9),"",'By Round'!I9)</f>
+        <f>IF(ISBLANK('By Round'!I10),"",'By Round'!I10)</f>
         <v/>
       </c>
       <c r="J39">
-        <f>IF(ISBLANK('By Round'!J9),"",'By Round'!J9)</f>
+        <f>IF(ISBLANK('By Round'!J10),"",'By Round'!J10)</f>
         <v/>
       </c>
       <c r="K39">
-        <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
+        <f>IF(ISBLANK('By Round'!K10),"",'By Round'!K10)</f>
         <v/>
       </c>
       <c r="L39" s="12">
@@ -5625,45 +5588,44 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40">
+      <c r="B40" s="11">
         <f>'By Round'!A19</f>
         <v/>
       </c>
-      <c r="C40">
+      <c r="C40" s="11">
         <f>'By Round'!B23</f>
         <v/>
       </c>
-      <c r="D40">
+      <c r="D40" s="11">
         <f>'By Round'!C23</f>
         <v/>
       </c>
-      <c r="E40">
+      <c r="E40" s="11">
         <f>'By Round'!D23</f>
         <v/>
       </c>
-      <c r="F40" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F40" s="11">
+        <f>IF(ISBLANK('By Round'!F24),"",'By Round'!F24)</f>
+        <v/>
       </c>
       <c r="G40">
-        <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
+        <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
         <v/>
       </c>
       <c r="H40">
-        <f>IF(ISBLANK('By Round'!H23),"",'By Round'!H23)</f>
+        <f>IF(ISBLANK('By Round'!H24),"",'By Round'!H24)</f>
         <v/>
       </c>
       <c r="I40">
-        <f>IF(ISBLANK('By Round'!I23),"",'By Round'!I23)</f>
+        <f>IF(ISBLANK('By Round'!I24),"",'By Round'!I24)</f>
         <v/>
       </c>
       <c r="J40">
-        <f>IF(ISBLANK('By Round'!J23),"",'By Round'!J23)</f>
+        <f>IF(ISBLANK('By Round'!J24),"",'By Round'!J24)</f>
         <v/>
       </c>
       <c r="K40">
-        <f>IF(ISBLANK('By Round'!K23),"",'By Round'!K23)</f>
+        <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
         <v/>
       </c>
       <c r="L40" s="12">
@@ -5748,45 +5710,44 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41">
+      <c r="B41" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C41">
+      <c r="C41" s="11">
         <f>'By Round'!B29</f>
         <v/>
       </c>
-      <c r="D41">
+      <c r="D41" s="11">
         <f>'By Round'!C29</f>
         <v/>
       </c>
-      <c r="E41">
+      <c r="E41" s="11">
         <f>'By Round'!D29</f>
         <v/>
       </c>
-      <c r="F41" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F41" s="11">
+        <f>IF(ISBLANK('By Round'!F30),"",'By Round'!F30)</f>
+        <v/>
       </c>
       <c r="G41">
-        <f>IF(ISBLANK('By Round'!G29),"",'By Round'!G29)</f>
+        <f>IF(ISBLANK('By Round'!G30),"",'By Round'!G30)</f>
         <v/>
       </c>
       <c r="H41">
-        <f>IF(ISBLANK('By Round'!H29),"",'By Round'!H29)</f>
+        <f>IF(ISBLANK('By Round'!H30),"",'By Round'!H30)</f>
         <v/>
       </c>
       <c r="I41">
-        <f>IF(ISBLANK('By Round'!I29),"",'By Round'!I29)</f>
+        <f>IF(ISBLANK('By Round'!I30),"",'By Round'!I30)</f>
         <v/>
       </c>
       <c r="J41">
-        <f>IF(ISBLANK('By Round'!J29),"",'By Round'!J29)</f>
+        <f>IF(ISBLANK('By Round'!J30),"",'By Round'!J30)</f>
         <v/>
       </c>
       <c r="K41">
-        <f>IF(ISBLANK('By Round'!K29),"",'By Round'!K29)</f>
+        <f>IF(ISBLANK('By Round'!K30),"",'By Round'!K30)</f>
         <v/>
       </c>
       <c r="L41" s="12">
@@ -5872,45 +5833,44 @@
     </row>
     <row r="42">
       <c r="A42" s="15" t="n"/>
-      <c r="B42" s="15">
+      <c r="B42" s="16">
         <f>'By Round'!A35</f>
         <v/>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="16">
         <f>'By Round'!B35</f>
         <v/>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="16">
         <f>'By Round'!C35</f>
         <v/>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="16">
         <f>'By Round'!D35</f>
         <v/>
       </c>
-      <c r="F42" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F42" s="16">
+        <f>IF(ISBLANK('By Round'!F36),"",'By Round'!F36)</f>
+        <v/>
       </c>
       <c r="G42" s="15">
-        <f>IF(ISBLANK('By Round'!G35),"",'By Round'!G35)</f>
+        <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
         <v/>
       </c>
       <c r="H42" s="15">
-        <f>IF(ISBLANK('By Round'!H35),"",'By Round'!H35)</f>
+        <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
         <v/>
       </c>
       <c r="I42" s="15">
-        <f>IF(ISBLANK('By Round'!I35),"",'By Round'!I35)</f>
+        <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
         <v/>
       </c>
       <c r="J42" s="15">
-        <f>IF(ISBLANK('By Round'!J35),"",'By Round'!J35)</f>
+        <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
         <v/>
       </c>
       <c r="K42" s="15">
-        <f>IF(ISBLANK('By Round'!K35),"",'By Round'!K35)</f>
+        <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
         <v/>
       </c>
       <c r="L42" s="17">
@@ -5995,29 +5955,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="11">
         <f>'By Round'!A11</f>
         <v/>
       </c>
-      <c r="C43">
+      <c r="C43" s="11">
         <f>'By Round'!B17</f>
         <v/>
       </c>
-      <c r="D43">
+      <c r="D43" s="11">
         <f>'By Round'!C17</f>
         <v/>
       </c>
-      <c r="E43">
+      <c r="E43" s="11">
         <f>'By Round'!D17</f>
         <v/>
       </c>
-      <c r="F43" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F43" s="11">
+        <f>IF(ISBLANK('By Round'!F17),"",'By Round'!F17)</f>
+        <v/>
       </c>
       <c r="G43">
         <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
@@ -6121,26 +6080,25 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44">
+      <c r="B44" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C44">
+      <c r="C44" s="11">
         <f>'By Round'!B31</f>
         <v/>
       </c>
-      <c r="D44">
+      <c r="D44" s="11">
         <f>'By Round'!C31</f>
         <v/>
       </c>
-      <c r="E44">
+      <c r="E44" s="11">
         <f>'By Round'!D31</f>
         <v/>
       </c>
-      <c r="F44" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F44" s="11">
+        <f>IF(ISBLANK('By Round'!F31),"",'By Round'!F31)</f>
+        <v/>
       </c>
       <c r="G44">
         <f>IF(ISBLANK('By Round'!G31),"",'By Round'!G31)</f>
@@ -6244,26 +6202,25 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45">
+      <c r="B45" s="11">
         <f>'By Round'!A35</f>
         <v/>
       </c>
-      <c r="C45">
+      <c r="C45" s="11">
         <f>'By Round'!B37</f>
         <v/>
       </c>
-      <c r="D45">
+      <c r="D45" s="11">
         <f>'By Round'!C37</f>
         <v/>
       </c>
-      <c r="E45">
+      <c r="E45" s="11">
         <f>'By Round'!D37</f>
         <v/>
       </c>
-      <c r="F45" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F45" s="11">
+        <f>IF(ISBLANK('By Round'!F37),"",'By Round'!F37)</f>
+        <v/>
       </c>
       <c r="G45">
         <f>IF(ISBLANK('By Round'!G37),"",'By Round'!G37)</f>
@@ -6368,26 +6325,25 @@
     </row>
     <row r="46">
       <c r="A46" s="15" t="n"/>
-      <c r="B46" s="15">
+      <c r="B46" s="16">
         <f>'By Round'!A43</f>
         <v/>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="16">
         <f>'By Round'!B43</f>
         <v/>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="16">
         <f>'By Round'!C43</f>
         <v/>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="16">
         <f>'By Round'!D43</f>
         <v/>
       </c>
-      <c r="F46" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F46" s="16">
+        <f>IF(ISBLANK('By Round'!F43),"",'By Round'!F43)</f>
+        <v/>
       </c>
       <c r="G46" s="15">
         <f>IF(ISBLANK('By Round'!G43),"",'By Round'!G43)</f>
@@ -6491,48 +6447,47 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="11">
         <f>'By Round'!A11</f>
         <v/>
       </c>
-      <c r="C47">
+      <c r="C47" s="11">
         <f>'By Round'!B17</f>
         <v/>
       </c>
-      <c r="D47">
+      <c r="D47" s="11">
         <f>'By Round'!C17</f>
         <v/>
       </c>
-      <c r="E47">
+      <c r="E47" s="11">
         <f>'By Round'!D17</f>
         <v/>
       </c>
-      <c r="F47" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F47" s="11">
+        <f>IF(ISBLANK('By Round'!F18),"",'By Round'!F18)</f>
+        <v/>
       </c>
       <c r="G47">
-        <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
+        <f>IF(ISBLANK('By Round'!G18),"",'By Round'!G18)</f>
         <v/>
       </c>
       <c r="H47">
-        <f>IF(ISBLANK('By Round'!H17),"",'By Round'!H17)</f>
+        <f>IF(ISBLANK('By Round'!H18),"",'By Round'!H18)</f>
         <v/>
       </c>
       <c r="I47">
-        <f>IF(ISBLANK('By Round'!I17),"",'By Round'!I17)</f>
+        <f>IF(ISBLANK('By Round'!I18),"",'By Round'!I18)</f>
         <v/>
       </c>
       <c r="J47">
-        <f>IF(ISBLANK('By Round'!J17),"",'By Round'!J17)</f>
+        <f>IF(ISBLANK('By Round'!J18),"",'By Round'!J18)</f>
         <v/>
       </c>
       <c r="K47">
-        <f>IF(ISBLANK('By Round'!K17),"",'By Round'!K17)</f>
+        <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
         <v/>
       </c>
       <c r="L47" s="12">
@@ -6617,45 +6572,44 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48">
+      <c r="B48" s="11">
         <f>'By Round'!A27</f>
         <v/>
       </c>
-      <c r="C48">
+      <c r="C48" s="11">
         <f>'By Round'!B31</f>
         <v/>
       </c>
-      <c r="D48">
+      <c r="D48" s="11">
         <f>'By Round'!C31</f>
         <v/>
       </c>
-      <c r="E48">
+      <c r="E48" s="11">
         <f>'By Round'!D31</f>
         <v/>
       </c>
-      <c r="F48" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F48" s="11">
+        <f>IF(ISBLANK('By Round'!F32),"",'By Round'!F32)</f>
+        <v/>
       </c>
       <c r="G48">
-        <f>IF(ISBLANK('By Round'!G31),"",'By Round'!G31)</f>
+        <f>IF(ISBLANK('By Round'!G32),"",'By Round'!G32)</f>
         <v/>
       </c>
       <c r="H48">
-        <f>IF(ISBLANK('By Round'!H31),"",'By Round'!H31)</f>
+        <f>IF(ISBLANK('By Round'!H32),"",'By Round'!H32)</f>
         <v/>
       </c>
       <c r="I48">
-        <f>IF(ISBLANK('By Round'!I31),"",'By Round'!I31)</f>
+        <f>IF(ISBLANK('By Round'!I32),"",'By Round'!I32)</f>
         <v/>
       </c>
       <c r="J48">
-        <f>IF(ISBLANK('By Round'!J31),"",'By Round'!J31)</f>
+        <f>IF(ISBLANK('By Round'!J32),"",'By Round'!J32)</f>
         <v/>
       </c>
       <c r="K48">
-        <f>IF(ISBLANK('By Round'!K31),"",'By Round'!K31)</f>
+        <f>IF(ISBLANK('By Round'!K32),"",'By Round'!K32)</f>
         <v/>
       </c>
       <c r="L48" s="12">
@@ -6740,45 +6694,44 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49">
+      <c r="B49" s="11">
         <f>'By Round'!A35</f>
         <v/>
       </c>
-      <c r="C49">
+      <c r="C49" s="11">
         <f>'By Round'!B37</f>
         <v/>
       </c>
-      <c r="D49">
+      <c r="D49" s="11">
         <f>'By Round'!C37</f>
         <v/>
       </c>
-      <c r="E49">
+      <c r="E49" s="11">
         <f>'By Round'!D37</f>
         <v/>
       </c>
-      <c r="F49" s="11" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F49" s="11">
+        <f>IF(ISBLANK('By Round'!F38),"",'By Round'!F38)</f>
+        <v/>
       </c>
       <c r="G49">
-        <f>IF(ISBLANK('By Round'!G37),"",'By Round'!G37)</f>
+        <f>IF(ISBLANK('By Round'!G38),"",'By Round'!G38)</f>
         <v/>
       </c>
       <c r="H49">
-        <f>IF(ISBLANK('By Round'!H37),"",'By Round'!H37)</f>
+        <f>IF(ISBLANK('By Round'!H38),"",'By Round'!H38)</f>
         <v/>
       </c>
       <c r="I49">
-        <f>IF(ISBLANK('By Round'!I37),"",'By Round'!I37)</f>
+        <f>IF(ISBLANK('By Round'!I38),"",'By Round'!I38)</f>
         <v/>
       </c>
       <c r="J49">
-        <f>IF(ISBLANK('By Round'!J37),"",'By Round'!J37)</f>
+        <f>IF(ISBLANK('By Round'!J38),"",'By Round'!J38)</f>
         <v/>
       </c>
       <c r="K49">
-        <f>IF(ISBLANK('By Round'!K37),"",'By Round'!K37)</f>
+        <f>IF(ISBLANK('By Round'!K38),"",'By Round'!K38)</f>
         <v/>
       </c>
       <c r="L49" s="12">
@@ -6864,45 +6817,44 @@
     </row>
     <row r="50">
       <c r="A50" s="15" t="n"/>
-      <c r="B50" s="15">
+      <c r="B50" s="16">
         <f>'By Round'!A43</f>
         <v/>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="16">
         <f>'By Round'!B43</f>
         <v/>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="16">
         <f>'By Round'!C43</f>
         <v/>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="16">
         <f>'By Round'!D43</f>
         <v/>
       </c>
-      <c r="F50" s="16" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
+      <c r="F50" s="16">
+        <f>IF(ISBLANK('By Round'!F44),"",'By Round'!F44)</f>
+        <v/>
       </c>
       <c r="G50" s="15">
-        <f>IF(ISBLANK('By Round'!G43),"",'By Round'!G43)</f>
+        <f>IF(ISBLANK('By Round'!G44),"",'By Round'!G44)</f>
         <v/>
       </c>
       <c r="H50" s="15">
-        <f>IF(ISBLANK('By Round'!H43),"",'By Round'!H43)</f>
+        <f>IF(ISBLANK('By Round'!H44),"",'By Round'!H44)</f>
         <v/>
       </c>
       <c r="I50" s="15">
-        <f>IF(ISBLANK('By Round'!I43),"",'By Round'!I43)</f>
+        <f>IF(ISBLANK('By Round'!I44),"",'By Round'!I44)</f>
         <v/>
       </c>
       <c r="J50" s="15">
-        <f>IF(ISBLANK('By Round'!J43),"",'By Round'!J43)</f>
+        <f>IF(ISBLANK('By Round'!J44),"",'By Round'!J44)</f>
         <v/>
       </c>
       <c r="K50" s="15">
-        <f>IF(ISBLANK('By Round'!K43),"",'By Round'!K43)</f>
+        <f>IF(ISBLANK('By Round'!K44),"",'By Round'!K44)</f>
         <v/>
       </c>
       <c r="L50" s="17">
@@ -6987,29 +6939,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="11">
         <f>'By Round'!A19</f>
         <v/>
       </c>
-      <c r="C51">
+      <c r="C51" s="11">
         <f>'By Round'!B25</f>
         <v/>
       </c>
-      <c r="D51">
+      <c r="D51" s="11">
         <f>'By Round'!C25</f>
         <v/>
       </c>
-      <c r="E51">
+      <c r="E51" s="11">
         <f>'By Round'!D25</f>
         <v/>
       </c>
-      <c r="F51" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F51" s="11">
+        <f>IF(ISBLANK('By Round'!F25),"",'By Round'!F25)</f>
+        <v/>
       </c>
       <c r="G51">
         <f>IF(ISBLANK('By Round'!G25),"",'By Round'!G25)</f>
@@ -7113,26 +7064,25 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52">
+      <c r="B52" s="11">
         <f>'By Round'!A35</f>
         <v/>
       </c>
-      <c r="C52">
+      <c r="C52" s="11">
         <f>'By Round'!B39</f>
         <v/>
       </c>
-      <c r="D52">
+      <c r="D52" s="11">
         <f>'By Round'!C39</f>
         <v/>
       </c>
-      <c r="E52">
+      <c r="E52" s="11">
         <f>'By Round'!D39</f>
         <v/>
       </c>
-      <c r="F52" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F52" s="11">
+        <f>IF(ISBLANK('By Round'!F39),"",'By Round'!F39)</f>
+        <v/>
       </c>
       <c r="G52">
         <f>IF(ISBLANK('By Round'!G39),"",'By Round'!G39)</f>
@@ -7236,26 +7186,25 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53">
+      <c r="B53" s="11">
         <f>'By Round'!A43</f>
         <v/>
       </c>
-      <c r="C53">
+      <c r="C53" s="11">
         <f>'By Round'!B45</f>
         <v/>
       </c>
-      <c r="D53">
+      <c r="D53" s="11">
         <f>'By Round'!C45</f>
         <v/>
       </c>
-      <c r="E53">
+      <c r="E53" s="11">
         <f>'By Round'!D45</f>
         <v/>
       </c>
-      <c r="F53" s="11" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F53" s="11">
+        <f>IF(ISBLANK('By Round'!F45),"",'By Round'!F45)</f>
+        <v/>
       </c>
       <c r="G53">
         <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
@@ -7360,26 +7309,25 @@
     </row>
     <row r="54">
       <c r="A54" s="15" t="n"/>
-      <c r="B54" s="15">
+      <c r="B54" s="16">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="16">
         <f>'By Round'!B51</f>
         <v/>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="16">
         <f>'By Round'!C51</f>
         <v/>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="16">
         <f>'By Round'!D51</f>
         <v/>
       </c>
-      <c r="F54" s="16" t="inlineStr">
-        <is>
-          <t>Both</t>
-        </is>
+      <c r="F54" s="16">
+        <f>IF(ISBLANK('By Round'!F51),"",'By Round'!F51)</f>
+        <v/>
       </c>
       <c r="G54" s="15">
         <f>IF(ISBLANK('By Round'!G51),"",'By Round'!G51)</f>
@@ -7483,48 +7431,47 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="11">
         <f>'By Round'!A19</f>
         <v/>
       </c>
-      <c r="C55">
+      <c r="C55" s="11">
         <f>'By Round'!B25</f>
         <v/>
       </c>
-      <c r="D55">
+      <c r="D55" s="11">
         <f>'By Round'!C25</f>
         <v/>
       </c>
-      <c r="E55">
+      <c r="E55" s="11">
         <f>'By Round'!D25</f>
         <v/>
       </c>
-      <c r="F55" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F55" s="11">
+        <f>IF(ISBLANK('By Round'!F26),"",'By Round'!F26)</f>
+        <v/>
       </c>
       <c r="G55">
-        <f>IF(ISBLANK('By Round'!G25),"",'By Round'!G25)</f>
+        <f>IF(ISBLANK('By Round'!G26),"",'By Round'!G26)</f>
         <v/>
       </c>
       <c r="H55">
-        <f>IF(ISBLANK('By Round'!H25),"",'By Round'!H25)</f>
+        <f>IF(ISBLANK('By Round'!H26),"",'By Round'!H26)</f>
         <v/>
       </c>
       <c r="I55">
-        <f>IF(ISBLANK('By Round'!I25),"",'By Round'!I25)</f>
+        <f>IF(ISBLANK('By Round'!I26),"",'By Round'!I26)</f>
         <v/>
       </c>
       <c r="J55">
-        <f>IF(ISBLANK('By Round'!J25),"",'By Round'!J25)</f>
+        <f>IF(ISBLANK('By Round'!J26),"",'By Round'!J26)</f>
         <v/>
       </c>
       <c r="K55">
-        <f>IF(ISBLANK('By Round'!K25),"",'By Round'!K25)</f>
+        <f>IF(ISBLANK('By Round'!K26),"",'By Round'!K26)</f>
         <v/>
       </c>
       <c r="L55" s="12">
@@ -7609,45 +7556,44 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56">
+      <c r="B56" s="11">
         <f>'By Round'!A35</f>
         <v/>
       </c>
-      <c r="C56">
+      <c r="C56" s="11">
         <f>'By Round'!B39</f>
         <v/>
       </c>
-      <c r="D56">
+      <c r="D56" s="11">
         <f>'By Round'!C39</f>
         <v/>
       </c>
-      <c r="E56">
+      <c r="E56" s="11">
         <f>'By Round'!D39</f>
         <v/>
       </c>
-      <c r="F56" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F56" s="11">
+        <f>IF(ISBLANK('By Round'!F40),"",'By Round'!F40)</f>
+        <v/>
       </c>
       <c r="G56">
-        <f>IF(ISBLANK('By Round'!G39),"",'By Round'!G39)</f>
+        <f>IF(ISBLANK('By Round'!G40),"",'By Round'!G40)</f>
         <v/>
       </c>
       <c r="H56">
-        <f>IF(ISBLANK('By Round'!H39),"",'By Round'!H39)</f>
+        <f>IF(ISBLANK('By Round'!H40),"",'By Round'!H40)</f>
         <v/>
       </c>
       <c r="I56">
-        <f>IF(ISBLANK('By Round'!I39),"",'By Round'!I39)</f>
+        <f>IF(ISBLANK('By Round'!I40),"",'By Round'!I40)</f>
         <v/>
       </c>
       <c r="J56">
-        <f>IF(ISBLANK('By Round'!J39),"",'By Round'!J39)</f>
+        <f>IF(ISBLANK('By Round'!J40),"",'By Round'!J40)</f>
         <v/>
       </c>
       <c r="K56">
-        <f>IF(ISBLANK('By Round'!K39),"",'By Round'!K39)</f>
+        <f>IF(ISBLANK('By Round'!K40),"",'By Round'!K40)</f>
         <v/>
       </c>
       <c r="L56" s="12">
@@ -7732,45 +7678,44 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57">
+      <c r="B57" s="11">
         <f>'By Round'!A43</f>
         <v/>
       </c>
-      <c r="C57">
+      <c r="C57" s="11">
         <f>'By Round'!B45</f>
         <v/>
       </c>
-      <c r="D57">
+      <c r="D57" s="11">
         <f>'By Round'!C45</f>
         <v/>
       </c>
-      <c r="E57">
+      <c r="E57" s="11">
         <f>'By Round'!D45</f>
         <v/>
       </c>
-      <c r="F57" s="11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F57" s="11">
+        <f>IF(ISBLANK('By Round'!F46),"",'By Round'!F46)</f>
+        <v/>
       </c>
       <c r="G57">
-        <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
+        <f>IF(ISBLANK('By Round'!G46),"",'By Round'!G46)</f>
         <v/>
       </c>
       <c r="H57">
-        <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
+        <f>IF(ISBLANK('By Round'!H46),"",'By Round'!H46)</f>
         <v/>
       </c>
       <c r="I57">
-        <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
+        <f>IF(ISBLANK('By Round'!I46),"",'By Round'!I46)</f>
         <v/>
       </c>
       <c r="J57">
-        <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
+        <f>IF(ISBLANK('By Round'!J46),"",'By Round'!J46)</f>
         <v/>
       </c>
       <c r="K57">
-        <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
+        <f>IF(ISBLANK('By Round'!K46),"",'By Round'!K46)</f>
         <v/>
       </c>
       <c r="L57" s="12">
@@ -7856,45 +7801,44 @@
     </row>
     <row r="58">
       <c r="A58" s="15" t="n"/>
-      <c r="B58" s="15">
+      <c r="B58" s="16">
         <f>'By Round'!A51</f>
         <v/>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="16">
         <f>'By Round'!B51</f>
         <v/>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="16">
         <f>'By Round'!C51</f>
         <v/>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="16">
         <f>'By Round'!D51</f>
         <v/>
       </c>
-      <c r="F58" s="16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="F58" s="16">
+        <f>IF(ISBLANK('By Round'!F52),"",'By Round'!F52)</f>
+        <v/>
       </c>
       <c r="G58" s="15">
-        <f>IF(ISBLANK('By Round'!G51),"",'By Round'!G51)</f>
+        <f>IF(ISBLANK('By Round'!G52),"",'By Round'!G52)</f>
         <v/>
       </c>
       <c r="H58" s="15">
-        <f>IF(ISBLANK('By Round'!H51),"",'By Round'!H51)</f>
+        <f>IF(ISBLANK('By Round'!H52),"",'By Round'!H52)</f>
         <v/>
       </c>
       <c r="I58" s="15">
-        <f>IF(ISBLANK('By Round'!I51),"",'By Round'!I51)</f>
+        <f>IF(ISBLANK('By Round'!I52),"",'By Round'!I52)</f>
         <v/>
       </c>
       <c r="J58" s="15">
-        <f>IF(ISBLANK('By Round'!J51),"",'By Round'!J51)</f>
+        <f>IF(ISBLANK('By Round'!J52),"",'By Round'!J52)</f>
         <v/>
       </c>
       <c r="K58" s="15">
-        <f>IF(ISBLANK('By Round'!K51),"",'By Round'!K51)</f>
+        <f>IF(ISBLANK('By Round'!K52),"",'By Round'!K52)</f>
         <v/>
       </c>
       <c r="L58" s="17">

--- a/howell7.xlsx
+++ b/howell7.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 08, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 10, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 42</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 59</t>
+          <t>Name 51</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 87</t>
+          <t>Name 39</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 41</t>
+          <t>Name 76</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 83</t>
+          <t>Name 34</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 52</t>
+          <t>Name 89</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 26</t>
+          <t>Name 21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 36</t>
+          <t>Name 30</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 58</t>
+          <t>Name 17</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 79</t>
+          <t>Name 52</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 81</t>
+          <t>Name 37</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 42</t>
+          <t>Name 46</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Name 19</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Name 23</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Name 22</t>
         </is>
       </c>
       <c r="D16" s="4">

--- a/howell7.xlsx
+++ b/howell7.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 10, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 11, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 61</t>
+          <t>Name 23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 51</t>
+          <t>Name 20</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 39</t>
+          <t>Name 72</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 76</t>
+          <t>Name 12</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 34</t>
+          <t>Name 79</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 89</t>
+          <t>Name 71</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 21</t>
+          <t>Name 27</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 30</t>
+          <t>Name 32</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 17</t>
+          <t>Name 90</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 52</t>
+          <t>Name 49</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 37</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 46</t>
+          <t>Name 54</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 19</t>
+          <t>Name 79</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 23</t>
+          <t>Name 33</t>
         </is>
       </c>
       <c r="D16" s="4">
@@ -1079,11 +1079,11 @@
         <v/>
       </c>
       <c r="L3" s="12">
-        <f>SUM(Z3:AB3)</f>
+        <f>AVERAGE(Z3:AB3)</f>
         <v/>
       </c>
       <c r="M3" s="13">
-        <f>SUM(AC3:AE3)</f>
+        <f>AVERAGE(AC3:AE3)</f>
         <v/>
       </c>
       <c r="N3" s="8">
@@ -1161,51 +1161,51 @@
     </row>
     <row r="4">
       <c r="B4" s="11">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A43</f>
         <v/>
       </c>
       <c r="C4" s="11">
-        <f>'By Round'!B33</f>
+        <f>'By Round'!B47</f>
         <v/>
       </c>
       <c r="D4" s="11">
-        <f>'By Round'!C33</f>
+        <f>'By Round'!C47</f>
         <v/>
       </c>
       <c r="E4" s="11">
-        <f>'By Round'!D33</f>
+        <f>'By Round'!D47</f>
         <v/>
       </c>
       <c r="F4" s="11">
-        <f>IF(ISBLANK('By Round'!F33),"",'By Round'!F33)</f>
+        <f>IF(ISBLANK('By Round'!F47),"",'By Round'!F47)</f>
         <v/>
       </c>
       <c r="G4">
-        <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
+        <f>IF(ISBLANK('By Round'!G47),"",'By Round'!G47)</f>
         <v/>
       </c>
       <c r="H4">
-        <f>IF(ISBLANK('By Round'!H33),"",'By Round'!H33)</f>
+        <f>IF(ISBLANK('By Round'!H47),"",'By Round'!H47)</f>
         <v/>
       </c>
       <c r="I4">
-        <f>IF(ISBLANK('By Round'!I33),"",'By Round'!I33)</f>
+        <f>IF(ISBLANK('By Round'!I47),"",'By Round'!I47)</f>
         <v/>
       </c>
       <c r="J4">
-        <f>IF(ISBLANK('By Round'!J33),"",'By Round'!J33)</f>
+        <f>IF(ISBLANK('By Round'!J47),"",'By Round'!J47)</f>
         <v/>
       </c>
       <c r="K4">
-        <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
+        <f>IF(ISBLANK('By Round'!K47),"",'By Round'!K47)</f>
         <v/>
       </c>
       <c r="L4" s="12">
-        <f>SUM(Z4:AB4)</f>
+        <f>AVERAGE(Z4:AB4)</f>
         <v/>
       </c>
       <c r="M4" s="13">
-        <f>SUM(AC4:AE4)</f>
+        <f>AVERAGE(AC4:AE4)</f>
         <v/>
       </c>
       <c r="N4" s="8">
@@ -1283,51 +1283,51 @@
     </row>
     <row r="5">
       <c r="B5" s="11">
-        <f>'By Round'!A43</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C5" s="11">
-        <f>'By Round'!B47</f>
+        <f>'By Round'!B33</f>
         <v/>
       </c>
       <c r="D5" s="11">
-        <f>'By Round'!C47</f>
+        <f>'By Round'!C33</f>
         <v/>
       </c>
       <c r="E5" s="11">
-        <f>'By Round'!D47</f>
+        <f>'By Round'!D33</f>
         <v/>
       </c>
       <c r="F5" s="11">
-        <f>IF(ISBLANK('By Round'!F47),"",'By Round'!F47)</f>
+        <f>IF(ISBLANK('By Round'!F33),"",'By Round'!F33)</f>
         <v/>
       </c>
       <c r="G5">
-        <f>IF(ISBLANK('By Round'!G47),"",'By Round'!G47)</f>
+        <f>IF(ISBLANK('By Round'!G33),"",'By Round'!G33)</f>
         <v/>
       </c>
       <c r="H5">
-        <f>IF(ISBLANK('By Round'!H47),"",'By Round'!H47)</f>
+        <f>IF(ISBLANK('By Round'!H33),"",'By Round'!H33)</f>
         <v/>
       </c>
       <c r="I5">
-        <f>IF(ISBLANK('By Round'!I47),"",'By Round'!I47)</f>
+        <f>IF(ISBLANK('By Round'!I33),"",'By Round'!I33)</f>
         <v/>
       </c>
       <c r="J5">
-        <f>IF(ISBLANK('By Round'!J47),"",'By Round'!J47)</f>
+        <f>IF(ISBLANK('By Round'!J33),"",'By Round'!J33)</f>
         <v/>
       </c>
       <c r="K5">
-        <f>IF(ISBLANK('By Round'!K47),"",'By Round'!K47)</f>
+        <f>IF(ISBLANK('By Round'!K33),"",'By Round'!K33)</f>
         <v/>
       </c>
       <c r="L5" s="12">
-        <f>SUM(Z5:AB5)</f>
+        <f>AVERAGE(Z5:AB5)</f>
         <v/>
       </c>
       <c r="M5" s="13">
-        <f>SUM(AC5:AE5)</f>
+        <f>AVERAGE(AC5:AE5)</f>
         <v/>
       </c>
       <c r="N5" s="8">
@@ -1446,11 +1446,11 @@
         <v/>
       </c>
       <c r="L6" s="17">
-        <f>SUM(Z6:AB6)</f>
+        <f>AVERAGE(Z6:AB6)</f>
         <v/>
       </c>
       <c r="M6" s="18">
-        <f>SUM(AC6:AE6)</f>
+        <f>AVERAGE(AC6:AE6)</f>
         <v/>
       </c>
       <c r="N6" s="19">
@@ -1571,11 +1571,11 @@
         <v/>
       </c>
       <c r="L7" s="12">
-        <f>SUM(Z7:AB7)</f>
+        <f>AVERAGE(Z7:AB7)</f>
         <v/>
       </c>
       <c r="M7" s="13">
-        <f>SUM(AC7:AE7)</f>
+        <f>AVERAGE(AC7:AE7)</f>
         <v/>
       </c>
       <c r="N7" s="8">
@@ -1653,51 +1653,51 @@
     </row>
     <row r="8">
       <c r="B8" s="11">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A43</f>
         <v/>
       </c>
       <c r="C8" s="11">
-        <f>'By Round'!B33</f>
+        <f>'By Round'!B47</f>
         <v/>
       </c>
       <c r="D8" s="11">
-        <f>'By Round'!C33</f>
+        <f>'By Round'!C47</f>
         <v/>
       </c>
       <c r="E8" s="11">
-        <f>'By Round'!D33</f>
+        <f>'By Round'!D47</f>
         <v/>
       </c>
       <c r="F8" s="11">
-        <f>IF(ISBLANK('By Round'!F34),"",'By Round'!F34)</f>
+        <f>IF(ISBLANK('By Round'!F48),"",'By Round'!F48)</f>
         <v/>
       </c>
       <c r="G8">
-        <f>IF(ISBLANK('By Round'!G34),"",'By Round'!G34)</f>
+        <f>IF(ISBLANK('By Round'!G48),"",'By Round'!G48)</f>
         <v/>
       </c>
       <c r="H8">
-        <f>IF(ISBLANK('By Round'!H34),"",'By Round'!H34)</f>
+        <f>IF(ISBLANK('By Round'!H48),"",'By Round'!H48)</f>
         <v/>
       </c>
       <c r="I8">
-        <f>IF(ISBLANK('By Round'!I34),"",'By Round'!I34)</f>
+        <f>IF(ISBLANK('By Round'!I48),"",'By Round'!I48)</f>
         <v/>
       </c>
       <c r="J8">
-        <f>IF(ISBLANK('By Round'!J34),"",'By Round'!J34)</f>
+        <f>IF(ISBLANK('By Round'!J48),"",'By Round'!J48)</f>
         <v/>
       </c>
       <c r="K8">
-        <f>IF(ISBLANK('By Round'!K34),"",'By Round'!K34)</f>
+        <f>IF(ISBLANK('By Round'!K48),"",'By Round'!K48)</f>
         <v/>
       </c>
       <c r="L8" s="12">
-        <f>SUM(Z8:AB8)</f>
+        <f>AVERAGE(Z8:AB8)</f>
         <v/>
       </c>
       <c r="M8" s="13">
-        <f>SUM(AC8:AE8)</f>
+        <f>AVERAGE(AC8:AE8)</f>
         <v/>
       </c>
       <c r="N8" s="8">
@@ -1775,51 +1775,51 @@
     </row>
     <row r="9">
       <c r="B9" s="11">
-        <f>'By Round'!A43</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C9" s="11">
-        <f>'By Round'!B47</f>
+        <f>'By Round'!B33</f>
         <v/>
       </c>
       <c r="D9" s="11">
-        <f>'By Round'!C47</f>
+        <f>'By Round'!C33</f>
         <v/>
       </c>
       <c r="E9" s="11">
-        <f>'By Round'!D47</f>
+        <f>'By Round'!D33</f>
         <v/>
       </c>
       <c r="F9" s="11">
-        <f>IF(ISBLANK('By Round'!F48),"",'By Round'!F48)</f>
+        <f>IF(ISBLANK('By Round'!F34),"",'By Round'!F34)</f>
         <v/>
       </c>
       <c r="G9">
-        <f>IF(ISBLANK('By Round'!G48),"",'By Round'!G48)</f>
+        <f>IF(ISBLANK('By Round'!G34),"",'By Round'!G34)</f>
         <v/>
       </c>
       <c r="H9">
-        <f>IF(ISBLANK('By Round'!H48),"",'By Round'!H48)</f>
+        <f>IF(ISBLANK('By Round'!H34),"",'By Round'!H34)</f>
         <v/>
       </c>
       <c r="I9">
-        <f>IF(ISBLANK('By Round'!I48),"",'By Round'!I48)</f>
+        <f>IF(ISBLANK('By Round'!I34),"",'By Round'!I34)</f>
         <v/>
       </c>
       <c r="J9">
-        <f>IF(ISBLANK('By Round'!J48),"",'By Round'!J48)</f>
+        <f>IF(ISBLANK('By Round'!J34),"",'By Round'!J34)</f>
         <v/>
       </c>
       <c r="K9">
-        <f>IF(ISBLANK('By Round'!K48),"",'By Round'!K48)</f>
+        <f>IF(ISBLANK('By Round'!K34),"",'By Round'!K34)</f>
         <v/>
       </c>
       <c r="L9" s="12">
-        <f>SUM(Z9:AB9)</f>
+        <f>AVERAGE(Z9:AB9)</f>
         <v/>
       </c>
       <c r="M9" s="13">
-        <f>SUM(AC9:AE9)</f>
+        <f>AVERAGE(AC9:AE9)</f>
         <v/>
       </c>
       <c r="N9" s="8">
@@ -1938,11 +1938,11 @@
         <v/>
       </c>
       <c r="L10" s="17">
-        <f>SUM(Z10:AB10)</f>
+        <f>AVERAGE(Z10:AB10)</f>
         <v/>
       </c>
       <c r="M10" s="18">
-        <f>SUM(AC10:AE10)</f>
+        <f>AVERAGE(AC10:AE10)</f>
         <v/>
       </c>
       <c r="N10" s="19">
@@ -2023,51 +2023,51 @@
         <v>3</v>
       </c>
       <c r="B11" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A11</f>
         <v/>
       </c>
       <c r="C11" s="11">
-        <f>'By Round'!B5</f>
+        <f>'By Round'!B11</f>
         <v/>
       </c>
       <c r="D11" s="11">
-        <f>'By Round'!C5</f>
+        <f>'By Round'!C11</f>
         <v/>
       </c>
       <c r="E11" s="11">
-        <f>'By Round'!D5</f>
+        <f>'By Round'!D11</f>
         <v/>
       </c>
       <c r="F11" s="11">
-        <f>IF(ISBLANK('By Round'!F5),"",'By Round'!F5)</f>
+        <f>IF(ISBLANK('By Round'!F11),"",'By Round'!F11)</f>
         <v/>
       </c>
       <c r="G11">
-        <f>IF(ISBLANK('By Round'!G5),"",'By Round'!G5)</f>
+        <f>IF(ISBLANK('By Round'!G11),"",'By Round'!G11)</f>
         <v/>
       </c>
       <c r="H11">
-        <f>IF(ISBLANK('By Round'!H5),"",'By Round'!H5)</f>
+        <f>IF(ISBLANK('By Round'!H11),"",'By Round'!H11)</f>
         <v/>
       </c>
       <c r="I11">
-        <f>IF(ISBLANK('By Round'!I5),"",'By Round'!I5)</f>
+        <f>IF(ISBLANK('By Round'!I11),"",'By Round'!I11)</f>
         <v/>
       </c>
       <c r="J11">
-        <f>IF(ISBLANK('By Round'!J5),"",'By Round'!J5)</f>
+        <f>IF(ISBLANK('By Round'!J11),"",'By Round'!J11)</f>
         <v/>
       </c>
       <c r="K11">
-        <f>IF(ISBLANK('By Round'!K5),"",'By Round'!K5)</f>
+        <f>IF(ISBLANK('By Round'!K11),"",'By Round'!K11)</f>
         <v/>
       </c>
       <c r="L11" s="12">
-        <f>SUM(Z11:AB11)</f>
+        <f>AVERAGE(Z11:AB11)</f>
         <v/>
       </c>
       <c r="M11" s="13">
-        <f>SUM(AC11:AE11)</f>
+        <f>AVERAGE(AC11:AE11)</f>
         <v/>
       </c>
       <c r="N11" s="8">
@@ -2145,51 +2145,51 @@
     </row>
     <row r="12">
       <c r="B12" s="11">
-        <f>'By Round'!A11</f>
+        <f>'By Round'!A51</f>
         <v/>
       </c>
       <c r="C12" s="11">
-        <f>'By Round'!B11</f>
+        <f>'By Round'!B55</f>
         <v/>
       </c>
       <c r="D12" s="11">
-        <f>'By Round'!C11</f>
+        <f>'By Round'!C55</f>
         <v/>
       </c>
       <c r="E12" s="11">
-        <f>'By Round'!D11</f>
+        <f>'By Round'!D55</f>
         <v/>
       </c>
       <c r="F12" s="11">
-        <f>IF(ISBLANK('By Round'!F11),"",'By Round'!F11)</f>
+        <f>IF(ISBLANK('By Round'!F55),"",'By Round'!F55)</f>
         <v/>
       </c>
       <c r="G12">
-        <f>IF(ISBLANK('By Round'!G11),"",'By Round'!G11)</f>
+        <f>IF(ISBLANK('By Round'!G55),"",'By Round'!G55)</f>
         <v/>
       </c>
       <c r="H12">
-        <f>IF(ISBLANK('By Round'!H11),"",'By Round'!H11)</f>
+        <f>IF(ISBLANK('By Round'!H55),"",'By Round'!H55)</f>
         <v/>
       </c>
       <c r="I12">
-        <f>IF(ISBLANK('By Round'!I11),"",'By Round'!I11)</f>
+        <f>IF(ISBLANK('By Round'!I55),"",'By Round'!I55)</f>
         <v/>
       </c>
       <c r="J12">
-        <f>IF(ISBLANK('By Round'!J11),"",'By Round'!J11)</f>
+        <f>IF(ISBLANK('By Round'!J55),"",'By Round'!J55)</f>
         <v/>
       </c>
       <c r="K12">
-        <f>IF(ISBLANK('By Round'!K11),"",'By Round'!K11)</f>
+        <f>IF(ISBLANK('By Round'!K55),"",'By Round'!K55)</f>
         <v/>
       </c>
       <c r="L12" s="12">
-        <f>SUM(Z12:AB12)</f>
+        <f>AVERAGE(Z12:AB12)</f>
         <v/>
       </c>
       <c r="M12" s="13">
-        <f>SUM(AC12:AE12)</f>
+        <f>AVERAGE(AC12:AE12)</f>
         <v/>
       </c>
       <c r="N12" s="8">
@@ -2307,11 +2307,11 @@
         <v/>
       </c>
       <c r="L13" s="12">
-        <f>SUM(Z13:AB13)</f>
+        <f>AVERAGE(Z13:AB13)</f>
         <v/>
       </c>
       <c r="M13" s="13">
-        <f>SUM(AC13:AE13)</f>
+        <f>AVERAGE(AC13:AE13)</f>
         <v/>
       </c>
       <c r="N13" s="8">
@@ -2390,51 +2390,51 @@
     <row r="14">
       <c r="A14" s="15" t="n"/>
       <c r="B14" s="16">
-        <f>'By Round'!A51</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C14" s="16">
-        <f>'By Round'!B55</f>
+        <f>'By Round'!B5</f>
         <v/>
       </c>
       <c r="D14" s="16">
-        <f>'By Round'!C55</f>
+        <f>'By Round'!C5</f>
         <v/>
       </c>
       <c r="E14" s="16">
-        <f>'By Round'!D55</f>
+        <f>'By Round'!D5</f>
         <v/>
       </c>
       <c r="F14" s="16">
-        <f>IF(ISBLANK('By Round'!F55),"",'By Round'!F55)</f>
+        <f>IF(ISBLANK('By Round'!F5),"",'By Round'!F5)</f>
         <v/>
       </c>
       <c r="G14" s="15">
-        <f>IF(ISBLANK('By Round'!G55),"",'By Round'!G55)</f>
+        <f>IF(ISBLANK('By Round'!G5),"",'By Round'!G5)</f>
         <v/>
       </c>
       <c r="H14" s="15">
-        <f>IF(ISBLANK('By Round'!H55),"",'By Round'!H55)</f>
+        <f>IF(ISBLANK('By Round'!H5),"",'By Round'!H5)</f>
         <v/>
       </c>
       <c r="I14" s="15">
-        <f>IF(ISBLANK('By Round'!I55),"",'By Round'!I55)</f>
+        <f>IF(ISBLANK('By Round'!I5),"",'By Round'!I5)</f>
         <v/>
       </c>
       <c r="J14" s="15">
-        <f>IF(ISBLANK('By Round'!J55),"",'By Round'!J55)</f>
+        <f>IF(ISBLANK('By Round'!J5),"",'By Round'!J5)</f>
         <v/>
       </c>
       <c r="K14" s="15">
-        <f>IF(ISBLANK('By Round'!K55),"",'By Round'!K55)</f>
+        <f>IF(ISBLANK('By Round'!K5),"",'By Round'!K5)</f>
         <v/>
       </c>
       <c r="L14" s="17">
-        <f>SUM(Z14:AB14)</f>
+        <f>AVERAGE(Z14:AB14)</f>
         <v/>
       </c>
       <c r="M14" s="18">
-        <f>SUM(AC14:AE14)</f>
+        <f>AVERAGE(AC14:AE14)</f>
         <v/>
       </c>
       <c r="N14" s="19">
@@ -2515,51 +2515,51 @@
         <v>4</v>
       </c>
       <c r="B15" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A11</f>
         <v/>
       </c>
       <c r="C15" s="11">
-        <f>'By Round'!B5</f>
+        <f>'By Round'!B11</f>
         <v/>
       </c>
       <c r="D15" s="11">
-        <f>'By Round'!C5</f>
+        <f>'By Round'!C11</f>
         <v/>
       </c>
       <c r="E15" s="11">
-        <f>'By Round'!D5</f>
+        <f>'By Round'!D11</f>
         <v/>
       </c>
       <c r="F15" s="11">
-        <f>IF(ISBLANK('By Round'!F6),"",'By Round'!F6)</f>
+        <f>IF(ISBLANK('By Round'!F12),"",'By Round'!F12)</f>
         <v/>
       </c>
       <c r="G15">
-        <f>IF(ISBLANK('By Round'!G6),"",'By Round'!G6)</f>
+        <f>IF(ISBLANK('By Round'!G12),"",'By Round'!G12)</f>
         <v/>
       </c>
       <c r="H15">
-        <f>IF(ISBLANK('By Round'!H6),"",'By Round'!H6)</f>
+        <f>IF(ISBLANK('By Round'!H12),"",'By Round'!H12)</f>
         <v/>
       </c>
       <c r="I15">
-        <f>IF(ISBLANK('By Round'!I6),"",'By Round'!I6)</f>
+        <f>IF(ISBLANK('By Round'!I12),"",'By Round'!I12)</f>
         <v/>
       </c>
       <c r="J15">
-        <f>IF(ISBLANK('By Round'!J6),"",'By Round'!J6)</f>
+        <f>IF(ISBLANK('By Round'!J12),"",'By Round'!J12)</f>
         <v/>
       </c>
       <c r="K15">
-        <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
+        <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
         <v/>
       </c>
       <c r="L15" s="12">
-        <f>SUM(Z15:AB15)</f>
+        <f>AVERAGE(Z15:AB15)</f>
         <v/>
       </c>
       <c r="M15" s="13">
-        <f>SUM(AC15:AE15)</f>
+        <f>AVERAGE(AC15:AE15)</f>
         <v/>
       </c>
       <c r="N15" s="8">
@@ -2637,51 +2637,51 @@
     </row>
     <row r="16">
       <c r="B16" s="11">
-        <f>'By Round'!A11</f>
+        <f>'By Round'!A51</f>
         <v/>
       </c>
       <c r="C16" s="11">
-        <f>'By Round'!B11</f>
+        <f>'By Round'!B55</f>
         <v/>
       </c>
       <c r="D16" s="11">
-        <f>'By Round'!C11</f>
+        <f>'By Round'!C55</f>
         <v/>
       </c>
       <c r="E16" s="11">
-        <f>'By Round'!D11</f>
+        <f>'By Round'!D55</f>
         <v/>
       </c>
       <c r="F16" s="11">
-        <f>IF(ISBLANK('By Round'!F12),"",'By Round'!F12)</f>
+        <f>IF(ISBLANK('By Round'!F56),"",'By Round'!F56)</f>
         <v/>
       </c>
       <c r="G16">
-        <f>IF(ISBLANK('By Round'!G12),"",'By Round'!G12)</f>
+        <f>IF(ISBLANK('By Round'!G56),"",'By Round'!G56)</f>
         <v/>
       </c>
       <c r="H16">
-        <f>IF(ISBLANK('By Round'!H12),"",'By Round'!H12)</f>
+        <f>IF(ISBLANK('By Round'!H56),"",'By Round'!H56)</f>
         <v/>
       </c>
       <c r="I16">
-        <f>IF(ISBLANK('By Round'!I12),"",'By Round'!I12)</f>
+        <f>IF(ISBLANK('By Round'!I56),"",'By Round'!I56)</f>
         <v/>
       </c>
       <c r="J16">
-        <f>IF(ISBLANK('By Round'!J12),"",'By Round'!J12)</f>
+        <f>IF(ISBLANK('By Round'!J56),"",'By Round'!J56)</f>
         <v/>
       </c>
       <c r="K16">
-        <f>IF(ISBLANK('By Round'!K12),"",'By Round'!K12)</f>
+        <f>IF(ISBLANK('By Round'!K56),"",'By Round'!K56)</f>
         <v/>
       </c>
       <c r="L16" s="12">
-        <f>SUM(Z16:AB16)</f>
+        <f>AVERAGE(Z16:AB16)</f>
         <v/>
       </c>
       <c r="M16" s="13">
-        <f>SUM(AC16:AE16)</f>
+        <f>AVERAGE(AC16:AE16)</f>
         <v/>
       </c>
       <c r="N16" s="8">
@@ -2799,11 +2799,11 @@
         <v/>
       </c>
       <c r="L17" s="12">
-        <f>SUM(Z17:AB17)</f>
+        <f>AVERAGE(Z17:AB17)</f>
         <v/>
       </c>
       <c r="M17" s="13">
-        <f>SUM(AC17:AE17)</f>
+        <f>AVERAGE(AC17:AE17)</f>
         <v/>
       </c>
       <c r="N17" s="8">
@@ -2882,51 +2882,51 @@
     <row r="18">
       <c r="A18" s="15" t="n"/>
       <c r="B18" s="16">
-        <f>'By Round'!A51</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C18" s="16">
-        <f>'By Round'!B55</f>
+        <f>'By Round'!B5</f>
         <v/>
       </c>
       <c r="D18" s="16">
-        <f>'By Round'!C55</f>
+        <f>'By Round'!C5</f>
         <v/>
       </c>
       <c r="E18" s="16">
-        <f>'By Round'!D55</f>
+        <f>'By Round'!D5</f>
         <v/>
       </c>
       <c r="F18" s="16">
-        <f>IF(ISBLANK('By Round'!F56),"",'By Round'!F56)</f>
+        <f>IF(ISBLANK('By Round'!F6),"",'By Round'!F6)</f>
         <v/>
       </c>
       <c r="G18" s="15">
-        <f>IF(ISBLANK('By Round'!G56),"",'By Round'!G56)</f>
+        <f>IF(ISBLANK('By Round'!G6),"",'By Round'!G6)</f>
         <v/>
       </c>
       <c r="H18" s="15">
-        <f>IF(ISBLANK('By Round'!H56),"",'By Round'!H56)</f>
+        <f>IF(ISBLANK('By Round'!H6),"",'By Round'!H6)</f>
         <v/>
       </c>
       <c r="I18" s="15">
-        <f>IF(ISBLANK('By Round'!I56),"",'By Round'!I56)</f>
+        <f>IF(ISBLANK('By Round'!I6),"",'By Round'!I6)</f>
         <v/>
       </c>
       <c r="J18" s="15">
-        <f>IF(ISBLANK('By Round'!J56),"",'By Round'!J56)</f>
+        <f>IF(ISBLANK('By Round'!J6),"",'By Round'!J6)</f>
         <v/>
       </c>
       <c r="K18" s="15">
-        <f>IF(ISBLANK('By Round'!K56),"",'By Round'!K56)</f>
+        <f>IF(ISBLANK('By Round'!K6),"",'By Round'!K6)</f>
         <v/>
       </c>
       <c r="L18" s="17">
-        <f>SUM(Z18:AB18)</f>
+        <f>AVERAGE(Z18:AB18)</f>
         <v/>
       </c>
       <c r="M18" s="18">
-        <f>SUM(AC18:AE18)</f>
+        <f>AVERAGE(AC18:AE18)</f>
         <v/>
       </c>
       <c r="N18" s="19">
@@ -3007,51 +3007,51 @@
         <v>5</v>
       </c>
       <c r="B19" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A19</f>
         <v/>
       </c>
       <c r="C19" s="11">
-        <f>'By Round'!B7</f>
+        <f>'By Round'!B19</f>
         <v/>
       </c>
       <c r="D19" s="11">
-        <f>'By Round'!C7</f>
+        <f>'By Round'!C19</f>
         <v/>
       </c>
       <c r="E19" s="11">
-        <f>'By Round'!D7</f>
+        <f>'By Round'!D19</f>
         <v/>
       </c>
       <c r="F19" s="11">
-        <f>IF(ISBLANK('By Round'!F7),"",'By Round'!F7)</f>
+        <f>IF(ISBLANK('By Round'!F19),"",'By Round'!F19)</f>
         <v/>
       </c>
       <c r="G19">
-        <f>IF(ISBLANK('By Round'!G7),"",'By Round'!G7)</f>
+        <f>IF(ISBLANK('By Round'!G19),"",'By Round'!G19)</f>
         <v/>
       </c>
       <c r="H19">
-        <f>IF(ISBLANK('By Round'!H7),"",'By Round'!H7)</f>
+        <f>IF(ISBLANK('By Round'!H19),"",'By Round'!H19)</f>
         <v/>
       </c>
       <c r="I19">
-        <f>IF(ISBLANK('By Round'!I7),"",'By Round'!I7)</f>
+        <f>IF(ISBLANK('By Round'!I19),"",'By Round'!I19)</f>
         <v/>
       </c>
       <c r="J19">
-        <f>IF(ISBLANK('By Round'!J7),"",'By Round'!J7)</f>
+        <f>IF(ISBLANK('By Round'!J19),"",'By Round'!J19)</f>
         <v/>
       </c>
       <c r="K19">
-        <f>IF(ISBLANK('By Round'!K7),"",'By Round'!K7)</f>
+        <f>IF(ISBLANK('By Round'!K19),"",'By Round'!K19)</f>
         <v/>
       </c>
       <c r="L19" s="12">
-        <f>SUM(Z19:AB19)</f>
+        <f>AVERAGE(Z19:AB19)</f>
         <v/>
       </c>
       <c r="M19" s="13">
-        <f>SUM(AC19:AE19)</f>
+        <f>AVERAGE(AC19:AE19)</f>
         <v/>
       </c>
       <c r="N19" s="8">
@@ -3129,51 +3129,51 @@
     </row>
     <row r="20">
       <c r="B20" s="11">
-        <f>'By Round'!A11</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C20" s="11">
-        <f>'By Round'!B13</f>
+        <f>'By Round'!B7</f>
         <v/>
       </c>
       <c r="D20" s="11">
-        <f>'By Round'!C13</f>
+        <f>'By Round'!C7</f>
         <v/>
       </c>
       <c r="E20" s="11">
-        <f>'By Round'!D13</f>
+        <f>'By Round'!D7</f>
         <v/>
       </c>
       <c r="F20" s="11">
-        <f>IF(ISBLANK('By Round'!F13),"",'By Round'!F13)</f>
+        <f>IF(ISBLANK('By Round'!F7),"",'By Round'!F7)</f>
         <v/>
       </c>
       <c r="G20">
-        <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
+        <f>IF(ISBLANK('By Round'!G7),"",'By Round'!G7)</f>
         <v/>
       </c>
       <c r="H20">
-        <f>IF(ISBLANK('By Round'!H13),"",'By Round'!H13)</f>
+        <f>IF(ISBLANK('By Round'!H7),"",'By Round'!H7)</f>
         <v/>
       </c>
       <c r="I20">
-        <f>IF(ISBLANK('By Round'!I13),"",'By Round'!I13)</f>
+        <f>IF(ISBLANK('By Round'!I7),"",'By Round'!I7)</f>
         <v/>
       </c>
       <c r="J20">
-        <f>IF(ISBLANK('By Round'!J13),"",'By Round'!J13)</f>
+        <f>IF(ISBLANK('By Round'!J7),"",'By Round'!J7)</f>
         <v/>
       </c>
       <c r="K20">
-        <f>IF(ISBLANK('By Round'!K13),"",'By Round'!K13)</f>
+        <f>IF(ISBLANK('By Round'!K7),"",'By Round'!K7)</f>
         <v/>
       </c>
       <c r="L20" s="12">
-        <f>SUM(Z20:AB20)</f>
+        <f>AVERAGE(Z20:AB20)</f>
         <v/>
       </c>
       <c r="M20" s="13">
-        <f>SUM(AC20:AE20)</f>
+        <f>AVERAGE(AC20:AE20)</f>
         <v/>
       </c>
       <c r="N20" s="8">
@@ -3251,51 +3251,51 @@
     </row>
     <row r="21">
       <c r="B21" s="11">
-        <f>'By Round'!A19</f>
+        <f>'By Round'!A43</f>
         <v/>
       </c>
       <c r="C21" s="11">
-        <f>'By Round'!B19</f>
+        <f>'By Round'!B49</f>
         <v/>
       </c>
       <c r="D21" s="11">
-        <f>'By Round'!C19</f>
+        <f>'By Round'!C49</f>
         <v/>
       </c>
       <c r="E21" s="11">
-        <f>'By Round'!D19</f>
+        <f>'By Round'!D49</f>
         <v/>
       </c>
       <c r="F21" s="11">
-        <f>IF(ISBLANK('By Round'!F19),"",'By Round'!F19)</f>
+        <f>IF(ISBLANK('By Round'!F49),"",'By Round'!F49)</f>
         <v/>
       </c>
       <c r="G21">
-        <f>IF(ISBLANK('By Round'!G19),"",'By Round'!G19)</f>
+        <f>IF(ISBLANK('By Round'!G49),"",'By Round'!G49)</f>
         <v/>
       </c>
       <c r="H21">
-        <f>IF(ISBLANK('By Round'!H19),"",'By Round'!H19)</f>
+        <f>IF(ISBLANK('By Round'!H49),"",'By Round'!H49)</f>
         <v/>
       </c>
       <c r="I21">
-        <f>IF(ISBLANK('By Round'!I19),"",'By Round'!I19)</f>
+        <f>IF(ISBLANK('By Round'!I49),"",'By Round'!I49)</f>
         <v/>
       </c>
       <c r="J21">
-        <f>IF(ISBLANK('By Round'!J19),"",'By Round'!J19)</f>
+        <f>IF(ISBLANK('By Round'!J49),"",'By Round'!J49)</f>
         <v/>
       </c>
       <c r="K21">
-        <f>IF(ISBLANK('By Round'!K19),"",'By Round'!K19)</f>
+        <f>IF(ISBLANK('By Round'!K49),"",'By Round'!K49)</f>
         <v/>
       </c>
       <c r="L21" s="12">
-        <f>SUM(Z21:AB21)</f>
+        <f>AVERAGE(Z21:AB21)</f>
         <v/>
       </c>
       <c r="M21" s="13">
-        <f>SUM(AC21:AE21)</f>
+        <f>AVERAGE(AC21:AE21)</f>
         <v/>
       </c>
       <c r="N21" s="8">
@@ -3374,51 +3374,51 @@
     <row r="22">
       <c r="A22" s="15" t="n"/>
       <c r="B22" s="16">
-        <f>'By Round'!A43</f>
+        <f>'By Round'!A11</f>
         <v/>
       </c>
       <c r="C22" s="16">
-        <f>'By Round'!B49</f>
+        <f>'By Round'!B13</f>
         <v/>
       </c>
       <c r="D22" s="16">
-        <f>'By Round'!C49</f>
+        <f>'By Round'!C13</f>
         <v/>
       </c>
       <c r="E22" s="16">
-        <f>'By Round'!D49</f>
+        <f>'By Round'!D13</f>
         <v/>
       </c>
       <c r="F22" s="16">
-        <f>IF(ISBLANK('By Round'!F49),"",'By Round'!F49)</f>
+        <f>IF(ISBLANK('By Round'!F13),"",'By Round'!F13)</f>
         <v/>
       </c>
       <c r="G22" s="15">
-        <f>IF(ISBLANK('By Round'!G49),"",'By Round'!G49)</f>
+        <f>IF(ISBLANK('By Round'!G13),"",'By Round'!G13)</f>
         <v/>
       </c>
       <c r="H22" s="15">
-        <f>IF(ISBLANK('By Round'!H49),"",'By Round'!H49)</f>
+        <f>IF(ISBLANK('By Round'!H13),"",'By Round'!H13)</f>
         <v/>
       </c>
       <c r="I22" s="15">
-        <f>IF(ISBLANK('By Round'!I49),"",'By Round'!I49)</f>
+        <f>IF(ISBLANK('By Round'!I13),"",'By Round'!I13)</f>
         <v/>
       </c>
       <c r="J22" s="15">
-        <f>IF(ISBLANK('By Round'!J49),"",'By Round'!J49)</f>
+        <f>IF(ISBLANK('By Round'!J13),"",'By Round'!J13)</f>
         <v/>
       </c>
       <c r="K22" s="15">
-        <f>IF(ISBLANK('By Round'!K49),"",'By Round'!K49)</f>
+        <f>IF(ISBLANK('By Round'!K13),"",'By Round'!K13)</f>
         <v/>
       </c>
       <c r="L22" s="17">
-        <f>SUM(Z22:AB22)</f>
+        <f>AVERAGE(Z22:AB22)</f>
         <v/>
       </c>
       <c r="M22" s="18">
-        <f>SUM(AC22:AE22)</f>
+        <f>AVERAGE(AC22:AE22)</f>
         <v/>
       </c>
       <c r="N22" s="19">
@@ -3499,51 +3499,51 @@
         <v>6</v>
       </c>
       <c r="B23" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A19</f>
         <v/>
       </c>
       <c r="C23" s="11">
-        <f>'By Round'!B7</f>
+        <f>'By Round'!B19</f>
         <v/>
       </c>
       <c r="D23" s="11">
-        <f>'By Round'!C7</f>
+        <f>'By Round'!C19</f>
         <v/>
       </c>
       <c r="E23" s="11">
-        <f>'By Round'!D7</f>
+        <f>'By Round'!D19</f>
         <v/>
       </c>
       <c r="F23" s="11">
-        <f>IF(ISBLANK('By Round'!F8),"",'By Round'!F8)</f>
+        <f>IF(ISBLANK('By Round'!F20),"",'By Round'!F20)</f>
         <v/>
       </c>
       <c r="G23">
-        <f>IF(ISBLANK('By Round'!G8),"",'By Round'!G8)</f>
+        <f>IF(ISBLANK('By Round'!G20),"",'By Round'!G20)</f>
         <v/>
       </c>
       <c r="H23">
-        <f>IF(ISBLANK('By Round'!H8),"",'By Round'!H8)</f>
+        <f>IF(ISBLANK('By Round'!H20),"",'By Round'!H20)</f>
         <v/>
       </c>
       <c r="I23">
-        <f>IF(ISBLANK('By Round'!I8),"",'By Round'!I8)</f>
+        <f>IF(ISBLANK('By Round'!I20),"",'By Round'!I20)</f>
         <v/>
       </c>
       <c r="J23">
-        <f>IF(ISBLANK('By Round'!J8),"",'By Round'!J8)</f>
+        <f>IF(ISBLANK('By Round'!J20),"",'By Round'!J20)</f>
         <v/>
       </c>
       <c r="K23">
-        <f>IF(ISBLANK('By Round'!K8),"",'By Round'!K8)</f>
+        <f>IF(ISBLANK('By Round'!K20),"",'By Round'!K20)</f>
         <v/>
       </c>
       <c r="L23" s="12">
-        <f>SUM(Z23:AB23)</f>
+        <f>AVERAGE(Z23:AB23)</f>
         <v/>
       </c>
       <c r="M23" s="13">
-        <f>SUM(AC23:AE23)</f>
+        <f>AVERAGE(AC23:AE23)</f>
         <v/>
       </c>
       <c r="N23" s="8">
@@ -3621,51 +3621,51 @@
     </row>
     <row r="24">
       <c r="B24" s="11">
-        <f>'By Round'!A11</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C24" s="11">
-        <f>'By Round'!B13</f>
+        <f>'By Round'!B7</f>
         <v/>
       </c>
       <c r="D24" s="11">
-        <f>'By Round'!C13</f>
+        <f>'By Round'!C7</f>
         <v/>
       </c>
       <c r="E24" s="11">
-        <f>'By Round'!D13</f>
+        <f>'By Round'!D7</f>
         <v/>
       </c>
       <c r="F24" s="11">
-        <f>IF(ISBLANK('By Round'!F14),"",'By Round'!F14)</f>
+        <f>IF(ISBLANK('By Round'!F8),"",'By Round'!F8)</f>
         <v/>
       </c>
       <c r="G24">
-        <f>IF(ISBLANK('By Round'!G14),"",'By Round'!G14)</f>
+        <f>IF(ISBLANK('By Round'!G8),"",'By Round'!G8)</f>
         <v/>
       </c>
       <c r="H24">
-        <f>IF(ISBLANK('By Round'!H14),"",'By Round'!H14)</f>
+        <f>IF(ISBLANK('By Round'!H8),"",'By Round'!H8)</f>
         <v/>
       </c>
       <c r="I24">
-        <f>IF(ISBLANK('By Round'!I14),"",'By Round'!I14)</f>
+        <f>IF(ISBLANK('By Round'!I8),"",'By Round'!I8)</f>
         <v/>
       </c>
       <c r="J24">
-        <f>IF(ISBLANK('By Round'!J14),"",'By Round'!J14)</f>
+        <f>IF(ISBLANK('By Round'!J8),"",'By Round'!J8)</f>
         <v/>
       </c>
       <c r="K24">
-        <f>IF(ISBLANK('By Round'!K14),"",'By Round'!K14)</f>
+        <f>IF(ISBLANK('By Round'!K8),"",'By Round'!K8)</f>
         <v/>
       </c>
       <c r="L24" s="12">
-        <f>SUM(Z24:AB24)</f>
+        <f>AVERAGE(Z24:AB24)</f>
         <v/>
       </c>
       <c r="M24" s="13">
-        <f>SUM(AC24:AE24)</f>
+        <f>AVERAGE(AC24:AE24)</f>
         <v/>
       </c>
       <c r="N24" s="8">
@@ -3743,51 +3743,51 @@
     </row>
     <row r="25">
       <c r="B25" s="11">
-        <f>'By Round'!A19</f>
+        <f>'By Round'!A43</f>
         <v/>
       </c>
       <c r="C25" s="11">
-        <f>'By Round'!B19</f>
+        <f>'By Round'!B49</f>
         <v/>
       </c>
       <c r="D25" s="11">
-        <f>'By Round'!C19</f>
+        <f>'By Round'!C49</f>
         <v/>
       </c>
       <c r="E25" s="11">
-        <f>'By Round'!D19</f>
+        <f>'By Round'!D49</f>
         <v/>
       </c>
       <c r="F25" s="11">
-        <f>IF(ISBLANK('By Round'!F20),"",'By Round'!F20)</f>
+        <f>IF(ISBLANK('By Round'!F50),"",'By Round'!F50)</f>
         <v/>
       </c>
       <c r="G25">
-        <f>IF(ISBLANK('By Round'!G20),"",'By Round'!G20)</f>
+        <f>IF(ISBLANK('By Round'!G50),"",'By Round'!G50)</f>
         <v/>
       </c>
       <c r="H25">
-        <f>IF(ISBLANK('By Round'!H20),"",'By Round'!H20)</f>
+        <f>IF(ISBLANK('By Round'!H50),"",'By Round'!H50)</f>
         <v/>
       </c>
       <c r="I25">
-        <f>IF(ISBLANK('By Round'!I20),"",'By Round'!I20)</f>
+        <f>IF(ISBLANK('By Round'!I50),"",'By Round'!I50)</f>
         <v/>
       </c>
       <c r="J25">
-        <f>IF(ISBLANK('By Round'!J20),"",'By Round'!J20)</f>
+        <f>IF(ISBLANK('By Round'!J50),"",'By Round'!J50)</f>
         <v/>
       </c>
       <c r="K25">
-        <f>IF(ISBLANK('By Round'!K20),"",'By Round'!K20)</f>
+        <f>IF(ISBLANK('By Round'!K50),"",'By Round'!K50)</f>
         <v/>
       </c>
       <c r="L25" s="12">
-        <f>SUM(Z25:AB25)</f>
+        <f>AVERAGE(Z25:AB25)</f>
         <v/>
       </c>
       <c r="M25" s="13">
-        <f>SUM(AC25:AE25)</f>
+        <f>AVERAGE(AC25:AE25)</f>
         <v/>
       </c>
       <c r="N25" s="8">
@@ -3866,51 +3866,51 @@
     <row r="26">
       <c r="A26" s="15" t="n"/>
       <c r="B26" s="16">
-        <f>'By Round'!A43</f>
+        <f>'By Round'!A11</f>
         <v/>
       </c>
       <c r="C26" s="16">
-        <f>'By Round'!B49</f>
+        <f>'By Round'!B13</f>
         <v/>
       </c>
       <c r="D26" s="16">
-        <f>'By Round'!C49</f>
+        <f>'By Round'!C13</f>
         <v/>
       </c>
       <c r="E26" s="16">
-        <f>'By Round'!D49</f>
+        <f>'By Round'!D13</f>
         <v/>
       </c>
       <c r="F26" s="16">
-        <f>IF(ISBLANK('By Round'!F50),"",'By Round'!F50)</f>
+        <f>IF(ISBLANK('By Round'!F14),"",'By Round'!F14)</f>
         <v/>
       </c>
       <c r="G26" s="15">
-        <f>IF(ISBLANK('By Round'!G50),"",'By Round'!G50)</f>
+        <f>IF(ISBLANK('By Round'!G14),"",'By Round'!G14)</f>
         <v/>
       </c>
       <c r="H26" s="15">
-        <f>IF(ISBLANK('By Round'!H50),"",'By Round'!H50)</f>
+        <f>IF(ISBLANK('By Round'!H14),"",'By Round'!H14)</f>
         <v/>
       </c>
       <c r="I26" s="15">
-        <f>IF(ISBLANK('By Round'!I50),"",'By Round'!I50)</f>
+        <f>IF(ISBLANK('By Round'!I14),"",'By Round'!I14)</f>
         <v/>
       </c>
       <c r="J26" s="15">
-        <f>IF(ISBLANK('By Round'!J50),"",'By Round'!J50)</f>
+        <f>IF(ISBLANK('By Round'!J14),"",'By Round'!J14)</f>
         <v/>
       </c>
       <c r="K26" s="15">
-        <f>IF(ISBLANK('By Round'!K50),"",'By Round'!K50)</f>
+        <f>IF(ISBLANK('By Round'!K14),"",'By Round'!K14)</f>
         <v/>
       </c>
       <c r="L26" s="17">
-        <f>SUM(Z26:AB26)</f>
+        <f>AVERAGE(Z26:AB26)</f>
         <v/>
       </c>
       <c r="M26" s="18">
-        <f>SUM(AC26:AE26)</f>
+        <f>AVERAGE(AC26:AE26)</f>
         <v/>
       </c>
       <c r="N26" s="19">
@@ -3991,51 +3991,51 @@
         <v>7</v>
       </c>
       <c r="B27" s="11">
-        <f>'By Round'!A11</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C27" s="11">
-        <f>'By Round'!B15</f>
+        <f>'By Round'!B27</f>
         <v/>
       </c>
       <c r="D27" s="11">
-        <f>'By Round'!C15</f>
+        <f>'By Round'!C27</f>
         <v/>
       </c>
       <c r="E27" s="11">
-        <f>'By Round'!D15</f>
+        <f>'By Round'!D27</f>
         <v/>
       </c>
       <c r="F27" s="11">
-        <f>IF(ISBLANK('By Round'!F15),"",'By Round'!F15)</f>
+        <f>IF(ISBLANK('By Round'!F27),"",'By Round'!F27)</f>
         <v/>
       </c>
       <c r="G27">
-        <f>IF(ISBLANK('By Round'!G15),"",'By Round'!G15)</f>
+        <f>IF(ISBLANK('By Round'!G27),"",'By Round'!G27)</f>
         <v/>
       </c>
       <c r="H27">
-        <f>IF(ISBLANK('By Round'!H15),"",'By Round'!H15)</f>
+        <f>IF(ISBLANK('By Round'!H27),"",'By Round'!H27)</f>
         <v/>
       </c>
       <c r="I27">
-        <f>IF(ISBLANK('By Round'!I15),"",'By Round'!I15)</f>
+        <f>IF(ISBLANK('By Round'!I27),"",'By Round'!I27)</f>
         <v/>
       </c>
       <c r="J27">
-        <f>IF(ISBLANK('By Round'!J15),"",'By Round'!J15)</f>
+        <f>IF(ISBLANK('By Round'!J27),"",'By Round'!J27)</f>
         <v/>
       </c>
       <c r="K27">
-        <f>IF(ISBLANK('By Round'!K15),"",'By Round'!K15)</f>
+        <f>IF(ISBLANK('By Round'!K27),"",'By Round'!K27)</f>
         <v/>
       </c>
       <c r="L27" s="12">
-        <f>SUM(Z27:AB27)</f>
+        <f>AVERAGE(Z27:AB27)</f>
         <v/>
       </c>
       <c r="M27" s="13">
-        <f>SUM(AC27:AE27)</f>
+        <f>AVERAGE(AC27:AE27)</f>
         <v/>
       </c>
       <c r="N27" s="8">
@@ -4153,11 +4153,11 @@
         <v/>
       </c>
       <c r="L28" s="12">
-        <f>SUM(Z28:AB28)</f>
+        <f>AVERAGE(Z28:AB28)</f>
         <v/>
       </c>
       <c r="M28" s="13">
-        <f>SUM(AC28:AE28)</f>
+        <f>AVERAGE(AC28:AE28)</f>
         <v/>
       </c>
       <c r="N28" s="8">
@@ -4235,51 +4235,51 @@
     </row>
     <row r="29">
       <c r="B29" s="11">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A11</f>
         <v/>
       </c>
       <c r="C29" s="11">
-        <f>'By Round'!B27</f>
+        <f>'By Round'!B15</f>
         <v/>
       </c>
       <c r="D29" s="11">
-        <f>'By Round'!C27</f>
+        <f>'By Round'!C15</f>
         <v/>
       </c>
       <c r="E29" s="11">
-        <f>'By Round'!D27</f>
+        <f>'By Round'!D15</f>
         <v/>
       </c>
       <c r="F29" s="11">
-        <f>IF(ISBLANK('By Round'!F27),"",'By Round'!F27)</f>
+        <f>IF(ISBLANK('By Round'!F15),"",'By Round'!F15)</f>
         <v/>
       </c>
       <c r="G29">
-        <f>IF(ISBLANK('By Round'!G27),"",'By Round'!G27)</f>
+        <f>IF(ISBLANK('By Round'!G15),"",'By Round'!G15)</f>
         <v/>
       </c>
       <c r="H29">
-        <f>IF(ISBLANK('By Round'!H27),"",'By Round'!H27)</f>
+        <f>IF(ISBLANK('By Round'!H15),"",'By Round'!H15)</f>
         <v/>
       </c>
       <c r="I29">
-        <f>IF(ISBLANK('By Round'!I27),"",'By Round'!I27)</f>
+        <f>IF(ISBLANK('By Round'!I15),"",'By Round'!I15)</f>
         <v/>
       </c>
       <c r="J29">
-        <f>IF(ISBLANK('By Round'!J27),"",'By Round'!J27)</f>
+        <f>IF(ISBLANK('By Round'!J15),"",'By Round'!J15)</f>
         <v/>
       </c>
       <c r="K29">
-        <f>IF(ISBLANK('By Round'!K27),"",'By Round'!K27)</f>
+        <f>IF(ISBLANK('By Round'!K15),"",'By Round'!K15)</f>
         <v/>
       </c>
       <c r="L29" s="12">
-        <f>SUM(Z29:AB29)</f>
+        <f>AVERAGE(Z29:AB29)</f>
         <v/>
       </c>
       <c r="M29" s="13">
-        <f>SUM(AC29:AE29)</f>
+        <f>AVERAGE(AC29:AE29)</f>
         <v/>
       </c>
       <c r="N29" s="8">
@@ -4398,11 +4398,11 @@
         <v/>
       </c>
       <c r="L30" s="17">
-        <f>SUM(Z30:AB30)</f>
+        <f>AVERAGE(Z30:AB30)</f>
         <v/>
       </c>
       <c r="M30" s="18">
-        <f>SUM(AC30:AE30)</f>
+        <f>AVERAGE(AC30:AE30)</f>
         <v/>
       </c>
       <c r="N30" s="19">
@@ -4483,51 +4483,51 @@
         <v>8</v>
       </c>
       <c r="B31" s="11">
-        <f>'By Round'!A11</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C31" s="11">
-        <f>'By Round'!B15</f>
+        <f>'By Round'!B27</f>
         <v/>
       </c>
       <c r="D31" s="11">
-        <f>'By Round'!C15</f>
+        <f>'By Round'!C27</f>
         <v/>
       </c>
       <c r="E31" s="11">
-        <f>'By Round'!D15</f>
+        <f>'By Round'!D27</f>
         <v/>
       </c>
       <c r="F31" s="11">
-        <f>IF(ISBLANK('By Round'!F16),"",'By Round'!F16)</f>
+        <f>IF(ISBLANK('By Round'!F28),"",'By Round'!F28)</f>
         <v/>
       </c>
       <c r="G31">
-        <f>IF(ISBLANK('By Round'!G16),"",'By Round'!G16)</f>
+        <f>IF(ISBLANK('By Round'!G28),"",'By Round'!G28)</f>
         <v/>
       </c>
       <c r="H31">
-        <f>IF(ISBLANK('By Round'!H16),"",'By Round'!H16)</f>
+        <f>IF(ISBLANK('By Round'!H28),"",'By Round'!H28)</f>
         <v/>
       </c>
       <c r="I31">
-        <f>IF(ISBLANK('By Round'!I16),"",'By Round'!I16)</f>
+        <f>IF(ISBLANK('By Round'!I28),"",'By Round'!I28)</f>
         <v/>
       </c>
       <c r="J31">
-        <f>IF(ISBLANK('By Round'!J16),"",'By Round'!J16)</f>
+        <f>IF(ISBLANK('By Round'!J28),"",'By Round'!J28)</f>
         <v/>
       </c>
       <c r="K31">
-        <f>IF(ISBLANK('By Round'!K16),"",'By Round'!K16)</f>
+        <f>IF(ISBLANK('By Round'!K28),"",'By Round'!K28)</f>
         <v/>
       </c>
       <c r="L31" s="12">
-        <f>SUM(Z31:AB31)</f>
+        <f>AVERAGE(Z31:AB31)</f>
         <v/>
       </c>
       <c r="M31" s="13">
-        <f>SUM(AC31:AE31)</f>
+        <f>AVERAGE(AC31:AE31)</f>
         <v/>
       </c>
       <c r="N31" s="8">
@@ -4645,11 +4645,11 @@
         <v/>
       </c>
       <c r="L32" s="12">
-        <f>SUM(Z32:AB32)</f>
+        <f>AVERAGE(Z32:AB32)</f>
         <v/>
       </c>
       <c r="M32" s="13">
-        <f>SUM(AC32:AE32)</f>
+        <f>AVERAGE(AC32:AE32)</f>
         <v/>
       </c>
       <c r="N32" s="8">
@@ -4727,51 +4727,51 @@
     </row>
     <row r="33">
       <c r="B33" s="11">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A11</f>
         <v/>
       </c>
       <c r="C33" s="11">
-        <f>'By Round'!B27</f>
+        <f>'By Round'!B15</f>
         <v/>
       </c>
       <c r="D33" s="11">
-        <f>'By Round'!C27</f>
+        <f>'By Round'!C15</f>
         <v/>
       </c>
       <c r="E33" s="11">
-        <f>'By Round'!D27</f>
+        <f>'By Round'!D15</f>
         <v/>
       </c>
       <c r="F33" s="11">
-        <f>IF(ISBLANK('By Round'!F28),"",'By Round'!F28)</f>
+        <f>IF(ISBLANK('By Round'!F16),"",'By Round'!F16)</f>
         <v/>
       </c>
       <c r="G33">
-        <f>IF(ISBLANK('By Round'!G28),"",'By Round'!G28)</f>
+        <f>IF(ISBLANK('By Round'!G16),"",'By Round'!G16)</f>
         <v/>
       </c>
       <c r="H33">
-        <f>IF(ISBLANK('By Round'!H28),"",'By Round'!H28)</f>
+        <f>IF(ISBLANK('By Round'!H16),"",'By Round'!H16)</f>
         <v/>
       </c>
       <c r="I33">
-        <f>IF(ISBLANK('By Round'!I28),"",'By Round'!I28)</f>
+        <f>IF(ISBLANK('By Round'!I16),"",'By Round'!I16)</f>
         <v/>
       </c>
       <c r="J33">
-        <f>IF(ISBLANK('By Round'!J28),"",'By Round'!J28)</f>
+        <f>IF(ISBLANK('By Round'!J16),"",'By Round'!J16)</f>
         <v/>
       </c>
       <c r="K33">
-        <f>IF(ISBLANK('By Round'!K28),"",'By Round'!K28)</f>
+        <f>IF(ISBLANK('By Round'!K16),"",'By Round'!K16)</f>
         <v/>
       </c>
       <c r="L33" s="12">
-        <f>SUM(Z33:AB33)</f>
+        <f>AVERAGE(Z33:AB33)</f>
         <v/>
       </c>
       <c r="M33" s="13">
-        <f>SUM(AC33:AE33)</f>
+        <f>AVERAGE(AC33:AE33)</f>
         <v/>
       </c>
       <c r="N33" s="8">
@@ -4890,11 +4890,11 @@
         <v/>
       </c>
       <c r="L34" s="17">
-        <f>SUM(Z34:AB34)</f>
+        <f>AVERAGE(Z34:AB34)</f>
         <v/>
       </c>
       <c r="M34" s="18">
-        <f>SUM(AC34:AE34)</f>
+        <f>AVERAGE(AC34:AE34)</f>
         <v/>
       </c>
       <c r="N34" s="19">
@@ -4975,51 +4975,51 @@
         <v>9</v>
       </c>
       <c r="B35" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A35</f>
         <v/>
       </c>
       <c r="C35" s="11">
-        <f>'By Round'!B9</f>
+        <f>'By Round'!B35</f>
         <v/>
       </c>
       <c r="D35" s="11">
-        <f>'By Round'!C9</f>
+        <f>'By Round'!C35</f>
         <v/>
       </c>
       <c r="E35" s="11">
-        <f>'By Round'!D9</f>
+        <f>'By Round'!D35</f>
         <v/>
       </c>
       <c r="F35" s="11">
-        <f>IF(ISBLANK('By Round'!F9),"",'By Round'!F9)</f>
+        <f>IF(ISBLANK('By Round'!F35),"",'By Round'!F35)</f>
         <v/>
       </c>
       <c r="G35">
-        <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
+        <f>IF(ISBLANK('By Round'!G35),"",'By Round'!G35)</f>
         <v/>
       </c>
       <c r="H35">
-        <f>IF(ISBLANK('By Round'!H9),"",'By Round'!H9)</f>
+        <f>IF(ISBLANK('By Round'!H35),"",'By Round'!H35)</f>
         <v/>
       </c>
       <c r="I35">
-        <f>IF(ISBLANK('By Round'!I9),"",'By Round'!I9)</f>
+        <f>IF(ISBLANK('By Round'!I35),"",'By Round'!I35)</f>
         <v/>
       </c>
       <c r="J35">
-        <f>IF(ISBLANK('By Round'!J9),"",'By Round'!J9)</f>
+        <f>IF(ISBLANK('By Round'!J35),"",'By Round'!J35)</f>
         <v/>
       </c>
       <c r="K35">
-        <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
+        <f>IF(ISBLANK('By Round'!K35),"",'By Round'!K35)</f>
         <v/>
       </c>
       <c r="L35" s="12">
-        <f>SUM(Z35:AB35)</f>
+        <f>AVERAGE(Z35:AB35)</f>
         <v/>
       </c>
       <c r="M35" s="13">
-        <f>SUM(AC35:AE35)</f>
+        <f>AVERAGE(AC35:AE35)</f>
         <v/>
       </c>
       <c r="N35" s="8">
@@ -5097,51 +5097,51 @@
     </row>
     <row r="36">
       <c r="B36" s="11">
-        <f>'By Round'!A19</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C36" s="11">
-        <f>'By Round'!B23</f>
+        <f>'By Round'!B29</f>
         <v/>
       </c>
       <c r="D36" s="11">
-        <f>'By Round'!C23</f>
+        <f>'By Round'!C29</f>
         <v/>
       </c>
       <c r="E36" s="11">
-        <f>'By Round'!D23</f>
+        <f>'By Round'!D29</f>
         <v/>
       </c>
       <c r="F36" s="11">
-        <f>IF(ISBLANK('By Round'!F23),"",'By Round'!F23)</f>
+        <f>IF(ISBLANK('By Round'!F29),"",'By Round'!F29)</f>
         <v/>
       </c>
       <c r="G36">
-        <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
+        <f>IF(ISBLANK('By Round'!G29),"",'By Round'!G29)</f>
         <v/>
       </c>
       <c r="H36">
-        <f>IF(ISBLANK('By Round'!H23),"",'By Round'!H23)</f>
+        <f>IF(ISBLANK('By Round'!H29),"",'By Round'!H29)</f>
         <v/>
       </c>
       <c r="I36">
-        <f>IF(ISBLANK('By Round'!I23),"",'By Round'!I23)</f>
+        <f>IF(ISBLANK('By Round'!I29),"",'By Round'!I29)</f>
         <v/>
       </c>
       <c r="J36">
-        <f>IF(ISBLANK('By Round'!J23),"",'By Round'!J23)</f>
+        <f>IF(ISBLANK('By Round'!J29),"",'By Round'!J29)</f>
         <v/>
       </c>
       <c r="K36">
-        <f>IF(ISBLANK('By Round'!K23),"",'By Round'!K23)</f>
+        <f>IF(ISBLANK('By Round'!K29),"",'By Round'!K29)</f>
         <v/>
       </c>
       <c r="L36" s="12">
-        <f>SUM(Z36:AB36)</f>
+        <f>AVERAGE(Z36:AB36)</f>
         <v/>
       </c>
       <c r="M36" s="13">
-        <f>SUM(AC36:AE36)</f>
+        <f>AVERAGE(AC36:AE36)</f>
         <v/>
       </c>
       <c r="N36" s="8">
@@ -5219,51 +5219,51 @@
     </row>
     <row r="37">
       <c r="B37" s="11">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A19</f>
         <v/>
       </c>
       <c r="C37" s="11">
-        <f>'By Round'!B29</f>
+        <f>'By Round'!B23</f>
         <v/>
       </c>
       <c r="D37" s="11">
-        <f>'By Round'!C29</f>
+        <f>'By Round'!C23</f>
         <v/>
       </c>
       <c r="E37" s="11">
-        <f>'By Round'!D29</f>
+        <f>'By Round'!D23</f>
         <v/>
       </c>
       <c r="F37" s="11">
-        <f>IF(ISBLANK('By Round'!F29),"",'By Round'!F29)</f>
+        <f>IF(ISBLANK('By Round'!F23),"",'By Round'!F23)</f>
         <v/>
       </c>
       <c r="G37">
-        <f>IF(ISBLANK('By Round'!G29),"",'By Round'!G29)</f>
+        <f>IF(ISBLANK('By Round'!G23),"",'By Round'!G23)</f>
         <v/>
       </c>
       <c r="H37">
-        <f>IF(ISBLANK('By Round'!H29),"",'By Round'!H29)</f>
+        <f>IF(ISBLANK('By Round'!H23),"",'By Round'!H23)</f>
         <v/>
       </c>
       <c r="I37">
-        <f>IF(ISBLANK('By Round'!I29),"",'By Round'!I29)</f>
+        <f>IF(ISBLANK('By Round'!I23),"",'By Round'!I23)</f>
         <v/>
       </c>
       <c r="J37">
-        <f>IF(ISBLANK('By Round'!J29),"",'By Round'!J29)</f>
+        <f>IF(ISBLANK('By Round'!J23),"",'By Round'!J23)</f>
         <v/>
       </c>
       <c r="K37">
-        <f>IF(ISBLANK('By Round'!K29),"",'By Round'!K29)</f>
+        <f>IF(ISBLANK('By Round'!K23),"",'By Round'!K23)</f>
         <v/>
       </c>
       <c r="L37" s="12">
-        <f>SUM(Z37:AB37)</f>
+        <f>AVERAGE(Z37:AB37)</f>
         <v/>
       </c>
       <c r="M37" s="13">
-        <f>SUM(AC37:AE37)</f>
+        <f>AVERAGE(AC37:AE37)</f>
         <v/>
       </c>
       <c r="N37" s="8">
@@ -5342,51 +5342,51 @@
     <row r="38">
       <c r="A38" s="15" t="n"/>
       <c r="B38" s="16">
-        <f>'By Round'!A35</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C38" s="16">
-        <f>'By Round'!B35</f>
+        <f>'By Round'!B9</f>
         <v/>
       </c>
       <c r="D38" s="16">
-        <f>'By Round'!C35</f>
+        <f>'By Round'!C9</f>
         <v/>
       </c>
       <c r="E38" s="16">
-        <f>'By Round'!D35</f>
+        <f>'By Round'!D9</f>
         <v/>
       </c>
       <c r="F38" s="16">
-        <f>IF(ISBLANK('By Round'!F35),"",'By Round'!F35)</f>
+        <f>IF(ISBLANK('By Round'!F9),"",'By Round'!F9)</f>
         <v/>
       </c>
       <c r="G38" s="15">
-        <f>IF(ISBLANK('By Round'!G35),"",'By Round'!G35)</f>
+        <f>IF(ISBLANK('By Round'!G9),"",'By Round'!G9)</f>
         <v/>
       </c>
       <c r="H38" s="15">
-        <f>IF(ISBLANK('By Round'!H35),"",'By Round'!H35)</f>
+        <f>IF(ISBLANK('By Round'!H9),"",'By Round'!H9)</f>
         <v/>
       </c>
       <c r="I38" s="15">
-        <f>IF(ISBLANK('By Round'!I35),"",'By Round'!I35)</f>
+        <f>IF(ISBLANK('By Round'!I9),"",'By Round'!I9)</f>
         <v/>
       </c>
       <c r="J38" s="15">
-        <f>IF(ISBLANK('By Round'!J35),"",'By Round'!J35)</f>
+        <f>IF(ISBLANK('By Round'!J9),"",'By Round'!J9)</f>
         <v/>
       </c>
       <c r="K38" s="15">
-        <f>IF(ISBLANK('By Round'!K35),"",'By Round'!K35)</f>
+        <f>IF(ISBLANK('By Round'!K9),"",'By Round'!K9)</f>
         <v/>
       </c>
       <c r="L38" s="17">
-        <f>SUM(Z38:AB38)</f>
+        <f>AVERAGE(Z38:AB38)</f>
         <v/>
       </c>
       <c r="M38" s="18">
-        <f>SUM(AC38:AE38)</f>
+        <f>AVERAGE(AC38:AE38)</f>
         <v/>
       </c>
       <c r="N38" s="19">
@@ -5467,51 +5467,51 @@
         <v>10</v>
       </c>
       <c r="B39" s="11">
-        <f>'By Round'!A3</f>
+        <f>'By Round'!A35</f>
         <v/>
       </c>
       <c r="C39" s="11">
-        <f>'By Round'!B9</f>
+        <f>'By Round'!B35</f>
         <v/>
       </c>
       <c r="D39" s="11">
-        <f>'By Round'!C9</f>
+        <f>'By Round'!C35</f>
         <v/>
       </c>
       <c r="E39" s="11">
-        <f>'By Round'!D9</f>
+        <f>'By Round'!D35</f>
         <v/>
       </c>
       <c r="F39" s="11">
-        <f>IF(ISBLANK('By Round'!F10),"",'By Round'!F10)</f>
+        <f>IF(ISBLANK('By Round'!F36),"",'By Round'!F36)</f>
         <v/>
       </c>
       <c r="G39">
-        <f>IF(ISBLANK('By Round'!G10),"",'By Round'!G10)</f>
+        <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
         <v/>
       </c>
       <c r="H39">
-        <f>IF(ISBLANK('By Round'!H10),"",'By Round'!H10)</f>
+        <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
         <v/>
       </c>
       <c r="I39">
-        <f>IF(ISBLANK('By Round'!I10),"",'By Round'!I10)</f>
+        <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
         <v/>
       </c>
       <c r="J39">
-        <f>IF(ISBLANK('By Round'!J10),"",'By Round'!J10)</f>
+        <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
         <v/>
       </c>
       <c r="K39">
-        <f>IF(ISBLANK('By Round'!K10),"",'By Round'!K10)</f>
+        <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
         <v/>
       </c>
       <c r="L39" s="12">
-        <f>SUM(Z39:AB39)</f>
+        <f>AVERAGE(Z39:AB39)</f>
         <v/>
       </c>
       <c r="M39" s="13">
-        <f>SUM(AC39:AE39)</f>
+        <f>AVERAGE(AC39:AE39)</f>
         <v/>
       </c>
       <c r="N39" s="8">
@@ -5589,51 +5589,51 @@
     </row>
     <row r="40">
       <c r="B40" s="11">
-        <f>'By Round'!A19</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C40" s="11">
-        <f>'By Round'!B23</f>
+        <f>'By Round'!B29</f>
         <v/>
       </c>
       <c r="D40" s="11">
-        <f>'By Round'!C23</f>
+        <f>'By Round'!C29</f>
         <v/>
       </c>
       <c r="E40" s="11">
-        <f>'By Round'!D23</f>
+        <f>'By Round'!D29</f>
         <v/>
       </c>
       <c r="F40" s="11">
-        <f>IF(ISBLANK('By Round'!F24),"",'By Round'!F24)</f>
+        <f>IF(ISBLANK('By Round'!F30),"",'By Round'!F30)</f>
         <v/>
       </c>
       <c r="G40">
-        <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
+        <f>IF(ISBLANK('By Round'!G30),"",'By Round'!G30)</f>
         <v/>
       </c>
       <c r="H40">
-        <f>IF(ISBLANK('By Round'!H24),"",'By Round'!H24)</f>
+        <f>IF(ISBLANK('By Round'!H30),"",'By Round'!H30)</f>
         <v/>
       </c>
       <c r="I40">
-        <f>IF(ISBLANK('By Round'!I24),"",'By Round'!I24)</f>
+        <f>IF(ISBLANK('By Round'!I30),"",'By Round'!I30)</f>
         <v/>
       </c>
       <c r="J40">
-        <f>IF(ISBLANK('By Round'!J24),"",'By Round'!J24)</f>
+        <f>IF(ISBLANK('By Round'!J30),"",'By Round'!J30)</f>
         <v/>
       </c>
       <c r="K40">
-        <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
+        <f>IF(ISBLANK('By Round'!K30),"",'By Round'!K30)</f>
         <v/>
       </c>
       <c r="L40" s="12">
-        <f>SUM(Z40:AB40)</f>
+        <f>AVERAGE(Z40:AB40)</f>
         <v/>
       </c>
       <c r="M40" s="13">
-        <f>SUM(AC40:AE40)</f>
+        <f>AVERAGE(AC40:AE40)</f>
         <v/>
       </c>
       <c r="N40" s="8">
@@ -5711,51 +5711,51 @@
     </row>
     <row r="41">
       <c r="B41" s="11">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A19</f>
         <v/>
       </c>
       <c r="C41" s="11">
-        <f>'By Round'!B29</f>
+        <f>'By Round'!B23</f>
         <v/>
       </c>
       <c r="D41" s="11">
-        <f>'By Round'!C29</f>
+        <f>'By Round'!C23</f>
         <v/>
       </c>
       <c r="E41" s="11">
-        <f>'By Round'!D29</f>
+        <f>'By Round'!D23</f>
         <v/>
       </c>
       <c r="F41" s="11">
-        <f>IF(ISBLANK('By Round'!F30),"",'By Round'!F30)</f>
+        <f>IF(ISBLANK('By Round'!F24),"",'By Round'!F24)</f>
         <v/>
       </c>
       <c r="G41">
-        <f>IF(ISBLANK('By Round'!G30),"",'By Round'!G30)</f>
+        <f>IF(ISBLANK('By Round'!G24),"",'By Round'!G24)</f>
         <v/>
       </c>
       <c r="H41">
-        <f>IF(ISBLANK('By Round'!H30),"",'By Round'!H30)</f>
+        <f>IF(ISBLANK('By Round'!H24),"",'By Round'!H24)</f>
         <v/>
       </c>
       <c r="I41">
-        <f>IF(ISBLANK('By Round'!I30),"",'By Round'!I30)</f>
+        <f>IF(ISBLANK('By Round'!I24),"",'By Round'!I24)</f>
         <v/>
       </c>
       <c r="J41">
-        <f>IF(ISBLANK('By Round'!J30),"",'By Round'!J30)</f>
+        <f>IF(ISBLANK('By Round'!J24),"",'By Round'!J24)</f>
         <v/>
       </c>
       <c r="K41">
-        <f>IF(ISBLANK('By Round'!K30),"",'By Round'!K30)</f>
+        <f>IF(ISBLANK('By Round'!K24),"",'By Round'!K24)</f>
         <v/>
       </c>
       <c r="L41" s="12">
-        <f>SUM(Z41:AB41)</f>
+        <f>AVERAGE(Z41:AB41)</f>
         <v/>
       </c>
       <c r="M41" s="13">
-        <f>SUM(AC41:AE41)</f>
+        <f>AVERAGE(AC41:AE41)</f>
         <v/>
       </c>
       <c r="N41" s="8">
@@ -5834,51 +5834,51 @@
     <row r="42">
       <c r="A42" s="15" t="n"/>
       <c r="B42" s="16">
-        <f>'By Round'!A35</f>
+        <f>'By Round'!A3</f>
         <v/>
       </c>
       <c r="C42" s="16">
-        <f>'By Round'!B35</f>
+        <f>'By Round'!B9</f>
         <v/>
       </c>
       <c r="D42" s="16">
-        <f>'By Round'!C35</f>
+        <f>'By Round'!C9</f>
         <v/>
       </c>
       <c r="E42" s="16">
-        <f>'By Round'!D35</f>
+        <f>'By Round'!D9</f>
         <v/>
       </c>
       <c r="F42" s="16">
-        <f>IF(ISBLANK('By Round'!F36),"",'By Round'!F36)</f>
+        <f>IF(ISBLANK('By Round'!F10),"",'By Round'!F10)</f>
         <v/>
       </c>
       <c r="G42" s="15">
-        <f>IF(ISBLANK('By Round'!G36),"",'By Round'!G36)</f>
+        <f>IF(ISBLANK('By Round'!G10),"",'By Round'!G10)</f>
         <v/>
       </c>
       <c r="H42" s="15">
-        <f>IF(ISBLANK('By Round'!H36),"",'By Round'!H36)</f>
+        <f>IF(ISBLANK('By Round'!H10),"",'By Round'!H10)</f>
         <v/>
       </c>
       <c r="I42" s="15">
-        <f>IF(ISBLANK('By Round'!I36),"",'By Round'!I36)</f>
+        <f>IF(ISBLANK('By Round'!I10),"",'By Round'!I10)</f>
         <v/>
       </c>
       <c r="J42" s="15">
-        <f>IF(ISBLANK('By Round'!J36),"",'By Round'!J36)</f>
+        <f>IF(ISBLANK('By Round'!J10),"",'By Round'!J10)</f>
         <v/>
       </c>
       <c r="K42" s="15">
-        <f>IF(ISBLANK('By Round'!K36),"",'By Round'!K36)</f>
+        <f>IF(ISBLANK('By Round'!K10),"",'By Round'!K10)</f>
         <v/>
       </c>
       <c r="L42" s="17">
-        <f>SUM(Z42:AB42)</f>
+        <f>AVERAGE(Z42:AB42)</f>
         <v/>
       </c>
       <c r="M42" s="18">
-        <f>SUM(AC42:AE42)</f>
+        <f>AVERAGE(AC42:AE42)</f>
         <v/>
       </c>
       <c r="N42" s="19">
@@ -5959,51 +5959,51 @@
         <v>11</v>
       </c>
       <c r="B43" s="11">
-        <f>'By Round'!A11</f>
+        <f>'By Round'!A43</f>
         <v/>
       </c>
       <c r="C43" s="11">
-        <f>'By Round'!B17</f>
+        <f>'By Round'!B43</f>
         <v/>
       </c>
       <c r="D43" s="11">
-        <f>'By Round'!C17</f>
+        <f>'By Round'!C43</f>
         <v/>
       </c>
       <c r="E43" s="11">
-        <f>'By Round'!D17</f>
+        <f>'By Round'!D43</f>
         <v/>
       </c>
       <c r="F43" s="11">
-        <f>IF(ISBLANK('By Round'!F17),"",'By Round'!F17)</f>
+        <f>IF(ISBLANK('By Round'!F43),"",'By Round'!F43)</f>
         <v/>
       </c>
       <c r="G43">
-        <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
+        <f>IF(ISBLANK('By Round'!G43),"",'By Round'!G43)</f>
         <v/>
       </c>
       <c r="H43">
-        <f>IF(ISBLANK('By Round'!H17),"",'By Round'!H17)</f>
+        <f>IF(ISBLANK('By Round'!H43),"",'By Round'!H43)</f>
         <v/>
       </c>
       <c r="I43">
-        <f>IF(ISBLANK('By Round'!I17),"",'By Round'!I17)</f>
+        <f>IF(ISBLANK('By Round'!I43),"",'By Round'!I43)</f>
         <v/>
       </c>
       <c r="J43">
-        <f>IF(ISBLANK('By Round'!J17),"",'By Round'!J17)</f>
+        <f>IF(ISBLANK('By Round'!J43),"",'By Round'!J43)</f>
         <v/>
       </c>
       <c r="K43">
-        <f>IF(ISBLANK('By Round'!K17),"",'By Round'!K17)</f>
+        <f>IF(ISBLANK('By Round'!K43),"",'By Round'!K43)</f>
         <v/>
       </c>
       <c r="L43" s="12">
-        <f>SUM(Z43:AB43)</f>
+        <f>AVERAGE(Z43:AB43)</f>
         <v/>
       </c>
       <c r="M43" s="13">
-        <f>SUM(AC43:AE43)</f>
+        <f>AVERAGE(AC43:AE43)</f>
         <v/>
       </c>
       <c r="N43" s="8">
@@ -6081,51 +6081,51 @@
     </row>
     <row r="44">
       <c r="B44" s="11">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A11</f>
         <v/>
       </c>
       <c r="C44" s="11">
-        <f>'By Round'!B31</f>
+        <f>'By Round'!B17</f>
         <v/>
       </c>
       <c r="D44" s="11">
-        <f>'By Round'!C31</f>
+        <f>'By Round'!C17</f>
         <v/>
       </c>
       <c r="E44" s="11">
-        <f>'By Round'!D31</f>
+        <f>'By Round'!D17</f>
         <v/>
       </c>
       <c r="F44" s="11">
-        <f>IF(ISBLANK('By Round'!F31),"",'By Round'!F31)</f>
+        <f>IF(ISBLANK('By Round'!F17),"",'By Round'!F17)</f>
         <v/>
       </c>
       <c r="G44">
-        <f>IF(ISBLANK('By Round'!G31),"",'By Round'!G31)</f>
+        <f>IF(ISBLANK('By Round'!G17),"",'By Round'!G17)</f>
         <v/>
       </c>
       <c r="H44">
-        <f>IF(ISBLANK('By Round'!H31),"",'By Round'!H31)</f>
+        <f>IF(ISBLANK('By Round'!H17),"",'By Round'!H17)</f>
         <v/>
       </c>
       <c r="I44">
-        <f>IF(ISBLANK('By Round'!I31),"",'By Round'!I31)</f>
+        <f>IF(ISBLANK('By Round'!I17),"",'By Round'!I17)</f>
         <v/>
       </c>
       <c r="J44">
-        <f>IF(ISBLANK('By Round'!J31),"",'By Round'!J31)</f>
+        <f>IF(ISBLANK('By Round'!J17),"",'By Round'!J17)</f>
         <v/>
       </c>
       <c r="K44">
-        <f>IF(ISBLANK('By Round'!K31),"",'By Round'!K31)</f>
+        <f>IF(ISBLANK('By Round'!K17),"",'By Round'!K17)</f>
         <v/>
       </c>
       <c r="L44" s="12">
-        <f>SUM(Z44:AB44)</f>
+        <f>AVERAGE(Z44:AB44)</f>
         <v/>
       </c>
       <c r="M44" s="13">
-        <f>SUM(AC44:AE44)</f>
+        <f>AVERAGE(AC44:AE44)</f>
         <v/>
       </c>
       <c r="N44" s="8">
@@ -6243,11 +6243,11 @@
         <v/>
       </c>
       <c r="L45" s="12">
-        <f>SUM(Z45:AB45)</f>
+        <f>AVERAGE(Z45:AB45)</f>
         <v/>
       </c>
       <c r="M45" s="13">
-        <f>SUM(AC45:AE45)</f>
+        <f>AVERAGE(AC45:AE45)</f>
         <v/>
       </c>
       <c r="N45" s="8">
@@ -6326,51 +6326,51 @@
     <row r="46">
       <c r="A46" s="15" t="n"/>
       <c r="B46" s="16">
-        <f>'By Round'!A43</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C46" s="16">
-        <f>'By Round'!B43</f>
+        <f>'By Round'!B31</f>
         <v/>
       </c>
       <c r="D46" s="16">
-        <f>'By Round'!C43</f>
+        <f>'By Round'!C31</f>
         <v/>
       </c>
       <c r="E46" s="16">
-        <f>'By Round'!D43</f>
+        <f>'By Round'!D31</f>
         <v/>
       </c>
       <c r="F46" s="16">
-        <f>IF(ISBLANK('By Round'!F43),"",'By Round'!F43)</f>
+        <f>IF(ISBLANK('By Round'!F31),"",'By Round'!F31)</f>
         <v/>
       </c>
       <c r="G46" s="15">
-        <f>IF(ISBLANK('By Round'!G43),"",'By Round'!G43)</f>
+        <f>IF(ISBLANK('By Round'!G31),"",'By Round'!G31)</f>
         <v/>
       </c>
       <c r="H46" s="15">
-        <f>IF(ISBLANK('By Round'!H43),"",'By Round'!H43)</f>
+        <f>IF(ISBLANK('By Round'!H31),"",'By Round'!H31)</f>
         <v/>
       </c>
       <c r="I46" s="15">
-        <f>IF(ISBLANK('By Round'!I43),"",'By Round'!I43)</f>
+        <f>IF(ISBLANK('By Round'!I31),"",'By Round'!I31)</f>
         <v/>
       </c>
       <c r="J46" s="15">
-        <f>IF(ISBLANK('By Round'!J43),"",'By Round'!J43)</f>
+        <f>IF(ISBLANK('By Round'!J31),"",'By Round'!J31)</f>
         <v/>
       </c>
       <c r="K46" s="15">
-        <f>IF(ISBLANK('By Round'!K43),"",'By Round'!K43)</f>
+        <f>IF(ISBLANK('By Round'!K31),"",'By Round'!K31)</f>
         <v/>
       </c>
       <c r="L46" s="17">
-        <f>SUM(Z46:AB46)</f>
+        <f>AVERAGE(Z46:AB46)</f>
         <v/>
       </c>
       <c r="M46" s="18">
-        <f>SUM(AC46:AE46)</f>
+        <f>AVERAGE(AC46:AE46)</f>
         <v/>
       </c>
       <c r="N46" s="19">
@@ -6451,51 +6451,51 @@
         <v>12</v>
       </c>
       <c r="B47" s="11">
-        <f>'By Round'!A11</f>
+        <f>'By Round'!A43</f>
         <v/>
       </c>
       <c r="C47" s="11">
-        <f>'By Round'!B17</f>
+        <f>'By Round'!B43</f>
         <v/>
       </c>
       <c r="D47" s="11">
-        <f>'By Round'!C17</f>
+        <f>'By Round'!C43</f>
         <v/>
       </c>
       <c r="E47" s="11">
-        <f>'By Round'!D17</f>
+        <f>'By Round'!D43</f>
         <v/>
       </c>
       <c r="F47" s="11">
-        <f>IF(ISBLANK('By Round'!F18),"",'By Round'!F18)</f>
+        <f>IF(ISBLANK('By Round'!F44),"",'By Round'!F44)</f>
         <v/>
       </c>
       <c r="G47">
-        <f>IF(ISBLANK('By Round'!G18),"",'By Round'!G18)</f>
+        <f>IF(ISBLANK('By Round'!G44),"",'By Round'!G44)</f>
         <v/>
       </c>
       <c r="H47">
-        <f>IF(ISBLANK('By Round'!H18),"",'By Round'!H18)</f>
+        <f>IF(ISBLANK('By Round'!H44),"",'By Round'!H44)</f>
         <v/>
       </c>
       <c r="I47">
-        <f>IF(ISBLANK('By Round'!I18),"",'By Round'!I18)</f>
+        <f>IF(ISBLANK('By Round'!I44),"",'By Round'!I44)</f>
         <v/>
       </c>
       <c r="J47">
-        <f>IF(ISBLANK('By Round'!J18),"",'By Round'!J18)</f>
+        <f>IF(ISBLANK('By Round'!J44),"",'By Round'!J44)</f>
         <v/>
       </c>
       <c r="K47">
-        <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
+        <f>IF(ISBLANK('By Round'!K44),"",'By Round'!K44)</f>
         <v/>
       </c>
       <c r="L47" s="12">
-        <f>SUM(Z47:AB47)</f>
+        <f>AVERAGE(Z47:AB47)</f>
         <v/>
       </c>
       <c r="M47" s="13">
-        <f>SUM(AC47:AE47)</f>
+        <f>AVERAGE(AC47:AE47)</f>
         <v/>
       </c>
       <c r="N47" s="8">
@@ -6573,51 +6573,51 @@
     </row>
     <row r="48">
       <c r="B48" s="11">
-        <f>'By Round'!A27</f>
+        <f>'By Round'!A11</f>
         <v/>
       </c>
       <c r="C48" s="11">
-        <f>'By Round'!B31</f>
+        <f>'By Round'!B17</f>
         <v/>
       </c>
       <c r="D48" s="11">
-        <f>'By Round'!C31</f>
+        <f>'By Round'!C17</f>
         <v/>
       </c>
       <c r="E48" s="11">
-        <f>'By Round'!D31</f>
+        <f>'By Round'!D17</f>
         <v/>
       </c>
       <c r="F48" s="11">
-        <f>IF(ISBLANK('By Round'!F32),"",'By Round'!F32)</f>
+        <f>IF(ISBLANK('By Round'!F18),"",'By Round'!F18)</f>
         <v/>
       </c>
       <c r="G48">
-        <f>IF(ISBLANK('By Round'!G32),"",'By Round'!G32)</f>
+        <f>IF(ISBLANK('By Round'!G18),"",'By Round'!G18)</f>
         <v/>
       </c>
       <c r="H48">
-        <f>IF(ISBLANK('By Round'!H32),"",'By Round'!H32)</f>
+        <f>IF(ISBLANK('By Round'!H18),"",'By Round'!H18)</f>
         <v/>
       </c>
       <c r="I48">
-        <f>IF(ISBLANK('By Round'!I32),"",'By Round'!I32)</f>
+        <f>IF(ISBLANK('By Round'!I18),"",'By Round'!I18)</f>
         <v/>
       </c>
       <c r="J48">
-        <f>IF(ISBLANK('By Round'!J32),"",'By Round'!J32)</f>
+        <f>IF(ISBLANK('By Round'!J18),"",'By Round'!J18)</f>
         <v/>
       </c>
       <c r="K48">
-        <f>IF(ISBLANK('By Round'!K32),"",'By Round'!K32)</f>
+        <f>IF(ISBLANK('By Round'!K18),"",'By Round'!K18)</f>
         <v/>
       </c>
       <c r="L48" s="12">
-        <f>SUM(Z48:AB48)</f>
+        <f>AVERAGE(Z48:AB48)</f>
         <v/>
       </c>
       <c r="M48" s="13">
-        <f>SUM(AC48:AE48)</f>
+        <f>AVERAGE(AC48:AE48)</f>
         <v/>
       </c>
       <c r="N48" s="8">
@@ -6735,11 +6735,11 @@
         <v/>
       </c>
       <c r="L49" s="12">
-        <f>SUM(Z49:AB49)</f>
+        <f>AVERAGE(Z49:AB49)</f>
         <v/>
       </c>
       <c r="M49" s="13">
-        <f>SUM(AC49:AE49)</f>
+        <f>AVERAGE(AC49:AE49)</f>
         <v/>
       </c>
       <c r="N49" s="8">
@@ -6818,51 +6818,51 @@
     <row r="50">
       <c r="A50" s="15" t="n"/>
       <c r="B50" s="16">
-        <f>'By Round'!A43</f>
+        <f>'By Round'!A27</f>
         <v/>
       </c>
       <c r="C50" s="16">
-        <f>'By Round'!B43</f>
+        <f>'By Round'!B31</f>
         <v/>
       </c>
       <c r="D50" s="16">
-        <f>'By Round'!C43</f>
+        <f>'By Round'!C31</f>
         <v/>
       </c>
       <c r="E50" s="16">
-        <f>'By Round'!D43</f>
+        <f>'By Round'!D31</f>
         <v/>
       </c>
       <c r="F50" s="16">
-        <f>IF(ISBLANK('By Round'!F44),"",'By Round'!F44)</f>
+        <f>IF(ISBLANK('By Round'!F32),"",'By Round'!F32)</f>
         <v/>
       </c>
       <c r="G50" s="15">
-        <f>IF(ISBLANK('By Round'!G44),"",'By Round'!G44)</f>
+        <f>IF(ISBLANK('By Round'!G32),"",'By Round'!G32)</f>
         <v/>
       </c>
       <c r="H50" s="15">
-        <f>IF(ISBLANK('By Round'!H44),"",'By Round'!H44)</f>
+        <f>IF(ISBLANK('By Round'!H32),"",'By Round'!H32)</f>
         <v/>
       </c>
       <c r="I50" s="15">
-        <f>IF(ISBLANK('By Round'!I44),"",'By Round'!I44)</f>
+        <f>IF(ISBLANK('By Round'!I32),"",'By Round'!I32)</f>
         <v/>
       </c>
       <c r="J50" s="15">
-        <f>IF(ISBLANK('By Round'!J44),"",'By Round'!J44)</f>
+        <f>IF(ISBLANK('By Round'!J32),"",'By Round'!J32)</f>
         <v/>
       </c>
       <c r="K50" s="15">
-        <f>IF(ISBLANK('By Round'!K44),"",'By Round'!K44)</f>
+        <f>IF(ISBLANK('By Round'!K32),"",'By Round'!K32)</f>
         <v/>
       </c>
       <c r="L50" s="17">
-        <f>SUM(Z50:AB50)</f>
+        <f>AVERAGE(Z50:AB50)</f>
         <v/>
       </c>
       <c r="M50" s="18">
-        <f>SUM(AC50:AE50)</f>
+        <f>AVERAGE(AC50:AE50)</f>
         <v/>
       </c>
       <c r="N50" s="19">
@@ -6943,51 +6943,51 @@
         <v>13</v>
       </c>
       <c r="B51" s="11">
-        <f>'By Round'!A19</f>
+        <f>'By Round'!A51</f>
         <v/>
       </c>
       <c r="C51" s="11">
-        <f>'By Round'!B25</f>
+        <f>'By Round'!B51</f>
         <v/>
       </c>
       <c r="D51" s="11">
-        <f>'By Round'!C25</f>
+        <f>'By Round'!C51</f>
         <v/>
       </c>
       <c r="E51" s="11">
-        <f>'By Round'!D25</f>
+        <f>'By Round'!D51</f>
         <v/>
       </c>
       <c r="F51" s="11">
-        <f>IF(ISBLANK('By Round'!F25),"",'By Round'!F25)</f>
+        <f>IF(ISBLANK('By Round'!F51),"",'By Round'!F51)</f>
         <v/>
       </c>
       <c r="G51">
-        <f>IF(ISBLANK('By Round'!G25),"",'By Round'!G25)</f>
+        <f>IF(ISBLANK('By Round'!G51),"",'By Round'!G51)</f>
         <v/>
       </c>
       <c r="H51">
-        <f>IF(ISBLANK('By Round'!H25),"",'By Round'!H25)</f>
+        <f>IF(ISBLANK('By Round'!H51),"",'By Round'!H51)</f>
         <v/>
       </c>
       <c r="I51">
-        <f>IF(ISBLANK('By Round'!I25),"",'By Round'!I25)</f>
+        <f>IF(ISBLANK('By Round'!I51),"",'By Round'!I51)</f>
         <v/>
       </c>
       <c r="J51">
-        <f>IF(ISBLANK('By Round'!J25),"",'By Round'!J25)</f>
+        <f>IF(ISBLANK('By Round'!J51),"",'By Round'!J51)</f>
         <v/>
       </c>
       <c r="K51">
-        <f>IF(ISBLANK('By Round'!K25),"",'By Round'!K25)</f>
+        <f>IF(ISBLANK('By Round'!K51),"",'By Round'!K51)</f>
         <v/>
       </c>
       <c r="L51" s="12">
-        <f>SUM(Z51:AB51)</f>
+        <f>AVERAGE(Z51:AB51)</f>
         <v/>
       </c>
       <c r="M51" s="13">
-        <f>SUM(AC51:AE51)</f>
+        <f>AVERAGE(AC51:AE51)</f>
         <v/>
       </c>
       <c r="N51" s="8">
@@ -7105,11 +7105,11 @@
         <v/>
       </c>
       <c r="L52" s="12">
-        <f>SUM(Z52:AB52)</f>
+        <f>AVERAGE(Z52:AB52)</f>
         <v/>
       </c>
       <c r="M52" s="13">
-        <f>SUM(AC52:AE52)</f>
+        <f>AVERAGE(AC52:AE52)</f>
         <v/>
       </c>
       <c r="N52" s="8">
@@ -7187,51 +7187,51 @@
     </row>
     <row r="53">
       <c r="B53" s="11">
-        <f>'By Round'!A43</f>
+        <f>'By Round'!A19</f>
         <v/>
       </c>
       <c r="C53" s="11">
-        <f>'By Round'!B45</f>
+        <f>'By Round'!B25</f>
         <v/>
       </c>
       <c r="D53" s="11">
-        <f>'By Round'!C45</f>
+        <f>'By Round'!C25</f>
         <v/>
       </c>
       <c r="E53" s="11">
-        <f>'By Round'!D45</f>
+        <f>'By Round'!D25</f>
         <v/>
       </c>
       <c r="F53" s="11">
-        <f>IF(ISBLANK('By Round'!F45),"",'By Round'!F45)</f>
+        <f>IF(ISBLANK('By Round'!F25),"",'By Round'!F25)</f>
         <v/>
       </c>
       <c r="G53">
-        <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
+        <f>IF(ISBLANK('By Round'!G25),"",'By Round'!G25)</f>
         <v/>
       </c>
       <c r="H53">
-        <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
+        <f>IF(ISBLANK('By Round'!H25),"",'By Round'!H25)</f>
         <v/>
       </c>
       <c r="I53">
-        <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
+        <f>IF(ISBLANK('By Round'!I25),"",'By Round'!I25)</f>
         <v/>
       </c>
       <c r="J53">
-        <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
+        <f>IF(ISBLANK('By Round'!J25),"",'By Round'!J25)</f>
         <v/>
       </c>
       <c r="K53">
-        <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
+        <f>IF(ISBLANK('By Round'!K25),"",'By Round'!K25)</f>
         <v/>
       </c>
       <c r="L53" s="12">
-        <f>SUM(Z53:AB53)</f>
+        <f>AVERAGE(Z53:AB53)</f>
         <v/>
       </c>
       <c r="M53" s="13">
-        <f>SUM(AC53:AE53)</f>
+        <f>AVERAGE(AC53:AE53)</f>
         <v/>
       </c>
       <c r="N53" s="8">
@@ -7310,51 +7310,51 @@
     <row r="54">
       <c r="A54" s="15" t="n"/>
       <c r="B54" s="16">
-        <f>'By Round'!A51</f>
+        <f>'By Round'!A43</f>
         <v/>
       </c>
       <c r="C54" s="16">
-        <f>'By Round'!B51</f>
+        <f>'By Round'!B45</f>
         <v/>
       </c>
       <c r="D54" s="16">
-        <f>'By Round'!C51</f>
+        <f>'By Round'!C45</f>
         <v/>
       </c>
       <c r="E54" s="16">
-        <f>'By Round'!D51</f>
+        <f>'By Round'!D45</f>
         <v/>
       </c>
       <c r="F54" s="16">
-        <f>IF(ISBLANK('By Round'!F51),"",'By Round'!F51)</f>
+        <f>IF(ISBLANK('By Round'!F45),"",'By Round'!F45)</f>
         <v/>
       </c>
       <c r="G54" s="15">
-        <f>IF(ISBLANK('By Round'!G51),"",'By Round'!G51)</f>
+        <f>IF(ISBLANK('By Round'!G45),"",'By Round'!G45)</f>
         <v/>
       </c>
       <c r="H54" s="15">
-        <f>IF(ISBLANK('By Round'!H51),"",'By Round'!H51)</f>
+        <f>IF(ISBLANK('By Round'!H45),"",'By Round'!H45)</f>
         <v/>
       </c>
       <c r="I54" s="15">
-        <f>IF(ISBLANK('By Round'!I51),"",'By Round'!I51)</f>
+        <f>IF(ISBLANK('By Round'!I45),"",'By Round'!I45)</f>
         <v/>
       </c>
       <c r="J54" s="15">
-        <f>IF(ISBLANK('By Round'!J51),"",'By Round'!J51)</f>
+        <f>IF(ISBLANK('By Round'!J45),"",'By Round'!J45)</f>
         <v/>
       </c>
       <c r="K54" s="15">
-        <f>IF(ISBLANK('By Round'!K51),"",'By Round'!K51)</f>
+        <f>IF(ISBLANK('By Round'!K45),"",'By Round'!K45)</f>
         <v/>
       </c>
       <c r="L54" s="17">
-        <f>SUM(Z54:AB54)</f>
+        <f>AVERAGE(Z54:AB54)</f>
         <v/>
       </c>
       <c r="M54" s="18">
-        <f>SUM(AC54:AE54)</f>
+        <f>AVERAGE(AC54:AE54)</f>
         <v/>
       </c>
       <c r="N54" s="19">
@@ -7435,51 +7435,51 @@
         <v>14</v>
       </c>
       <c r="B55" s="11">
-        <f>'By Round'!A19</f>
+        <f>'By Round'!A51</f>
         <v/>
       </c>
       <c r="C55" s="11">
-        <f>'By Round'!B25</f>
+        <f>'By Round'!B51</f>
         <v/>
       </c>
       <c r="D55" s="11">
-        <f>'By Round'!C25</f>
+        <f>'By Round'!C51</f>
         <v/>
       </c>
       <c r="E55" s="11">
-        <f>'By Round'!D25</f>
+        <f>'By Round'!D51</f>
         <v/>
       </c>
       <c r="F55" s="11">
-        <f>IF(ISBLANK('By Round'!F26),"",'By Round'!F26)</f>
+        <f>IF(ISBLANK('By Round'!F52),"",'By Round'!F52)</f>
         <v/>
       </c>
       <c r="G55">
-        <f>IF(ISBLANK('By Round'!G26),"",'By Round'!G26)</f>
+        <f>IF(ISBLANK('By Round'!G52),"",'By Round'!G52)</f>
         <v/>
       </c>
       <c r="H55">
-        <f>IF(ISBLANK('By Round'!H26),"",'By Round'!H26)</f>
+        <f>IF(ISBLANK('By Round'!H52),"",'By Round'!H52)</f>
         <v/>
       </c>
       <c r="I55">
-        <f>IF(ISBLANK('By Round'!I26),"",'By Round'!I26)</f>
+        <f>IF(ISBLANK('By Round'!I52),"",'By Round'!I52)</f>
         <v/>
       </c>
       <c r="J55">
-        <f>IF(ISBLANK('By Round'!J26),"",'By Round'!J26)</f>
+        <f>IF(ISBLANK('By Round'!J52),"",'By Round'!J52)</f>
         <v/>
       </c>
       <c r="K55">
-        <f>IF(ISBLANK('By Round'!K26),"",'By Round'!K26)</f>
+        <f>IF(ISBLANK('By Round'!K52),"",'By Round'!K52)</f>
         <v/>
       </c>
       <c r="L55" s="12">
-        <f>SUM(Z55:AB55)</f>
+        <f>AVERAGE(Z55:AB55)</f>
         <v/>
       </c>
       <c r="M55" s="13">
-        <f>SUM(AC55:AE55)</f>
+        <f>AVERAGE(AC55:AE55)</f>
         <v/>
       </c>
       <c r="N55" s="8">
@@ -7597,11 +7597,11 @@
         <v/>
       </c>
       <c r="L56" s="12">
-        <f>SUM(Z56:AB56)</f>
+        <f>AVERAGE(Z56:AB56)</f>
         <v/>
       </c>
       <c r="M56" s="13">
-        <f>SUM(AC56:AE56)</f>
+        <f>AVERAGE(AC56:AE56)</f>
         <v/>
       </c>
       <c r="N56" s="8">
@@ -7679,51 +7679,51 @@
     </row>
     <row r="57">
       <c r="B57" s="11">
-        <f>'By Round'!A43</f>
+        <f>'By Round'!A19</f>
         <v/>
       </c>
       <c r="C57" s="11">
-        <f>'By Round'!B45</f>
+        <f>'By Round'!B25</f>
         <v/>
       </c>
       <c r="D57" s="11">
-        <f>'By Round'!C45</f>
+        <f>'By Round'!C25</f>
         <v/>
       </c>
       <c r="E57" s="11">
-        <f>'By Round'!D45</f>
+        <f>'By Round'!D25</f>
         <v/>
       </c>
       <c r="F57" s="11">
-        <f>IF(ISBLANK('By Round'!F46),"",'By Round'!F46)</f>
+        <f>IF(ISBLANK('By Round'!F26),"",'By Round'!F26)</f>
         <v/>
       </c>
       <c r="G57">
-        <f>IF(ISBLANK('By Round'!G46),"",'By Round'!G46)</f>
+        <f>IF(ISBLANK('By Round'!G26),"",'By Round'!G26)</f>
         <v/>
       </c>
       <c r="H57">
-        <f>IF(ISBLANK('By Round'!H46),"",'By Round'!H46)</f>
+        <f>IF(ISBLANK('By Round'!H26),"",'By Round'!H26)</f>
         <v/>
       </c>
       <c r="I57">
-        <f>IF(ISBLANK('By Round'!I46),"",'By Round'!I46)</f>
+        <f>IF(ISBLANK('By Round'!I26),"",'By Round'!I26)</f>
         <v/>
       </c>
       <c r="J57">
-        <f>IF(ISBLANK('By Round'!J46),"",'By Round'!J46)</f>
+        <f>IF(ISBLANK('By Round'!J26),"",'By Round'!J26)</f>
         <v/>
       </c>
       <c r="K57">
-        <f>IF(ISBLANK('By Round'!K46),"",'By Round'!K46)</f>
+        <f>IF(ISBLANK('By Round'!K26),"",'By Round'!K26)</f>
         <v/>
       </c>
       <c r="L57" s="12">
-        <f>SUM(Z57:AB57)</f>
+        <f>AVERAGE(Z57:AB57)</f>
         <v/>
       </c>
       <c r="M57" s="13">
-        <f>SUM(AC57:AE57)</f>
+        <f>AVERAGE(AC57:AE57)</f>
         <v/>
       </c>
       <c r="N57" s="8">
@@ -7802,51 +7802,51 @@
     <row r="58">
       <c r="A58" s="15" t="n"/>
       <c r="B58" s="16">
-        <f>'By Round'!A51</f>
+        <f>'By Round'!A43</f>
         <v/>
       </c>
       <c r="C58" s="16">
-        <f>'By Round'!B51</f>
+        <f>'By Round'!B45</f>
         <v/>
       </c>
       <c r="D58" s="16">
-        <f>'By Round'!C51</f>
+        <f>'By Round'!C45</f>
         <v/>
       </c>
       <c r="E58" s="16">
-        <f>'By Round'!D51</f>
+        <f>'By Round'!D45</f>
         <v/>
       </c>
       <c r="F58" s="16">
-        <f>IF(ISBLANK('By Round'!F52),"",'By Round'!F52)</f>
+        <f>IF(ISBLANK('By Round'!F46),"",'By Round'!F46)</f>
         <v/>
       </c>
       <c r="G58" s="15">
-        <f>IF(ISBLANK('By Round'!G52),"",'By Round'!G52)</f>
+        <f>IF(ISBLANK('By Round'!G46),"",'By Round'!G46)</f>
         <v/>
       </c>
       <c r="H58" s="15">
-        <f>IF(ISBLANK('By Round'!H52),"",'By Round'!H52)</f>
+        <f>IF(ISBLANK('By Round'!H46),"",'By Round'!H46)</f>
         <v/>
       </c>
       <c r="I58" s="15">
-        <f>IF(ISBLANK('By Round'!I52),"",'By Round'!I52)</f>
+        <f>IF(ISBLANK('By Round'!I46),"",'By Round'!I46)</f>
         <v/>
       </c>
       <c r="J58" s="15">
-        <f>IF(ISBLANK('By Round'!J52),"",'By Round'!J52)</f>
+        <f>IF(ISBLANK('By Round'!J46),"",'By Round'!J46)</f>
         <v/>
       </c>
       <c r="K58" s="15">
-        <f>IF(ISBLANK('By Round'!K52),"",'By Round'!K52)</f>
+        <f>IF(ISBLANK('By Round'!K46),"",'By Round'!K46)</f>
         <v/>
       </c>
       <c r="L58" s="17">
-        <f>SUM(Z58:AB58)</f>
+        <f>AVERAGE(Z58:AB58)</f>
         <v/>
       </c>
       <c r="M58" s="18">
-        <f>SUM(AC58:AE58)</f>
+        <f>AVERAGE(AC58:AE58)</f>
         <v/>
       </c>
       <c r="N58" s="19">
@@ -10360,7 +10360,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="22" t="n">
         <v>90</v>
@@ -10383,7 +10383,7 @@
     </row>
     <row r="25">
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="22" t="n">
         <v>110</v>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="26">
       <c r="B26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="22" t="n">
         <v>130</v>
@@ -10429,7 +10429,7 @@
     </row>
     <row r="27">
       <c r="B27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="22" t="n">
         <v>150</v>
@@ -10452,7 +10452,7 @@
     </row>
     <row r="28">
       <c r="B28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="22" t="n">
         <v>170</v>
@@ -10475,7 +10475,7 @@
     </row>
     <row r="29">
       <c r="B29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" s="22" t="n">
         <v>190</v>
@@ -10503,7 +10503,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="22" t="n">
         <v>110</v>
@@ -10526,7 +10526,7 @@
     </row>
     <row r="31">
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="22" t="n">
         <v>140</v>
@@ -10549,7 +10549,7 @@
     </row>
     <row r="32">
       <c r="B32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="22" t="n">
         <v>170</v>
@@ -10572,7 +10572,7 @@
     </row>
     <row r="33">
       <c r="B33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="22" t="n">
         <v>200</v>
@@ -10595,7 +10595,7 @@
     </row>
     <row r="34">
       <c r="B34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="22" t="n">
         <v>230</v>
@@ -10618,7 +10618,7 @@
     </row>
     <row r="35">
       <c r="B35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="22" t="n">
         <v>260</v>
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="22" t="n">
         <v>120</v>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="37">
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="22" t="n">
         <v>150</v>
@@ -10692,7 +10692,7 @@
     </row>
     <row r="38">
       <c r="B38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38" s="22" t="n">
         <v>180</v>
@@ -10715,7 +10715,7 @@
     </row>
     <row r="39">
       <c r="B39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="22" t="n">
         <v>210</v>
@@ -10738,7 +10738,7 @@
     </row>
     <row r="40">
       <c r="B40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="22" t="n">
         <v>240</v>
@@ -10761,7 +10761,7 @@
     </row>
     <row r="41">
       <c r="B41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="22" t="n">
         <v>270</v>
@@ -10789,7 +10789,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" s="22" t="n">
         <v>110</v>
@@ -10812,7 +10812,7 @@
     </row>
     <row r="43">
       <c r="B43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" s="22" t="n">
         <v>130</v>
@@ -10835,7 +10835,7 @@
     </row>
     <row r="44">
       <c r="B44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C44" s="22" t="n">
         <v>150</v>
@@ -10858,7 +10858,7 @@
     </row>
     <row r="45">
       <c r="B45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C45" s="22" t="n">
         <v>170</v>
@@ -10881,7 +10881,7 @@
     </row>
     <row r="46">
       <c r="B46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" s="22" t="n">
         <v>190</v>
@@ -10909,7 +10909,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" s="22" t="n">
         <v>140</v>
@@ -10932,7 +10932,7 @@
     </row>
     <row r="48">
       <c r="B48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48" s="22" t="n">
         <v>170</v>
@@ -10955,7 +10955,7 @@
     </row>
     <row r="49">
       <c r="B49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49" s="22" t="n">
         <v>200</v>
@@ -10978,7 +10978,7 @@
     </row>
     <row r="50">
       <c r="B50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C50" s="22" t="n">
         <v>230</v>
@@ -11001,7 +11001,7 @@
     </row>
     <row r="51">
       <c r="B51" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" s="22" t="n">
         <v>260</v>
@@ -11029,7 +11029,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" s="22" t="n">
         <v>400</v>
@@ -11052,7 +11052,7 @@
     </row>
     <row r="53">
       <c r="B53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" s="22" t="n">
         <v>430</v>
@@ -11075,7 +11075,7 @@
     </row>
     <row r="54">
       <c r="B54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C54" s="22" t="n">
         <v>460</v>
@@ -11098,7 +11098,7 @@
     </row>
     <row r="55">
       <c r="B55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C55" s="22" t="n">
         <v>490</v>
@@ -11121,7 +11121,7 @@
     </row>
     <row r="56">
       <c r="B56" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" s="22" t="n">
         <v>520</v>
@@ -11149,7 +11149,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="22" t="n">
         <v>130</v>
@@ -11172,7 +11172,7 @@
     </row>
     <row r="58">
       <c r="B58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C58" s="22" t="n">
         <v>150</v>
@@ -11195,7 +11195,7 @@
     </row>
     <row r="59">
       <c r="B59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C59" s="22" t="n">
         <v>170</v>
@@ -11218,7 +11218,7 @@
     </row>
     <row r="60">
       <c r="B60" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C60" s="22" t="n">
         <v>190</v>
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C61" s="22" t="n">
         <v>420</v>
@@ -11269,7 +11269,7 @@
     </row>
     <row r="62">
       <c r="B62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C62" s="22" t="n">
         <v>450</v>
@@ -11292,7 +11292,7 @@
     </row>
     <row r="63">
       <c r="B63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C63" s="22" t="n">
         <v>480</v>
@@ -11315,7 +11315,7 @@
     </row>
     <row r="64">
       <c r="B64" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C64" s="22" t="n">
         <v>510</v>
@@ -11343,7 +11343,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" s="22" t="n">
         <v>430</v>
@@ -11366,7 +11366,7 @@
     </row>
     <row r="66">
       <c r="B66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C66" s="22" t="n">
         <v>460</v>
@@ -11389,7 +11389,7 @@
     </row>
     <row r="67">
       <c r="B67" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C67" s="22" t="n">
         <v>490</v>
@@ -11412,7 +11412,7 @@
     </row>
     <row r="68">
       <c r="B68" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C68" s="22" t="n">
         <v>520</v>
@@ -11440,7 +11440,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C69" s="22" t="n">
         <v>400</v>
@@ -11463,7 +11463,7 @@
     </row>
     <row r="70">
       <c r="B70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C70" s="22" t="n">
         <v>420</v>
@@ -11486,7 +11486,7 @@
     </row>
     <row r="71">
       <c r="B71" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C71" s="22" t="n">
         <v>440</v>
@@ -11514,7 +11514,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C72" s="22" t="n">
         <v>450</v>
@@ -11537,7 +11537,7 @@
     </row>
     <row r="73">
       <c r="B73" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C73" s="22" t="n">
         <v>480</v>
@@ -11560,7 +11560,7 @@
     </row>
     <row r="74">
       <c r="B74" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C74" s="22" t="n">
         <v>510</v>
@@ -11588,7 +11588,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C75" s="22" t="n">
         <v>460</v>
@@ -11611,7 +11611,7 @@
     </row>
     <row r="76">
       <c r="B76" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C76" s="22" t="n">
         <v>490</v>
@@ -11634,7 +11634,7 @@
     </row>
     <row r="77">
       <c r="B77" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C77" s="22" t="n">
         <v>520</v>
@@ -11662,7 +11662,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C78" s="22" t="n">
         <v>920</v>
@@ -11685,7 +11685,7 @@
     </row>
     <row r="79">
       <c r="B79" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C79" s="22" t="n">
         <v>940</v>
@@ -11713,7 +11713,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C80" s="22" t="n">
         <v>980</v>
@@ -11736,7 +11736,7 @@
     </row>
     <row r="81">
       <c r="B81" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C81" s="22" t="n">
         <v>1010</v>
@@ -11764,7 +11764,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C82" s="22" t="n">
         <v>990</v>
@@ -11787,7 +11787,7 @@
     </row>
     <row r="83">
       <c r="B83" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C83" s="22" t="n">
         <v>1020</v>
@@ -11815,7 +11815,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C84" s="22" t="n">
         <v>1440</v>
@@ -11843,7 +11843,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C85" s="22" t="n">
         <v>1510</v>
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C86" s="22" t="n">
         <v>1520</v>

--- a/howell7.xlsx
+++ b/howell7.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 11, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 12, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 23</t>
+          <t>Name 41</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 20</t>
+          <t>Name 39</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 72</t>
+          <t>Name 63</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 12</t>
+          <t>Name 53</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 79</t>
+          <t>Name 46</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 71</t>
+          <t>Name 55</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 27</t>
+          <t>Name 20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 32</t>
+          <t>Name 81</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 90</t>
+          <t>Name 19</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 49</t>
+          <t>Name 69</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 81</t>
+          <t>Name 61</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 54</t>
+          <t>Name 68</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 79</t>
+          <t>Name 54</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 33</t>
+          <t>Name 76</t>
         </is>
       </c>
       <c r="D16" s="4">

--- a/howell7.xlsx
+++ b/howell7.xlsx
@@ -511,7 +511,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>For public domain. No rights reserved. Generated on Feb 13, 2026.</t>
+          <t>For public domain. No rights reserved. Generated on Feb 19, 2026.</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Name 43</t>
+          <t>Name 64</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Name 80</t>
+          <t>Name 47</t>
         </is>
       </c>
       <c r="D10" s="4">
@@ -618,12 +618,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Name 89</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Name 41</t>
+          <t>Name 36</t>
         </is>
       </c>
       <c r="D11" s="4">
@@ -641,12 +641,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Name 24</t>
+          <t>Name 42</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Name 86</t>
+          <t>Name 82</t>
         </is>
       </c>
       <c r="D12" s="4">
@@ -664,12 +664,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Name 14</t>
+          <t>Name 90</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Name 85</t>
+          <t>Name 66</t>
         </is>
       </c>
       <c r="D13" s="4">
@@ -687,12 +687,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Name 23</t>
+          <t>Name 43</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Name 21</t>
+          <t>Name 67</t>
         </is>
       </c>
       <c r="D14" s="4">
@@ -710,12 +710,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Name 60</t>
+          <t>Name 72</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Name 23</t>
+          <t>Name 24</t>
         </is>
       </c>
       <c r="D15" s="4">
@@ -733,12 +733,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Name 76</t>
+          <t>Name 30</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Name 84</t>
+          <t>Name 39</t>
         </is>
       </c>
       <c r="D16" s="4">
